--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19319438934326</t>
+    <t xml:space="preserve">8.15975475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19319534301758</t>
   </si>
   <si>
     <t xml:space="preserve">8.10122966766357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10959148406982</t>
+    <t xml:space="preserve">8.10959243774414</t>
   </si>
   <si>
     <t xml:space="preserve">8.06778907775879</t>
@@ -62,37 +62,37 @@
     <t xml:space="preserve">8.05106925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94238328933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877847671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976835250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189491271973</t>
+    <t xml:space="preserve">7.94238233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8587794303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976978302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79189586639404</t>
   </si>
   <si>
     <t xml:space="preserve">7.69157028198242</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6372275352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62886714935303</t>
+    <t xml:space="preserve">7.63304901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960603713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62886762619019</t>
   </si>
   <si>
     <t xml:space="preserve">7.60796737670898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58288478851318</t>
+    <t xml:space="preserve">7.5828857421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.71665143966675</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">7.77517509460449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81697702407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4825611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75845384597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66649007797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62468862533569</t>
+    <t xml:space="preserve">7.81697750091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48255968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7584547996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66648960113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62468767166138</t>
   </si>
   <si>
     <t xml:space="preserve">7.31535291671753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.440758228302</t>
+    <t xml:space="preserve">7.44075918197632</t>
   </si>
   <si>
     <t xml:space="preserve">7.52436304092407</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">7.59124612808228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76263523101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7668137550354</t>
+    <t xml:space="preserve">7.76263236999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76681566238403</t>
   </si>
   <si>
     <t xml:space="preserve">7.98418521881104</t>
@@ -140,34 +140,34 @@
     <t xml:space="preserve">8.02598667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84624004364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402051925659</t>
+    <t xml:space="preserve">7.84623861312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402194976807</t>
   </si>
   <si>
     <t xml:space="preserve">8.26007843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35622215270996</t>
+    <t xml:space="preserve">8.35622310638428</t>
   </si>
   <si>
     <t xml:space="preserve">8.27679920196533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89222049713135</t>
+    <t xml:space="preserve">7.89221954345703</t>
   </si>
   <si>
     <t xml:space="preserve">8.18483448028564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99672651290894</t>
+    <t xml:space="preserve">7.99672555923462</t>
   </si>
   <si>
     <t xml:space="preserve">7.9758243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13467216491699</t>
+    <t xml:space="preserve">8.13467311859131</t>
   </si>
   <si>
     <t xml:space="preserve">8.12631225585938</t>
@@ -179,70 +179,70 @@
     <t xml:space="preserve">8.23499774932861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3353214263916</t>
+    <t xml:space="preserve">8.33532238006592</t>
   </si>
   <si>
     <t xml:space="preserve">8.07614994049072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01762580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92148208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9089412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7333722114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80861759185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89640092849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70829105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65394830703735</t>
+    <t xml:space="preserve">8.01762676239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9214825630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90894174575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73337364196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80861520767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910358428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89640140533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829248428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65394878387451</t>
   </si>
   <si>
     <t xml:space="preserve">7.67067003250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68739128112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85041952133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57870531082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780458450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452440261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81279706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239974975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920776367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174858093262</t>
+    <t xml:space="preserve">7.68739080429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85041856765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57870674133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55780506134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452487945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81279850006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920824050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2317476272583</t>
   </si>
   <si>
     <t xml:space="preserve">7.27355051040649</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">7.33207416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1899471282959</t>
+    <t xml:space="preserve">7.18994665145874</t>
   </si>
   <si>
     <t xml:space="preserve">7.19412660598755</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">7.19830703735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18576717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06454038619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05617952346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978433609009</t>
+    <t xml:space="preserve">7.18576526641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06454086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05618000030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978338241577</t>
   </si>
   <si>
     <t xml:space="preserve">6.97257661819458</t>
@@ -278,82 +278,82 @@
     <t xml:space="preserve">7.14814519882202</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21502780914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715579986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895677566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67485094070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5954270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60378694534302</t>
+    <t xml:space="preserve">7.21502923965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715484619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67485046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59542608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60378837585449</t>
   </si>
   <si>
     <t xml:space="preserve">7.56616449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42403793334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51600170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018213272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108381271362</t>
+    <t xml:space="preserve">7.42403841018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5160026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018260955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54108428955078</t>
   </si>
   <si>
     <t xml:space="preserve">7.4741997718811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4532995223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10540962219238</t>
+    <t xml:space="preserve">7.45329856872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57034492492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1054105758667</t>
   </si>
   <si>
     <t xml:space="preserve">8.19737529754639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35204315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2935209274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09286880493164</t>
+    <t xml:space="preserve">8.35204124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303302764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254465103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09287071228027</t>
   </si>
   <si>
     <t xml:space="preserve">8.44400787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59449291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54433155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56105422973633</t>
+    <t xml:space="preserve">8.59449481964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54433250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56105327606201</t>
   </si>
   <si>
     <t xml:space="preserve">8.6530179977417</t>
@@ -362,31 +362,31 @@
     <t xml:space="preserve">8.97071170806885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94563102722168</t>
+    <t xml:space="preserve">8.945631980896</t>
   </si>
   <si>
     <t xml:space="preserve">8.73662090301514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86202716827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92055034637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90382862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99579334259033</t>
+    <t xml:space="preserve">8.86202812194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9205493927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90382957458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579429626465</t>
   </si>
   <si>
     <t xml:space="preserve">9.00415515899658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97907257080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04722690582275</t>
+    <t xml:space="preserve">8.97907161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04722499847412</t>
   </si>
   <si>
     <t xml:space="preserve">9.07278251647949</t>
@@ -398,55 +398,55 @@
     <t xml:space="preserve">9.03018760681152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15797424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28575801849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37094879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14945411682129</t>
+    <t xml:space="preserve">9.15797328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464488983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28575897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37094783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14945316314697</t>
   </si>
   <si>
     <t xml:space="preserve">9.26871967315674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25168323516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32835388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45614051818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206382751465</t>
+    <t xml:space="preserve">9.25168132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32835292816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45613956451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206478118896</t>
   </si>
   <si>
     <t xml:space="preserve">9.36242961883545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41354465484619</t>
+    <t xml:space="preserve">9.41354370117188</t>
   </si>
   <si>
     <t xml:space="preserve">9.54984760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61800193786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54132843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56688594818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39650535583496</t>
+    <t xml:space="preserve">9.61800098419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5413293838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56688690185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39650630950928</t>
   </si>
   <si>
     <t xml:space="preserve">9.55836868286133</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">9.59244441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58392524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948276519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57540512084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49021434783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37946796417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687305450439</t>
+    <t xml:space="preserve">9.5839262008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948181152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49021625518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37946891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687210083008</t>
   </si>
   <si>
     <t xml:space="preserve">9.20908737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20056819915771</t>
+    <t xml:space="preserve">9.2005672454834</t>
   </si>
   <si>
     <t xml:space="preserve">9.27724075317383</t>
@@ -488,118 +488,118 @@
     <t xml:space="preserve">9.30279636383057</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53280925750732</t>
+    <t xml:space="preserve">9.53281021118164</t>
   </si>
   <si>
     <t xml:space="preserve">9.62652015686035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71171092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7883825302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83097743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75430393218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0950689315796</t>
+    <t xml:space="preserve">9.71170997619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78838062286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83097648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75430583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.095067024231</t>
   </si>
   <si>
     <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3591566085815</t>
+    <t xml:space="preserve">10.3591585159302</t>
   </si>
   <si>
     <t xml:space="preserve">10.4528684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5891714096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6062088012695</t>
+    <t xml:space="preserve">10.5891723632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6062107086182</t>
   </si>
   <si>
     <t xml:space="preserve">10.6488065719604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5721340179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6232481002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5636138916016</t>
+    <t xml:space="preserve">10.5721349716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6232500076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5636148452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3676767349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2228536605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2910051345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3761959075928</t>
+    <t xml:space="preserve">10.3676776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2228546142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2910070419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3761968612671</t>
   </si>
   <si>
     <t xml:space="preserve">10.2484102249146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2313747406006</t>
+    <t xml:space="preserve">10.231372833252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2398929595947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4187908172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4784259796143</t>
+    <t xml:space="preserve">10.4187917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4784240722656</t>
   </si>
   <si>
     <t xml:space="preserve">10.4613876342773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3421201705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3165616989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3080434799194</t>
+    <t xml:space="preserve">10.3421211242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3165626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3080425262451</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506393432617</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7339963912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8191871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9469718933105</t>
+    <t xml:space="preserve">10.7339973449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9469728469849</t>
   </si>
   <si>
     <t xml:space="preserve">11.0151262283325</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0321626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0236434936523</t>
+    <t xml:space="preserve">11.0662384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0321617126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0236444473267</t>
   </si>
   <si>
     <t xml:space="preserve">10.9895668029785</t>
@@ -608,13 +608,13 @@
     <t xml:space="preserve">11.0406818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8277053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021488189697</t>
+    <t xml:space="preserve">10.8277063369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021507263184</t>
   </si>
   <si>
     <t xml:space="preserve">10.8617820739746</t>
@@ -623,19 +623,19 @@
     <t xml:space="preserve">10.8447427749634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9043769836426</t>
+    <t xml:space="preserve">10.9043779373169</t>
   </si>
   <si>
     <t xml:space="preserve">10.8958578109741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8532609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703012466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7680730819702</t>
+    <t xml:space="preserve">10.8532629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703002929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7680721282959</t>
   </si>
   <si>
     <t xml:space="preserve">10.7425146102905</t>
@@ -647,142 +647,142 @@
     <t xml:space="preserve">10.665843963623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.793628692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6914014816284</t>
+    <t xml:space="preserve">10.7936296463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6914005279541</t>
   </si>
   <si>
     <t xml:space="preserve">10.7595539093018</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9128980636597</t>
+    <t xml:space="preserve">10.9128952026367</t>
   </si>
   <si>
     <t xml:space="preserve">10.8106670379639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169580459595</t>
+    <t xml:space="preserve">10.7169589996338</t>
   </si>
   <si>
     <t xml:space="preserve">11.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.159948348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2025423049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2451391220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877359390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1173524856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3303308486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433044433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7562818527222</t>
+    <t xml:space="preserve">11.1599493026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2025451660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.245138168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877340316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1173534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3729267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3303289413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433053970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7562828063965</t>
   </si>
   <si>
     <t xml:space="preserve">11.9692583084106</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2248287200928</t>
+    <t xml:space="preserve">12.2248306274414</t>
   </si>
   <si>
     <t xml:space="preserve">11.585901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5007095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6710901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8414735794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7988767623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136859893799</t>
+    <t xml:space="preserve">11.5007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6710910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8414716720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7988777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7136869430542</t>
   </si>
   <si>
     <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0156259536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0594797134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9279193878174</t>
+    <t xml:space="preserve">12.015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0594787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033315658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9279203414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332469940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648035049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7525081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7086582183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770978927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3578338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824245452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8498458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8046169281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141590118408</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332460403442</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6648054122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7525081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7086582183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4016885757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770978927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3578367233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824254989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8498458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8046169281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141599655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332469940186</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6689310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4427881240845</t>
+    <t xml:space="preserve">11.6689319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4427890777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.5784759521484</t>
@@ -794,49 +794,49 @@
     <t xml:space="preserve">11.4880180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2618751525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.080961227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3523330688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2166481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1714200973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3071041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3975629806519</t>
+    <t xml:space="preserve">11.2618761062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0809621810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3523321151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2166471481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1714210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3071050643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3975620269775</t>
   </si>
   <si>
     <t xml:space="preserve">11.1261901855469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9403028488159</t>
+    <t xml:space="preserve">11.9403009414673</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855298995972</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0759878158569</t>
+    <t xml:space="preserve">11.8950748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0759887695312</t>
   </si>
   <si>
     <t xml:space="preserve">12.1664438247681</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1212158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9452781677246</t>
+    <t xml:space="preserve">12.1212148666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9452753067017</t>
   </si>
   <si>
     <t xml:space="preserve">10.809591293335</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">10.7643632888794</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9905052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4929943084717</t>
+    <t xml:space="preserve">10.9905042648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4929933547974</t>
   </si>
   <si>
     <t xml:space="preserve">10.4025363922119</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">10.0407085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0859355926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2668495178223</t>
+    <t xml:space="preserve">10.0859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2668514251709</t>
   </si>
   <si>
     <t xml:space="preserve">10.3120784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99548053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45273876190186</t>
+    <t xml:space="preserve">9.99547958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45274066925049</t>
   </si>
   <si>
     <t xml:space="preserve">9.22659683227539</t>
@@ -884,25 +884,25 @@
     <t xml:space="preserve">9.18136787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49796772003174</t>
+    <t xml:space="preserve">9.49796867370605</t>
   </si>
   <si>
     <t xml:space="preserve">9.58842468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67888069152832</t>
+    <t xml:space="preserve">9.67888164520264</t>
   </si>
   <si>
     <t xml:space="preserve">9.76933765411377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72410774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311645507812</t>
+    <t xml:space="preserve">9.7241096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191343307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311655044556</t>
   </si>
   <si>
     <t xml:space="preserve">10.6286783218384</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">10.1763944625854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90502166748047</t>
+    <t xml:space="preserve">9.90502262115479</t>
   </si>
   <si>
     <t xml:space="preserve">9.95025157928467</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">9.81456661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85979461669922</t>
+    <t xml:space="preserve">9.85979557037354</t>
   </si>
   <si>
     <t xml:space="preserve">9.63365268707275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5382213592529</t>
+    <t xml:space="preserve">10.5382204055786</t>
   </si>
   <si>
     <t xml:space="preserve">10.774055480957</t>
@@ -944,25 +944,25 @@
     <t xml:space="preserve">10.6803674697876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6335229873657</t>
+    <t xml:space="preserve">10.63352394104</t>
   </si>
   <si>
     <t xml:space="preserve">10.8208990097046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.914587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677444458008</t>
+    <t xml:space="preserve">10.9145860671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677434921265</t>
   </si>
   <si>
     <t xml:space="preserve">10.5866804122925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7272109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9614295959473</t>
+    <t xml:space="preserve">10.7272119522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9614315032959</t>
   </si>
   <si>
     <t xml:space="preserve">11.1488046646118</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">11.2893362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2424936294556</t>
+    <t xml:space="preserve">11.2424926757812</t>
   </si>
   <si>
     <t xml:space="preserve">11.055118560791</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">11.1956481933594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6172428131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.476710319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4298686981201</t>
+    <t xml:space="preserve">11.617241859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4767112731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4298667907715</t>
   </si>
   <si>
     <t xml:space="preserve">11.3830232620239</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">11.6640853881836</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8046188354492</t>
+    <t xml:space="preserve">11.8046178817749</t>
   </si>
   <si>
     <t xml:space="preserve">11.757773399353</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">11.9919929504395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8514595031738</t>
+    <t xml:space="preserve">11.8514604568481</t>
   </si>
   <si>
     <t xml:space="preserve">11.7109298706055</t>
@@ -1019,37 +1019,37 @@
     <t xml:space="preserve">11.5703992843628</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1793670654297</t>
+    <t xml:space="preserve">12.179368019104</t>
   </si>
   <si>
     <t xml:space="preserve">12.2730550765991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2262105941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3198976516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3667421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4135847091675</t>
+    <t xml:space="preserve">12.2262115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3198986053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3667411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4135866165161</t>
   </si>
   <si>
     <t xml:space="preserve">12.0856790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1325235366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082740783691</t>
+    <t xml:space="preserve">12.1325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082750320435</t>
   </si>
   <si>
     <t xml:space="preserve">11.5235548019409</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3361806869507</t>
+    <t xml:space="preserve">11.3361797332764</t>
   </si>
   <si>
     <t xml:space="preserve">12.5541162490845</t>
@@ -1064,94 +1064,91 @@
     <t xml:space="preserve">12.6946477890015</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7883348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.741491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9288663864136</t>
+    <t xml:space="preserve">12.7883338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7414922714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9288673400879</t>
   </si>
   <si>
     <t xml:space="preserve">12.8351793289185</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9757099151611</t>
+    <t xml:space="preserve">12.9757108688354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8820219039917</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2567720413208</t>
+    <t xml:space="preserve">13.2567729949951</t>
   </si>
   <si>
     <t xml:space="preserve">13.2099294662476</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1630849838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1019630432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713977813721</t>
+    <t xml:space="preserve">13.1630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1019620895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713996887207</t>
   </si>
   <si>
     <t xml:space="preserve">10.5398368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.492992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0693969726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4604301452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7720518112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3341770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215520858765</t>
+    <t xml:space="preserve">13.0693979263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4604291915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7720537185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3341779708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215511322021</t>
   </si>
   <si>
     <t xml:space="preserve">14.6620826721191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8026142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8963012695312</t>
+    <t xml:space="preserve">14.8026151657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8963022232056</t>
   </si>
   <si>
     <t xml:space="preserve">14.849458694458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.568395614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6152400970459</t>
+    <t xml:space="preserve">14.5683965682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6152391433716</t>
   </si>
   <si>
     <t xml:space="preserve">14.427864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9431457519531</t>
+    <t xml:space="preserve">14.9431447982788</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1468029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0531148910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1936454772949</t>
+    <t xml:space="preserve">14.1468048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0531158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1936483383179</t>
   </si>
   <si>
     <t xml:space="preserve">14.2404899597168</t>
@@ -1163,16 +1160,13 @@
     <t xml:space="preserve">14.429105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4762592315674</t>
+    <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
     <t xml:space="preserve">14.2876434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1461820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2404909133911</t>
+    <t xml:space="preserve">14.146183013916</t>
   </si>
   <si>
     <t xml:space="preserve">13.9104127883911</t>
@@ -1181,52 +1175,52 @@
     <t xml:space="preserve">13.7689514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6746435165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5803346633911</t>
+    <t xml:space="preserve">13.6746425628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5803337097168</t>
   </si>
   <si>
     <t xml:space="preserve">13.2974109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1559505462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2031030654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9575672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0990266799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.533182144165</t>
+    <t xml:space="preserve">13.1559495925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.203104019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9575662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217960357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0990285873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5331811904907</t>
   </si>
   <si>
     <t xml:space="preserve">13.3445644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4388732910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7120294570923</t>
+    <t xml:space="preserve">13.4388723373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7120304107666</t>
   </si>
   <si>
     <t xml:space="preserve">14.5234127044678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8534908294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949531555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0892610549927</t>
+    <t xml:space="preserve">14.8534917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949522018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.089262008667</t>
   </si>
   <si>
     <t xml:space="preserve">15.042106628418</t>
@@ -1238,10 +1232,10 @@
     <t xml:space="preserve">15.1364145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2778778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3721828460693</t>
+    <t xml:space="preserve">15.2778768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3721837997437</t>
   </si>
   <si>
     <t xml:space="preserve">15.5608005523682</t>
@@ -1250,13 +1244,13 @@
     <t xml:space="preserve">15.9380302429199</t>
   </si>
   <si>
-    <t xml:space="preserve">15.702262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908777236938</t>
+    <t xml:space="preserve">15.702260017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.032341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908758163452</t>
   </si>
   <si>
     <t xml:space="preserve">16.9754180908203</t>
@@ -1265,16 +1259,16 @@
     <t xml:space="preserve">16.6924953460693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6355762481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0697269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7770366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5884208679199</t>
+    <t xml:space="preserve">17.6355743408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0697288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5884189605713</t>
   </si>
   <si>
     <t xml:space="preserve">18.5786533355713</t>
@@ -1283,49 +1277,49 @@
     <t xml:space="preserve">18.8615760803223</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7672672271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1542663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2485752105713</t>
+    <t xml:space="preserve">18.7672691345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1542682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2485771179199</t>
   </si>
   <si>
     <t xml:space="preserve">18.2957286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8241901397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998031616211</t>
+    <t xml:space="preserve">17.8241882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998069763184</t>
   </si>
   <si>
     <t xml:space="preserve">17.4941101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1640357971191</t>
+    <t xml:space="preserve">17.1640338897705</t>
   </si>
   <si>
     <t xml:space="preserve">17.4469585418701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7298831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5412673950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5981864929199</t>
+    <t xml:space="preserve">17.7298793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5412654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5981884002686</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2583427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1168785095215</t>
+    <t xml:space="preserve">17.2583389282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1168804168701</t>
   </si>
   <si>
     <t xml:space="preserve">16.9282646179199</t>
@@ -1334,25 +1328,25 @@
     <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3054943084717</t>
+    <t xml:space="preserve">17.3054962158203</t>
   </si>
   <si>
     <t xml:space="preserve">16.4095706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8339576721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152618408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0225696563721</t>
+    <t xml:space="preserve">16.8339557647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152637481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0225715637207</t>
   </si>
   <si>
     <t xml:space="preserve">17.9184989929199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3900356292725</t>
+    <t xml:space="preserve">18.3900375366211</t>
   </si>
   <si>
     <t xml:space="preserve">18.4843444824219</t>
@@ -1361,16 +1355,16 @@
     <t xml:space="preserve">18.6729602813721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4274272918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2388095855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.616039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2761917114258</t>
+    <t xml:space="preserve">19.4274215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.238805770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6160373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.276195526123</t>
   </si>
   <si>
     <t xml:space="preserve">20.9363498687744</t>
@@ -1382,10 +1376,10 @@
     <t xml:space="preserve">21.4078884124756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.219274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135795593262</t>
+    <t xml:space="preserve">21.2192726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135814666748</t>
   </si>
   <si>
     <t xml:space="preserve">21.0306568145752</t>
@@ -1394,10 +1388,10 @@
     <t xml:space="preserve">21.5965042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6908111572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4826602935791</t>
+    <t xml:space="preserve">21.6908130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4826622009277</t>
   </si>
   <si>
     <t xml:space="preserve">22.9168148040771</t>
@@ -1406,7 +1400,10 @@
     <t xml:space="preserve">22.5332717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1497268676758</t>
+    <t xml:space="preserve">22.9168128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1497249603271</t>
   </si>
   <si>
     <t xml:space="preserve">22.7250423431396</t>
@@ -1436,22 +1433,22 @@
     <t xml:space="preserve">23.9715633392334</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7797908782959</t>
+    <t xml:space="preserve">23.7797889709473</t>
   </si>
   <si>
     <t xml:space="preserve">23.2044734954834</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6839046478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0674495697021</t>
+    <t xml:space="preserve">23.6839065551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0674514770508</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2180824279785</t>
+    <t xml:space="preserve">25.2180843353271</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
@@ -1472,31 +1469,31 @@
     <t xml:space="preserve">28.574104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7111263275146</t>
+    <t xml:space="preserve">27.7111282348633</t>
   </si>
   <si>
     <t xml:space="preserve">27.9987869262695</t>
   </si>
   <si>
-    <t xml:space="preserve">27.807014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5193557739258</t>
+    <t xml:space="preserve">27.8070125579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5193538665771</t>
   </si>
   <si>
     <t xml:space="preserve">26.7522659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2864437103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.491828918457</t>
+    <t xml:space="preserve">28.2864456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4918270111084</t>
   </si>
   <si>
     <t xml:space="preserve">29.724739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4370784759521</t>
+    <t xml:space="preserve">29.4370803833008</t>
   </si>
   <si>
     <t xml:space="preserve">29.5329647064209</t>
@@ -1514,31 +1511,31 @@
     <t xml:space="preserve">29.2912883758545</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1946201324463</t>
+    <t xml:space="preserve">29.1946182250977</t>
   </si>
   <si>
     <t xml:space="preserve">29.001277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4513397216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3213806152344</t>
+    <t xml:space="preserve">30.4513416290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3213787078857</t>
   </si>
   <si>
     <t xml:space="preserve">31.1280384063721</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7413539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1613292694092</t>
+    <t xml:space="preserve">30.7413520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1613311767578</t>
   </si>
   <si>
     <t xml:space="preserve">30.2579975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0646572113037</t>
+    <t xml:space="preserve">30.0646591186523</t>
   </si>
   <si>
     <t xml:space="preserve">30.3546695709229</t>
@@ -1547,28 +1544,28 @@
     <t xml:space="preserve">31.2247085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5147171020508</t>
+    <t xml:space="preserve">31.5147190093994</t>
   </si>
   <si>
     <t xml:space="preserve">31.6113910675049</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4180507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8047332763672</t>
+    <t xml:space="preserve">31.4180488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8047351837158</t>
   </si>
   <si>
     <t xml:space="preserve">32.5780982971191</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2880935668945</t>
+    <t xml:space="preserve">32.2880897521973</t>
   </si>
   <si>
     <t xml:space="preserve">32.4814300537109</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0947494506836</t>
+    <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
     <t xml:space="preserve">31.9014053344727</t>
@@ -1604,7 +1601,7 @@
     <t xml:space="preserve">38.958381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6350784301758</t>
+    <t xml:space="preserve">39.6350746154785</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
@@ -1622,7 +1619,7 @@
     <t xml:space="preserve">38.8617134094238</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3117790222168</t>
+    <t xml:space="preserve">40.3117752075195</t>
   </si>
   <si>
     <t xml:space="preserve">40.1184349060059</t>
@@ -1640,22 +1637,22 @@
     <t xml:space="preserve">38.3783569335938</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7317504882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8284225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2151031494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6017913818359</t>
+    <t xml:space="preserve">39.731746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8284187316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2150993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6017875671387</t>
   </si>
   <si>
     <t xml:space="preserve">41.1818161010742</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6651649475098</t>
+    <t xml:space="preserve">41.665168762207</t>
   </si>
   <si>
     <t xml:space="preserve">41.8585090637207</t>
@@ -1676,22 +1673,22 @@
     <t xml:space="preserve">42.8252182006836</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2752838134766</t>
+    <t xml:space="preserve">44.2752799987793</t>
   </si>
   <si>
     <t xml:space="preserve">45.5320053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1120300292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9186859130859</t>
+    <t xml:space="preserve">46.1120338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9186897277832</t>
   </si>
   <si>
     <t xml:space="preserve">45.7253456115723</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0153541564941</t>
+    <t xml:space="preserve">46.0153579711914</t>
   </si>
   <si>
     <t xml:space="preserve">46.402042388916</t>
@@ -1703,7 +1700,7 @@
     <t xml:space="preserve">46.8853950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5953826904297</t>
+    <t xml:space="preserve">46.595386505127</t>
   </si>
   <si>
     <t xml:space="preserve">45.8220176696777</t>
@@ -1718,7 +1715,7 @@
     <t xml:space="preserve">43.7919273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5019187927246</t>
+    <t xml:space="preserve">43.5019149780273</t>
   </si>
   <si>
     <t xml:space="preserve">43.1152305603027</t>
@@ -1736,7 +1733,7 @@
     <t xml:space="preserve">40.9884757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3751525878906</t>
+    <t xml:space="preserve">41.3751564025879</t>
   </si>
   <si>
     <t xml:space="preserve">42.6318740844727</t>
@@ -1745,25 +1742,25 @@
     <t xml:space="preserve">42.9218902587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5684928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7618370056152</t>
+    <t xml:space="preserve">41.5684967041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7618408203125</t>
   </si>
   <si>
     <t xml:space="preserve">42.3418617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4718246459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.408447265625</t>
+    <t xml:space="preserve">41.4718284606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4084434509277</t>
   </si>
   <si>
     <t xml:space="preserve">41.0851440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0550575256348</t>
+    <t xml:space="preserve">39.0550537109375</t>
   </si>
   <si>
     <t xml:space="preserve">40.6984558105469</t>
@@ -1772,37 +1769,37 @@
     <t xml:space="preserve">39.2483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5051193237305</t>
+    <t xml:space="preserve">40.5051155090332</t>
   </si>
   <si>
     <t xml:space="preserve">40.8917999267578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.475025177002</t>
+    <t xml:space="preserve">38.4750289916992</t>
   </si>
   <si>
     <t xml:space="preserve">37.9916725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8950004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.024959564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7016563415527</t>
+    <t xml:space="preserve">37.8950042724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0249633789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.70166015625</t>
   </si>
   <si>
     <t xml:space="preserve">35.7682418823242</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2848892211914</t>
+    <t xml:space="preserve">35.2848854064941</t>
   </si>
   <si>
     <t xml:space="preserve">34.7048606872559</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1248321533203</t>
+    <t xml:space="preserve">34.1248359680176</t>
   </si>
   <si>
     <t xml:space="preserve">35.1882171630859</t>
@@ -1811,10 +1808,10 @@
     <t xml:space="preserve">34.221508026123</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4481353759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5448112487793</t>
+    <t xml:space="preserve">33.4481391906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">32.8681144714355</t>
@@ -1835,28 +1832,28 @@
     <t xml:space="preserve">36.7349548339844</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3482666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6382827758789</t>
+    <t xml:space="preserve">36.3482627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6382789611816</t>
   </si>
   <si>
     <t xml:space="preserve">33.8348236083984</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9314918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0281639099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9647827148438</t>
+    <t xml:space="preserve">33.9314956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0281677246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.964786529541</t>
   </si>
   <si>
     <t xml:space="preserve">32.7714424133301</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0131225585938</t>
+    <t xml:space="preserve">33.013126373291</t>
   </si>
   <si>
     <t xml:space="preserve">33.3998069763184</t>
@@ -1865,10 +1862,10 @@
     <t xml:space="preserve">33.6414794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0432052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9615859985352</t>
+    <t xml:space="preserve">35.0432090759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9615821838379</t>
   </si>
   <si>
     <t xml:space="preserve">35.4298934936523</t>
@@ -1883,7 +1880,7 @@
     <t xml:space="preserve">31.7563972473145</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1129913330078</t>
+    <t xml:space="preserve">30.1129932403564</t>
   </si>
   <si>
     <t xml:space="preserve">29.6776580810547</t>
@@ -1901,7 +1898,7 @@
     <t xml:space="preserve">29.3866996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2897167205811</t>
+    <t xml:space="preserve">29.2897148132324</t>
   </si>
   <si>
     <t xml:space="preserve">29.9686145782471</t>
@@ -1910,7 +1907,7 @@
     <t xml:space="preserve">30.8899803161621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5203895568848</t>
+    <t xml:space="preserve">31.5203876495361</t>
   </si>
   <si>
     <t xml:space="preserve">30.9384727478027</t>
@@ -1919,7 +1916,7 @@
     <t xml:space="preserve">30.4535446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1927299499512</t>
+    <t xml:space="preserve">29.1927280426025</t>
   </si>
   <si>
     <t xml:space="preserve">28.9987564086914</t>
@@ -1937,7 +1934,7 @@
     <t xml:space="preserve">27.3984909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8349285125732</t>
+    <t xml:space="preserve">27.8349266052246</t>
   </si>
   <si>
     <t xml:space="preserve">27.4469833374023</t>
@@ -1949,13 +1946,13 @@
     <t xml:space="preserve">27.5439682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0105495452881</t>
+    <t xml:space="preserve">27.0105476379395</t>
   </si>
   <si>
     <t xml:space="preserve">26.8165760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4286327362061</t>
+    <t xml:space="preserve">26.4286346435547</t>
   </si>
   <si>
     <t xml:space="preserve">25.8467178344727</t>
@@ -1964,16 +1961,16 @@
     <t xml:space="preserve">25.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0708312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.828369140625</t>
+    <t xml:space="preserve">25.0708332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8283672332764</t>
   </si>
   <si>
     <t xml:space="preserve">26.1861686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9437046051025</t>
+    <t xml:space="preserve">25.9437026977539</t>
   </si>
   <si>
     <t xml:space="preserve">25.4102821350098</t>
@@ -2012,7 +2009,7 @@
     <t xml:space="preserve">25.0223388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3132953643799</t>
+    <t xml:space="preserve">25.3132972717285</t>
   </si>
   <si>
     <t xml:space="preserve">26.0406894683838</t>
@@ -2039,7 +2036,7 @@
     <t xml:space="preserve">26.1376762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0590419769287</t>
+    <t xml:space="preserve">27.0590400695801</t>
   </si>
   <si>
     <t xml:space="preserve">26.2831554412842</t>
@@ -2096,22 +2093,22 @@
     <t xml:space="preserve">22.258243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8218078613281</t>
+    <t xml:space="preserve">21.8218059539795</t>
   </si>
   <si>
     <t xml:space="preserve">21.6763286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9004402160645</t>
+    <t xml:space="preserve">20.9004421234131</t>
   </si>
   <si>
     <t xml:space="preserve">21.0944137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429042816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7549610137939</t>
+    <t xml:space="preserve">21.1429061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7549629211426</t>
   </si>
   <si>
     <t xml:space="preserve">20.4640064239502</t>
@@ -2120,7 +2117,7 @@
     <t xml:space="preserve">20.5124988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8519477844238</t>
+    <t xml:space="preserve">20.8519496917725</t>
   </si>
   <si>
     <t xml:space="preserve">20.9974269866943</t>
@@ -2138,22 +2135,22 @@
     <t xml:space="preserve">21.5308494567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0642719268799</t>
+    <t xml:space="preserve">22.0642700195312</t>
   </si>
   <si>
     <t xml:space="preserve">22.5976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0826206207275</t>
+    <t xml:space="preserve">23.0826225280762</t>
   </si>
   <si>
     <t xml:space="preserve">23.4705657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4220714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3735790252686</t>
+    <t xml:space="preserve">23.4220733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3735809326172</t>
   </si>
   <si>
     <t xml:space="preserve">24.7798748016357</t>
@@ -2168,7 +2165,7 @@
     <t xml:space="preserve">26.3316478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3801403045654</t>
+    <t xml:space="preserve">26.3801422119141</t>
   </si>
   <si>
     <t xml:space="preserve">25.9921951293945</t>
@@ -2183,7 +2180,7 @@
     <t xml:space="preserve">26.5256195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7195911407471</t>
+    <t xml:space="preserve">26.7195892333984</t>
   </si>
   <si>
     <t xml:space="preserve">26.4771251678467</t>
@@ -2195,7 +2192,7 @@
     <t xml:space="preserve">26.6710987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9502658843994</t>
+    <t xml:space="preserve">28.9502639770508</t>
   </si>
   <si>
     <t xml:space="preserve">28.4653358459473</t>
@@ -2210,7 +2207,7 @@
     <t xml:space="preserve">28.8532791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3382091522217</t>
+    <t xml:space="preserve">29.338207244873</t>
   </si>
   <si>
     <t xml:space="preserve">29.4836845397949</t>
@@ -2219,7 +2216,7 @@
     <t xml:space="preserve">29.5806713104248</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4351921081543</t>
+    <t xml:space="preserve">29.4351940155029</t>
   </si>
   <si>
     <t xml:space="preserve">28.707799911499</t>
@@ -2234,7 +2231,7 @@
     <t xml:space="preserve">26.5741119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0039882659912</t>
+    <t xml:space="preserve">24.0039863586426</t>
   </si>
   <si>
     <t xml:space="preserve">23.2281017303467</t>
@@ -2243,13 +2240,13 @@
     <t xml:space="preserve">23.1796073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1311149597168</t>
+    <t xml:space="preserve">23.1311168670654</t>
   </si>
   <si>
     <t xml:space="preserve">23.7615222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0524806976318</t>
+    <t xml:space="preserve">24.0524787902832</t>
   </si>
   <si>
     <t xml:space="preserve">24.2949447631836</t>
@@ -2267,13 +2264,13 @@
     <t xml:space="preserve">21.4338645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1913986206055</t>
+    <t xml:space="preserve">21.1914005279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.4823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127643585205</t>
+    <t xml:space="preserve">22.1127624511719</t>
   </si>
   <si>
     <t xml:space="preserve">22.7916660308838</t>
@@ -2282,22 +2279,25 @@
     <t xml:space="preserve">22.6461868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2097511291504</t>
+    <t xml:space="preserve">22.2097492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3067378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.888650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1612567901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8702983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.624870300293</t>
   </si>
   <si>
     <t xml:space="preserve">22.3067359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.888650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1612586975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8703002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.624870300293</t>
   </si>
   <si>
     <t xml:space="preserve">22.4041442871094</t>
@@ -31016,7 +31016,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31640,7 +31640,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31900,7 +31900,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1109" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32056,7 +32056,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32082,7 +32082,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32108,7 +32108,7 @@
         <v>15.5</v>
       </c>
       <c r="G1117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32134,7 +32134,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32160,7 +32160,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32186,7 +32186,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32212,7 +32212,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32238,7 +32238,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32264,7 +32264,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32290,7 +32290,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1124" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32316,7 +32316,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32342,7 +32342,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32368,7 +32368,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32394,7 +32394,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32420,7 +32420,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32446,7 +32446,7 @@
         <v>15</v>
       </c>
       <c r="G1130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32472,7 +32472,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32498,7 +32498,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32524,7 +32524,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1133" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32550,7 +32550,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1134" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32576,7 +32576,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1135" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32602,7 +32602,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32628,7 +32628,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1137" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32654,7 +32654,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1138" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32680,7 +32680,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32706,7 +32706,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32732,7 +32732,7 @@
         <v>15</v>
       </c>
       <c r="G1141" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32758,7 +32758,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32784,7 +32784,7 @@
         <v>14.75</v>
       </c>
       <c r="G1143" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32810,7 +32810,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32836,7 +32836,7 @@
         <v>14.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32862,7 +32862,7 @@
         <v>14.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32888,7 +32888,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1147" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32914,7 +32914,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1148" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32940,7 +32940,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1149" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32966,7 +32966,7 @@
         <v>14</v>
       </c>
       <c r="G1150" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32992,7 +32992,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33018,7 +33018,7 @@
         <v>14.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33044,7 +33044,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33070,7 +33070,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1154" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33096,7 +33096,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33122,7 +33122,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33148,7 +33148,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33174,7 +33174,7 @@
         <v>15</v>
       </c>
       <c r="G1158" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33200,7 +33200,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1159" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33226,7 +33226,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1160" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33252,7 +33252,7 @@
         <v>14.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33278,7 +33278,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1162" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33304,7 +33304,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1163" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33330,7 +33330,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1164" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33356,7 +33356,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33382,7 +33382,7 @@
         <v>14.25</v>
       </c>
       <c r="G1166" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33408,7 +33408,7 @@
         <v>14.5</v>
       </c>
       <c r="G1167" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33434,7 +33434,7 @@
         <v>14.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33460,7 +33460,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1169" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33486,7 +33486,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33512,7 +33512,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1171" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33538,7 +33538,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1172" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33564,7 +33564,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33590,7 +33590,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33616,7 +33616,7 @@
         <v>15.75</v>
       </c>
       <c r="G1175" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33642,7 +33642,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33668,7 +33668,7 @@
         <v>16</v>
       </c>
       <c r="G1177" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33694,7 +33694,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33720,7 +33720,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1179" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33746,7 +33746,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33772,7 +33772,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33798,7 +33798,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33824,7 +33824,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33850,7 +33850,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33876,7 +33876,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33902,7 +33902,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33928,7 +33928,7 @@
         <v>16.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33954,7 +33954,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1188" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33980,7 +33980,7 @@
         <v>16.5</v>
       </c>
       <c r="G1189" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34006,7 +34006,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1190" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34032,7 +34032,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34058,7 +34058,7 @@
         <v>17</v>
       </c>
       <c r="G1192" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34084,7 +34084,7 @@
         <v>17</v>
       </c>
       <c r="G1193" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34110,7 +34110,7 @@
         <v>17</v>
       </c>
       <c r="G1194" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34136,7 +34136,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34162,7 +34162,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1196" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34188,7 +34188,7 @@
         <v>18</v>
       </c>
       <c r="G1197" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34214,7 +34214,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1198" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34240,7 +34240,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34266,7 +34266,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34292,7 +34292,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34318,7 +34318,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34344,7 +34344,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34370,7 +34370,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1204" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34396,7 +34396,7 @@
         <v>20</v>
       </c>
       <c r="G1205" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34422,7 +34422,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1206" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34448,7 +34448,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1207" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34474,7 +34474,7 @@
         <v>19.25</v>
       </c>
       <c r="G1208" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34500,7 +34500,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34526,7 +34526,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34552,7 +34552,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1211" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34578,7 +34578,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1212" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34604,7 +34604,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1213" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34630,7 +34630,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1214" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34656,7 +34656,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1215" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34682,7 +34682,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34708,7 +34708,7 @@
         <v>18.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34734,7 +34734,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1218" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34760,7 +34760,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34786,7 +34786,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34812,7 +34812,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34838,7 +34838,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1222" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34864,7 +34864,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34890,7 +34890,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1224" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34916,7 +34916,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34942,7 +34942,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34968,7 +34968,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34994,7 +34994,7 @@
         <v>17.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35020,7 +35020,7 @@
         <v>18</v>
       </c>
       <c r="G1229" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35046,7 +35046,7 @@
         <v>18.5</v>
       </c>
       <c r="G1230" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35072,7 +35072,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35098,7 +35098,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35124,7 +35124,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35150,7 +35150,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1234" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35176,7 +35176,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35202,7 +35202,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35228,7 +35228,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35254,7 +35254,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35280,7 +35280,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35306,7 +35306,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35332,7 +35332,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1241" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35358,7 +35358,7 @@
         <v>18.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35384,7 +35384,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1243" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35410,7 +35410,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1244" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35436,7 +35436,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35462,7 +35462,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35488,7 +35488,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35514,7 +35514,7 @@
         <v>17.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35540,7 +35540,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35566,7 +35566,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35592,7 +35592,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1251" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35618,7 +35618,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35644,7 +35644,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1253" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35670,7 +35670,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35696,7 +35696,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35722,7 +35722,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1256" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35748,7 +35748,7 @@
         <v>18</v>
       </c>
       <c r="G1257" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35774,7 +35774,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1258" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35800,7 +35800,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1259" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35826,7 +35826,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1260" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35852,7 +35852,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1261" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35878,7 +35878,7 @@
         <v>19</v>
       </c>
       <c r="G1262" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35904,7 +35904,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35930,7 +35930,7 @@
         <v>19.5</v>
       </c>
       <c r="G1264" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35956,7 +35956,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1265" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35982,7 +35982,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1266" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36008,7 +36008,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36034,7 +36034,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1268" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36060,7 +36060,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36086,7 +36086,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1270" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36112,7 +36112,7 @@
         <v>21.5</v>
       </c>
       <c r="G1271" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36138,7 +36138,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36164,7 +36164,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36190,7 +36190,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1274" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36216,7 +36216,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36242,7 +36242,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1276" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36268,7 +36268,7 @@
         <v>22.5</v>
       </c>
       <c r="G1277" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36294,7 +36294,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36320,7 +36320,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36346,7 +36346,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1280" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36372,7 +36372,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36398,7 +36398,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36424,7 +36424,7 @@
         <v>23</v>
       </c>
       <c r="G1283" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36450,7 +36450,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36476,7 +36476,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1285" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36502,7 +36502,7 @@
         <v>23.5</v>
       </c>
       <c r="G1286" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36554,7 +36554,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36580,7 +36580,7 @@
         <v>23.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36606,7 +36606,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36632,7 +36632,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1291" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36658,7 +36658,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1292" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36684,7 +36684,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1293" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36710,7 +36710,7 @@
         <v>24.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36736,7 +36736,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1295" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36762,7 +36762,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36788,7 +36788,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36814,7 +36814,7 @@
         <v>24</v>
       </c>
       <c r="G1298" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36840,7 +36840,7 @@
         <v>24</v>
       </c>
       <c r="G1299" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36866,7 +36866,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1300" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36892,7 +36892,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1301" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36918,7 +36918,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1302" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36944,7 +36944,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1303" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36970,7 +36970,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36996,7 +36996,7 @@
         <v>24</v>
       </c>
       <c r="G1305" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37022,7 +37022,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1306" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37048,7 +37048,7 @@
         <v>25</v>
       </c>
       <c r="G1307" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37074,7 +37074,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37100,7 +37100,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37126,7 +37126,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37152,7 +37152,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1311" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37178,7 +37178,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37204,7 +37204,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1313" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37230,7 +37230,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1314" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37256,7 +37256,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1315" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37282,7 +37282,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37308,7 +37308,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1317" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37334,7 +37334,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37360,7 +37360,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1319" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37386,7 +37386,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37412,7 +37412,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1321" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37438,7 +37438,7 @@
         <v>24.5</v>
       </c>
       <c r="G1322" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37464,7 +37464,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37490,7 +37490,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1324" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37516,7 +37516,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1325" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37542,7 +37542,7 @@
         <v>26.5</v>
       </c>
       <c r="G1326" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37568,7 +37568,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37594,7 +37594,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1328" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37620,7 +37620,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1329" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37646,7 +37646,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1330" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37672,7 +37672,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1331" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37698,7 +37698,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37724,7 +37724,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1333" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37750,7 +37750,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1334" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37776,7 +37776,7 @@
         <v>29</v>
       </c>
       <c r="G1335" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37802,7 +37802,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37828,7 +37828,7 @@
         <v>29</v>
       </c>
       <c r="G1337" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37854,7 +37854,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37880,7 +37880,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1339" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37906,7 +37906,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1340" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37932,7 +37932,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1341" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37958,7 +37958,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1342" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37984,7 +37984,7 @@
         <v>29.5</v>
       </c>
       <c r="G1343" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38010,7 +38010,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1344" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38036,7 +38036,7 @@
         <v>31</v>
       </c>
       <c r="G1345" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38062,7 +38062,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1346" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38088,7 +38088,7 @@
         <v>31</v>
       </c>
       <c r="G1347" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38114,7 +38114,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1348" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38140,7 +38140,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38166,7 +38166,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1350" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38192,7 +38192,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1351" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38218,7 +38218,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1352" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38244,7 +38244,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1353" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38270,7 +38270,7 @@
         <v>30</v>
       </c>
       <c r="G1354" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38296,7 +38296,7 @@
         <v>30</v>
       </c>
       <c r="G1355" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38322,7 +38322,7 @@
         <v>31.5</v>
       </c>
       <c r="G1356" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38348,7 +38348,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1357" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38374,7 +38374,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1358" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38400,7 +38400,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1359" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38426,7 +38426,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1360" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38452,7 +38452,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38478,7 +38478,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1362" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38504,7 +38504,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38530,7 +38530,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1364" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38556,7 +38556,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1365" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38582,7 +38582,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1366" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38608,7 +38608,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1367" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38634,7 +38634,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1368" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38660,7 +38660,7 @@
         <v>32.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38686,7 +38686,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1370" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38712,7 +38712,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1371" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38738,7 +38738,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G1372" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38764,7 +38764,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1373" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38790,7 +38790,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1374" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38816,7 +38816,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38842,7 +38842,7 @@
         <v>33</v>
       </c>
       <c r="G1376" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38868,7 +38868,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1377" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38894,7 +38894,7 @@
         <v>32.5</v>
       </c>
       <c r="G1378" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38920,7 +38920,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1379" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38946,7 +38946,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1380" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38972,7 +38972,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1381" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38998,7 +38998,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1382" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39024,7 +39024,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1383" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39050,7 +39050,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1384" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39076,7 +39076,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1385" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39102,7 +39102,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1386" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39128,7 +39128,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1387" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39154,7 +39154,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G1388" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39180,7 +39180,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G1389" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39206,7 +39206,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1390" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39232,7 +39232,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1391" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39258,7 +39258,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G1392" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39284,7 +39284,7 @@
         <v>40.5</v>
       </c>
       <c r="G1393" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39310,7 +39310,7 @@
         <v>43.4000015258789</v>
       </c>
       <c r="G1394" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39336,7 +39336,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39362,7 +39362,7 @@
         <v>41</v>
       </c>
       <c r="G1396" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39388,7 +39388,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1397" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39414,7 +39414,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1398" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39440,7 +39440,7 @@
         <v>40.5</v>
       </c>
       <c r="G1399" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39466,7 +39466,7 @@
         <v>41</v>
       </c>
       <c r="G1400" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39492,7 +39492,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39518,7 +39518,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1402" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39544,7 +39544,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1403" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39570,7 +39570,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1404" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39596,7 +39596,7 @@
         <v>41.7000007629395</v>
       </c>
       <c r="G1405" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39622,7 +39622,7 @@
         <v>41.5</v>
       </c>
       <c r="G1406" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39648,7 +39648,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39674,7 +39674,7 @@
         <v>39.5</v>
       </c>
       <c r="G1408" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39700,7 +39700,7 @@
         <v>38.9000015258789</v>
       </c>
       <c r="G1409" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39726,7 +39726,7 @@
         <v>39.4000015258789</v>
       </c>
       <c r="G1410" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39752,7 +39752,7 @@
         <v>39.7000007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39778,7 +39778,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1412" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39804,7 +39804,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1413" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39830,7 +39830,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1414" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39856,7 +39856,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1415" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39882,7 +39882,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1416" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39908,7 +39908,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1417" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39934,7 +39934,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1418" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39960,7 +39960,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1419" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39986,7 +39986,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1420" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40012,7 +40012,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1421" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40038,7 +40038,7 @@
         <v>41</v>
       </c>
       <c r="G1422" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40064,7 +40064,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1423" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40090,7 +40090,7 @@
         <v>42</v>
       </c>
       <c r="G1424" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40116,7 +40116,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1425" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40142,7 +40142,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1426" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40168,7 +40168,7 @@
         <v>43.2999992370605</v>
       </c>
       <c r="G1427" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40194,7 +40194,7 @@
         <v>43.9000015258789</v>
       </c>
       <c r="G1428" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40220,7 +40220,7 @@
         <v>44</v>
       </c>
       <c r="G1429" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40246,7 +40246,7 @@
         <v>44</v>
       </c>
       <c r="G1430" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40272,7 +40272,7 @@
         <v>45.4000015258789</v>
       </c>
       <c r="G1431" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40298,7 +40298,7 @@
         <v>44.5</v>
       </c>
       <c r="G1432" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40324,7 +40324,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1433" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40350,7 +40350,7 @@
         <v>45.7999992370605</v>
       </c>
       <c r="G1434" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40376,7 +40376,7 @@
         <v>47.0999984741211</v>
       </c>
       <c r="G1435" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40402,7 +40402,7 @@
         <v>47.7000007629395</v>
       </c>
       <c r="G1436" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40428,7 +40428,7 @@
         <v>47.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40454,7 +40454,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1438" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40480,7 +40480,7 @@
         <v>47.5999984741211</v>
       </c>
       <c r="G1439" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40506,7 +40506,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1440" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40532,7 +40532,7 @@
         <v>47.5</v>
       </c>
       <c r="G1441" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40558,7 +40558,7 @@
         <v>48</v>
       </c>
       <c r="G1442" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40584,7 +40584,7 @@
         <v>48</v>
       </c>
       <c r="G1443" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40610,7 +40610,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G1444" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40636,7 +40636,7 @@
         <v>48.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40662,7 +40662,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G1446" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40688,7 +40688,7 @@
         <v>47.5999984741211</v>
       </c>
       <c r="G1447" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40714,7 +40714,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1448" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40740,7 +40740,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G1449" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40766,7 +40766,7 @@
         <v>48</v>
       </c>
       <c r="G1450" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40792,7 +40792,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40818,7 +40818,7 @@
         <v>45.7999992370605</v>
       </c>
       <c r="G1452" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40844,7 +40844,7 @@
         <v>44.7999992370605</v>
       </c>
       <c r="G1453" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40870,7 +40870,7 @@
         <v>44.7999992370605</v>
       </c>
       <c r="G1454" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40896,7 +40896,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1455" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40922,7 +40922,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1456" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40948,7 +40948,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1457" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40974,7 +40974,7 @@
         <v>45</v>
       </c>
       <c r="G1458" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41000,7 +41000,7 @@
         <v>44.5999984741211</v>
       </c>
       <c r="G1459" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41026,7 +41026,7 @@
         <v>43.5</v>
       </c>
       <c r="G1460" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41052,7 +41052,7 @@
         <v>41.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41078,7 +41078,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1462" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41104,7 +41104,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1463" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41130,7 +41130,7 @@
         <v>41.5</v>
       </c>
       <c r="G1464" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41156,7 +41156,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1465" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41182,7 +41182,7 @@
         <v>42</v>
       </c>
       <c r="G1466" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41208,7 +41208,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1467" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41234,7 +41234,7 @@
         <v>42.2000007629395</v>
       </c>
       <c r="G1468" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41260,7 +41260,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1469" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41286,7 +41286,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1470" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41312,7 +41312,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1471" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41338,7 +41338,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1472" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41364,7 +41364,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1473" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41390,7 +41390,7 @@
         <v>43.5</v>
       </c>
       <c r="G1474" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41416,7 +41416,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1475" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41442,7 +41442,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1476" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41468,7 +41468,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1477" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41494,7 +41494,7 @@
         <v>44.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41520,7 +41520,7 @@
         <v>44.5999984741211</v>
       </c>
       <c r="G1479" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41546,7 +41546,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1480" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41572,7 +41572,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1481" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41598,7 +41598,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1482" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41624,7 +41624,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1483" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41650,7 +41650,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1484" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41676,7 +41676,7 @@
         <v>43</v>
       </c>
       <c r="G1485" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41702,7 +41702,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41728,7 +41728,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1487" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41754,7 +41754,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1488" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41780,7 +41780,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1489" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41806,7 +41806,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1490" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41832,7 +41832,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1491" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41858,7 +41858,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1492" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41884,7 +41884,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1493" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41910,7 +41910,7 @@
         <v>43</v>
       </c>
       <c r="G1494" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41936,7 +41936,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1495" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41962,7 +41962,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1496" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41988,7 +41988,7 @@
         <v>43</v>
       </c>
       <c r="G1497" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42014,7 +42014,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1498" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42040,7 +42040,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1499" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42066,7 +42066,7 @@
         <v>43.5</v>
       </c>
       <c r="G1500" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42092,7 +42092,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1501" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42118,7 +42118,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1502" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42144,7 +42144,7 @@
         <v>43</v>
       </c>
       <c r="G1503" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42170,7 +42170,7 @@
         <v>42.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42196,7 +42196,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1505" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42222,7 +42222,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1506" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42248,7 +42248,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1507" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42274,7 +42274,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1508" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42300,7 +42300,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1509" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42326,7 +42326,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1510" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42352,7 +42352,7 @@
         <v>42.5</v>
       </c>
       <c r="G1511" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42378,7 +42378,7 @@
         <v>43</v>
       </c>
       <c r="G1512" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42404,7 +42404,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1513" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42430,7 +42430,7 @@
         <v>41.5</v>
       </c>
       <c r="G1514" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42456,7 +42456,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42482,7 +42482,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42508,7 +42508,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1517" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42534,7 +42534,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1518" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42560,7 +42560,7 @@
         <v>41.5</v>
       </c>
       <c r="G1519" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42586,7 +42586,7 @@
         <v>40.5</v>
       </c>
       <c r="G1520" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42612,7 +42612,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1521" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42638,7 +42638,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1522" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42664,7 +42664,7 @@
         <v>40.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42690,7 +42690,7 @@
         <v>40.5</v>
       </c>
       <c r="G1524" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42716,7 +42716,7 @@
         <v>41</v>
       </c>
       <c r="G1525" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42742,7 +42742,7 @@
         <v>41.5</v>
       </c>
       <c r="G1526" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42768,7 +42768,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1527" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42794,7 +42794,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42820,7 +42820,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1529" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42846,7 +42846,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1530" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42872,7 +42872,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1531" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42898,7 +42898,7 @@
         <v>40.5</v>
       </c>
       <c r="G1532" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42924,7 +42924,7 @@
         <v>40.5999984741211</v>
       </c>
       <c r="G1533" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42950,7 +42950,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42976,7 +42976,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1535" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43002,7 +43002,7 @@
         <v>41.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43028,7 +43028,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1537" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43054,7 +43054,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1538" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43080,7 +43080,7 @@
         <v>42.5</v>
       </c>
       <c r="G1539" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43106,7 +43106,7 @@
         <v>41.9000015258789</v>
       </c>
       <c r="G1540" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43132,7 +43132,7 @@
         <v>42.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43158,7 +43158,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1542" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43184,7 +43184,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1543" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43210,7 +43210,7 @@
         <v>40.5</v>
       </c>
       <c r="G1544" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43236,7 +43236,7 @@
         <v>40.5</v>
       </c>
       <c r="G1545" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43262,7 +43262,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1546" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43288,7 +43288,7 @@
         <v>42</v>
       </c>
       <c r="G1547" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43314,7 +43314,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1548" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43340,7 +43340,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1549" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43366,7 +43366,7 @@
         <v>41.5</v>
       </c>
       <c r="G1550" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43392,7 +43392,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1551" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43418,7 +43418,7 @@
         <v>41</v>
       </c>
       <c r="G1552" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43444,7 +43444,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43470,7 +43470,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1554" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43496,7 +43496,7 @@
         <v>41</v>
       </c>
       <c r="G1555" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43522,7 +43522,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1556" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43548,7 +43548,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43574,7 +43574,7 @@
         <v>39.2999992370605</v>
       </c>
       <c r="G1558" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43600,7 +43600,7 @@
         <v>39.2000007629395</v>
       </c>
       <c r="G1559" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43626,7 +43626,7 @@
         <v>38.2999992370605</v>
       </c>
       <c r="G1560" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43652,7 +43652,7 @@
         <v>39</v>
       </c>
       <c r="G1561" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43678,7 +43678,7 @@
         <v>37</v>
       </c>
       <c r="G1562" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43704,7 +43704,7 @@
         <v>36.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43730,7 +43730,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1564" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43756,7 +43756,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G1565" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43782,7 +43782,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G1566" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43808,7 +43808,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1567" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43834,7 +43834,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1568" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43860,7 +43860,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1569" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43886,7 +43886,7 @@
         <v>34.7000007629395</v>
       </c>
       <c r="G1570" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43912,7 +43912,7 @@
         <v>34</v>
       </c>
       <c r="G1571" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43938,7 +43938,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1572" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43964,7 +43964,7 @@
         <v>33</v>
       </c>
       <c r="G1573" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43990,7 +43990,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1574" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44016,7 +44016,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1575" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44042,7 +44042,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1576" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44068,7 +44068,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1577" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44094,7 +44094,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G1578" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44120,7 +44120,7 @@
         <v>35.5</v>
       </c>
       <c r="G1579" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44146,7 +44146,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G1580" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44172,7 +44172,7 @@
         <v>38</v>
       </c>
       <c r="G1581" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44198,7 +44198,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1582" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44224,7 +44224,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1583" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44250,7 +44250,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1584" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44276,7 +44276,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1585" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44302,7 +44302,7 @@
         <v>35</v>
       </c>
       <c r="G1586" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44328,7 +44328,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G1587" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44354,7 +44354,7 @@
         <v>35.2000007629395</v>
       </c>
       <c r="G1588" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44380,7 +44380,7 @@
         <v>35</v>
       </c>
       <c r="G1589" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44406,7 +44406,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G1590" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44432,7 +44432,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1591" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44458,7 +44458,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1592" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44484,7 +44484,7 @@
         <v>35</v>
       </c>
       <c r="G1593" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44510,7 +44510,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G1594" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44536,7 +44536,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G1595" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44562,7 +44562,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G1596" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44588,7 +44588,7 @@
         <v>36.25</v>
       </c>
       <c r="G1597" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44614,7 +44614,7 @@
         <v>36.5</v>
       </c>
       <c r="G1598" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44640,7 +44640,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1599" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44666,7 +44666,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44692,7 +44692,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1601" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44718,7 +44718,7 @@
         <v>34.75</v>
       </c>
       <c r="G1602" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44744,7 +44744,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1603" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44770,7 +44770,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G1604" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44796,7 +44796,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G1605" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44822,7 +44822,7 @@
         <v>32.5</v>
       </c>
       <c r="G1606" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44848,7 +44848,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G1607" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44874,7 +44874,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44900,7 +44900,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44926,7 +44926,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1610" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44952,7 +44952,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G1611" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44978,7 +44978,7 @@
         <v>30</v>
       </c>
       <c r="G1612" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45004,7 +45004,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G1613" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45030,7 +45030,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1614" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45056,7 +45056,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G1615" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45082,7 +45082,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1616" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45108,7 +45108,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1617" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45134,7 +45134,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G1618" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45160,7 +45160,7 @@
         <v>32.5</v>
       </c>
       <c r="G1619" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45186,7 +45186,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1620" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45212,7 +45212,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45238,7 +45238,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45264,7 +45264,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1623" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45290,7 +45290,7 @@
         <v>29.25</v>
       </c>
       <c r="G1624" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45316,7 +45316,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45342,7 +45342,7 @@
         <v>28.5</v>
       </c>
       <c r="G1626" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45368,7 +45368,7 @@
         <v>28.5</v>
       </c>
       <c r="G1627" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45394,7 +45394,7 @@
         <v>28.25</v>
       </c>
       <c r="G1628" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45420,7 +45420,7 @@
         <v>28.25</v>
       </c>
       <c r="G1629" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45446,7 +45446,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1630" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45472,7 +45472,7 @@
         <v>28.25</v>
       </c>
       <c r="G1631" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45498,7 +45498,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45524,7 +45524,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45550,7 +45550,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1634" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45576,7 +45576,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45602,7 +45602,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45628,7 +45628,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1637" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45654,7 +45654,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45680,7 +45680,7 @@
         <v>27.25</v>
       </c>
       <c r="G1639" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45706,7 +45706,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1640" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45732,7 +45732,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1641" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45758,7 +45758,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45784,7 +45784,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45810,7 +45810,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1644" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45836,7 +45836,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1645" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45862,7 +45862,7 @@
         <v>27</v>
       </c>
       <c r="G1646" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45888,7 +45888,7 @@
         <v>26.75</v>
       </c>
       <c r="G1647" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45914,7 +45914,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45940,7 +45940,7 @@
         <v>26.75</v>
       </c>
       <c r="G1649" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45966,7 +45966,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1650" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45992,7 +45992,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46018,7 +46018,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1652" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46044,7 +46044,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1653" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46070,7 +46070,7 @@
         <v>26.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46096,7 +46096,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46122,7 +46122,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1656" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46148,7 +46148,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1657" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46174,7 +46174,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1658" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46200,7 +46200,7 @@
         <v>25.75</v>
       </c>
       <c r="G1659" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46226,7 +46226,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1660" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46252,7 +46252,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1661" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46278,7 +46278,7 @@
         <v>26</v>
       </c>
       <c r="G1662" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46304,7 +46304,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1663" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46330,7 +46330,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1664" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46356,7 +46356,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1665" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46382,7 +46382,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46408,7 +46408,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46434,7 +46434,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46460,7 +46460,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1669" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46486,7 +46486,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1670" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46512,7 +46512,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46538,7 +46538,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1672" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46564,7 +46564,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1673" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46590,7 +46590,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46616,7 +46616,7 @@
         <v>28</v>
       </c>
       <c r="G1675" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46642,7 +46642,7 @@
         <v>28.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46668,7 +46668,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46694,7 +46694,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46720,7 +46720,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G1679" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46746,7 +46746,7 @@
         <v>28</v>
       </c>
       <c r="G1680" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46772,7 +46772,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46798,7 +46798,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1682" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46824,7 +46824,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46850,7 +46850,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1684" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46876,7 +46876,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1685" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46902,7 +46902,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1686" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46928,7 +46928,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46954,7 +46954,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46980,7 +46980,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1689" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47006,7 +47006,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1690" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47032,7 +47032,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1691" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47058,7 +47058,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1692" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47084,7 +47084,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47110,7 +47110,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47136,7 +47136,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1695" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47162,7 +47162,7 @@
         <v>25.75</v>
       </c>
       <c r="G1696" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47188,7 +47188,7 @@
         <v>25.5</v>
       </c>
       <c r="G1697" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47214,7 +47214,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47240,7 +47240,7 @@
         <v>25.25</v>
       </c>
       <c r="G1699" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47266,7 +47266,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1700" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47292,7 +47292,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47318,7 +47318,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47344,7 +47344,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47370,7 +47370,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1704" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47396,7 +47396,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47422,7 +47422,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1706" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47448,7 +47448,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47474,7 +47474,7 @@
         <v>26</v>
       </c>
       <c r="G1708" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47500,7 +47500,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1709" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47526,7 +47526,7 @@
         <v>25</v>
       </c>
       <c r="G1710" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47552,7 +47552,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47578,7 +47578,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47604,7 +47604,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1713" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47630,7 +47630,7 @@
         <v>23.25</v>
       </c>
       <c r="G1714" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47656,7 +47656,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47682,7 +47682,7 @@
         <v>22.5</v>
       </c>
       <c r="G1716" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47708,7 +47708,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1717" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47734,7 +47734,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47760,7 +47760,7 @@
         <v>21.75</v>
       </c>
       <c r="G1719" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47786,7 +47786,7 @@
         <v>21.75</v>
       </c>
       <c r="G1720" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47812,7 +47812,7 @@
         <v>21.75</v>
       </c>
       <c r="G1721" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47838,7 +47838,7 @@
         <v>21.75</v>
       </c>
       <c r="G1722" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47864,7 +47864,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47890,7 +47890,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47916,7 +47916,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47942,7 +47942,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1726" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47968,7 +47968,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1727" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47994,7 +47994,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48020,7 +48020,7 @@
         <v>21.5</v>
       </c>
       <c r="G1729" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48046,7 +48046,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1730" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48072,7 +48072,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1731" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48098,7 +48098,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48124,7 +48124,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1733" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48150,7 +48150,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1734" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48176,7 +48176,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1735" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48202,7 +48202,7 @@
         <v>22.75</v>
       </c>
       <c r="G1736" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48228,7 +48228,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48254,7 +48254,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1738" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48280,7 +48280,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48306,7 +48306,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48332,7 +48332,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48358,7 +48358,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48384,7 +48384,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48410,7 +48410,7 @@
         <v>25</v>
       </c>
       <c r="G1744" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48436,7 +48436,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1745" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48462,7 +48462,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1746" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48488,7 +48488,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1747" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48514,7 +48514,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1748" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48540,7 +48540,7 @@
         <v>26.5</v>
       </c>
       <c r="G1749" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48566,7 +48566,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G1750" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48592,7 +48592,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48618,7 +48618,7 @@
         <v>25</v>
       </c>
       <c r="G1752" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48644,7 +48644,7 @@
         <v>25.25</v>
       </c>
       <c r="G1753" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48670,7 +48670,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48696,7 +48696,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1755" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48722,7 +48722,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48748,7 +48748,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48774,7 +48774,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48800,7 +48800,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1759" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48826,7 +48826,7 @@
         <v>26</v>
       </c>
       <c r="G1760" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48852,7 +48852,7 @@
         <v>26.5</v>
       </c>
       <c r="G1761" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48878,7 +48878,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1762" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48904,7 +48904,7 @@
         <v>27</v>
       </c>
       <c r="G1763" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48930,7 +48930,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1764" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48956,7 +48956,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1765" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48982,7 +48982,7 @@
         <v>27.25</v>
       </c>
       <c r="G1766" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49008,7 +49008,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1767" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49034,7 +49034,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1768" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49060,7 +49060,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1769" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49086,7 +49086,7 @@
         <v>27.75</v>
       </c>
       <c r="G1770" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49112,7 +49112,7 @@
         <v>27</v>
       </c>
       <c r="G1771" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49138,7 +49138,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1772" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49164,7 +49164,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1773" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49190,7 +49190,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49216,7 +49216,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1775" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49242,7 +49242,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49268,7 +49268,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1777" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49294,7 +49294,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1778" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49320,7 +49320,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1779" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49346,7 +49346,7 @@
         <v>27.5</v>
       </c>
       <c r="G1780" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49372,7 +49372,7 @@
         <v>27.5</v>
       </c>
       <c r="G1781" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49398,7 +49398,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49424,7 +49424,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49450,7 +49450,7 @@
         <v>27.5</v>
       </c>
       <c r="G1784" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49476,7 +49476,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49502,7 +49502,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G1786" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49528,7 +49528,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49554,7 +49554,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G1788" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49580,7 +49580,7 @@
         <v>29.75</v>
       </c>
       <c r="G1789" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49606,7 +49606,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1790" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49632,7 +49632,7 @@
         <v>30.25</v>
       </c>
       <c r="G1791" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49658,7 +49658,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49684,7 +49684,7 @@
         <v>30.25</v>
       </c>
       <c r="G1793" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49710,7 +49710,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49736,7 +49736,7 @@
         <v>30.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49762,7 +49762,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49788,7 +49788,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49814,7 +49814,7 @@
         <v>30.3500003814697</v>
       </c>
       <c r="G1798" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49840,7 +49840,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49866,7 +49866,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49892,7 +49892,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1801" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49918,7 +49918,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1802" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49944,7 +49944,7 @@
         <v>29.75</v>
       </c>
       <c r="G1803" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49970,7 +49970,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49996,7 +49996,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1805" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50022,7 +50022,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50048,7 +50048,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50074,7 +50074,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50100,7 +50100,7 @@
         <v>27.5</v>
       </c>
       <c r="G1809" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50126,7 +50126,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1810" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50152,7 +50152,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50178,7 +50178,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1812" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50204,7 +50204,7 @@
         <v>26</v>
       </c>
       <c r="G1813" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50230,7 +50230,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50256,7 +50256,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1815" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50282,7 +50282,7 @@
         <v>24.75</v>
       </c>
       <c r="G1816" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50308,7 +50308,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50334,7 +50334,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50360,7 +50360,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1819" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50386,7 +50386,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1820" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50412,7 +50412,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50438,7 +50438,7 @@
         <v>24.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50464,7 +50464,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50490,7 +50490,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50516,7 +50516,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1825" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50542,7 +50542,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50568,7 +50568,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50594,7 +50594,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50620,7 +50620,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50646,7 +50646,7 @@
         <v>25.25</v>
       </c>
       <c r="G1830" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50672,7 +50672,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50698,7 +50698,7 @@
         <v>25.25</v>
       </c>
       <c r="G1832" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50724,7 +50724,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50750,7 +50750,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50776,7 +50776,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1835" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50802,7 +50802,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50828,7 +50828,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50854,7 +50854,7 @@
         <v>22.25</v>
       </c>
       <c r="G1838" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50880,7 +50880,7 @@
         <v>22.25</v>
       </c>
       <c r="G1839" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50906,7 +50906,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1840" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50932,7 +50932,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50958,7 +50958,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1842" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50984,7 +50984,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51010,7 +51010,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1844" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51036,7 +51036,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1845" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51062,7 +51062,7 @@
         <v>23.5</v>
       </c>
       <c r="G1846" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51088,7 +51088,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1847" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51114,7 +51114,7 @@
         <v>24.5</v>
       </c>
       <c r="G1848" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51140,7 +51140,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1849" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51166,7 +51166,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51192,7 +51192,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51218,7 +51218,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1852" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51244,7 +51244,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1853" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51270,7 +51270,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51296,7 +51296,7 @@
         <v>23</v>
       </c>
       <c r="G1855" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51322,7 +51322,7 @@
         <v>23</v>
       </c>
       <c r="G1856" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51348,7 +51348,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51374,7 +51374,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1858" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51400,7 +51400,7 @@
         <v>23</v>
       </c>
       <c r="G1859" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51426,7 +51426,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51452,7 +51452,7 @@
         <v>23</v>
       </c>
       <c r="G1861" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51478,7 +51478,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51504,7 +51504,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1863" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51530,7 +51530,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1864" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51556,7 +51556,7 @@
         <v>23</v>
       </c>
       <c r="G1865" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51582,7 +51582,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1866" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51608,7 +51608,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1867" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51634,7 +51634,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51686,7 +51686,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1870" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51816,7 +51816,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51868,7 +51868,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51894,7 +51894,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52180,7 +52180,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52232,7 +52232,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52258,7 +52258,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52284,7 +52284,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1893" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52310,7 +52310,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52466,7 +52466,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1900" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -58896,7 +58896,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6508333333</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>1616</v>
@@ -58917,6 +58917,32 @@
         <v>896</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6458217593</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>377</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>21.7000007629395</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>21.3999996185303</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>21.3999996185303</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>21.6000003814697</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>899</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="906">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991802215576</t>
+    <t xml:space="preserve">8.20991706848145</t>
   </si>
   <si>
     <t xml:space="preserve">IWB.MI</t>
@@ -50,91 +50,91 @@
     <t xml:space="preserve">8.19319438934326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10122966766357</t>
+    <t xml:space="preserve">8.10123157501221</t>
   </si>
   <si>
     <t xml:space="preserve">8.10959053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06778907775879</t>
+    <t xml:space="preserve">8.06779003143311</t>
   </si>
   <si>
     <t xml:space="preserve">8.05106925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94238424301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877990722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976835250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189586639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69156980514526</t>
+    <t xml:space="preserve">7.94238328933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85877847671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976930618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7918963432312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69157075881958</t>
   </si>
   <si>
     <t xml:space="preserve">7.63304805755615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59960651397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63722896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62886810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60796737670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5828857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665239334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697702407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48256063461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75845432281494</t>
+    <t xml:space="preserve">7.59960603713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722848892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62886762619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60796785354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58288621902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665287017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517461776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81697654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48256158828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75845193862915</t>
   </si>
   <si>
     <t xml:space="preserve">7.6664891242981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62468767166138</t>
+    <t xml:space="preserve">7.62468814849854</t>
   </si>
   <si>
     <t xml:space="preserve">7.31535243988037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44075775146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5243616104126</t>
+    <t xml:space="preserve">7.440758228302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52436208724976</t>
   </si>
   <si>
     <t xml:space="preserve">7.59124708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76263475418091</t>
+    <t xml:space="preserve">7.76263427734375</t>
   </si>
   <si>
     <t xml:space="preserve">7.76681470870972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98418426513672</t>
+    <t xml:space="preserve">7.98418474197388</t>
   </si>
   <si>
     <t xml:space="preserve">8.02598762512207</t>
@@ -143,106 +143,106 @@
     <t xml:space="preserve">7.84623908996582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93402194976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26007747650146</t>
+    <t xml:space="preserve">7.93402290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007843017578</t>
   </si>
   <si>
     <t xml:space="preserve">8.35622406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27679824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89221906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18483257293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9967246055603</t>
+    <t xml:space="preserve">8.2767972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89221954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18483448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672555923462</t>
   </si>
   <si>
     <t xml:space="preserve">7.97582387924194</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13467216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12631225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15139389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2349967956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762676239014</t>
+    <t xml:space="preserve">8.13467121124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12631130218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15139293670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23499870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07614898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762580871582</t>
   </si>
   <si>
     <t xml:space="preserve">7.92148208618164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90894174575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73337316513062</t>
+    <t xml:space="preserve">7.9089412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73337173461914</t>
   </si>
   <si>
     <t xml:space="preserve">7.80861663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95910358428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89640045166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70829248428345</t>
+    <t xml:space="preserve">7.95910406112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89640092849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829057693481</t>
   </si>
   <si>
     <t xml:space="preserve">7.65394926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67067050933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68738985061646</t>
+    <t xml:space="preserve">7.67066955566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68739128112793</t>
   </si>
   <si>
     <t xml:space="preserve">7.85041809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57870626449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780458450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452630996704</t>
+    <t xml:space="preserve">7.57870435714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55780553817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452535629272</t>
   </si>
   <si>
     <t xml:space="preserve">7.80443525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81279754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920871734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174858093262</t>
+    <t xml:space="preserve">7.81279611587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239974975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920824050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174715042114</t>
   </si>
   <si>
     <t xml:space="preserve">7.27355098724365</t>
@@ -254,52 +254,52 @@
     <t xml:space="preserve">7.18994760513306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19412612915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1983060836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18576622009277</t>
+    <t xml:space="preserve">7.19412660598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19830656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18576574325562</t>
   </si>
   <si>
     <t xml:space="preserve">7.06454038619995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05618047714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978481292725</t>
+    <t xml:space="preserve">7.05618095397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978385925293</t>
   </si>
   <si>
     <t xml:space="preserve">6.97257614135742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14814376831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21502733230591</t>
+    <t xml:space="preserve">7.14814424514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21502780914307</t>
   </si>
   <si>
     <t xml:space="preserve">7.35715484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39895677566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67485094070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59542608261108</t>
+    <t xml:space="preserve">7.3989577293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67484998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5954270362854</t>
   </si>
   <si>
     <t xml:space="preserve">7.51182222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60378646850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56616353988647</t>
+    <t xml:space="preserve">7.60378742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56616544723511</t>
   </si>
   <si>
     <t xml:space="preserve">7.42403888702393</t>
@@ -308,55 +308,55 @@
     <t xml:space="preserve">7.51600122451782</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52018260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108333587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47419929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45329999923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1054105758667</t>
+    <t xml:space="preserve">7.52018308639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54108476638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47420024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45330047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5703444480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10541152954102</t>
   </si>
   <si>
     <t xml:space="preserve">8.19737529754639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35204315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2935209274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09286975860596</t>
+    <t xml:space="preserve">8.35204219818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29351997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303112030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254560470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09287166595459</t>
   </si>
   <si>
     <t xml:space="preserve">8.44400787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5944938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54433250427246</t>
+    <t xml:space="preserve">8.59449481964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54433441162109</t>
   </si>
   <si>
     <t xml:space="preserve">8.56105136871338</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65301704406738</t>
+    <t xml:space="preserve">8.6530179977417</t>
   </si>
   <si>
     <t xml:space="preserve">8.97071170806885</t>
@@ -365,37 +365,37 @@
     <t xml:space="preserve">8.945631980896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73662090301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86202812194824</t>
+    <t xml:space="preserve">8.73661994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86202526092529</t>
   </si>
   <si>
     <t xml:space="preserve">8.92055130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90382862091064</t>
+    <t xml:space="preserve">8.90382766723633</t>
   </si>
   <si>
     <t xml:space="preserve">8.99579524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00415515899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97907257080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04722595214844</t>
+    <t xml:space="preserve">9.00415420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9790735244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0472240447998</t>
   </si>
   <si>
     <t xml:space="preserve">9.07278251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01315021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03018760681152</t>
+    <t xml:space="preserve">9.01314830780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03018856048584</t>
   </si>
   <si>
     <t xml:space="preserve">9.15797328948975</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">9.14945316314697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26871967315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25168228149414</t>
+    <t xml:space="preserve">9.26872062683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25168132781982</t>
   </si>
   <si>
     <t xml:space="preserve">9.32835388183594</t>
@@ -425,46 +425,46 @@
     <t xml:space="preserve">9.45614051818848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42206382751465</t>
+    <t xml:space="preserve">9.42206192016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.36243057250977</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41354465484619</t>
+    <t xml:space="preserve">9.41354370117188</t>
   </si>
   <si>
     <t xml:space="preserve">9.54984855651855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61800098419189</t>
+    <t xml:space="preserve">9.61800193786621</t>
   </si>
   <si>
     <t xml:space="preserve">9.54133033752441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56688594818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39650630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5583667755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59244537353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5839262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948181152344</t>
+    <t xml:space="preserve">9.56688690185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39650535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55836772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59244441986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58392524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948276519775</t>
   </si>
   <si>
     <t xml:space="preserve">9.57540607452393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49021434783936</t>
+    <t xml:space="preserve">9.49021530151367</t>
   </si>
   <si>
     <t xml:space="preserve">9.37946891784668</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">9.20908641815186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20056819915771</t>
+    <t xml:space="preserve">9.20057010650635</t>
   </si>
   <si>
     <t xml:space="preserve">9.27723979949951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3198356628418</t>
+    <t xml:space="preserve">9.31983470916748</t>
   </si>
   <si>
     <t xml:space="preserve">9.30279636383057</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">9.53281116485596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62652111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71170997619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7883825302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83097839355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75430583953857</t>
+    <t xml:space="preserve">9.62652015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71170902252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78838157653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83097743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75430488586426</t>
   </si>
   <si>
     <t xml:space="preserve">10.0950679779053</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3591575622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4528675079346</t>
+    <t xml:space="preserve">10.3591585159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4528694152832</t>
   </si>
   <si>
     <t xml:space="preserve">10.5891733169556</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">10.6062116622925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6488056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5721340179443</t>
+    <t xml:space="preserve">10.6488046646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.57213306427</t>
   </si>
   <si>
     <t xml:space="preserve">10.6232490539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5636157989502</t>
+    <t xml:space="preserve">10.5636148452759</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017524719238</t>
@@ -545,16 +545,16 @@
     <t xml:space="preserve">10.2228536605835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2910051345825</t>
+    <t xml:space="preserve">10.2910070419312</t>
   </si>
   <si>
     <t xml:space="preserve">10.3761968612671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2484092712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2313709259033</t>
+    <t xml:space="preserve">10.2484102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.231372833252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2398920059204</t>
@@ -563,10 +563,10 @@
     <t xml:space="preserve">10.4187917709351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4784250259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4613876342773</t>
+    <t xml:space="preserve">10.4784240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.461386680603</t>
   </si>
   <si>
     <t xml:space="preserve">10.3421201705933</t>
@@ -575,34 +575,34 @@
     <t xml:space="preserve">10.3165626525879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3080434799194</t>
+    <t xml:space="preserve">10.3080444335938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506383895874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.733998298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8191871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9469738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0151243209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0662384033203</t>
+    <t xml:space="preserve">10.7339963912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9469728469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0151252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0662393569946</t>
   </si>
   <si>
     <t xml:space="preserve">11.0321636199951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0236434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9895677566528</t>
+    <t xml:space="preserve">11.023642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9895668029785</t>
   </si>
   <si>
     <t xml:space="preserve">11.0406827926636</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">10.8277063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021488189697</t>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021478652954</t>
   </si>
   <si>
     <t xml:space="preserve">10.8617820739746</t>
@@ -626,31 +626,31 @@
     <t xml:space="preserve">10.9043779373169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8958597183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8532629013062</t>
+    <t xml:space="preserve">10.8958568572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8532619476318</t>
   </si>
   <si>
     <t xml:space="preserve">10.8703012466431</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7680730819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7425146102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999187469482</t>
+    <t xml:space="preserve">10.7680740356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7425155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999206542969</t>
   </si>
   <si>
     <t xml:space="preserve">10.665843963623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7936296463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6914033889771</t>
+    <t xml:space="preserve">10.7936315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6914014816284</t>
   </si>
   <si>
     <t xml:space="preserve">10.7595529556274</t>
@@ -665,52 +665,52 @@
     <t xml:space="preserve">10.7169570922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0747585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1599493026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2025442123413</t>
+    <t xml:space="preserve">11.0747575759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.159948348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2025451660156</t>
   </si>
   <si>
     <t xml:space="preserve">11.2451391220093</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2877349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1173524856567</t>
+    <t xml:space="preserve">11.2877359390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1173543930054</t>
   </si>
   <si>
     <t xml:space="preserve">11.3729248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3303289413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433044433594</t>
+    <t xml:space="preserve">11.3303298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433053970337</t>
   </si>
   <si>
     <t xml:space="preserve">11.7562808990479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9692573547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2248287200928</t>
+    <t xml:space="preserve">11.9692583084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2248296737671</t>
   </si>
   <si>
     <t xml:space="preserve">11.585901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5007095336914</t>
+    <t xml:space="preserve">11.50071144104</t>
   </si>
   <si>
     <t xml:space="preserve">11.6710910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8414707183838</t>
+    <t xml:space="preserve">11.8414716720581</t>
   </si>
   <si>
     <t xml:space="preserve">11.7988767623901</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">11.7136859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8840656280518</t>
+    <t xml:space="preserve">11.8840665817261</t>
   </si>
   <si>
     <t xml:space="preserve">12.0156259536743</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0594778060913</t>
+    <t xml:space="preserve">12.0594787597656</t>
   </si>
   <si>
     <t xml:space="preserve">12.1033296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.927921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332450866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6648044586182</t>
+    <t xml:space="preserve">11.9279193878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648025512695</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525091171265</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">11.7086572647095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7963619232178</t>
+    <t xml:space="preserve">11.7963628768921</t>
   </si>
   <si>
     <t xml:space="preserve">11.4016885757446</t>
@@ -755,10 +755,13 @@
     <t xml:space="preserve">11.5770978927612</t>
   </si>
   <si>
+    <t xml:space="preserve">11.8840675354004</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.9717721939087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3578367233276</t>
+    <t xml:space="preserve">11.357834815979</t>
   </si>
   <si>
     <t xml:space="preserve">11.1824245452881</t>
@@ -770,37 +773,37 @@
     <t xml:space="preserve">11.8046178817749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7141590118408</t>
+    <t xml:space="preserve">11.7141599655151</t>
   </si>
   <si>
     <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6689310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4427890777588</t>
+    <t xml:space="preserve">11.6689329147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4427881240845</t>
   </si>
   <si>
     <t xml:space="preserve">11.5784749984741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6237020492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880180358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618761062622</t>
+    <t xml:space="preserve">11.623703956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.488018989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618751525879</t>
   </si>
   <si>
     <t xml:space="preserve">11.0809621810913</t>
   </si>
   <si>
-    <t xml:space="preserve">11.352334022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.216646194458</t>
+    <t xml:space="preserve">11.3523330688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2166481018066</t>
   </si>
   <si>
     <t xml:space="preserve">11.1714200973511</t>
@@ -809,31 +812,31 @@
     <t xml:space="preserve">11.3071041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3975620269775</t>
+    <t xml:space="preserve">11.3975610733032</t>
   </si>
   <si>
     <t xml:space="preserve">11.1261901855469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9403009414673</t>
+    <t xml:space="preserve">11.9403018951416</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.895073890686</t>
+    <t xml:space="preserve">11.8950729370117</t>
   </si>
   <si>
     <t xml:space="preserve">12.0759878158569</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1664457321167</t>
+    <t xml:space="preserve">12.1664447784424</t>
   </si>
   <si>
     <t xml:space="preserve">12.1212158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9452781677246</t>
+    <t xml:space="preserve">10.9452772140503</t>
   </si>
   <si>
     <t xml:space="preserve">10.8095903396606</t>
@@ -842,265 +845,265 @@
     <t xml:space="preserve">10.8548202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7643623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9905042648315</t>
+    <t xml:space="preserve">10.7643632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9905052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4929933547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4025354385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0407094955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0859365463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2668514251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3120784759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99548053741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45273876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22659778594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27182579040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18136787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796772003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5884256362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67888164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7241096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191352844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311664581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4477643966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3573064804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1763935089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9050235748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95025253295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81456756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85979557037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63365268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382213592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7740545272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6803665161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.63352394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8208990097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145860671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677415847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5866804122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7272100448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9614305496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1488046646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2893362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2424926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0551176071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1956481933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6172409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.476710319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4298677444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640853881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7577743530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9919919967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8514595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7109298706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.89830493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9451484680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5703992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.179368019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2730541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2262115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3198976516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3667411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4135856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0856790542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1325235366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5235538482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3361806869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5541162490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478042602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6009607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7883348464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7414922714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9288673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8351793289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757099151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.882022857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2567720413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2099275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1630849838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1019611358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5398368835449</t>
   </si>
   <si>
     <t xml:space="preserve">10.4929943084717</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4025344848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0407094955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0859365463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2668504714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3120775222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99548053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45273971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22659778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27182579040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18136787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58842372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67888164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76933860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7241096496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191352844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311645507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4477643966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3573064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2216215133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1763935089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90502262115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95025253295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81456756591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85979557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63365268707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382213592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7740545272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6803674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6335229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8208990097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677434921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5866804122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7272109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9614295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1488046646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2893352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2424926757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.055118560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1956472396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.617241859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4767112731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4298677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830223083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640863418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8046188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.757773399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9919929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8514604568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7109298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.89830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9451465606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5703983306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2730541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2262105941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3198976516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3667411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4135856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0856790542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082740783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5235548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3361806869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5541162490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478052139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6009607315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946468353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7883348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.741491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9288663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8351793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757099151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8820219039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2567720413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2099285125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1630849838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1019611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.071400642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5398368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0693960189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4604301452637</t>
+    <t xml:space="preserve">13.0693979263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.460428237915</t>
   </si>
   <si>
     <t xml:space="preserve">13.7720537185669</t>
@@ -1109,49 +1112,49 @@
     <t xml:space="preserve">14.3341779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5215530395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6620836257935</t>
+    <t xml:space="preserve">14.5215539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6620845794678</t>
   </si>
   <si>
     <t xml:space="preserve">14.8026151657104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8963031768799</t>
+    <t xml:space="preserve">14.8963022232056</t>
   </si>
   <si>
     <t xml:space="preserve">14.8494596481323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5683975219727</t>
+    <t xml:space="preserve">14.5683965682983</t>
   </si>
   <si>
     <t xml:space="preserve">14.6152400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4278650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431476593018</t>
+    <t xml:space="preserve">14.4278659820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431457519531</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.146803855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0531148910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1936473846436</t>
+    <t xml:space="preserve">14.1468029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0531158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1936464309692</t>
   </si>
   <si>
     <t xml:space="preserve">14.2404899597168</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3347969055176</t>
+    <t xml:space="preserve">14.3347978591919</t>
   </si>
   <si>
     <t xml:space="preserve">14.429105758667</t>
@@ -1160,31 +1163,28 @@
     <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2876443862915</t>
+    <t xml:space="preserve">14.2876434326172</t>
   </si>
   <si>
     <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2404909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9104118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7689504623413</t>
+    <t xml:space="preserve">13.9104127883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7689514160156</t>
   </si>
   <si>
     <t xml:space="preserve">13.6746425628662</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5803337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2974109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.155948638916</t>
+    <t xml:space="preserve">13.5803346633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2974100112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1559495925903</t>
   </si>
   <si>
     <t xml:space="preserve">13.2031021118164</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">13.9575662612915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0990285873413</t>
+    <t xml:space="preserve">13.7217969894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.099027633667</t>
   </si>
   <si>
     <t xml:space="preserve">13.5331811904907</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">13.3445644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4388742446899</t>
+    <t xml:space="preserve">13.4388723373413</t>
   </si>
   <si>
     <t xml:space="preserve">14.7120294570923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5234136581421</t>
+    <t xml:space="preserve">14.5234146118164</t>
   </si>
   <si>
     <t xml:space="preserve">14.8534917831421</t>
@@ -1223,16 +1223,16 @@
     <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1835699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1364135742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2778768539429</t>
+    <t xml:space="preserve">15.042106628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1835689544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1364145278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2778778076172</t>
   </si>
   <si>
     <t xml:space="preserve">15.372184753418</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">16.0323429107666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8908786773682</t>
+    <t xml:space="preserve">15.8908777236938</t>
   </si>
   <si>
     <t xml:space="preserve">16.9754180908203</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">17.5884189605713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5786533355713</t>
+    <t xml:space="preserve">18.5786552429199</t>
   </si>
   <si>
     <t xml:space="preserve">18.8615760803223</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">18.7672691345215</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1542682647705</t>
+    <t xml:space="preserve">18.1542663574219</t>
   </si>
   <si>
     <t xml:space="preserve">18.2485752105713</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">18.295726776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8241863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998050689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4941120147705</t>
+    <t xml:space="preserve">17.8241901397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4941101074219</t>
   </si>
   <si>
     <t xml:space="preserve">17.1640338897705</t>
@@ -1307,25 +1307,25 @@
     <t xml:space="preserve">17.7298812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5412654876709</t>
+    <t xml:space="preserve">17.5412673950195</t>
   </si>
   <si>
     <t xml:space="preserve">16.5981864929199</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7396469116211</t>
+    <t xml:space="preserve">16.7396488189697</t>
   </si>
   <si>
     <t xml:space="preserve">17.2583427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1168804168701</t>
+    <t xml:space="preserve">17.1168785095215</t>
   </si>
   <si>
     <t xml:space="preserve">16.9282646179199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3526496887207</t>
+    <t xml:space="preserve">17.3526477813721</t>
   </si>
   <si>
     <t xml:space="preserve">17.3054962158203</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">16.4095706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8339557647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152618408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0225734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184951782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3900375366211</t>
+    <t xml:space="preserve">16.8339595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152637481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184970855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3900356292725</t>
   </si>
   <si>
     <t xml:space="preserve">18.4843444824219</t>
@@ -1355,73 +1355,73 @@
     <t xml:space="preserve">18.6729583740234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4274234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2388095855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.616039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2761974334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9363498687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5021953582764</t>
+    <t xml:space="preserve">19.4274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2388076782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6160373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.276195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.936351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5021934509277</t>
   </si>
   <si>
     <t xml:space="preserve">21.4078884124756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2192726135254</t>
+    <t xml:space="preserve">21.219274520874</t>
   </si>
   <si>
     <t xml:space="preserve">21.3135814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0306549072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965042114258</t>
+    <t xml:space="preserve">21.0306587219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965023040771</t>
   </si>
   <si>
     <t xml:space="preserve">21.6908111572266</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4826641082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9168128967285</t>
+    <t xml:space="preserve">23.4826622009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9168148040771</t>
   </si>
   <si>
     <t xml:space="preserve">22.5332717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1497249603271</t>
+    <t xml:space="preserve">22.1497268676758</t>
   </si>
   <si>
     <t xml:space="preserve">22.7250423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3962459564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4921321868896</t>
+    <t xml:space="preserve">23.3962478637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4921340942383</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1085891723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0127010345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6291580200195</t>
+    <t xml:space="preserve">23.1085872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0127029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6291561126709</t>
   </si>
   <si>
     <t xml:space="preserve">24.3551082611084</t>
@@ -1439,31 +1439,31 @@
     <t xml:space="preserve">23.6839046478271</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0674514770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633358001709</t>
+    <t xml:space="preserve">24.0674495697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633377075195</t>
   </si>
   <si>
     <t xml:space="preserve">25.2180843353271</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4098567962646</t>
+    <t xml:space="preserve">25.4098587036133</t>
   </si>
   <si>
     <t xml:space="preserve">26.0810623168945</t>
   </si>
   <si>
-    <t xml:space="preserve">27.423469543457</t>
+    <t xml:space="preserve">27.4234676361084</t>
   </si>
   <si>
     <t xml:space="preserve">28.0946731567383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9029026031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.574104309082</t>
+    <t xml:space="preserve">27.9028987884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5741024017334</t>
   </si>
   <si>
     <t xml:space="preserve">27.7111263275146</t>
@@ -1472,88 +1472,88 @@
     <t xml:space="preserve">27.9987888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8070125579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5193557739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7522659301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2864437103271</t>
+    <t xml:space="preserve">27.807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5193538665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7522640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2864456176758</t>
   </si>
   <si>
     <t xml:space="preserve">30.4918270111084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7247409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4370803833008</t>
+    <t xml:space="preserve">29.724739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4370784759521</t>
   </si>
   <si>
     <t xml:space="preserve">29.5329666137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6779747009277</t>
+    <t xml:space="preserve">29.6779727935791</t>
   </si>
   <si>
     <t xml:space="preserve">29.7746429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3879623413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2912902832031</t>
+    <t xml:space="preserve">29.3879585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2912883758545</t>
   </si>
   <si>
     <t xml:space="preserve">29.1946182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0012760162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4513397216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3213806152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1280364990234</t>
+    <t xml:space="preserve">29.001277923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4513416290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3213787078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1280384063721</t>
   </si>
   <si>
     <t xml:space="preserve">30.7413520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1613292694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.257999420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0646572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3546676635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2247066497803</t>
+    <t xml:space="preserve">30.1613311767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2579975128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0646591186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3546695709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2247085571289</t>
   </si>
   <si>
     <t xml:space="preserve">31.5147190093994</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6113929748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4180507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8047370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5781021118164</t>
+    <t xml:space="preserve">31.6113910675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4180488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8047351837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5780982971191</t>
   </si>
   <si>
     <t xml:space="preserve">32.2880897521973</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.901403427124</t>
+    <t xml:space="preserve">31.9014053344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1592,34 +1592,34 @@
     <t xml:space="preserve">39.1517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9551849365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9583778381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.635082244873</t>
+    <t xml:space="preserve">41.9551811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6350746154785</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4417381286621</t>
+    <t xml:space="preserve">39.3450660705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4417343139648</t>
   </si>
   <si>
     <t xml:space="preserve">39.5384101867676</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8617095947266</t>
+    <t xml:space="preserve">38.8617134094238</t>
   </si>
   <si>
     <t xml:space="preserve">40.3117752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1184310913086</t>
+    <t xml:space="preserve">40.1184349060059</t>
   </si>
   <si>
     <t xml:space="preserve">38.1850166320801</t>
@@ -1640,28 +1640,28 @@
     <t xml:space="preserve">39.8284187316895</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2151031494141</t>
+    <t xml:space="preserve">40.2150993347168</t>
   </si>
   <si>
     <t xml:space="preserve">40.6017875671387</t>
   </si>
   <si>
-    <t xml:space="preserve">41.181812286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6651649475098</t>
+    <t xml:space="preserve">41.1818161010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.665168762207</t>
   </si>
   <si>
     <t xml:space="preserve">41.8585090637207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.438533782959</t>
+    <t xml:space="preserve">42.4385375976562</t>
   </si>
   <si>
     <t xml:space="preserve">42.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8886032104492</t>
+    <t xml:space="preserve">43.888599395752</t>
   </si>
   <si>
     <t xml:space="preserve">43.0185585021973</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">44.2752799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5320014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1120300292969</t>
+    <t xml:space="preserve">45.5320053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1120338439941</t>
   </si>
   <si>
     <t xml:space="preserve">45.9186897277832</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7253494262695</t>
+    <t xml:space="preserve">45.7253456115723</t>
   </si>
   <si>
     <t xml:space="preserve">46.0153579711914</t>
@@ -1691,10 +1691,10 @@
     <t xml:space="preserve">46.402042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">47.078742980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8853988647461</t>
+    <t xml:space="preserve">47.0787391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8853950500488</t>
   </si>
   <si>
     <t xml:space="preserve">46.595386505127</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">43.5019149780273</t>
   </si>
   <si>
-    <t xml:space="preserve">43.115234375</t>
+    <t xml:space="preserve">43.1152305603027</t>
   </si>
   <si>
     <t xml:space="preserve">42.0518531799316</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">40.7951316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9884719848633</t>
+    <t xml:space="preserve">40.9884757995605</t>
   </si>
   <si>
     <t xml:space="preserve">41.3751564025879</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">42.9218902587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5684928894043</t>
+    <t xml:space="preserve">41.5684967041016</t>
   </si>
   <si>
     <t xml:space="preserve">41.7618408203125</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">42.3418617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4718246459961</t>
+    <t xml:space="preserve">41.4718284606934</t>
   </si>
   <si>
     <t xml:space="preserve">40.4084434509277</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">39.2483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5051231384277</t>
+    <t xml:space="preserve">40.5051155090332</t>
   </si>
   <si>
     <t xml:space="preserve">40.8917999267578</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">37.8950042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0249671936035</t>
+    <t xml:space="preserve">37.0249633789062</t>
   </si>
   <si>
     <t xml:space="preserve">37.70166015625</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">35.1882171630859</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2215118408203</t>
+    <t xml:space="preserve">34.221508026123</t>
   </si>
   <si>
     <t xml:space="preserve">33.4481391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5448112487793</t>
+    <t xml:space="preserve">33.5448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">32.8681144714355</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">33.1581268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">33.738151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3181800842285</t>
+    <t xml:space="preserve">33.7381553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3181762695312</t>
   </si>
   <si>
     <t xml:space="preserve">35.4782295227051</t>
@@ -1832,28 +1832,28 @@
     <t xml:space="preserve">36.3482627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6382827758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8348197937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9314918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0281639099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9647827148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7714462280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0131225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3998031616211</t>
+    <t xml:space="preserve">36.6382789611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8348236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9314956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0281677246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.964786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7714424133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.013126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3998069763184</t>
   </si>
   <si>
     <t xml:space="preserve">33.6414794921875</t>
@@ -1862,19 +1862,19 @@
     <t xml:space="preserve">35.0432090759277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9615859985352</t>
+    <t xml:space="preserve">35.9615821838379</t>
   </si>
   <si>
     <t xml:space="preserve">35.4298934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">33.593147277832</t>
+    <t xml:space="preserve">33.5931434631348</t>
   </si>
   <si>
     <t xml:space="preserve">31.9497394561768</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7563953399658</t>
+    <t xml:space="preserve">31.7563972473145</t>
   </si>
   <si>
     <t xml:space="preserve">30.1129932403564</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">29.3866996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2897167205811</t>
+    <t xml:space="preserve">29.2897148132324</t>
   </si>
   <si>
     <t xml:space="preserve">29.9686145782471</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">30.8899803161621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5203895568848</t>
+    <t xml:space="preserve">31.5203876495361</t>
   </si>
   <si>
     <t xml:space="preserve">30.9384727478027</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">30.4535446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1927299499512</t>
+    <t xml:space="preserve">29.1927280426025</t>
   </si>
   <si>
     <t xml:space="preserve">28.9987564086914</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">27.3984909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8349285125732</t>
+    <t xml:space="preserve">27.8349266052246</t>
   </si>
   <si>
     <t xml:space="preserve">27.4469833374023</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">27.5439682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0105495452881</t>
+    <t xml:space="preserve">27.0105476379395</t>
   </si>
   <si>
     <t xml:space="preserve">26.8165760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4286327362061</t>
+    <t xml:space="preserve">26.4286346435547</t>
   </si>
   <si>
     <t xml:space="preserve">25.8467178344727</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">25.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0708312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.828369140625</t>
+    <t xml:space="preserve">25.0708332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8283672332764</t>
   </si>
   <si>
     <t xml:space="preserve">26.1861686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9437046051025</t>
+    <t xml:space="preserve">25.9437026977539</t>
   </si>
   <si>
     <t xml:space="preserve">25.4102821350098</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">25.0223388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3132953643799</t>
+    <t xml:space="preserve">25.3132972717285</t>
   </si>
   <si>
     <t xml:space="preserve">26.0406894683838</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">26.1376762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0590419769287</t>
+    <t xml:space="preserve">27.0590400695801</t>
   </si>
   <si>
     <t xml:space="preserve">26.2831554412842</t>
@@ -2090,22 +2090,22 @@
     <t xml:space="preserve">22.258243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8218078613281</t>
+    <t xml:space="preserve">21.8218059539795</t>
   </si>
   <si>
     <t xml:space="preserve">21.6763286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9004402160645</t>
+    <t xml:space="preserve">20.9004421234131</t>
   </si>
   <si>
     <t xml:space="preserve">21.0944137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429042816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7549610137939</t>
+    <t xml:space="preserve">21.1429061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7549629211426</t>
   </si>
   <si>
     <t xml:space="preserve">20.4640064239502</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">20.5124988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8519477844238</t>
+    <t xml:space="preserve">20.8519496917725</t>
   </si>
   <si>
     <t xml:space="preserve">20.9974269866943</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">21.5308494567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0642719268799</t>
+    <t xml:space="preserve">22.0642700195312</t>
   </si>
   <si>
     <t xml:space="preserve">22.5976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0826206207275</t>
+    <t xml:space="preserve">23.0826225280762</t>
   </si>
   <si>
     <t xml:space="preserve">23.4705657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4220714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3735790252686</t>
+    <t xml:space="preserve">23.4220733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3735809326172</t>
   </si>
   <si>
     <t xml:space="preserve">24.7798748016357</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">26.3316478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3801403045654</t>
+    <t xml:space="preserve">26.3801422119141</t>
   </si>
   <si>
     <t xml:space="preserve">25.9921951293945</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">26.5256195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7195911407471</t>
+    <t xml:space="preserve">26.7195892333984</t>
   </si>
   <si>
     <t xml:space="preserve">26.4771251678467</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">26.6710987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9502658843994</t>
+    <t xml:space="preserve">28.9502639770508</t>
   </si>
   <si>
     <t xml:space="preserve">28.4653358459473</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">28.8532791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3382091522217</t>
+    <t xml:space="preserve">29.338207244873</t>
   </si>
   <si>
     <t xml:space="preserve">29.4836845397949</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">29.5806713104248</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4351921081543</t>
+    <t xml:space="preserve">29.4351940155029</t>
   </si>
   <si>
     <t xml:space="preserve">28.707799911499</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">26.5741119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0039882659912</t>
+    <t xml:space="preserve">24.0039863586426</t>
   </si>
   <si>
     <t xml:space="preserve">23.2281017303467</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">23.1796073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1311149597168</t>
+    <t xml:space="preserve">23.1311168670654</t>
   </si>
   <si>
     <t xml:space="preserve">23.7615222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0524806976318</t>
+    <t xml:space="preserve">24.0524787902832</t>
   </si>
   <si>
     <t xml:space="preserve">24.2949447631836</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">21.4338645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1913986206055</t>
+    <t xml:space="preserve">21.1914005279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.4823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127643585205</t>
+    <t xml:space="preserve">22.1127624511719</t>
   </si>
   <si>
     <t xml:space="preserve">22.7916660308838</t>
@@ -2276,22 +2276,25 @@
     <t xml:space="preserve">22.6461868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2097511291504</t>
+    <t xml:space="preserve">22.2097492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3067378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.888650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1612567901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8702983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.624870300293</t>
   </si>
   <si>
     <t xml:space="preserve">22.3067359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.888650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1612586975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8703002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.624870300293</t>
   </si>
   <si>
     <t xml:space="preserve">22.4041442871094</t>
@@ -18920,7 +18923,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18972,7 +18975,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19024,7 +19027,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19050,7 +19053,7 @@
         <v>12.75</v>
       </c>
       <c r="G615" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19076,7 +19079,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G616" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19128,7 +19131,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19154,7 +19157,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G619" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19180,7 +19183,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19232,7 +19235,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19258,7 +19261,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G623" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19284,7 +19287,7 @@
         <v>13</v>
       </c>
       <c r="G624" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19310,7 +19313,7 @@
         <v>13</v>
       </c>
       <c r="G625" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19362,7 +19365,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G627" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19388,7 +19391,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G628" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19414,7 +19417,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19440,7 +19443,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19492,7 +19495,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19518,7 +19521,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19544,7 +19547,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19570,7 +19573,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19596,7 +19599,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G636" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19622,7 +19625,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G637" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19648,7 +19651,7 @@
         <v>12.25</v>
       </c>
       <c r="G638" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19674,7 +19677,7 @@
         <v>12.25</v>
       </c>
       <c r="G639" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19700,7 +19703,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19726,7 +19729,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19752,7 +19755,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19778,7 +19781,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19804,7 +19807,7 @@
         <v>12.5</v>
       </c>
       <c r="G644" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19830,7 +19833,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19856,7 +19859,7 @@
         <v>12.5</v>
       </c>
       <c r="G646" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19882,7 +19885,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19908,7 +19911,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G648" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19934,7 +19937,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G649" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19960,7 +19963,7 @@
         <v>12.5</v>
       </c>
       <c r="G650" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19986,7 +19989,7 @@
         <v>12.5</v>
       </c>
       <c r="G651" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20012,7 +20015,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20038,7 +20041,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G653" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20064,7 +20067,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G654" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20090,7 +20093,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20116,7 +20119,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20142,7 +20145,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G657" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20168,7 +20171,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20194,7 +20197,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20220,7 +20223,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G660" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20246,7 +20249,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20272,7 +20275,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20298,7 +20301,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G663" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20350,7 +20353,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G665" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20376,7 +20379,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G666" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20402,7 +20405,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G667" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20428,7 +20431,7 @@
         <v>12.25</v>
       </c>
       <c r="G668" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20454,7 +20457,7 @@
         <v>12.25</v>
       </c>
       <c r="G669" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20480,7 +20483,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20506,7 +20509,7 @@
         <v>12.5</v>
       </c>
       <c r="G671" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20532,7 +20535,7 @@
         <v>12.5</v>
       </c>
       <c r="G672" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20558,7 +20561,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20584,7 +20587,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20610,7 +20613,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G675" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20636,7 +20639,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G676" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20662,7 +20665,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20688,7 +20691,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G678" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20714,7 +20717,7 @@
         <v>12.25</v>
       </c>
       <c r="G679" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20740,7 +20743,7 @@
         <v>12.25</v>
       </c>
       <c r="G680" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20766,7 +20769,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G681" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20792,7 +20795,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20818,7 +20821,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G683" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20844,7 +20847,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20870,7 +20873,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20896,7 +20899,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20922,7 +20925,7 @@
         <v>12.5</v>
       </c>
       <c r="G687" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20948,7 +20951,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20974,7 +20977,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21000,7 +21003,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G690" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21026,7 +21029,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21052,7 +21055,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21104,7 +21107,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21130,7 +21133,7 @@
         <v>13.25</v>
       </c>
       <c r="G695" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21156,7 +21159,7 @@
         <v>13</v>
       </c>
       <c r="G696" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21182,7 +21185,7 @@
         <v>13</v>
       </c>
       <c r="G697" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21208,7 +21211,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21234,7 +21237,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G699" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21260,7 +21263,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21286,7 +21289,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21312,7 +21315,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G702" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21338,7 +21341,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G703" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21364,7 +21367,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G704" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21390,7 +21393,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G705" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21416,7 +21419,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21442,7 +21445,7 @@
         <v>13.25</v>
       </c>
       <c r="G707" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21468,7 +21471,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G708" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21494,7 +21497,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21520,7 +21523,7 @@
         <v>13</v>
       </c>
       <c r="G710" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21546,7 +21549,7 @@
         <v>13</v>
       </c>
       <c r="G711" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21572,7 +21575,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G712" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21598,7 +21601,7 @@
         <v>13</v>
       </c>
       <c r="G713" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21624,7 +21627,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21650,7 +21653,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G715" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21676,7 +21679,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G716" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21702,7 +21705,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G717" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21728,7 +21731,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G718" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21754,7 +21757,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21780,7 +21783,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21806,7 +21809,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G721" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21832,7 +21835,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G722" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21858,7 +21861,7 @@
         <v>12.5</v>
       </c>
       <c r="G723" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21884,7 +21887,7 @@
         <v>13</v>
       </c>
       <c r="G724" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21910,7 +21913,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G725" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21936,7 +21939,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21962,7 +21965,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G727" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21988,7 +21991,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22014,7 +22017,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G729" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22040,7 +22043,7 @@
         <v>12.5</v>
       </c>
       <c r="G730" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22066,7 +22069,7 @@
         <v>12.25</v>
       </c>
       <c r="G731" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22092,7 +22095,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G732" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22118,7 +22121,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22144,7 +22147,7 @@
         <v>12</v>
       </c>
       <c r="G734" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22170,7 +22173,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22196,7 +22199,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G736" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22222,7 +22225,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22248,7 +22251,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22274,7 +22277,7 @@
         <v>11.5</v>
       </c>
       <c r="G739" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22300,7 +22303,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22326,7 +22329,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G741" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22352,7 +22355,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22378,7 +22381,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22404,7 +22407,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22430,7 +22433,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22456,7 +22459,7 @@
         <v>11.5</v>
       </c>
       <c r="G746" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22482,7 +22485,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22508,7 +22511,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G748" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22534,7 +22537,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G749" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22560,7 +22563,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G750" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22586,7 +22589,7 @@
         <v>10.25</v>
       </c>
       <c r="G751" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22612,7 +22615,7 @@
         <v>10.25</v>
       </c>
       <c r="G752" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22638,7 +22641,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G753" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22664,7 +22667,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G754" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22690,7 +22693,7 @@
         <v>10.5</v>
       </c>
       <c r="G755" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22716,7 +22719,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22742,7 +22745,7 @@
         <v>10.5</v>
       </c>
       <c r="G757" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22768,7 +22771,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22794,7 +22797,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22820,7 +22823,7 @@
         <v>10.75</v>
       </c>
       <c r="G760" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22846,7 +22849,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G761" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22872,7 +22875,7 @@
         <v>11.5</v>
       </c>
       <c r="G762" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22898,7 +22901,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22924,7 +22927,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22950,7 +22953,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G765" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22976,7 +22979,7 @@
         <v>11.5</v>
       </c>
       <c r="G766" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23002,7 +23005,7 @@
         <v>11.5</v>
       </c>
       <c r="G767" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23028,7 +23031,7 @@
         <v>11.75</v>
       </c>
       <c r="G768" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23054,7 +23057,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G769" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23080,7 +23083,7 @@
         <v>12</v>
       </c>
       <c r="G770" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23106,7 +23109,7 @@
         <v>11.75</v>
       </c>
       <c r="G771" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23132,7 +23135,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23158,7 +23161,7 @@
         <v>11.5</v>
       </c>
       <c r="G773" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23184,7 +23187,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23210,7 +23213,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G775" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23236,7 +23239,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23262,7 +23265,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G777" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23288,7 +23291,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G778" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23314,7 +23317,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23340,7 +23343,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23366,7 +23369,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23392,7 +23395,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G782" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23418,7 +23421,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G783" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23444,7 +23447,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23470,7 +23473,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G785" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23496,7 +23499,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23522,7 +23525,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23548,7 +23551,7 @@
         <v>11.5</v>
       </c>
       <c r="G788" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23574,7 +23577,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G789" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23600,7 +23603,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G790" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23626,7 +23629,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23652,7 +23655,7 @@
         <v>11.5</v>
       </c>
       <c r="G792" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23678,7 +23681,7 @@
         <v>11.25</v>
       </c>
       <c r="G793" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23704,7 +23707,7 @@
         <v>11.25</v>
       </c>
       <c r="G794" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23730,7 +23733,7 @@
         <v>11.5</v>
       </c>
       <c r="G795" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23756,7 +23759,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23782,7 +23785,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G797" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23808,7 +23811,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23834,7 +23837,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23860,7 +23863,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G800" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23886,7 +23889,7 @@
         <v>11</v>
       </c>
       <c r="G801" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23912,7 +23915,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G802" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23938,7 +23941,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23964,7 +23967,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G804" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23990,7 +23993,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24016,7 +24019,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G806" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24042,7 +24045,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24068,7 +24071,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24094,7 +24097,7 @@
         <v>11</v>
       </c>
       <c r="G809" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24120,7 +24123,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G810" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24146,7 +24149,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G811" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24172,7 +24175,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G812" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24198,7 +24201,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24224,7 +24227,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24250,7 +24253,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24276,7 +24279,7 @@
         <v>10.75</v>
       </c>
       <c r="G816" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24302,7 +24305,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G817" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24328,7 +24331,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G818" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24354,7 +24357,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24380,7 +24383,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G820" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24406,7 +24409,7 @@
         <v>11.25</v>
       </c>
       <c r="G821" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24432,7 +24435,7 @@
         <v>11.25</v>
       </c>
       <c r="G822" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24458,7 +24461,7 @@
         <v>11.25</v>
       </c>
       <c r="G823" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24484,7 +24487,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24510,7 +24513,7 @@
         <v>11.5</v>
       </c>
       <c r="G825" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24536,7 +24539,7 @@
         <v>11.5</v>
       </c>
       <c r="G826" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24562,7 +24565,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G827" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24588,7 +24591,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24614,7 +24617,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24640,7 +24643,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24666,7 +24669,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G831" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24692,7 +24695,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24718,7 +24721,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G833" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24744,7 +24747,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24770,7 +24773,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24796,7 +24799,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G836" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24822,7 +24825,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24848,7 +24851,7 @@
         <v>11.5</v>
       </c>
       <c r="G838" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24874,7 +24877,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24900,7 +24903,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24926,7 +24929,7 @@
         <v>11.5</v>
       </c>
       <c r="G841" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24952,7 +24955,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24978,7 +24981,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G843" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25004,7 +25007,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G844" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25030,7 +25033,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G845" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25056,7 +25059,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G846" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25082,7 +25085,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G847" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25108,7 +25111,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25134,7 +25137,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25160,7 +25163,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25186,7 +25189,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25212,7 +25215,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25238,7 +25241,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G853" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25264,7 +25267,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25290,7 +25293,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25316,7 +25319,7 @@
         <v>11.5</v>
       </c>
       <c r="G856" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25342,7 +25345,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G857" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25368,7 +25371,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25394,7 +25397,7 @@
         <v>11.5</v>
       </c>
       <c r="G859" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25420,7 +25423,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G860" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25446,7 +25449,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25472,7 +25475,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G862" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25498,7 +25501,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G863" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25524,7 +25527,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G864" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25550,7 +25553,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25576,7 +25579,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G866" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25602,7 +25605,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25628,7 +25631,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25654,7 +25657,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G869" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25680,7 +25683,7 @@
         <v>12</v>
       </c>
       <c r="G870" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25706,7 +25709,7 @@
         <v>12</v>
       </c>
       <c r="G871" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25732,7 +25735,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G872" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25758,7 +25761,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G873" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25784,7 +25787,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25810,7 +25813,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25836,7 +25839,7 @@
         <v>12</v>
       </c>
       <c r="G876" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25862,7 +25865,7 @@
         <v>12</v>
       </c>
       <c r="G877" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25888,7 +25891,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G878" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25914,7 +25917,7 @@
         <v>12</v>
       </c>
       <c r="G879" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25940,7 +25943,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G880" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25966,7 +25969,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G881" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25992,7 +25995,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26018,7 +26021,7 @@
         <v>12</v>
       </c>
       <c r="G883" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26044,7 +26047,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G884" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26070,7 +26073,7 @@
         <v>12.25</v>
       </c>
       <c r="G885" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26096,7 +26099,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G886" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26122,7 +26125,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26148,7 +26151,7 @@
         <v>12.25</v>
       </c>
       <c r="G888" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26174,7 +26177,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26200,7 +26203,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G890" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26226,7 +26229,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26330,7 +26333,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26486,7 +26489,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G901" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26590,7 +26593,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26616,7 +26619,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G906" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26720,7 +26723,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26798,7 +26801,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G913" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26928,7 +26931,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G918" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26954,7 +26957,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27032,7 +27035,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27058,7 +27061,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G923" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27240,7 +27243,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27786,7 +27789,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G951" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27838,7 +27841,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27916,7 +27919,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27942,7 +27945,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G957" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27968,7 +27971,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G958" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27994,7 +27997,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G959" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28020,7 +28023,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28072,7 +28075,7 @@
         <v>11.5</v>
       </c>
       <c r="G962" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28098,7 +28101,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28124,7 +28127,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G964" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28150,7 +28153,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G965" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28176,7 +28179,7 @@
         <v>12.25</v>
       </c>
       <c r="G966" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28202,7 +28205,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28228,7 +28231,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28280,7 +28283,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G970" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28332,7 +28335,7 @@
         <v>12.25</v>
       </c>
       <c r="G972" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28358,7 +28361,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28384,7 +28387,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28410,7 +28413,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28488,7 +28491,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28540,7 +28543,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G980" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28618,7 +28621,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G983" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28670,7 +28673,7 @@
         <v>12.25</v>
       </c>
       <c r="G985" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28696,7 +28699,7 @@
         <v>12.25</v>
       </c>
       <c r="G986" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28722,7 +28725,7 @@
         <v>12.25</v>
       </c>
       <c r="G987" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28748,7 +28751,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G988" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28774,7 +28777,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28800,7 +28803,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28826,7 +28829,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28878,7 +28881,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G993" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28904,7 +28907,7 @@
         <v>12</v>
       </c>
       <c r="G994" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28930,7 +28933,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G995" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28956,7 +28959,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G996" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28982,7 +28985,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G997" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29008,7 +29011,7 @@
         <v>12.25</v>
       </c>
       <c r="G998" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29086,7 +29089,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29112,7 +29115,7 @@
         <v>12</v>
       </c>
       <c r="G1002" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29164,7 +29167,7 @@
         <v>12.25</v>
       </c>
       <c r="G1004" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29190,7 +29193,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1005" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29216,7 +29219,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1006" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29242,7 +29245,7 @@
         <v>12.25</v>
       </c>
       <c r="G1007" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29294,7 +29297,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1009" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29346,7 +29349,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1011" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29528,7 +29531,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30750,7 +30753,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1065" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30776,7 +30779,7 @@
         <v>12</v>
       </c>
       <c r="G1066" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30802,7 +30805,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30828,7 +30831,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1068" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30906,7 +30909,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30932,7 +30935,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1072" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31010,7 +31013,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31036,7 +31039,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1076" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31062,7 +31065,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31088,7 +31091,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1078" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31114,7 +31117,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31192,7 +31195,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31244,7 +31247,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31322,7 +31325,7 @@
         <v>12</v>
       </c>
       <c r="G1087" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31348,7 +31351,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31374,7 +31377,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1089" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31400,7 +31403,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31426,7 +31429,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31452,7 +31455,7 @@
         <v>12</v>
       </c>
       <c r="G1092" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31530,7 +31533,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31634,7 +31637,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31894,7 +31897,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1109" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32050,7 +32053,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32076,7 +32079,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32102,7 +32105,7 @@
         <v>15.5</v>
       </c>
       <c r="G1117" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32128,7 +32131,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32154,7 +32157,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1119" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32180,7 +32183,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32206,7 +32209,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32232,7 +32235,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32258,7 +32261,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32284,7 +32287,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32310,7 +32313,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32336,7 +32339,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32362,7 +32365,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32388,7 +32391,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32414,7 +32417,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32440,7 +32443,7 @@
         <v>15</v>
       </c>
       <c r="G1130" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32466,7 +32469,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32492,7 +32495,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32518,7 +32521,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1133" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32544,7 +32547,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32570,7 +32573,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32596,7 +32599,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32622,7 +32625,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1137" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32648,7 +32651,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1138" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32674,7 +32677,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32700,7 +32703,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32726,7 +32729,7 @@
         <v>15</v>
       </c>
       <c r="G1141" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32752,7 +32755,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33168,7 +33171,7 @@
         <v>15</v>
       </c>
       <c r="G1158" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33454,7 +33457,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1169" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33506,7 +33509,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1171" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33558,7 +33561,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -51628,7 +51631,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51654,7 +51657,7 @@
         <v>23</v>
       </c>
       <c r="G1869" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51680,7 +51683,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1870" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51706,7 +51709,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1871" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51732,7 +51735,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51758,7 +51761,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1873" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51784,7 +51787,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51810,7 +51813,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51836,7 +51839,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1876" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51862,7 +51865,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51888,7 +51891,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51914,7 +51917,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1879" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51940,7 +51943,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1880" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51966,7 +51969,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1881" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51992,7 +51995,7 @@
         <v>23</v>
       </c>
       <c r="G1882" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52018,7 +52021,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52044,7 +52047,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1884" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52070,7 +52073,7 @@
         <v>22.75</v>
       </c>
       <c r="G1885" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52096,7 +52099,7 @@
         <v>23</v>
       </c>
       <c r="G1886" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52122,7 +52125,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1887" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52148,7 +52151,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52174,7 +52177,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52200,7 +52203,7 @@
         <v>22.5</v>
       </c>
       <c r="G1890" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52226,7 +52229,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52252,7 +52255,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52330,7 +52333,7 @@
         <v>22</v>
       </c>
       <c r="G1895" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52356,7 +52359,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1896" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52382,7 +52385,7 @@
         <v>22</v>
       </c>
       <c r="G1897" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52408,7 +52411,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1898" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52434,7 +52437,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52486,7 +52489,7 @@
         <v>21.75</v>
       </c>
       <c r="G1901" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52512,7 +52515,7 @@
         <v>21.75</v>
       </c>
       <c r="G1902" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52538,7 +52541,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52564,7 +52567,7 @@
         <v>21.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52590,7 +52593,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52616,7 +52619,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52642,7 +52645,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1907" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52668,7 +52671,7 @@
         <v>21.25</v>
       </c>
       <c r="G1908" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52694,7 +52697,7 @@
         <v>21.25</v>
       </c>
       <c r="G1909" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52720,7 +52723,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1910" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52746,7 +52749,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52772,7 +52775,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52798,7 +52801,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52824,7 +52827,7 @@
         <v>20.75</v>
       </c>
       <c r="G1914" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52850,7 +52853,7 @@
         <v>21</v>
       </c>
       <c r="G1915" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52876,7 +52879,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1916" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52902,7 +52905,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1917" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52928,7 +52931,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1918" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52954,7 +52957,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1919" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52980,7 +52983,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1920" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53006,7 +53009,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1921" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53032,7 +53035,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53058,7 +53061,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53084,7 +53087,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53110,7 +53113,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53136,7 +53139,7 @@
         <v>21.5</v>
       </c>
       <c r="G1926" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53162,7 +53165,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53188,7 +53191,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53214,7 +53217,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53240,7 +53243,7 @@
         <v>21.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53266,7 +53269,7 @@
         <v>20.75</v>
       </c>
       <c r="G1931" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53292,7 +53295,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1932" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53318,7 +53321,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53344,7 +53347,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1934" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53370,7 +53373,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1935" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53396,7 +53399,7 @@
         <v>20</v>
       </c>
       <c r="G1936" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53422,7 +53425,7 @@
         <v>20.25</v>
       </c>
       <c r="G1937" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53448,7 +53451,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1938" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53474,7 +53477,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53500,7 +53503,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1940" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53526,7 +53529,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53552,7 +53555,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53578,7 +53581,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1943" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53604,7 +53607,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53630,7 +53633,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1945" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53656,7 +53659,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G1946" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53682,7 +53685,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53708,7 +53711,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53734,7 +53737,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53760,7 +53763,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1950" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53786,7 +53789,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1951" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53812,7 +53815,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53838,7 +53841,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1953" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53864,7 +53867,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1954" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53890,7 +53893,7 @@
         <v>19</v>
       </c>
       <c r="G1955" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53916,7 +53919,7 @@
         <v>19</v>
       </c>
       <c r="G1956" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53942,7 +53945,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53968,7 +53971,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1958" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53994,7 +53997,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1959" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54020,7 +54023,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1960" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54046,7 +54049,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54072,7 +54075,7 @@
         <v>18</v>
       </c>
       <c r="G1962" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54098,7 +54101,7 @@
         <v>18.5</v>
       </c>
       <c r="G1963" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54124,7 +54127,7 @@
         <v>19</v>
       </c>
       <c r="G1964" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54150,7 +54153,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1965" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54176,7 +54179,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54202,7 +54205,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1967" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54228,7 +54231,7 @@
         <v>19</v>
       </c>
       <c r="G1968" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54254,7 +54257,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1969" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54280,7 +54283,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1970" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54306,7 +54309,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1971" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54332,7 +54335,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1972" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54358,7 +54361,7 @@
         <v>19</v>
       </c>
       <c r="G1973" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54384,7 +54387,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1974" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54410,7 +54413,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54436,7 +54439,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54462,7 +54465,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1977" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54488,7 +54491,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1978" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54514,7 +54517,7 @@
         <v>18.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54540,7 +54543,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1980" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54566,7 +54569,7 @@
         <v>18</v>
       </c>
       <c r="G1981" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54592,7 +54595,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1982" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54618,7 +54621,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1983" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54644,7 +54647,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1984" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54670,7 +54673,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1985" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54696,7 +54699,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54722,7 +54725,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1987" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54748,7 +54751,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54774,7 +54777,7 @@
         <v>18.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54800,7 +54803,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54826,7 +54829,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1991" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54852,7 +54855,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1992" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54878,7 +54881,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54904,7 +54907,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1994" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54930,7 +54933,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1995" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54956,7 +54959,7 @@
         <v>17.5</v>
       </c>
       <c r="G1996" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54982,7 +54985,7 @@
         <v>18</v>
       </c>
       <c r="G1997" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55008,7 +55011,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1998" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55034,7 +55037,7 @@
         <v>18</v>
       </c>
       <c r="G1999" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55060,7 +55063,7 @@
         <v>18</v>
       </c>
       <c r="G2000" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55086,7 +55089,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2001" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55112,7 +55115,7 @@
         <v>18</v>
       </c>
       <c r="G2002" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55138,7 +55141,7 @@
         <v>18</v>
       </c>
       <c r="G2003" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55164,7 +55167,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G2004" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55190,7 +55193,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2005" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55216,7 +55219,7 @@
         <v>17.5</v>
       </c>
       <c r="G2006" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55242,7 +55245,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G2007" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55268,7 +55271,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G2008" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55294,7 +55297,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2009" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55320,7 +55323,7 @@
         <v>17.5</v>
       </c>
       <c r="G2010" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55346,7 +55349,7 @@
         <v>17.5</v>
       </c>
       <c r="G2011" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55372,7 +55375,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2012" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55398,7 +55401,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2013" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55424,7 +55427,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G2014" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55450,7 +55453,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55476,7 +55479,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55502,7 +55505,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2017" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55528,7 +55531,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G2018" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55554,7 +55557,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2019" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55580,7 +55583,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2020" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55606,7 +55609,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2021" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55632,7 +55635,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2022" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55658,7 +55661,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2023" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55684,7 +55687,7 @@
         <v>17.5</v>
       </c>
       <c r="G2024" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55710,7 +55713,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2025" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55736,7 +55739,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2026" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55762,7 +55765,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55788,7 +55791,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2028" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55814,7 +55817,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G2029" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55840,7 +55843,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2030" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55866,7 +55869,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2031" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55892,7 +55895,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G2032" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55918,7 +55921,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G2033" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55944,7 +55947,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55970,7 +55973,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55996,7 +55999,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G2036" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56022,7 +56025,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G2037" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56048,7 +56051,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2038" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56074,7 +56077,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2039" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56100,7 +56103,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2040" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56126,7 +56129,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56152,7 +56155,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56178,7 +56181,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2043" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56204,7 +56207,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2044" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56230,7 +56233,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2045" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56256,7 +56259,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2046" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56282,7 +56285,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2047" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56308,7 +56311,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2048" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56334,7 +56337,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G2049" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56360,7 +56363,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G2050" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56386,7 +56389,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2051" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56412,7 +56415,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2052" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56438,7 +56441,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2053" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56464,7 +56467,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2054" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56490,7 +56493,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2055" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56516,7 +56519,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56542,7 +56545,7 @@
         <v>18</v>
       </c>
       <c r="G2057" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56568,7 +56571,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56594,7 +56597,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2059" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56620,7 +56623,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2060" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56646,7 +56649,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G2061" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56672,7 +56675,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2062" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56698,7 +56701,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56724,7 +56727,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2064" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56750,7 +56753,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56776,7 +56779,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2066" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56802,7 +56805,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2067" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56828,7 +56831,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2068" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56854,7 +56857,7 @@
         <v>17.5</v>
       </c>
       <c r="G2069" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56880,7 +56883,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2070" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56906,7 +56909,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2071" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56932,7 +56935,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2072" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56958,7 +56961,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56984,7 +56987,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57010,7 +57013,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2075" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57036,7 +57039,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57062,7 +57065,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57088,7 +57091,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2078" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57114,7 +57117,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2079" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57140,7 +57143,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2080" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57166,7 +57169,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2081" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57192,7 +57195,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2082" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57218,7 +57221,7 @@
         <v>17.5</v>
       </c>
       <c r="G2083" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57244,7 +57247,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2084" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57270,7 +57273,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G2085" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57296,7 +57299,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57322,7 +57325,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57348,7 +57351,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57374,7 +57377,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2089" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57400,7 +57403,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2090" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57426,7 +57429,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57452,7 +57455,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G2092" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57478,7 +57481,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G2093" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57504,7 +57507,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G2094" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57530,7 +57533,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57556,7 +57559,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57582,7 +57585,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57608,7 +57611,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G2098" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57634,7 +57637,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G2099" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57660,7 +57663,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57686,7 +57689,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57712,7 +57715,7 @@
         <v>19</v>
       </c>
       <c r="G2102" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57738,7 +57741,7 @@
         <v>19</v>
       </c>
       <c r="G2103" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57764,7 +57767,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57790,7 +57793,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G2105" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57816,7 +57819,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2106" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57842,7 +57845,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57868,7 +57871,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2108" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57894,7 +57897,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57920,7 +57923,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G2110" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57946,7 +57949,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57972,7 +57975,7 @@
         <v>18.75</v>
       </c>
       <c r="G2112" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57998,7 +58001,7 @@
         <v>19</v>
       </c>
       <c r="G2113" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58024,7 +58027,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58050,7 +58053,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58076,7 +58079,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58102,7 +58105,7 @@
         <v>19</v>
       </c>
       <c r="G2117" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58128,7 +58131,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2118" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58154,7 +58157,7 @@
         <v>19.5</v>
       </c>
       <c r="G2119" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58180,7 +58183,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58206,7 +58209,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G2121" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58232,7 +58235,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2122" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58258,7 +58261,7 @@
         <v>19.25</v>
       </c>
       <c r="G2123" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58284,7 +58287,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2124" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58310,7 +58313,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58336,7 +58339,7 @@
         <v>19.5</v>
       </c>
       <c r="G2126" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58362,7 +58365,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58388,7 +58391,7 @@
         <v>20</v>
       </c>
       <c r="G2128" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58414,7 +58417,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58440,7 +58443,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2130" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58466,7 +58469,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G2131" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58492,7 +58495,7 @@
         <v>21</v>
       </c>
       <c r="G2132" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58518,7 +58521,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58544,7 +58547,7 @@
         <v>22</v>
       </c>
       <c r="G2134" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58570,7 +58573,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58596,7 +58599,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58622,7 +58625,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58648,7 +58651,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2138" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58674,7 +58677,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58700,7 +58703,7 @@
         <v>21.5</v>
       </c>
       <c r="G2140" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58726,7 +58729,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58752,7 +58755,7 @@
         <v>21.5</v>
       </c>
       <c r="G2142" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58778,7 +58781,7 @@
         <v>22</v>
       </c>
       <c r="G2143" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58804,7 +58807,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58830,7 +58833,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58856,7 +58859,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58882,7 +58885,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58908,7 +58911,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2148" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58934,7 +58937,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58960,7 +58963,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2150" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58968,7 +58971,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.649537037</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>13769</v>
@@ -58986,9 +58989,35 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.633287037</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>21.2999992370605</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>894</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="907">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,238 +38,238 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991516113281</t>
+    <t xml:space="preserve">8.20991611480713</t>
   </si>
   <si>
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975379943848</t>
+    <t xml:space="preserve">8.15975475311279</t>
   </si>
   <si>
     <t xml:space="preserve">8.19319534301758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10123062133789</t>
+    <t xml:space="preserve">8.10122871398926</t>
   </si>
   <si>
     <t xml:space="preserve">8.10959053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06779003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94238328933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976835250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69156980514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63722896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62886714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60796737670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58288478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697797775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48255968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75845384597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66648864746094</t>
+    <t xml:space="preserve">8.06778812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94238424301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8587794303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6497688293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79189538955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69156932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304853439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62886762619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60796785354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5828857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517557144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81697654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48256063461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75845432281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66648960113525</t>
   </si>
   <si>
     <t xml:space="preserve">7.62468862533569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31535291671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44075870513916</t>
+    <t xml:space="preserve">7.31535339355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.440758228302</t>
   </si>
   <si>
     <t xml:space="preserve">7.52436351776123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59124612808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76263332366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7668137550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98418617248535</t>
+    <t xml:space="preserve">7.59124755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76263475418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76681470870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9841833114624</t>
   </si>
   <si>
     <t xml:space="preserve">8.02598762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8462381362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2600793838501</t>
+    <t xml:space="preserve">7.84623861312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007843017578</t>
   </si>
   <si>
     <t xml:space="preserve">8.35622310638428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27679920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89222097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18483448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9967246055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97582578659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13467216491699</t>
+    <t xml:space="preserve">8.27679824829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89221954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18483543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672555923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97582387924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13467311859131</t>
   </si>
   <si>
     <t xml:space="preserve">8.12631130218506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15139198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2349967956543</t>
+    <t xml:space="preserve">8.15139389038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23499774932861</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762676239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92148160934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90894222259521</t>
+    <t xml:space="preserve">8.07614898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762771606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148208618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9089412689209</t>
   </si>
   <si>
     <t xml:space="preserve">7.73337268829346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80861711502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89640092849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70829105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6539478302002</t>
+    <t xml:space="preserve">7.80861568450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910358428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89639949798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65394926071167</t>
   </si>
   <si>
     <t xml:space="preserve">7.67067003250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68738985061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85041904449463</t>
+    <t xml:space="preserve">7.68739032745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85041856765747</t>
   </si>
   <si>
     <t xml:space="preserve">7.57870531082153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55780363082886</t>
+    <t xml:space="preserve">7.55780458450317</t>
   </si>
   <si>
     <t xml:space="preserve">7.57452487945557</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80443811416626</t>
+    <t xml:space="preserve">7.80443716049194</t>
   </si>
   <si>
     <t xml:space="preserve">7.81279706954956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4323992729187</t>
+    <t xml:space="preserve">7.43239736557007</t>
   </si>
   <si>
     <t xml:space="preserve">7.21920776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2317476272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355098724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33207321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1899471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19412708282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19830656051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18576669692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06454133987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05617952346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1397852897644</t>
+    <t xml:space="preserve">7.23174858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27355003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33207368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18994665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19412612915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19830751419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18576765060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06454038619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05618000030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978385925293</t>
   </si>
   <si>
     <t xml:space="preserve">6.97257614135742</t>
@@ -278,31 +278,31 @@
     <t xml:space="preserve">7.14814567565918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21502828598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895725250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67485046386719</t>
+    <t xml:space="preserve">7.21502733230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715532302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895582199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6748480796814</t>
   </si>
   <si>
     <t xml:space="preserve">7.59542608261108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51182222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60378694534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56616592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403841018677</t>
+    <t xml:space="preserve">7.51182079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60378646850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56616544723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403793334961</t>
   </si>
   <si>
     <t xml:space="preserve">7.51600217819214</t>
@@ -314,85 +314,85 @@
     <t xml:space="preserve">7.54108381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4741997718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4532995223999</t>
+    <t xml:space="preserve">7.47420024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45329999923706</t>
   </si>
   <si>
     <t xml:space="preserve">7.57034540176392</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19737529754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35204219818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29351902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254465103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09287071228027</t>
+    <t xml:space="preserve">8.10541152954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1973762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35204315185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2935209274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303302764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09286880493164</t>
   </si>
   <si>
     <t xml:space="preserve">8.44400787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5944938659668</t>
+    <t xml:space="preserve">8.59449577331543</t>
   </si>
   <si>
     <t xml:space="preserve">8.54433250427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5610523223877</t>
+    <t xml:space="preserve">8.56105327606201</t>
   </si>
   <si>
     <t xml:space="preserve">8.65301704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97071361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.945631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73662090301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86202716827393</t>
+    <t xml:space="preserve">8.97071266174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94563102722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73662281036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86202907562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.92055034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90382957458496</t>
+    <t xml:space="preserve">8.90382766723633</t>
   </si>
   <si>
     <t xml:space="preserve">8.99579334259033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00415420532227</t>
+    <t xml:space="preserve">9.00415515899658</t>
   </si>
   <si>
     <t xml:space="preserve">8.97907257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04722595214844</t>
+    <t xml:space="preserve">9.0472240447998</t>
   </si>
   <si>
     <t xml:space="preserve">9.07278156280518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01314926147461</t>
+    <t xml:space="preserve">9.01315021514893</t>
   </si>
   <si>
     <t xml:space="preserve">9.03018856048584</t>
@@ -401,52 +401,52 @@
     <t xml:space="preserve">9.15797328948975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23464488983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28575706481934</t>
+    <t xml:space="preserve">9.23464393615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28575801849365</t>
   </si>
   <si>
     <t xml:space="preserve">9.37094974517822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14945220947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26872158050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25168228149414</t>
+    <t xml:space="preserve">9.14945411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26872062683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25168132781982</t>
   </si>
   <si>
     <t xml:space="preserve">9.32835292816162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613956451416</t>
+    <t xml:space="preserve">9.45613765716553</t>
   </si>
   <si>
     <t xml:space="preserve">9.42206478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36243057250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354560852051</t>
+    <t xml:space="preserve">9.36242961883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354370117188</t>
   </si>
   <si>
     <t xml:space="preserve">9.54984855651855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61800193786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5413293838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56688690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39650726318359</t>
+    <t xml:space="preserve">9.61800098419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54133129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56688785552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39650535583496</t>
   </si>
   <si>
     <t xml:space="preserve">9.55836772918701</t>
@@ -455,49 +455,49 @@
     <t xml:space="preserve">9.59244441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5839262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948371887207</t>
+    <t xml:space="preserve">9.58392429351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948085784912</t>
   </si>
   <si>
     <t xml:space="preserve">9.57540512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49021625518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37946796417236</t>
+    <t xml:space="preserve">9.49021434783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37946701049805</t>
   </si>
   <si>
     <t xml:space="preserve">9.33687210083008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20908832550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20056915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27724170684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31983375549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30279636383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53281116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62652015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71170902252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78838062286377</t>
+    <t xml:space="preserve">9.20908737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20056819915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2772388458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3198356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30279541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53280925750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62652206420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71170997619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7883825302124</t>
   </si>
   <si>
     <t xml:space="preserve">9.83097839355469</t>
@@ -506,40 +506,40 @@
     <t xml:space="preserve">9.75430679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.095067024231</t>
+    <t xml:space="preserve">10.0950689315796</t>
   </si>
   <si>
     <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3591575622559</t>
+    <t xml:space="preserve">10.3591585159302</t>
   </si>
   <si>
     <t xml:space="preserve">10.4528684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5891723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6062107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6488065719604</t>
+    <t xml:space="preserve">10.5891733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6062097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6488056182861</t>
   </si>
   <si>
     <t xml:space="preserve">10.5721340179443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6232490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5636148452759</t>
+    <t xml:space="preserve">10.6232481002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5636157989502</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3676786422729</t>
+    <t xml:space="preserve">10.3676767349243</t>
   </si>
   <si>
     <t xml:space="preserve">10.2228536605835</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">10.2910060882568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3761968612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2484111785889</t>
+    <t xml:space="preserve">10.3761978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2484092712402</t>
   </si>
   <si>
     <t xml:space="preserve">10.231372833252</t>
@@ -560,73 +560,73 @@
     <t xml:space="preserve">10.2398920059204</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4187917709351</t>
+    <t xml:space="preserve">10.4187908172607</t>
   </si>
   <si>
     <t xml:space="preserve">10.4784250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4613876342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3421211242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3165626525879</t>
+    <t xml:space="preserve">10.461386680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3421201705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3165636062622</t>
   </si>
   <si>
     <t xml:space="preserve">10.3080425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3506393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7339963912964</t>
+    <t xml:space="preserve">10.3506383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7339973449707</t>
   </si>
   <si>
     <t xml:space="preserve">10.8191871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9469728469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0151243209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.066237449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0321626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.023642539978</t>
+    <t xml:space="preserve">10.9469738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0151252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0662384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0321607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0236434936523</t>
   </si>
   <si>
     <t xml:space="preserve">10.9895668029785</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0406818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8277044296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.802149772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617830276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.844744682312</t>
+    <t xml:space="preserve">11.0406837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8277053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8447437286377</t>
   </si>
   <si>
     <t xml:space="preserve">10.9043760299683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8958578109741</t>
+    <t xml:space="preserve">10.8958587646484</t>
   </si>
   <si>
     <t xml:space="preserve">10.8532619476318</t>
@@ -638,19 +638,19 @@
     <t xml:space="preserve">10.7680730819702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7425155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.665843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7936305999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6914005279541</t>
+    <t xml:space="preserve">10.7425146102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999197006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6658449172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7936315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6914014816284</t>
   </si>
   <si>
     <t xml:space="preserve">10.7595529556274</t>
@@ -665,49 +665,49 @@
     <t xml:space="preserve">10.7169570922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0747575759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.159948348999</t>
+    <t xml:space="preserve">11.0747594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1599493026733</t>
   </si>
   <si>
     <t xml:space="preserve">11.2025442123413</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245138168335</t>
+    <t xml:space="preserve">11.2451391220093</t>
   </si>
   <si>
     <t xml:space="preserve">11.2877349853516</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1173534393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3303289413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433053970337</t>
+    <t xml:space="preserve">11.1173543930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3729238510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3303298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.543306350708</t>
   </si>
   <si>
     <t xml:space="preserve">11.7562818527222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9692573547363</t>
+    <t xml:space="preserve">11.9692583084106</t>
   </si>
   <si>
     <t xml:space="preserve">12.2248296737671</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5859003067017</t>
+    <t xml:space="preserve">11.585901260376</t>
   </si>
   <si>
     <t xml:space="preserve">11.5007085800171</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6710920333862</t>
+    <t xml:space="preserve">11.6710910797119</t>
   </si>
   <si>
     <t xml:space="preserve">11.8414716720581</t>
@@ -719,46 +719,46 @@
     <t xml:space="preserve">11.7136859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8840684890747</t>
+    <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
     <t xml:space="preserve">12.015625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0594787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9279193878174</t>
+    <t xml:space="preserve">12.0594778060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9279203414917</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332450866699</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6648044586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7525091171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7086572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4016895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3578357696533</t>
+    <t xml:space="preserve">11.6648035049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7525081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7086563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963619232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770978927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717721939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.357834815979</t>
   </si>
   <si>
     <t xml:space="preserve">11.1824254989624</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">11.8498458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8046178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141599655151</t>
+    <t xml:space="preserve">11.8046188354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332460403442</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7593870162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6689319610596</t>
+    <t xml:space="preserve">11.759388923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6689310073853</t>
   </si>
   <si>
     <t xml:space="preserve">11.4427890777588</t>
@@ -794,49 +794,49 @@
     <t xml:space="preserve">11.4880180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2618761062622</t>
+    <t xml:space="preserve">11.2618751525879</t>
   </si>
   <si>
     <t xml:space="preserve">11.0809631347656</t>
   </si>
   <si>
-    <t xml:space="preserve">11.352331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2166481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1714200973511</t>
+    <t xml:space="preserve">11.3523330688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.216646194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1714191436768</t>
   </si>
   <si>
     <t xml:space="preserve">11.3071041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3975610733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1261901855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9403018951416</t>
+    <t xml:space="preserve">11.3975620269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1261911392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9403009414673</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855318069458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950729370117</t>
+    <t xml:space="preserve">11.895073890686</t>
   </si>
   <si>
     <t xml:space="preserve">12.0759868621826</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1664428710938</t>
+    <t xml:space="preserve">12.1664438247681</t>
   </si>
   <si>
     <t xml:space="preserve">12.1212148666382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.945276260376</t>
+    <t xml:space="preserve">10.9452772140503</t>
   </si>
   <si>
     <t xml:space="preserve">10.809591293335</t>
@@ -845,37 +845,37 @@
     <t xml:space="preserve">10.8548202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7643632888794</t>
+    <t xml:space="preserve">10.7643623352051</t>
   </si>
   <si>
     <t xml:space="preserve">10.9905042648315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.492992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4025363922119</t>
+    <t xml:space="preserve">10.4929933547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4025354385376</t>
   </si>
   <si>
     <t xml:space="preserve">10.0407085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0859355926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2668523788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3120794296265</t>
+    <t xml:space="preserve">10.0859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2668514251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3120784759521</t>
   </si>
   <si>
     <t xml:space="preserve">9.99547958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45273876190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22659587860107</t>
+    <t xml:space="preserve">9.45274066925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22659683227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.27182483673096</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">9.18136787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49796772003174</t>
+    <t xml:space="preserve">9.49796676635742</t>
   </si>
   <si>
     <t xml:space="preserve">9.58842372894287</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">10.7191352844238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1311664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286773681641</t>
+    <t xml:space="preserve">10.1311655044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286783218384</t>
   </si>
   <si>
     <t xml:space="preserve">10.4477653503418</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">10.357307434082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2216215133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1763944625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9050235748291</t>
+    <t xml:space="preserve">10.221622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1763935089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90502262115479</t>
   </si>
   <si>
     <t xml:space="preserve">9.95025253295898</t>
@@ -929,16 +929,16 @@
     <t xml:space="preserve">9.81456661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8597936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63365268707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382204055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7740564346313</t>
+    <t xml:space="preserve">9.85979557037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63365173339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382194519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7740545272827</t>
   </si>
   <si>
     <t xml:space="preserve">10.6803674697876</t>
@@ -950,43 +950,43 @@
     <t xml:space="preserve">10.8208990097046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.914587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677434921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5866813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7272119522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9614305496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1488046646118</t>
+    <t xml:space="preserve">10.9145851135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677444458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5866804122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9614295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1488056182861</t>
   </si>
   <si>
     <t xml:space="preserve">11.2893362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2424917221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0551176071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1956491470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.617241859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.476710319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4298667907715</t>
+    <t xml:space="preserve">11.2424926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.055118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1956481933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6172428131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4767112731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4298677444458</t>
   </si>
   <si>
     <t xml:space="preserve">11.3830232620239</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">11.757773399353</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9919929504395</t>
+    <t xml:space="preserve">11.9919939041138</t>
   </si>
   <si>
     <t xml:space="preserve">11.8514614105225</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">11.7109298706055</t>
   </si>
   <si>
-    <t xml:space="preserve">11.89830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9451484680176</t>
+    <t xml:space="preserve">11.8983039855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9451475143433</t>
   </si>
   <si>
     <t xml:space="preserve">11.5703983306885</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">12.1793670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2730550765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2262105941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.319896697998</t>
+    <t xml:space="preserve">12.2730541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2262096405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">12.3667411804199</t>
@@ -1034,19 +1034,19 @@
     <t xml:space="preserve">12.4135847091675</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0856790542603</t>
+    <t xml:space="preserve">12.0856800079346</t>
   </si>
   <si>
     <t xml:space="preserve">12.1325225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0082750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5235528945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3361797332764</t>
+    <t xml:space="preserve">11.0082731246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5235557556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3361806869507</t>
   </si>
   <si>
     <t xml:space="preserve">12.5541152954102</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">12.6478042602539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6009607315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946487426758</t>
+    <t xml:space="preserve">12.6009588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946468353271</t>
   </si>
   <si>
     <t xml:space="preserve">12.7883348464966</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">12.9757108688354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.882022857666</t>
+    <t xml:space="preserve">12.8820219039917</t>
   </si>
   <si>
     <t xml:space="preserve">13.2567720413208</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">11.1019611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0713987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5398359298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0693979263306</t>
+    <t xml:space="preserve">10.071400642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5398368835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0693960189819</t>
   </si>
   <si>
     <t xml:space="preserve">12.4604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7720527648926</t>
+    <t xml:space="preserve">13.7720546722412</t>
   </si>
   <si>
     <t xml:space="preserve">14.3341779708862</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">14.5215520858765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6620845794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8026161193848</t>
+    <t xml:space="preserve">14.6620836257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8026142120361</t>
   </si>
   <si>
     <t xml:space="preserve">14.8963022232056</t>
@@ -1130,46 +1130,46 @@
     <t xml:space="preserve">14.6152400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431457519531</t>
+    <t xml:space="preserve">14.4278650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.146803855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0531158447266</t>
+    <t xml:space="preserve">14.1468029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0531139373779</t>
   </si>
   <si>
     <t xml:space="preserve">14.1936464309692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2404909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347978591919</t>
+    <t xml:space="preserve">14.2404899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347969055176</t>
   </si>
   <si>
     <t xml:space="preserve">14.429105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.476261138916</t>
+    <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
     <t xml:space="preserve">14.2876434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1461820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9104127883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7689514160156</t>
+    <t xml:space="preserve">14.1461811065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9104118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7689504623413</t>
   </si>
   <si>
     <t xml:space="preserve">13.6746425628662</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">13.2974119186401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1559495925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2031030654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9575662612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217960357666</t>
+    <t xml:space="preserve">13.155948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2031021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9575672149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217969894409</t>
   </si>
   <si>
     <t xml:space="preserve">14.0990285873413</t>
@@ -1202,28 +1202,28 @@
     <t xml:space="preserve">13.3445644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4388723373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.712028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5234127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8534917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949531555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.089262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.042106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1835689544678</t>
+    <t xml:space="preserve">13.4388732910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7120294570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5234136581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8534908294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949522018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0892610549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421075820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1835699081421</t>
   </si>
   <si>
     <t xml:space="preserve">15.1364135742188</t>
@@ -1232,64 +1232,64 @@
     <t xml:space="preserve">15.2778778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.372184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5607976913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9380321502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7022609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908777236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9754180908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.692497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6355743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0697288513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7770347595215</t>
+    <t xml:space="preserve">15.3721837997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5608024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9380311965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7022619247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0323429107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908786773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9754199981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6924953460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6355724334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0697269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7770366668701</t>
   </si>
   <si>
     <t xml:space="preserve">17.5884189605713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5786514282227</t>
+    <t xml:space="preserve">18.5786533355713</t>
   </si>
   <si>
     <t xml:space="preserve">18.8615760803223</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7672710418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1542663574219</t>
+    <t xml:space="preserve">18.7672672271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1542701721191</t>
   </si>
   <si>
     <t xml:space="preserve">18.2485771179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2957305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8241901397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998069763184</t>
+    <t xml:space="preserve">18.2957286834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8241882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998050689697</t>
   </si>
   <si>
     <t xml:space="preserve">17.4941120147705</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">17.1640338897705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4469585418701</t>
+    <t xml:space="preserve">17.4469566345215</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5412693023682</t>
+    <t xml:space="preserve">17.5412654876709</t>
   </si>
   <si>
     <t xml:space="preserve">16.5981884002686</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">16.7396488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2583389282227</t>
+    <t xml:space="preserve">17.2583408355713</t>
   </si>
   <si>
     <t xml:space="preserve">17.1168804168701</t>
@@ -1325,34 +1325,34 @@
     <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3054943084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8339557647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152637481689</t>
+    <t xml:space="preserve">17.3054962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8339576721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152618408203</t>
   </si>
   <si>
     <t xml:space="preserve">17.0225734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9184989929199</t>
+    <t xml:space="preserve">17.9184951782227</t>
   </si>
   <si>
     <t xml:space="preserve">18.3900375366211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4843444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6729602813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4274215698242</t>
+    <t xml:space="preserve">18.4843463897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4274253845215</t>
   </si>
   <si>
     <t xml:space="preserve">19.2388076782227</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">19.616039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2761936187744</t>
+    <t xml:space="preserve">20.2761974334717</t>
   </si>
   <si>
     <t xml:space="preserve">20.9363498687744</t>
@@ -1370,22 +1370,22 @@
     <t xml:space="preserve">21.5021953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4078884124756</t>
+    <t xml:space="preserve">21.4078903198242</t>
   </si>
   <si>
     <t xml:space="preserve">21.2192726135254</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3135833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0306568145752</t>
+    <t xml:space="preserve">21.3135814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0306549072266</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6908130645752</t>
+    <t xml:space="preserve">21.6908111572266</t>
   </si>
   <si>
     <t xml:space="preserve">23.4826622009277</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">22.9168148040771</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5332717895508</t>
+    <t xml:space="preserve">22.5332698822021</t>
   </si>
   <si>
     <t xml:space="preserve">22.1497249603271</t>
@@ -1406,19 +1406,19 @@
     <t xml:space="preserve">23.3962459564209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4921340942383</t>
+    <t xml:space="preserve">23.4921321868896</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1085872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0127029418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6291561126709</t>
+    <t xml:space="preserve">23.1085891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0127010345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6291580200195</t>
   </si>
   <si>
     <t xml:space="preserve">24.3551082611084</t>
@@ -1442,25 +1442,25 @@
     <t xml:space="preserve">24.1633358001709</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2180862426758</t>
+    <t xml:space="preserve">25.2180843353271</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0810623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4234714508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0946712493896</t>
+    <t xml:space="preserve">26.0810642242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.423469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0946731567383</t>
   </si>
   <si>
     <t xml:space="preserve">27.9029006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5741024017334</t>
+    <t xml:space="preserve">28.574104309082</t>
   </si>
   <si>
     <t xml:space="preserve">27.7111282348633</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">27.9987869262695</t>
   </si>
   <si>
-    <t xml:space="preserve">27.807014465332</t>
+    <t xml:space="preserve">27.8070125579834</t>
   </si>
   <si>
     <t xml:space="preserve">27.5193557739258</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">28.2864456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4918270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7247371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4370822906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5329647064209</t>
+    <t xml:space="preserve">30.4918251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.724739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4370803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5329666137695</t>
   </si>
   <si>
     <t xml:space="preserve">29.6779747009277</t>
@@ -1499,19 +1499,19 @@
     <t xml:space="preserve">29.7746429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">29.38796043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2912883758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1946201324463</t>
+    <t xml:space="preserve">29.3879623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2912902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1946182250977</t>
   </si>
   <si>
     <t xml:space="preserve">29.0012760162354</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4513416290283</t>
+    <t xml:space="preserve">30.4513397216797</t>
   </si>
   <si>
     <t xml:space="preserve">31.3213806152344</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">30.0646572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3546695709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2247085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.514720916748</t>
+    <t xml:space="preserve">30.3546676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2247066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5147190093994</t>
   </si>
   <si>
     <t xml:space="preserve">31.6113929748535</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4180488586426</t>
+    <t xml:space="preserve">31.4180507659912</t>
   </si>
   <si>
     <t xml:space="preserve">31.8047370910645</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9014015197754</t>
+    <t xml:space="preserve">31.901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">30.8380241394043</t>
   </si>
   <si>
-    <t xml:space="preserve">34.414852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8982048034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1549301147461</t>
+    <t xml:space="preserve">34.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8982009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1549263000488</t>
   </si>
   <si>
     <t xml:space="preserve">35.671573638916</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">39.1517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9551811218262</t>
+    <t xml:space="preserve">41.9551849365234</t>
   </si>
   <si>
     <t xml:space="preserve">38.9583778381348</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450660705566</t>
+    <t xml:space="preserve">39.3450698852539</t>
   </si>
   <si>
     <t xml:space="preserve">39.4417381286621</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">38.8617095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3117790222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1184349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1850128173828</t>
+    <t xml:space="preserve">40.3117752075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1184310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1850166320801</t>
   </si>
   <si>
     <t xml:space="preserve">37.6049919128418</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">39.731746673584</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8284225463867</t>
+    <t xml:space="preserve">39.8284187316895</t>
   </si>
   <si>
     <t xml:space="preserve">40.2151031494141</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">42.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.888599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0185623168945</t>
+    <t xml:space="preserve">43.8886032104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0185585021973</t>
   </si>
   <si>
     <t xml:space="preserve">42.8252182006836</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">44.2752799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5320053100586</t>
+    <t xml:space="preserve">45.5320014953613</t>
   </si>
   <si>
     <t xml:space="preserve">46.1120300292969</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">46.0153579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4020462036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0787391662598</t>
+    <t xml:space="preserve">46.402042388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.078742980957</t>
   </si>
   <si>
     <t xml:space="preserve">46.8853988647461</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">45.145320892334</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3085708618164</t>
+    <t xml:space="preserve">43.3085746765137</t>
   </si>
   <si>
     <t xml:space="preserve">43.7919273376465</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">43.5019149780273</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1152305603027</t>
+    <t xml:space="preserve">43.115234375</t>
   </si>
   <si>
     <t xml:space="preserve">42.0518531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2784881591797</t>
+    <t xml:space="preserve">41.2784843444824</t>
   </si>
   <si>
     <t xml:space="preserve">40.7951316833496</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">42.9218902587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5684967041016</t>
+    <t xml:space="preserve">41.5684928894043</t>
   </si>
   <si>
     <t xml:space="preserve">41.7618408203125</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">41.4718246459961</t>
   </si>
   <si>
-    <t xml:space="preserve">40.408447265625</t>
+    <t xml:space="preserve">40.4084434509277</t>
   </si>
   <si>
     <t xml:space="preserve">41.0851440429688</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">40.6984558105469</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2483901977539</t>
+    <t xml:space="preserve">39.2483940124512</t>
   </si>
   <si>
     <t xml:space="preserve">40.5051231384277</t>
@@ -1769,16 +1769,16 @@
     <t xml:space="preserve">40.8917999267578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.475025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9916687011719</t>
+    <t xml:space="preserve">38.4750289916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9916725158691</t>
   </si>
   <si>
     <t xml:space="preserve">37.8950042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0249633789062</t>
+    <t xml:space="preserve">37.0249671936035</t>
   </si>
   <si>
     <t xml:space="preserve">37.70166015625</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">35.7682418823242</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2848892211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7048645019531</t>
+    <t xml:space="preserve">35.2848854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7048606872559</t>
   </si>
   <si>
     <t xml:space="preserve">34.1248359680176</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1882209777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.221508026123</t>
+    <t xml:space="preserve">35.1882171630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2215118408203</t>
   </si>
   <si>
     <t xml:space="preserve">33.4481391906738</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">33.5448112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8681106567383</t>
+    <t xml:space="preserve">32.8681144714355</t>
   </si>
   <si>
     <t xml:space="preserve">33.1581268310547</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">35.4782295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7349510192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3482666015625</t>
+    <t xml:space="preserve">36.7349548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3482627868652</t>
   </si>
   <si>
     <t xml:space="preserve">36.6382827758789</t>
@@ -1844,16 +1844,16 @@
     <t xml:space="preserve">32.9647827148438</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7714424133301</t>
+    <t xml:space="preserve">32.7714462280273</t>
   </si>
   <si>
     <t xml:space="preserve">33.0131225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3997993469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6414756774902</t>
+    <t xml:space="preserve">33.3998031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6414794921875</t>
   </si>
   <si>
     <t xml:space="preserve">35.0432090759277</t>
@@ -1862,19 +1862,19 @@
     <t xml:space="preserve">35.9615859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4298973083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5931434631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9497413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7563972473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1129913330078</t>
+    <t xml:space="preserve">35.4298934936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9497394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7563953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1129932403564</t>
   </si>
   <si>
     <t xml:space="preserve">29.6776580810547</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">29.3866996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2897148132324</t>
+    <t xml:space="preserve">29.2897167205811</t>
   </si>
   <si>
     <t xml:space="preserve">29.9686145782471</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">30.8899803161621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5203876495361</t>
+    <t xml:space="preserve">31.5203895568848</t>
   </si>
   <si>
     <t xml:space="preserve">30.9384727478027</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">30.4535446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1927280426025</t>
+    <t xml:space="preserve">29.1927299499512</t>
   </si>
   <si>
     <t xml:space="preserve">28.9987564086914</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">27.3984909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8349266052246</t>
+    <t xml:space="preserve">27.8349285125732</t>
   </si>
   <si>
     <t xml:space="preserve">27.4469833374023</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">27.5439682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0105476379395</t>
+    <t xml:space="preserve">27.0105495452881</t>
   </si>
   <si>
     <t xml:space="preserve">26.8165760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4286346435547</t>
+    <t xml:space="preserve">26.4286327362061</t>
   </si>
   <si>
     <t xml:space="preserve">25.8467178344727</t>
@@ -1955,16 +1955,16 @@
     <t xml:space="preserve">25.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0708332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8283672332764</t>
+    <t xml:space="preserve">25.0708312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.828369140625</t>
   </si>
   <si>
     <t xml:space="preserve">26.1861686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9437026977539</t>
+    <t xml:space="preserve">25.9437046051025</t>
   </si>
   <si>
     <t xml:space="preserve">25.4102821350098</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">25.0223388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3132972717285</t>
+    <t xml:space="preserve">25.3132953643799</t>
   </si>
   <si>
     <t xml:space="preserve">26.0406894683838</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">26.1376762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0590400695801</t>
+    <t xml:space="preserve">27.0590419769287</t>
   </si>
   <si>
     <t xml:space="preserve">26.2831554412842</t>
@@ -2087,22 +2087,22 @@
     <t xml:space="preserve">22.258243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8218059539795</t>
+    <t xml:space="preserve">21.8218078613281</t>
   </si>
   <si>
     <t xml:space="preserve">21.6763286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9004421234131</t>
+    <t xml:space="preserve">20.9004402160645</t>
   </si>
   <si>
     <t xml:space="preserve">21.0944137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7549629211426</t>
+    <t xml:space="preserve">21.1429042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7549610137939</t>
   </si>
   <si>
     <t xml:space="preserve">20.4640064239502</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">20.5124988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8519496917725</t>
+    <t xml:space="preserve">20.8519477844238</t>
   </si>
   <si>
     <t xml:space="preserve">20.9974269866943</t>
@@ -2129,22 +2129,22 @@
     <t xml:space="preserve">21.5308494567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0642700195312</t>
+    <t xml:space="preserve">22.0642719268799</t>
   </si>
   <si>
     <t xml:space="preserve">22.5976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0826225280762</t>
+    <t xml:space="preserve">23.0826206207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.4705657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4220733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3735809326172</t>
+    <t xml:space="preserve">23.4220714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3735790252686</t>
   </si>
   <si>
     <t xml:space="preserve">24.7798748016357</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">26.3316478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3801422119141</t>
+    <t xml:space="preserve">26.3801403045654</t>
   </si>
   <si>
     <t xml:space="preserve">25.9921951293945</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">26.5256195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7195892333984</t>
+    <t xml:space="preserve">26.7195911407471</t>
   </si>
   <si>
     <t xml:space="preserve">26.4771251678467</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">26.6710987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9502639770508</t>
+    <t xml:space="preserve">28.9502658843994</t>
   </si>
   <si>
     <t xml:space="preserve">28.4653358459473</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">28.8532791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.338207244873</t>
+    <t xml:space="preserve">29.3382091522217</t>
   </si>
   <si>
     <t xml:space="preserve">29.4836845397949</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">29.5806713104248</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4351940155029</t>
+    <t xml:space="preserve">29.4351921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.707799911499</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">26.5741119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0039863586426</t>
+    <t xml:space="preserve">24.0039882659912</t>
   </si>
   <si>
     <t xml:space="preserve">23.2281017303467</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">23.1796073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1311168670654</t>
+    <t xml:space="preserve">23.1311149597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.7615222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0524787902832</t>
+    <t xml:space="preserve">24.0524806976318</t>
   </si>
   <si>
     <t xml:space="preserve">24.2949447631836</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">21.4338645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1914005279541</t>
+    <t xml:space="preserve">21.1913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">21.4823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127624511719</t>
+    <t xml:space="preserve">22.1127643585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.7916660308838</t>
@@ -2273,25 +2273,22 @@
     <t xml:space="preserve">22.6461868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2097492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3067378997803</t>
+    <t xml:space="preserve">22.2097511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3067359924316</t>
   </si>
   <si>
     <t xml:space="preserve">22.888650894165</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1612567901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8702983856201</t>
+    <t xml:space="preserve">22.1612586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8703002929688</t>
   </si>
   <si>
     <t xml:space="preserve">21.624870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3067359924316</t>
   </si>
   <si>
     <t xml:space="preserve">22.4041442871094</t>
@@ -51637,7 +51634,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51663,7 +51660,7 @@
         <v>23</v>
       </c>
       <c r="G1869" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51689,7 +51686,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1870" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51715,7 +51712,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1871" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51741,7 +51738,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51767,7 +51764,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1873" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51793,7 +51790,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51819,7 +51816,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51845,7 +51842,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1876" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51871,7 +51868,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51897,7 +51894,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51923,7 +51920,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1879" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51949,7 +51946,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1880" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51975,7 +51972,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1881" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52001,7 +51998,7 @@
         <v>23</v>
       </c>
       <c r="G1882" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52027,7 +52024,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52053,7 +52050,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1884" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52079,7 +52076,7 @@
         <v>22.75</v>
       </c>
       <c r="G1885" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52105,7 +52102,7 @@
         <v>23</v>
       </c>
       <c r="G1886" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52131,7 +52128,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1887" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52157,7 +52154,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52183,7 +52180,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52209,7 +52206,7 @@
         <v>22.5</v>
       </c>
       <c r="G1890" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52235,7 +52232,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52261,7 +52258,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52339,7 +52336,7 @@
         <v>22</v>
       </c>
       <c r="G1895" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52365,7 +52362,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1896" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52391,7 +52388,7 @@
         <v>22</v>
       </c>
       <c r="G1897" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52417,7 +52414,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1898" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52443,7 +52440,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52495,7 +52492,7 @@
         <v>21.75</v>
       </c>
       <c r="G1901" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52521,7 +52518,7 @@
         <v>21.75</v>
       </c>
       <c r="G1902" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52547,7 +52544,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52573,7 +52570,7 @@
         <v>21.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52599,7 +52596,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52625,7 +52622,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52651,7 +52648,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1907" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52677,7 +52674,7 @@
         <v>21.25</v>
       </c>
       <c r="G1908" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52703,7 +52700,7 @@
         <v>21.25</v>
       </c>
       <c r="G1909" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52729,7 +52726,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1910" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52755,7 +52752,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52781,7 +52778,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52807,7 +52804,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52833,7 +52830,7 @@
         <v>20.75</v>
       </c>
       <c r="G1914" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52859,7 +52856,7 @@
         <v>21</v>
       </c>
       <c r="G1915" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52885,7 +52882,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1916" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52911,7 +52908,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1917" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52937,7 +52934,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1918" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52963,7 +52960,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1919" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52989,7 +52986,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1920" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53015,7 +53012,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1921" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53041,7 +53038,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53067,7 +53064,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53093,7 +53090,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53119,7 +53116,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53145,7 +53142,7 @@
         <v>21.5</v>
       </c>
       <c r="G1926" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53171,7 +53168,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53197,7 +53194,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53223,7 +53220,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53249,7 +53246,7 @@
         <v>21.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53275,7 +53272,7 @@
         <v>20.75</v>
       </c>
       <c r="G1931" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53301,7 +53298,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1932" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53327,7 +53324,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53353,7 +53350,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1934" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53379,7 +53376,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1935" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53405,7 +53402,7 @@
         <v>20</v>
       </c>
       <c r="G1936" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53431,7 +53428,7 @@
         <v>20.25</v>
       </c>
       <c r="G1937" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53457,7 +53454,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1938" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53483,7 +53480,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53509,7 +53506,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1940" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53535,7 +53532,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53561,7 +53558,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53587,7 +53584,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1943" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53613,7 +53610,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53639,7 +53636,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1945" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53665,7 +53662,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G1946" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53691,7 +53688,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53717,7 +53714,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53743,7 +53740,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53769,7 +53766,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1950" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53795,7 +53792,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1951" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53821,7 +53818,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53847,7 +53844,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1953" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53873,7 +53870,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1954" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53899,7 +53896,7 @@
         <v>19</v>
       </c>
       <c r="G1955" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53925,7 +53922,7 @@
         <v>19</v>
       </c>
       <c r="G1956" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53951,7 +53948,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53977,7 +53974,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1958" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54003,7 +54000,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1959" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54029,7 +54026,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1960" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54055,7 +54052,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54081,7 +54078,7 @@
         <v>18</v>
       </c>
       <c r="G1962" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54107,7 +54104,7 @@
         <v>18.5</v>
       </c>
       <c r="G1963" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54133,7 +54130,7 @@
         <v>19</v>
       </c>
       <c r="G1964" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54159,7 +54156,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1965" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54185,7 +54182,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54211,7 +54208,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1967" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54237,7 +54234,7 @@
         <v>19</v>
       </c>
       <c r="G1968" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54263,7 +54260,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1969" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54289,7 +54286,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1970" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54315,7 +54312,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1971" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54341,7 +54338,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1972" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54367,7 +54364,7 @@
         <v>19</v>
       </c>
       <c r="G1973" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54393,7 +54390,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1974" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54419,7 +54416,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54445,7 +54442,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54471,7 +54468,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1977" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54497,7 +54494,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1978" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54523,7 +54520,7 @@
         <v>18.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54549,7 +54546,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1980" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54575,7 +54572,7 @@
         <v>18</v>
       </c>
       <c r="G1981" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54601,7 +54598,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1982" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54627,7 +54624,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1983" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54653,7 +54650,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1984" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54679,7 +54676,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1985" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54705,7 +54702,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54731,7 +54728,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1987" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54757,7 +54754,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54783,7 +54780,7 @@
         <v>18.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54809,7 +54806,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54835,7 +54832,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1991" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54861,7 +54858,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1992" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54887,7 +54884,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54913,7 +54910,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1994" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54939,7 +54936,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1995" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54965,7 +54962,7 @@
         <v>17.5</v>
       </c>
       <c r="G1996" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54991,7 +54988,7 @@
         <v>18</v>
       </c>
       <c r="G1997" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55017,7 +55014,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1998" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55043,7 +55040,7 @@
         <v>18</v>
       </c>
       <c r="G1999" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55069,7 +55066,7 @@
         <v>18</v>
       </c>
       <c r="G2000" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55095,7 +55092,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2001" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55121,7 +55118,7 @@
         <v>18</v>
       </c>
       <c r="G2002" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55147,7 +55144,7 @@
         <v>18</v>
       </c>
       <c r="G2003" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55173,7 +55170,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G2004" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55199,7 +55196,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2005" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55225,7 +55222,7 @@
         <v>17.5</v>
       </c>
       <c r="G2006" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55251,7 +55248,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G2007" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55277,7 +55274,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G2008" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55303,7 +55300,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2009" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55329,7 +55326,7 @@
         <v>17.5</v>
       </c>
       <c r="G2010" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55355,7 +55352,7 @@
         <v>17.5</v>
       </c>
       <c r="G2011" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55381,7 +55378,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2012" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55407,7 +55404,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2013" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55433,7 +55430,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G2014" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55459,7 +55456,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55485,7 +55482,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55511,7 +55508,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2017" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55537,7 +55534,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G2018" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55563,7 +55560,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2019" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55589,7 +55586,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2020" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55615,7 +55612,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2021" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55641,7 +55638,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2022" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55667,7 +55664,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2023" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55693,7 +55690,7 @@
         <v>17.5</v>
       </c>
       <c r="G2024" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55719,7 +55716,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2025" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55745,7 +55742,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2026" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55771,7 +55768,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55797,7 +55794,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2028" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55823,7 +55820,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G2029" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55849,7 +55846,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2030" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55875,7 +55872,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2031" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55901,7 +55898,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G2032" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55927,7 +55924,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G2033" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55953,7 +55950,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55979,7 +55976,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56005,7 +56002,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G2036" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56031,7 +56028,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G2037" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56057,7 +56054,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2038" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56083,7 +56080,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2039" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56109,7 +56106,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2040" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56135,7 +56132,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56161,7 +56158,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56187,7 +56184,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2043" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56213,7 +56210,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2044" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56239,7 +56236,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2045" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56265,7 +56262,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2046" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56291,7 +56288,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2047" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56317,7 +56314,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2048" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56343,7 +56340,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G2049" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56369,7 +56366,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G2050" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56395,7 +56392,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2051" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56421,7 +56418,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2052" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56447,7 +56444,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2053" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56473,7 +56470,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2054" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56499,7 +56496,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2055" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56525,7 +56522,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56551,7 +56548,7 @@
         <v>18</v>
       </c>
       <c r="G2057" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56577,7 +56574,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56603,7 +56600,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2059" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56629,7 +56626,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2060" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56655,7 +56652,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G2061" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56681,7 +56678,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2062" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56707,7 +56704,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56733,7 +56730,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2064" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56759,7 +56756,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56785,7 +56782,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2066" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56811,7 +56808,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2067" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56837,7 +56834,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2068" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56863,7 +56860,7 @@
         <v>17.5</v>
       </c>
       <c r="G2069" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56889,7 +56886,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2070" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56915,7 +56912,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2071" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56941,7 +56938,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2072" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56967,7 +56964,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56993,7 +56990,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57019,7 +57016,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2075" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57045,7 +57042,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57071,7 +57068,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57097,7 +57094,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2078" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57123,7 +57120,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2079" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57149,7 +57146,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2080" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57175,7 +57172,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2081" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57201,7 +57198,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2082" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57227,7 +57224,7 @@
         <v>17.5</v>
       </c>
       <c r="G2083" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57253,7 +57250,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2084" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57279,7 +57276,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G2085" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57305,7 +57302,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57331,7 +57328,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57357,7 +57354,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57383,7 +57380,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2089" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57409,7 +57406,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2090" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57435,7 +57432,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57461,7 +57458,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G2092" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57487,7 +57484,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G2093" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57513,7 +57510,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G2094" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57539,7 +57536,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57565,7 +57562,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57591,7 +57588,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57617,7 +57614,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G2098" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57643,7 +57640,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G2099" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57669,7 +57666,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57695,7 +57692,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57721,7 +57718,7 @@
         <v>19</v>
       </c>
       <c r="G2102" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57747,7 +57744,7 @@
         <v>19</v>
       </c>
       <c r="G2103" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57773,7 +57770,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57799,7 +57796,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G2105" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57825,7 +57822,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2106" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57851,7 +57848,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57877,7 +57874,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2108" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57903,7 +57900,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57929,7 +57926,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G2110" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57955,7 +57952,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57981,7 +57978,7 @@
         <v>18.75</v>
       </c>
       <c r="G2112" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58007,7 +58004,7 @@
         <v>19</v>
       </c>
       <c r="G2113" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58033,7 +58030,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58059,7 +58056,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58085,7 +58082,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58111,7 +58108,7 @@
         <v>19</v>
       </c>
       <c r="G2117" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58137,7 +58134,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2118" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58163,7 +58160,7 @@
         <v>19.5</v>
       </c>
       <c r="G2119" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58189,7 +58186,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58215,7 +58212,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G2121" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58241,7 +58238,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2122" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58267,7 +58264,7 @@
         <v>19.25</v>
       </c>
       <c r="G2123" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58293,7 +58290,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2124" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58319,7 +58316,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58345,7 +58342,7 @@
         <v>19.5</v>
       </c>
       <c r="G2126" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58371,7 +58368,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58397,7 +58394,7 @@
         <v>20</v>
       </c>
       <c r="G2128" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58423,7 +58420,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58449,7 +58446,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2130" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58475,7 +58472,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G2131" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58501,7 +58498,7 @@
         <v>21</v>
       </c>
       <c r="G2132" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58527,7 +58524,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58553,7 +58550,7 @@
         <v>22</v>
       </c>
       <c r="G2134" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58579,7 +58576,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58605,7 +58602,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58631,7 +58628,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58657,7 +58654,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2138" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58683,7 +58680,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58709,7 +58706,7 @@
         <v>21.5</v>
       </c>
       <c r="G2140" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58735,7 +58732,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58761,7 +58758,7 @@
         <v>21.5</v>
       </c>
       <c r="G2142" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58787,7 +58784,7 @@
         <v>22</v>
       </c>
       <c r="G2143" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58813,7 +58810,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58839,7 +58836,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58865,7 +58862,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58891,7 +58888,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58917,7 +58914,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2148" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58943,7 +58940,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58969,7 +58966,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2150" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58995,7 +58992,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59021,7 +59018,7 @@
         <v>21</v>
       </c>
       <c r="G2152" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59047,7 +59044,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2153" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59073,7 +59070,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G2154" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59099,7 +59096,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2155" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59125,7 +59122,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59151,7 +59148,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59177,7 +59174,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59185,7 +59182,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494675926</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>9728</v>
@@ -59203,9 +59200,35 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G2159" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6495833333</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>870</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>21.7000007629395</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>20.7000007629395</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>20.7000007629395</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>21.7000007629395</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>902</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991611480713</t>
+    <t xml:space="preserve">8.20991706848145</t>
   </si>
   <si>
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975379943848</t>
+    <t xml:space="preserve">8.15975189208984</t>
   </si>
   <si>
     <t xml:space="preserve">8.19319534301758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10123157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10959243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06778717041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94238328933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877847671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976787567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69157075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304805755615</t>
+    <t xml:space="preserve">8.10122966766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10958957672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06779003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94238233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8587794303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6497688293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79189538955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69157123565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304853439331</t>
   </si>
   <si>
     <t xml:space="preserve">7.59960603713989</t>
@@ -86,16 +86,16 @@
     <t xml:space="preserve">7.63722896575928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62886810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6079683303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5828857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665287017822</t>
+    <t xml:space="preserve">7.62886714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60796737670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58288478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665048599243</t>
   </si>
   <si>
     <t xml:space="preserve">7.77517509460449</t>
@@ -104,34 +104,34 @@
     <t xml:space="preserve">7.81697654724121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4825611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7584547996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66649007797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62468910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31535148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44075727462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52436399459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59124708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76263332366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76681470870972</t>
+    <t xml:space="preserve">7.48256015777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75845336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66648960113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62468814849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31535243988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44075870513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52436256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59124565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76263523101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76681518554688</t>
   </si>
   <si>
     <t xml:space="preserve">7.98418617248535</t>
@@ -140,19 +140,19 @@
     <t xml:space="preserve">8.02598667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84623908996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26007843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35622119903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27679824829102</t>
+    <t xml:space="preserve">7.84623765945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402338027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2600793838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35622406005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27679920196533</t>
   </si>
   <si>
     <t xml:space="preserve">7.89222049713135</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">8.18483448028564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9967246055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97582244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13467121124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12631130218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15139484405518</t>
+    <t xml:space="preserve">7.99672651290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9758243560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13467216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12631225585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15139389038086</t>
   </si>
   <si>
     <t xml:space="preserve">8.2349967956543</t>
@@ -182,85 +182,85 @@
     <t xml:space="preserve">8.33532238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07614994049072</t>
+    <t xml:space="preserve">8.07614898681641</t>
   </si>
   <si>
     <t xml:space="preserve">8.01762676239014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92148208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9089412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73337316513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80861663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910310745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89640092849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70829248428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65394973754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67067098617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68738889694214</t>
+    <t xml:space="preserve">7.92148303985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90894222259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7333722114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80861711502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910358428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89640188217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6539478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67066860198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68739080429077</t>
   </si>
   <si>
     <t xml:space="preserve">7.85041952133179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57870578765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452630996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81279802322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239974975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920776367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355146408081</t>
+    <t xml:space="preserve">7.57870626449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55780363082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452440261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81279516220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920871734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174953460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27355003356934</t>
   </si>
   <si>
     <t xml:space="preserve">7.33207416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18994665145874</t>
+    <t xml:space="preserve">7.1899471282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.19412708282471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18576669692993</t>
+    <t xml:space="preserve">7.19830656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18576622009277</t>
   </si>
   <si>
     <t xml:space="preserve">7.06454086303711</t>
@@ -275,55 +275,55 @@
     <t xml:space="preserve">6.97257614135742</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14814519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21502828598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715532302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895677566528</t>
+    <t xml:space="preserve">7.14814424514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21502876281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715389251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895629882812</t>
   </si>
   <si>
     <t xml:space="preserve">7.67485094070435</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59542608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60378789901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56616353988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403793334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51600170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018213272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47419929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45329999923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1054105758667</t>
+    <t xml:space="preserve">7.59542560577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182317733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6037859916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56616592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51600217819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018356323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54108381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47420024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4532995223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5703444480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10541152954102</t>
   </si>
   <si>
     <t xml:space="preserve">8.19737529754639</t>
@@ -332,76 +332,76 @@
     <t xml:space="preserve">8.35204219818115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29351997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254608154297</t>
+    <t xml:space="preserve">8.2935209274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303302764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254465103149</t>
   </si>
   <si>
     <t xml:space="preserve">8.09287071228027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44400691986084</t>
+    <t xml:space="preserve">8.44400787353516</t>
   </si>
   <si>
     <t xml:space="preserve">8.59449291229248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54433250427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56105327606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6530179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97071170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.945631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73662090301514</t>
+    <t xml:space="preserve">8.54433155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5610523223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65301704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97071075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94563007354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7366189956665</t>
   </si>
   <si>
     <t xml:space="preserve">8.86202716827393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92055034637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90382862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99579620361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00415420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97907161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0472240447998</t>
+    <t xml:space="preserve">8.92055225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90382957458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579429626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00415325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9790735244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04722595214844</t>
   </si>
   <si>
     <t xml:space="preserve">9.07278251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01314926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03018760681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15797233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464298248291</t>
+    <t xml:space="preserve">9.01315021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03018665313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15797328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464584350586</t>
   </si>
   <si>
     <t xml:space="preserve">9.28575706481934</t>
@@ -413,52 +413,52 @@
     <t xml:space="preserve">9.14945411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26872062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25168132781982</t>
+    <t xml:space="preserve">9.26872158050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25168323516846</t>
   </si>
   <si>
     <t xml:space="preserve">9.32835388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613956451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36242866516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354465484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54984855651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61800098419189</t>
+    <t xml:space="preserve">9.45613861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206287384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36242961883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354560852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54984951019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61800193786621</t>
   </si>
   <si>
     <t xml:space="preserve">9.54133033752441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56688690185547</t>
+    <t xml:space="preserve">9.56688594818115</t>
   </si>
   <si>
     <t xml:space="preserve">9.39650630950928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55836772918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59244441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58392429351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948181152344</t>
+    <t xml:space="preserve">9.55836868286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59244346618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58392524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948276519775</t>
   </si>
   <si>
     <t xml:space="preserve">9.57540607452393</t>
@@ -467,25 +467,25 @@
     <t xml:space="preserve">9.49021625518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.379469871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20908641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2005672454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27723979949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31983375549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30279636383057</t>
+    <t xml:space="preserve">9.37946701049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687496185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20908546447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20056915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27724075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31983470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30279731750488</t>
   </si>
   <si>
     <t xml:space="preserve">9.53281116485596</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">9.62652111053467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71170997619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78838157653809</t>
+    <t xml:space="preserve">9.71171092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78838062286377</t>
   </si>
   <si>
     <t xml:space="preserve">9.83097648620605</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">9.75430583953857</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0950679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.052472114563</t>
+    <t xml:space="preserve">10.095067024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
     <t xml:space="preserve">10.3591575622559</t>
@@ -518,37 +518,37 @@
     <t xml:space="preserve">10.4528684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5891723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6062107086182</t>
+    <t xml:space="preserve">10.5891742706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6062097549438</t>
   </si>
   <si>
     <t xml:space="preserve">10.6488056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">10.57213306427</t>
+    <t xml:space="preserve">10.5721340179443</t>
   </si>
   <si>
     <t xml:space="preserve">10.6232490539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5636148452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017543792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676767349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2228546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2910051345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3761949539185</t>
+    <t xml:space="preserve">10.5636138916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017534255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3676786422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2228536605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2910070419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3761978149414</t>
   </si>
   <si>
     <t xml:space="preserve">10.2484102249146</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">10.2313737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2398929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4187898635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4784250259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.461386680603</t>
+    <t xml:space="preserve">10.2398910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4187917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4784259796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4613857269287</t>
   </si>
   <si>
     <t xml:space="preserve">10.3421201705933</t>
@@ -581,85 +581,85 @@
     <t xml:space="preserve">10.3506383895874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7339963912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8191871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9469728469849</t>
+    <t xml:space="preserve">10.7339954376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9469718933105</t>
   </si>
   <si>
     <t xml:space="preserve">11.0151252746582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0321626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0236444473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9895668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0406818389893</t>
+    <t xml:space="preserve">11.0662384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0321636199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.023642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9895658493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0406827926636</t>
   </si>
   <si>
     <t xml:space="preserve">10.8277053833008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.802149772644</t>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021488189697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8617820739746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8447418212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9043769836426</t>
+    <t xml:space="preserve">10.8447437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9043779373169</t>
   </si>
   <si>
     <t xml:space="preserve">10.8958578109741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8532619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703022003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7680740356445</t>
+    <t xml:space="preserve">10.8532629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7680721282959</t>
   </si>
   <si>
     <t xml:space="preserve">10.7425146102905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6658449172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7936296463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6914014816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7595539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128980636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8106679916382</t>
+    <t xml:space="preserve">10.6999197006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.665843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7936315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6914024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7595529556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128952026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8106670379639</t>
   </si>
   <si>
     <t xml:space="preserve">10.7169589996338</t>
@@ -677,61 +677,61 @@
     <t xml:space="preserve">11.2451391220093</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2877349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1173524856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3729238510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3303308486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433053970337</t>
+    <t xml:space="preserve">11.2877340316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1173534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3303298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433073043823</t>
   </si>
   <si>
     <t xml:space="preserve">11.7562818527222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9692583084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2248287200928</t>
+    <t xml:space="preserve">11.969259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2248296737671</t>
   </si>
   <si>
     <t xml:space="preserve">11.5859003067017</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6710910797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8414707183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7988777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136869430542</t>
+    <t xml:space="preserve">11.5007095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6710920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8414716720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7988767623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7136850357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0156269073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0594787597656</t>
+    <t xml:space="preserve">12.0156259536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0594778060913</t>
   </si>
   <si>
     <t xml:space="preserve">12.1033296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9279193878174</t>
+    <t xml:space="preserve">11.9279203414917</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332450866699</t>
@@ -749,25 +749,25 @@
     <t xml:space="preserve">11.7963609695435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4016876220703</t>
+    <t xml:space="preserve">11.4016885757446</t>
   </si>
   <si>
     <t xml:space="preserve">11.5770988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9717702865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3578357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824245452881</t>
+    <t xml:space="preserve">11.9717712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3578338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824235916138</t>
   </si>
   <si>
     <t xml:space="preserve">11.8498458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8046169281006</t>
+    <t xml:space="preserve">11.8046178817749</t>
   </si>
   <si>
     <t xml:space="preserve">11.7141599655151</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">11.5332460403442</t>
   </si>
   <si>
-    <t xml:space="preserve">11.759388923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6689300537109</t>
+    <t xml:space="preserve">11.7593879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6689319610596</t>
   </si>
   <si>
     <t xml:space="preserve">11.4427881240845</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">11.5784749984741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6237030029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.488018989563</t>
+    <t xml:space="preserve">11.623703956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880170822144</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
@@ -800,34 +800,34 @@
     <t xml:space="preserve">11.0809621810913</t>
   </si>
   <si>
-    <t xml:space="preserve">11.352334022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2166481018066</t>
+    <t xml:space="preserve">11.3523321151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.216646194458</t>
   </si>
   <si>
     <t xml:space="preserve">11.1714191436768</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3071041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3975610733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1261901855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9403028488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855308532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8950719833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0759868621826</t>
+    <t xml:space="preserve">11.3071050643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3975620269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1261911392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9403009414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855289459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8950729370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0759878158569</t>
   </si>
   <si>
     <t xml:space="preserve">12.1664438247681</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">12.1212158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9452781677246</t>
+    <t xml:space="preserve">10.945276260376</t>
   </si>
   <si>
     <t xml:space="preserve">10.8095922470093</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">10.8548202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7643632888794</t>
+    <t xml:space="preserve">10.7643623352051</t>
   </si>
   <si>
     <t xml:space="preserve">10.9905042648315</t>
@@ -863,43 +863,43 @@
     <t xml:space="preserve">10.0859365463257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2668504714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3120784759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99548053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45273971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22659683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27182579040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18136787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58842468261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67888069152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76933670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7241096496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191343307495</t>
+    <t xml:space="preserve">10.2668514251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3120794296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99547863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45273876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22659587860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27182483673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18136882781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58842372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67888164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72411060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191352844238</t>
   </si>
   <si>
     <t xml:space="preserve">10.1311655044556</t>
@@ -908,34 +908,34 @@
     <t xml:space="preserve">10.6286783218384</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4477643966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.357307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2216234207153</t>
+    <t xml:space="preserve">10.4477634429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3573064804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221622467041</t>
   </si>
   <si>
     <t xml:space="preserve">10.1763944625854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90502262115479</t>
+    <t xml:space="preserve">9.9050235748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.95025157928467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81456661224365</t>
+    <t xml:space="preserve">9.81456756591797</t>
   </si>
   <si>
     <t xml:space="preserve">9.85979461669922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63365268707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382194519043</t>
+    <t xml:space="preserve">9.63365173339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382204055786</t>
   </si>
   <si>
     <t xml:space="preserve">10.774055480957</t>
@@ -944,79 +944,79 @@
     <t xml:space="preserve">10.6803674697876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.63352394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8208990097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145851135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677425384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5866813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7272109985352</t>
+    <t xml:space="preserve">10.6335229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8208999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.914587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677434921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5866794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7272119522095</t>
   </si>
   <si>
     <t xml:space="preserve">10.9614305496216</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1488046646118</t>
+    <t xml:space="preserve">11.1488056182861</t>
   </si>
   <si>
     <t xml:space="preserve">11.2893362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2424926757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.055118560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1956491470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6172428131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4767112731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4298677444458</t>
+    <t xml:space="preserve">11.2424917221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0551195144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1956481933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6172409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.476710319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4298667907715</t>
   </si>
   <si>
     <t xml:space="preserve">11.3830223083496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6640863418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7577743530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9919919967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8514595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7109298706055</t>
+    <t xml:space="preserve">11.6640853881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.757773399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9919929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8514604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7109289169312</t>
   </si>
   <si>
     <t xml:space="preserve">11.8983058929443</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9451475143433</t>
+    <t xml:space="preserve">11.9451494216919</t>
   </si>
   <si>
     <t xml:space="preserve">11.5703983306885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1793670654297</t>
+    <t xml:space="preserve">12.1793661117554</t>
   </si>
   <si>
     <t xml:space="preserve">12.2730550765991</t>
@@ -1028,16 +1028,16 @@
     <t xml:space="preserve">12.319896697998</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3667421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4135856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0856781005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1325225830078</t>
+    <t xml:space="preserve">12.3667411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4135847091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0856790542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1325235366821</t>
   </si>
   <si>
     <t xml:space="preserve">11.0082740783691</t>
@@ -1046,58 +1046,55 @@
     <t xml:space="preserve">11.5235548019409</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3361806869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5541162490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478033065796</t>
+    <t xml:space="preserve">11.3361797332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5541152954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478042602539</t>
   </si>
   <si>
     <t xml:space="preserve">12.600959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6946477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7883329391479</t>
+    <t xml:space="preserve">12.6946487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7883348464966</t>
   </si>
   <si>
     <t xml:space="preserve">12.741491317749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9288663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8351802825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757108688354</t>
+    <t xml:space="preserve">12.9288673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8351783752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757099151611</t>
   </si>
   <si>
     <t xml:space="preserve">12.882022857666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2567710876465</t>
+    <t xml:space="preserve">13.2567729949951</t>
   </si>
   <si>
     <t xml:space="preserve">13.2099285125732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1630840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1019611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5398368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4929933547974</t>
+    <t xml:space="preserve">13.1630849838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1019620895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.071400642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5398359298706</t>
   </si>
   <si>
     <t xml:space="preserve">13.0693969726562</t>
@@ -1112,52 +1109,52 @@
     <t xml:space="preserve">14.3341779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5215520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6620836257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8026142120361</t>
+    <t xml:space="preserve">14.5215530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6620845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8026151657104</t>
   </si>
   <si>
     <t xml:space="preserve">14.8963022232056</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8494596481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5683965682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6152400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431457519531</t>
+    <t xml:space="preserve">14.849458694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5683975219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6152410507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4278650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431447982788</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747095108032</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1468029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0531158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1936473846436</t>
+    <t xml:space="preserve">14.146803855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0531148910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1936464309692</t>
   </si>
   <si>
     <t xml:space="preserve">14.2404909133911</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3347969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4291048049927</t>
+    <t xml:space="preserve">14.3347978591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.429105758667</t>
   </si>
   <si>
     <t xml:space="preserve">14.4762601852417</t>
@@ -1169,13 +1166,13 @@
     <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9104118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7689504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6746425628662</t>
+    <t xml:space="preserve">13.9104127883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7689514160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6746416091919</t>
   </si>
   <si>
     <t xml:space="preserve">13.5803337097168</t>
@@ -1184,19 +1181,19 @@
     <t xml:space="preserve">13.2974119186401</t>
   </si>
   <si>
-    <t xml:space="preserve">13.155948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.203104019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9575672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217969894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0990285873413</t>
+    <t xml:space="preserve">13.1559495925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2031030654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9575662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.099027633667</t>
   </si>
   <si>
     <t xml:space="preserve">13.5331811904907</t>
@@ -1205,7 +1202,7 @@
     <t xml:space="preserve">13.3445644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4388742446899</t>
+    <t xml:space="preserve">13.4388723373413</t>
   </si>
   <si>
     <t xml:space="preserve">14.7120294570923</t>
@@ -1214,79 +1211,79 @@
     <t xml:space="preserve">14.5234127044678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8534908294678</t>
+    <t xml:space="preserve">14.8534917831421</t>
   </si>
   <si>
     <t xml:space="preserve">14.9949531555176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0892610549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421075820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1835699081421</t>
+    <t xml:space="preserve">15.089262008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.042106628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1835689544678</t>
   </si>
   <si>
     <t xml:space="preserve">15.1364135742188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2778768539429</t>
+    <t xml:space="preserve">15.2778778076172</t>
   </si>
   <si>
     <t xml:space="preserve">15.3721837997437</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5608024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9380311965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7022619247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.032341003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908786773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9754199981689</t>
+    <t xml:space="preserve">15.5607995986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9380302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7022609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0323390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908777236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9754180908203</t>
   </si>
   <si>
     <t xml:space="preserve">16.692497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6355724334717</t>
+    <t xml:space="preserve">17.6355743408203</t>
   </si>
   <si>
     <t xml:space="preserve">17.0697288513184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7770366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5884208679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5786552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8615741729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7672672271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1542663574219</t>
+    <t xml:space="preserve">17.7770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5884189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5786533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8615760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7672691345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1542682647705</t>
   </si>
   <si>
     <t xml:space="preserve">18.2485771179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2957286834717</t>
+    <t xml:space="preserve">18.2957305908203</t>
   </si>
   <si>
     <t xml:space="preserve">17.8241882324219</t>
@@ -1301,7 +1298,7 @@
     <t xml:space="preserve">17.1640338897705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4469566345215</t>
+    <t xml:space="preserve">17.4469585418701</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298793792725</t>
@@ -1310,25 +1307,25 @@
     <t xml:space="preserve">17.5412654876709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5981864929199</t>
+    <t xml:space="preserve">16.5981884002686</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2583408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1168804168701</t>
+    <t xml:space="preserve">17.2583389282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1168785095215</t>
   </si>
   <si>
     <t xml:space="preserve">16.9282665252686</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3526477813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3054962158203</t>
+    <t xml:space="preserve">17.3526496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3054943084717</t>
   </si>
   <si>
     <t xml:space="preserve">16.4095726013184</t>
@@ -1340,10 +1337,10 @@
     <t xml:space="preserve">16.3152637481689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0225734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184970855713</t>
+    <t xml:space="preserve">17.0225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184989929199</t>
   </si>
   <si>
     <t xml:space="preserve">18.3900375366211</t>
@@ -1355,61 +1352,61 @@
     <t xml:space="preserve">18.6729602813721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2388076782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.616039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2761974334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9363498687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.502197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4078903198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2192707061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0306549072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965042114258</t>
+    <t xml:space="preserve">19.4274215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.238805770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6160373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2761936187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9363479614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5021953582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4078884124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2192726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0306568145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965061187744</t>
   </si>
   <si>
     <t xml:space="preserve">21.6908130645752</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4826641082764</t>
+    <t xml:space="preserve">23.4826622009277</t>
   </si>
   <si>
     <t xml:space="preserve">22.9168148040771</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5332698822021</t>
+    <t xml:space="preserve">22.5332717895508</t>
   </si>
   <si>
     <t xml:space="preserve">22.1497249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7250423431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3962459564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4921340942383</t>
+    <t xml:space="preserve">22.7250442504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3962440490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4921321868896</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
@@ -1421,22 +1418,22 @@
     <t xml:space="preserve">23.0127010345459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6291580200195</t>
+    <t xml:space="preserve">22.6291561126709</t>
   </si>
   <si>
     <t xml:space="preserve">24.3551082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9715614318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7797889709473</t>
+    <t xml:space="preserve">23.9715633392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7797908782959</t>
   </si>
   <si>
     <t xml:space="preserve">23.2044734954834</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6839065551758</t>
+    <t xml:space="preserve">23.6839046478271</t>
   </si>
   <si>
     <t xml:space="preserve">24.0674514770508</t>
@@ -1445,7 +1442,7 @@
     <t xml:space="preserve">24.1633377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2180824279785</t>
+    <t xml:space="preserve">25.2180843353271</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
@@ -1457,22 +1454,22 @@
     <t xml:space="preserve">27.423469543457</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0946712493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9029006958008</t>
+    <t xml:space="preserve">28.0946731567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9029026031494</t>
   </si>
   <si>
     <t xml:space="preserve">28.5741024017334</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7111263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9987888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.807014465332</t>
+    <t xml:space="preserve">27.7111282348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9987869262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8070125579834</t>
   </si>
   <si>
     <t xml:space="preserve">27.5193557739258</t>
@@ -1481,22 +1478,22 @@
     <t xml:space="preserve">26.7522659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2864437103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4918270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7247409820557</t>
+    <t xml:space="preserve">28.2864456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.491828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.724739074707</t>
   </si>
   <si>
     <t xml:space="preserve">29.4370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5329666137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6779747009277</t>
+    <t xml:space="preserve">29.5329647064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6779727935791</t>
   </si>
   <si>
     <t xml:space="preserve">29.7746429443359</t>
@@ -1514,7 +1511,7 @@
     <t xml:space="preserve">29.0012760162354</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4513397216797</t>
+    <t xml:space="preserve">30.4513416290283</t>
   </si>
   <si>
     <t xml:space="preserve">31.3213806152344</t>
@@ -1532,40 +1529,40 @@
     <t xml:space="preserve">30.257999420166</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0646553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3546695709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2247066497803</t>
+    <t xml:space="preserve">30.0646572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3546714782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2247085571289</t>
   </si>
   <si>
     <t xml:space="preserve">31.5147171020508</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6113910675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4180507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8047351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5781021118164</t>
+    <t xml:space="preserve">31.6113929748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4180488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8047332763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5780982971191</t>
   </si>
   <si>
     <t xml:space="preserve">32.2880897521973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4814300537109</t>
+    <t xml:space="preserve">32.4814262390137</t>
   </si>
   <si>
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.901403427124</t>
+    <t xml:space="preserve">31.9014053344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1574,58 +1571,58 @@
     <t xml:space="preserve">30.8380241394043</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4148445129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8982009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1549224853516</t>
+    <t xml:space="preserve">34.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8982048034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1549263000488</t>
   </si>
   <si>
     <t xml:space="preserve">35.671573638916</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5083160400391</t>
+    <t xml:space="preserve">37.5083198547363</t>
   </si>
   <si>
     <t xml:space="preserve">39.1517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9551849365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.958381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.635082244873</t>
+    <t xml:space="preserve">41.9551811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9583778381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6350784301758</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450660705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4417343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5384063720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8617134094238</t>
+    <t xml:space="preserve">39.3450622558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4417381286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5384101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8617095947266</t>
   </si>
   <si>
     <t xml:space="preserve">40.3117752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1184310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1850166320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6049957275391</t>
+    <t xml:space="preserve">40.1184349060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1850128173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6049919128418</t>
   </si>
   <si>
     <t xml:space="preserve">38.0883445739746</t>
@@ -1634,7 +1631,7 @@
     <t xml:space="preserve">38.3783569335938</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7317504882812</t>
+    <t xml:space="preserve">39.731746673584</t>
   </si>
   <si>
     <t xml:space="preserve">39.8284225463867</t>
@@ -1655,34 +1652,34 @@
     <t xml:space="preserve">41.8585090637207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.438533782959</t>
+    <t xml:space="preserve">42.4385375976562</t>
   </si>
   <si>
     <t xml:space="preserve">42.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8886032104492</t>
+    <t xml:space="preserve">43.888599395752</t>
   </si>
   <si>
     <t xml:space="preserve">43.0185585021973</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8252220153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2752838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5320014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1120300292969</t>
+    <t xml:space="preserve">42.8252182006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2752799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5320053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1120338439941</t>
   </si>
   <si>
     <t xml:space="preserve">45.9186897277832</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7253456115723</t>
+    <t xml:space="preserve">45.7253494262695</t>
   </si>
   <si>
     <t xml:space="preserve">46.0153579711914</t>
@@ -1691,25 +1688,25 @@
     <t xml:space="preserve">46.402042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">47.078742980957</t>
+    <t xml:space="preserve">47.0787391662598</t>
   </si>
   <si>
     <t xml:space="preserve">46.8853988647461</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5953826904297</t>
+    <t xml:space="preserve">46.595386505127</t>
   </si>
   <si>
     <t xml:space="preserve">45.822021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">45.145320892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3085746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7919273376465</t>
+    <t xml:space="preserve">45.1453247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3085708618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7919235229492</t>
   </si>
   <si>
     <t xml:space="preserve">43.5019149780273</t>
@@ -1721,16 +1718,16 @@
     <t xml:space="preserve">42.0518531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2784843444824</t>
+    <t xml:space="preserve">41.2784881591797</t>
   </si>
   <si>
     <t xml:space="preserve">40.7951316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9884719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3751525878906</t>
+    <t xml:space="preserve">40.9884757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3751564025879</t>
   </si>
   <si>
     <t xml:space="preserve">42.6318740844727</t>
@@ -1739,7 +1736,7 @@
     <t xml:space="preserve">42.9218902587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5684928894043</t>
+    <t xml:space="preserve">41.5684967041016</t>
   </si>
   <si>
     <t xml:space="preserve">41.7618408203125</t>
@@ -1748,7 +1745,7 @@
     <t xml:space="preserve">42.3418617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4718246459961</t>
+    <t xml:space="preserve">41.4718284606934</t>
   </si>
   <si>
     <t xml:space="preserve">40.4084434509277</t>
@@ -1757,10 +1754,10 @@
     <t xml:space="preserve">41.0851440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0550575256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6984558105469</t>
+    <t xml:space="preserve">39.0550537109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6984596252441</t>
   </si>
   <si>
     <t xml:space="preserve">39.2483901977539</t>
@@ -1769,7 +1766,7 @@
     <t xml:space="preserve">40.5051193237305</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8917999267578</t>
+    <t xml:space="preserve">40.8918037414551</t>
   </si>
   <si>
     <t xml:space="preserve">38.475025177002</t>
@@ -1790,13 +1787,13 @@
     <t xml:space="preserve">35.7682418823242</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2848854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7048606872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1248321533203</t>
+    <t xml:space="preserve">35.2848892211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7048645019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1248359680176</t>
   </si>
   <si>
     <t xml:space="preserve">35.1882171630859</t>
@@ -1811,28 +1808,28 @@
     <t xml:space="preserve">33.5448112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8681144714355</t>
+    <t xml:space="preserve">32.8681106567383</t>
   </si>
   <si>
     <t xml:space="preserve">33.1581268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7381553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3181762695312</t>
+    <t xml:space="preserve">33.738151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3181800842285</t>
   </si>
   <si>
     <t xml:space="preserve">35.4782295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7349548339844</t>
+    <t xml:space="preserve">36.7349510192871</t>
   </si>
   <si>
     <t xml:space="preserve">36.3482627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6382827758789</t>
+    <t xml:space="preserve">36.6382789611816</t>
   </si>
   <si>
     <t xml:space="preserve">33.8348236083984</t>
@@ -1847,7 +1844,7 @@
     <t xml:space="preserve">32.9647827148438</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7714462280273</t>
+    <t xml:space="preserve">32.7714424133301</t>
   </si>
   <si>
     <t xml:space="preserve">33.0131225585938</t>
@@ -1856,28 +1853,28 @@
     <t xml:space="preserve">33.3998031616211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6414833068848</t>
+    <t xml:space="preserve">33.6414794921875</t>
   </si>
   <si>
     <t xml:space="preserve">35.0432090759277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9615859985352</t>
+    <t xml:space="preserve">35.9615821838379</t>
   </si>
   <si>
     <t xml:space="preserve">35.4298934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5931434631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.949743270874</t>
+    <t xml:space="preserve">33.593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9497375488281</t>
   </si>
   <si>
     <t xml:space="preserve">31.7563972473145</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1129932403564</t>
+    <t xml:space="preserve">30.1129913330078</t>
   </si>
   <si>
     <t xml:space="preserve">29.6776580810547</t>
@@ -1895,7 +1892,7 @@
     <t xml:space="preserve">29.3866996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2897167205811</t>
+    <t xml:space="preserve">29.2897148132324</t>
   </si>
   <si>
     <t xml:space="preserve">29.9686145782471</t>
@@ -1904,7 +1901,7 @@
     <t xml:space="preserve">30.8899803161621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5203895568848</t>
+    <t xml:space="preserve">31.5203876495361</t>
   </si>
   <si>
     <t xml:space="preserve">30.9384727478027</t>
@@ -1913,7 +1910,7 @@
     <t xml:space="preserve">30.4535446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1927299499512</t>
+    <t xml:space="preserve">29.1927280426025</t>
   </si>
   <si>
     <t xml:space="preserve">28.9987564086914</t>
@@ -1931,7 +1928,7 @@
     <t xml:space="preserve">27.3984909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8349285125732</t>
+    <t xml:space="preserve">27.8349266052246</t>
   </si>
   <si>
     <t xml:space="preserve">27.4469833374023</t>
@@ -1943,13 +1940,13 @@
     <t xml:space="preserve">27.5439682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0105495452881</t>
+    <t xml:space="preserve">27.0105476379395</t>
   </si>
   <si>
     <t xml:space="preserve">26.8165760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4286327362061</t>
+    <t xml:space="preserve">26.4286346435547</t>
   </si>
   <si>
     <t xml:space="preserve">25.8467178344727</t>
@@ -1958,16 +1955,16 @@
     <t xml:space="preserve">25.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0708312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.828369140625</t>
+    <t xml:space="preserve">25.0708332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8283672332764</t>
   </si>
   <si>
     <t xml:space="preserve">26.1861686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9437046051025</t>
+    <t xml:space="preserve">25.9437026977539</t>
   </si>
   <si>
     <t xml:space="preserve">25.4102821350098</t>
@@ -2006,7 +2003,7 @@
     <t xml:space="preserve">25.0223388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3132953643799</t>
+    <t xml:space="preserve">25.3132972717285</t>
   </si>
   <si>
     <t xml:space="preserve">26.0406894683838</t>
@@ -2033,7 +2030,7 @@
     <t xml:space="preserve">26.1376762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0590419769287</t>
+    <t xml:space="preserve">27.0590400695801</t>
   </si>
   <si>
     <t xml:space="preserve">26.2831554412842</t>
@@ -2090,22 +2087,22 @@
     <t xml:space="preserve">22.258243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8218078613281</t>
+    <t xml:space="preserve">21.8218059539795</t>
   </si>
   <si>
     <t xml:space="preserve">21.6763286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9004402160645</t>
+    <t xml:space="preserve">20.9004421234131</t>
   </si>
   <si>
     <t xml:space="preserve">21.0944137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429042816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7549610137939</t>
+    <t xml:space="preserve">21.1429061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7549629211426</t>
   </si>
   <si>
     <t xml:space="preserve">20.4640064239502</t>
@@ -2114,7 +2111,7 @@
     <t xml:space="preserve">20.5124988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8519477844238</t>
+    <t xml:space="preserve">20.8519496917725</t>
   </si>
   <si>
     <t xml:space="preserve">20.9974269866943</t>
@@ -2132,22 +2129,22 @@
     <t xml:space="preserve">21.5308494567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0642719268799</t>
+    <t xml:space="preserve">22.0642700195312</t>
   </si>
   <si>
     <t xml:space="preserve">22.5976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0826206207275</t>
+    <t xml:space="preserve">23.0826225280762</t>
   </si>
   <si>
     <t xml:space="preserve">23.4705657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4220714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3735790252686</t>
+    <t xml:space="preserve">23.4220733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3735809326172</t>
   </si>
   <si>
     <t xml:space="preserve">24.7798748016357</t>
@@ -2162,7 +2159,7 @@
     <t xml:space="preserve">26.3316478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3801403045654</t>
+    <t xml:space="preserve">26.3801422119141</t>
   </si>
   <si>
     <t xml:space="preserve">25.9921951293945</t>
@@ -2177,7 +2174,7 @@
     <t xml:space="preserve">26.5256195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7195911407471</t>
+    <t xml:space="preserve">26.7195892333984</t>
   </si>
   <si>
     <t xml:space="preserve">26.4771251678467</t>
@@ -2189,7 +2186,7 @@
     <t xml:space="preserve">26.6710987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9502658843994</t>
+    <t xml:space="preserve">28.9502639770508</t>
   </si>
   <si>
     <t xml:space="preserve">28.4653358459473</t>
@@ -2204,7 +2201,7 @@
     <t xml:space="preserve">28.8532791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3382091522217</t>
+    <t xml:space="preserve">29.338207244873</t>
   </si>
   <si>
     <t xml:space="preserve">29.4836845397949</t>
@@ -2213,7 +2210,7 @@
     <t xml:space="preserve">29.5806713104248</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4351921081543</t>
+    <t xml:space="preserve">29.4351940155029</t>
   </si>
   <si>
     <t xml:space="preserve">28.707799911499</t>
@@ -2228,7 +2225,7 @@
     <t xml:space="preserve">26.5741119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0039882659912</t>
+    <t xml:space="preserve">24.0039863586426</t>
   </si>
   <si>
     <t xml:space="preserve">23.2281017303467</t>
@@ -2237,13 +2234,13 @@
     <t xml:space="preserve">23.1796073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1311149597168</t>
+    <t xml:space="preserve">23.1311168670654</t>
   </si>
   <si>
     <t xml:space="preserve">23.7615222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0524806976318</t>
+    <t xml:space="preserve">24.0524787902832</t>
   </si>
   <si>
     <t xml:space="preserve">24.2949447631836</t>
@@ -2261,13 +2258,13 @@
     <t xml:space="preserve">21.4338645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1913986206055</t>
+    <t xml:space="preserve">21.1914005279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.4823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127643585205</t>
+    <t xml:space="preserve">22.1127624511719</t>
   </si>
   <si>
     <t xml:space="preserve">22.7916660308838</t>
@@ -2276,22 +2273,25 @@
     <t xml:space="preserve">22.6461868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2097511291504</t>
+    <t xml:space="preserve">22.2097492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3067378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.888650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1612567901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8702983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.624870300293</t>
   </si>
   <si>
     <t xml:space="preserve">22.3067359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.888650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1612586975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8703002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.624870300293</t>
   </si>
   <si>
     <t xml:space="preserve">22.4041442871094</t>
@@ -31019,7 +31019,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31643,7 +31643,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31903,7 +31903,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1109" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32059,7 +32059,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1115" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32085,7 +32085,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32111,7 +32111,7 @@
         <v>15.5</v>
       </c>
       <c r="G1117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32137,7 +32137,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32163,7 +32163,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32189,7 +32189,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32215,7 +32215,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32241,7 +32241,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32267,7 +32267,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32293,7 +32293,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32319,7 +32319,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32345,7 +32345,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32371,7 +32371,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32397,7 +32397,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32423,7 +32423,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32449,7 +32449,7 @@
         <v>15</v>
       </c>
       <c r="G1130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32475,7 +32475,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32501,7 +32501,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32527,7 +32527,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32553,7 +32553,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32579,7 +32579,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32605,7 +32605,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32631,7 +32631,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1137" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32657,7 +32657,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32683,7 +32683,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32709,7 +32709,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32735,7 +32735,7 @@
         <v>15</v>
       </c>
       <c r="G1141" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32761,7 +32761,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32787,7 +32787,7 @@
         <v>14.75</v>
       </c>
       <c r="G1143" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32813,7 +32813,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32839,7 +32839,7 @@
         <v>14.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32865,7 +32865,7 @@
         <v>14.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32891,7 +32891,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32917,7 +32917,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1148" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32943,7 +32943,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1149" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32969,7 +32969,7 @@
         <v>14</v>
       </c>
       <c r="G1150" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32995,7 +32995,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33021,7 +33021,7 @@
         <v>14.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33047,7 +33047,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33073,7 +33073,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1154" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33099,7 +33099,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33125,7 +33125,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33151,7 +33151,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33177,7 +33177,7 @@
         <v>15</v>
       </c>
       <c r="G1158" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33203,7 +33203,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33229,7 +33229,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1160" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33255,7 +33255,7 @@
         <v>14.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33281,7 +33281,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1162" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33307,7 +33307,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1163" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33333,7 +33333,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1164" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33359,7 +33359,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33385,7 +33385,7 @@
         <v>14.25</v>
       </c>
       <c r="G1166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33411,7 +33411,7 @@
         <v>14.5</v>
       </c>
       <c r="G1167" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33437,7 +33437,7 @@
         <v>14.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33463,7 +33463,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1169" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33489,7 +33489,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33515,7 +33515,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33541,7 +33541,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1172" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33567,7 +33567,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33593,7 +33593,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33619,7 +33619,7 @@
         <v>15.75</v>
       </c>
       <c r="G1175" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33645,7 +33645,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33671,7 +33671,7 @@
         <v>16</v>
       </c>
       <c r="G1177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33697,7 +33697,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33723,7 +33723,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1179" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33749,7 +33749,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33775,7 +33775,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1181" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33801,7 +33801,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33827,7 +33827,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33853,7 +33853,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33879,7 +33879,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33905,7 +33905,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33931,7 +33931,7 @@
         <v>16.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33957,7 +33957,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1188" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33983,7 +33983,7 @@
         <v>16.5</v>
       </c>
       <c r="G1189" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34009,7 +34009,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1190" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34035,7 +34035,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34061,7 +34061,7 @@
         <v>17</v>
       </c>
       <c r="G1192" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34087,7 +34087,7 @@
         <v>17</v>
       </c>
       <c r="G1193" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34113,7 +34113,7 @@
         <v>17</v>
       </c>
       <c r="G1194" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34139,7 +34139,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34165,7 +34165,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1196" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34191,7 +34191,7 @@
         <v>18</v>
       </c>
       <c r="G1197" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34217,7 +34217,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1198" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34243,7 +34243,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34269,7 +34269,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34295,7 +34295,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34321,7 +34321,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34347,7 +34347,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34373,7 +34373,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1204" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34399,7 +34399,7 @@
         <v>20</v>
       </c>
       <c r="G1205" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34425,7 +34425,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1206" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34451,7 +34451,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1207" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34477,7 +34477,7 @@
         <v>19.25</v>
       </c>
       <c r="G1208" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34503,7 +34503,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34529,7 +34529,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34555,7 +34555,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34581,7 +34581,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1212" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34607,7 +34607,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1213" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34633,7 +34633,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1214" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34659,7 +34659,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1215" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34685,7 +34685,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1216" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34711,7 +34711,7 @@
         <v>18.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34737,7 +34737,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1218" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34763,7 +34763,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34789,7 +34789,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34815,7 +34815,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34841,7 +34841,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1222" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34867,7 +34867,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34893,7 +34893,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1224" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34919,7 +34919,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1225" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34945,7 +34945,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34971,7 +34971,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34997,7 +34997,7 @@
         <v>17.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35023,7 +35023,7 @@
         <v>18</v>
       </c>
       <c r="G1229" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35049,7 +35049,7 @@
         <v>18.5</v>
       </c>
       <c r="G1230" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35075,7 +35075,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35101,7 +35101,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35127,7 +35127,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35153,7 +35153,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1234" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35179,7 +35179,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35205,7 +35205,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35231,7 +35231,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35257,7 +35257,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35283,7 +35283,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35309,7 +35309,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35335,7 +35335,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35361,7 +35361,7 @@
         <v>18.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35387,7 +35387,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1243" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35413,7 +35413,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35439,7 +35439,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35465,7 +35465,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35491,7 +35491,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35517,7 +35517,7 @@
         <v>17.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35543,7 +35543,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35569,7 +35569,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35595,7 +35595,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1251" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35621,7 +35621,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35647,7 +35647,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1253" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35673,7 +35673,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35699,7 +35699,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35725,7 +35725,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1256" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35751,7 +35751,7 @@
         <v>18</v>
       </c>
       <c r="G1257" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35777,7 +35777,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35803,7 +35803,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1259" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35829,7 +35829,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1260" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35855,7 +35855,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1261" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35881,7 +35881,7 @@
         <v>19</v>
       </c>
       <c r="G1262" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35907,7 +35907,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35933,7 +35933,7 @@
         <v>19.5</v>
       </c>
       <c r="G1264" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35959,7 +35959,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1265" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35985,7 +35985,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1266" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36011,7 +36011,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36037,7 +36037,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1268" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36063,7 +36063,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36089,7 +36089,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1270" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36115,7 +36115,7 @@
         <v>21.5</v>
       </c>
       <c r="G1271" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36141,7 +36141,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36167,7 +36167,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36193,7 +36193,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1274" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36219,7 +36219,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36245,7 +36245,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1276" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36271,7 +36271,7 @@
         <v>22.5</v>
       </c>
       <c r="G1277" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36297,7 +36297,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36323,7 +36323,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36349,7 +36349,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1280" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36375,7 +36375,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36401,7 +36401,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36427,7 +36427,7 @@
         <v>23</v>
       </c>
       <c r="G1283" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36453,7 +36453,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36479,7 +36479,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1285" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36505,7 +36505,7 @@
         <v>23.5</v>
       </c>
       <c r="G1286" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36531,7 +36531,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36557,7 +36557,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36583,7 +36583,7 @@
         <v>23.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36609,7 +36609,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36635,7 +36635,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1291" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36661,7 +36661,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1292" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36687,7 +36687,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1293" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36713,7 +36713,7 @@
         <v>24.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36739,7 +36739,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1295" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36765,7 +36765,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36791,7 +36791,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36817,7 +36817,7 @@
         <v>24</v>
       </c>
       <c r="G1298" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36843,7 +36843,7 @@
         <v>24</v>
       </c>
       <c r="G1299" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36869,7 +36869,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1300" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36895,7 +36895,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1301" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36921,7 +36921,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1302" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36947,7 +36947,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1303" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36973,7 +36973,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36999,7 +36999,7 @@
         <v>24</v>
       </c>
       <c r="G1305" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37025,7 +37025,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1306" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37051,7 +37051,7 @@
         <v>25</v>
       </c>
       <c r="G1307" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37077,7 +37077,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37103,7 +37103,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37129,7 +37129,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37155,7 +37155,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1311" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37181,7 +37181,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37207,7 +37207,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1313" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37233,7 +37233,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1314" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37259,7 +37259,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1315" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37285,7 +37285,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37311,7 +37311,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1317" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37337,7 +37337,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37363,7 +37363,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1319" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37389,7 +37389,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37415,7 +37415,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1321" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37441,7 +37441,7 @@
         <v>24.5</v>
       </c>
       <c r="G1322" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37467,7 +37467,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37493,7 +37493,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1324" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37519,7 +37519,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1325" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37545,7 +37545,7 @@
         <v>26.5</v>
       </c>
       <c r="G1326" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37571,7 +37571,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37597,7 +37597,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1328" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37623,7 +37623,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1329" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37649,7 +37649,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1330" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37675,7 +37675,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1331" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37701,7 +37701,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37727,7 +37727,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1333" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37753,7 +37753,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1334" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37779,7 +37779,7 @@
         <v>29</v>
       </c>
       <c r="G1335" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37805,7 +37805,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37831,7 +37831,7 @@
         <v>29</v>
       </c>
       <c r="G1337" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37857,7 +37857,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37883,7 +37883,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1339" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37909,7 +37909,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1340" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37935,7 +37935,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1341" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37961,7 +37961,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1342" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37987,7 +37987,7 @@
         <v>29.5</v>
       </c>
       <c r="G1343" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38013,7 +38013,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1344" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38039,7 +38039,7 @@
         <v>31</v>
       </c>
       <c r="G1345" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38065,7 +38065,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1346" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38091,7 +38091,7 @@
         <v>31</v>
       </c>
       <c r="G1347" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38117,7 +38117,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1348" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38143,7 +38143,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38169,7 +38169,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1350" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38195,7 +38195,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1351" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38221,7 +38221,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1352" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38247,7 +38247,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1353" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38273,7 +38273,7 @@
         <v>30</v>
       </c>
       <c r="G1354" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38299,7 +38299,7 @@
         <v>30</v>
       </c>
       <c r="G1355" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38325,7 +38325,7 @@
         <v>31.5</v>
       </c>
       <c r="G1356" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38351,7 +38351,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1357" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38377,7 +38377,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1358" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38403,7 +38403,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1359" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38429,7 +38429,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1360" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38455,7 +38455,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1361" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38481,7 +38481,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1362" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38507,7 +38507,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38533,7 +38533,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1364" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38559,7 +38559,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1365" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38585,7 +38585,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1366" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38611,7 +38611,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1367" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38637,7 +38637,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1368" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38663,7 +38663,7 @@
         <v>32.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38689,7 +38689,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1370" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38715,7 +38715,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1371" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38741,7 +38741,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G1372" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38767,7 +38767,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1373" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38793,7 +38793,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1374" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38819,7 +38819,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38845,7 +38845,7 @@
         <v>33</v>
       </c>
       <c r="G1376" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38871,7 +38871,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1377" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38897,7 +38897,7 @@
         <v>32.5</v>
       </c>
       <c r="G1378" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38923,7 +38923,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1379" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38949,7 +38949,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1380" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38975,7 +38975,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1381" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39001,7 +39001,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1382" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39027,7 +39027,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1383" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39053,7 +39053,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1384" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39079,7 +39079,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1385" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39105,7 +39105,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1386" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39131,7 +39131,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1387" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39157,7 +39157,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G1388" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39183,7 +39183,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G1389" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39209,7 +39209,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1390" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39235,7 +39235,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1391" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39261,7 +39261,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G1392" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39287,7 +39287,7 @@
         <v>40.5</v>
       </c>
       <c r="G1393" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39313,7 +39313,7 @@
         <v>43.4000015258789</v>
       </c>
       <c r="G1394" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39339,7 +39339,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39365,7 +39365,7 @@
         <v>41</v>
       </c>
       <c r="G1396" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39391,7 +39391,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1397" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39417,7 +39417,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1398" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39443,7 +39443,7 @@
         <v>40.5</v>
       </c>
       <c r="G1399" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39469,7 +39469,7 @@
         <v>41</v>
       </c>
       <c r="G1400" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39495,7 +39495,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39521,7 +39521,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1402" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39547,7 +39547,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1403" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39573,7 +39573,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1404" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39599,7 +39599,7 @@
         <v>41.7000007629395</v>
       </c>
       <c r="G1405" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39625,7 +39625,7 @@
         <v>41.5</v>
       </c>
       <c r="G1406" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39651,7 +39651,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39677,7 +39677,7 @@
         <v>39.5</v>
       </c>
       <c r="G1408" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39703,7 +39703,7 @@
         <v>38.9000015258789</v>
       </c>
       <c r="G1409" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39729,7 +39729,7 @@
         <v>39.4000015258789</v>
       </c>
       <c r="G1410" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39755,7 +39755,7 @@
         <v>39.7000007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39781,7 +39781,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1412" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39807,7 +39807,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1413" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39833,7 +39833,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1414" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39859,7 +39859,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1415" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39885,7 +39885,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1416" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39911,7 +39911,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1417" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39937,7 +39937,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1418" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39963,7 +39963,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1419" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39989,7 +39989,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1420" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40015,7 +40015,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1421" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40041,7 +40041,7 @@
         <v>41</v>
       </c>
       <c r="G1422" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40067,7 +40067,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1423" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40093,7 +40093,7 @@
         <v>42</v>
       </c>
       <c r="G1424" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40119,7 +40119,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1425" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40145,7 +40145,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1426" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40171,7 +40171,7 @@
         <v>43.2999992370605</v>
       </c>
       <c r="G1427" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40197,7 +40197,7 @@
         <v>43.9000015258789</v>
       </c>
       <c r="G1428" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40223,7 +40223,7 @@
         <v>44</v>
       </c>
       <c r="G1429" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40249,7 +40249,7 @@
         <v>44</v>
       </c>
       <c r="G1430" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40275,7 +40275,7 @@
         <v>45.4000015258789</v>
       </c>
       <c r="G1431" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40301,7 +40301,7 @@
         <v>44.5</v>
       </c>
       <c r="G1432" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40327,7 +40327,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1433" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40353,7 +40353,7 @@
         <v>45.7999992370605</v>
       </c>
       <c r="G1434" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40379,7 +40379,7 @@
         <v>47.0999984741211</v>
       </c>
       <c r="G1435" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40405,7 +40405,7 @@
         <v>47.7000007629395</v>
       </c>
       <c r="G1436" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40431,7 +40431,7 @@
         <v>47.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40457,7 +40457,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1438" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40483,7 +40483,7 @@
         <v>47.5999984741211</v>
       </c>
       <c r="G1439" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40509,7 +40509,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1440" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40535,7 +40535,7 @@
         <v>47.5</v>
       </c>
       <c r="G1441" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40561,7 +40561,7 @@
         <v>48</v>
       </c>
       <c r="G1442" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40587,7 +40587,7 @@
         <v>48</v>
       </c>
       <c r="G1443" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40613,7 +40613,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G1444" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40639,7 +40639,7 @@
         <v>48.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40665,7 +40665,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G1446" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40691,7 +40691,7 @@
         <v>47.5999984741211</v>
       </c>
       <c r="G1447" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40717,7 +40717,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1448" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40743,7 +40743,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G1449" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40769,7 +40769,7 @@
         <v>48</v>
       </c>
       <c r="G1450" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40795,7 +40795,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40821,7 +40821,7 @@
         <v>45.7999992370605</v>
       </c>
       <c r="G1452" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40847,7 +40847,7 @@
         <v>44.7999992370605</v>
       </c>
       <c r="G1453" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40873,7 +40873,7 @@
         <v>44.7999992370605</v>
       </c>
       <c r="G1454" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40899,7 +40899,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1455" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40925,7 +40925,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1456" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40951,7 +40951,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1457" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40977,7 +40977,7 @@
         <v>45</v>
       </c>
       <c r="G1458" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41003,7 +41003,7 @@
         <v>44.5999984741211</v>
       </c>
       <c r="G1459" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41029,7 +41029,7 @@
         <v>43.5</v>
       </c>
       <c r="G1460" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41055,7 +41055,7 @@
         <v>41.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41081,7 +41081,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1462" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41107,7 +41107,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1463" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41133,7 +41133,7 @@
         <v>41.5</v>
       </c>
       <c r="G1464" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41159,7 +41159,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1465" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41185,7 +41185,7 @@
         <v>42</v>
       </c>
       <c r="G1466" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41211,7 +41211,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1467" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41237,7 +41237,7 @@
         <v>42.2000007629395</v>
       </c>
       <c r="G1468" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41263,7 +41263,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1469" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41289,7 +41289,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1470" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41315,7 +41315,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1471" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41341,7 +41341,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1472" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41367,7 +41367,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1473" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41393,7 +41393,7 @@
         <v>43.5</v>
       </c>
       <c r="G1474" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41419,7 +41419,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1475" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41445,7 +41445,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1476" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41471,7 +41471,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1477" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41497,7 +41497,7 @@
         <v>44.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41523,7 +41523,7 @@
         <v>44.5999984741211</v>
       </c>
       <c r="G1479" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41549,7 +41549,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1480" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41575,7 +41575,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1481" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41601,7 +41601,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1482" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41627,7 +41627,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1483" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41653,7 +41653,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1484" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41679,7 +41679,7 @@
         <v>43</v>
       </c>
       <c r="G1485" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41705,7 +41705,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41731,7 +41731,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1487" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41757,7 +41757,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1488" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41783,7 +41783,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1489" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41809,7 +41809,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1490" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41835,7 +41835,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1491" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41861,7 +41861,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1492" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41887,7 +41887,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1493" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41913,7 +41913,7 @@
         <v>43</v>
       </c>
       <c r="G1494" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41939,7 +41939,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1495" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41965,7 +41965,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1496" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41991,7 +41991,7 @@
         <v>43</v>
       </c>
       <c r="G1497" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42017,7 +42017,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1498" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42043,7 +42043,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1499" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42069,7 +42069,7 @@
         <v>43.5</v>
       </c>
       <c r="G1500" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42095,7 +42095,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1501" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42121,7 +42121,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1502" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42147,7 +42147,7 @@
         <v>43</v>
       </c>
       <c r="G1503" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42173,7 +42173,7 @@
         <v>42.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42199,7 +42199,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1505" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42225,7 +42225,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1506" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42251,7 +42251,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1507" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42277,7 +42277,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1508" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42303,7 +42303,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1509" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42329,7 +42329,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1510" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42355,7 +42355,7 @@
         <v>42.5</v>
       </c>
       <c r="G1511" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42381,7 +42381,7 @@
         <v>43</v>
       </c>
       <c r="G1512" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42407,7 +42407,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1513" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42433,7 +42433,7 @@
         <v>41.5</v>
       </c>
       <c r="G1514" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42459,7 +42459,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42485,7 +42485,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42511,7 +42511,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1517" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42537,7 +42537,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1518" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42563,7 +42563,7 @@
         <v>41.5</v>
       </c>
       <c r="G1519" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42589,7 +42589,7 @@
         <v>40.5</v>
       </c>
       <c r="G1520" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42615,7 +42615,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1521" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42641,7 +42641,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1522" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42667,7 +42667,7 @@
         <v>40.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42693,7 +42693,7 @@
         <v>40.5</v>
       </c>
       <c r="G1524" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42719,7 +42719,7 @@
         <v>41</v>
       </c>
       <c r="G1525" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42745,7 +42745,7 @@
         <v>41.5</v>
       </c>
       <c r="G1526" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42771,7 +42771,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1527" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42797,7 +42797,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42823,7 +42823,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1529" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42849,7 +42849,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1530" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42875,7 +42875,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1531" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42901,7 +42901,7 @@
         <v>40.5</v>
       </c>
       <c r="G1532" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42927,7 +42927,7 @@
         <v>40.5999984741211</v>
       </c>
       <c r="G1533" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42953,7 +42953,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42979,7 +42979,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1535" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43005,7 +43005,7 @@
         <v>41.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43031,7 +43031,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1537" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43057,7 +43057,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1538" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43083,7 +43083,7 @@
         <v>42.5</v>
       </c>
       <c r="G1539" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43109,7 +43109,7 @@
         <v>41.9000015258789</v>
       </c>
       <c r="G1540" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43135,7 +43135,7 @@
         <v>42.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43161,7 +43161,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1542" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43187,7 +43187,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1543" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43213,7 +43213,7 @@
         <v>40.5</v>
       </c>
       <c r="G1544" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43239,7 +43239,7 @@
         <v>40.5</v>
       </c>
       <c r="G1545" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43265,7 +43265,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1546" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43291,7 +43291,7 @@
         <v>42</v>
       </c>
       <c r="G1547" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43317,7 +43317,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1548" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43343,7 +43343,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1549" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43369,7 +43369,7 @@
         <v>41.5</v>
       </c>
       <c r="G1550" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43395,7 +43395,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1551" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43421,7 +43421,7 @@
         <v>41</v>
       </c>
       <c r="G1552" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43447,7 +43447,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43473,7 +43473,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1554" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43499,7 +43499,7 @@
         <v>41</v>
       </c>
       <c r="G1555" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43525,7 +43525,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1556" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43551,7 +43551,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43577,7 +43577,7 @@
         <v>39.2999992370605</v>
       </c>
       <c r="G1558" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43603,7 +43603,7 @@
         <v>39.2000007629395</v>
       </c>
       <c r="G1559" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43629,7 +43629,7 @@
         <v>38.2999992370605</v>
       </c>
       <c r="G1560" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43655,7 +43655,7 @@
         <v>39</v>
       </c>
       <c r="G1561" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43681,7 +43681,7 @@
         <v>37</v>
       </c>
       <c r="G1562" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43707,7 +43707,7 @@
         <v>36.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43733,7 +43733,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1564" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43759,7 +43759,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G1565" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43785,7 +43785,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G1566" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43811,7 +43811,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1567" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43837,7 +43837,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1568" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43863,7 +43863,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1569" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43889,7 +43889,7 @@
         <v>34.7000007629395</v>
       </c>
       <c r="G1570" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43915,7 +43915,7 @@
         <v>34</v>
       </c>
       <c r="G1571" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43941,7 +43941,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1572" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43967,7 +43967,7 @@
         <v>33</v>
       </c>
       <c r="G1573" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43993,7 +43993,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1574" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44019,7 +44019,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1575" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44045,7 +44045,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1576" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44071,7 +44071,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1577" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44097,7 +44097,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G1578" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44123,7 +44123,7 @@
         <v>35.5</v>
       </c>
       <c r="G1579" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44149,7 +44149,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G1580" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44175,7 +44175,7 @@
         <v>38</v>
       </c>
       <c r="G1581" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44201,7 +44201,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1582" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44227,7 +44227,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1583" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44253,7 +44253,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1584" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44279,7 +44279,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1585" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44305,7 +44305,7 @@
         <v>35</v>
       </c>
       <c r="G1586" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44331,7 +44331,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G1587" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44357,7 +44357,7 @@
         <v>35.2000007629395</v>
       </c>
       <c r="G1588" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44383,7 +44383,7 @@
         <v>35</v>
       </c>
       <c r="G1589" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44409,7 +44409,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G1590" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44435,7 +44435,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1591" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44461,7 +44461,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1592" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44487,7 +44487,7 @@
         <v>35</v>
       </c>
       <c r="G1593" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44513,7 +44513,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G1594" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44539,7 +44539,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G1595" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44565,7 +44565,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G1596" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44591,7 +44591,7 @@
         <v>36.25</v>
       </c>
       <c r="G1597" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44617,7 +44617,7 @@
         <v>36.5</v>
       </c>
       <c r="G1598" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44643,7 +44643,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1599" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44669,7 +44669,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44695,7 +44695,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1601" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44721,7 +44721,7 @@
         <v>34.75</v>
       </c>
       <c r="G1602" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44747,7 +44747,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1603" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44773,7 +44773,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G1604" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44799,7 +44799,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G1605" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44825,7 +44825,7 @@
         <v>32.5</v>
       </c>
       <c r="G1606" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44851,7 +44851,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G1607" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44877,7 +44877,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44903,7 +44903,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44929,7 +44929,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1610" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44955,7 +44955,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G1611" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44981,7 +44981,7 @@
         <v>30</v>
       </c>
       <c r="G1612" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45007,7 +45007,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G1613" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45033,7 +45033,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1614" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45059,7 +45059,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G1615" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45085,7 +45085,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1616" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45111,7 +45111,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1617" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45137,7 +45137,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G1618" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45163,7 +45163,7 @@
         <v>32.5</v>
       </c>
       <c r="G1619" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45189,7 +45189,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1620" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45215,7 +45215,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45241,7 +45241,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45267,7 +45267,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1623" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45293,7 +45293,7 @@
         <v>29.25</v>
       </c>
       <c r="G1624" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45319,7 +45319,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45345,7 +45345,7 @@
         <v>28.5</v>
       </c>
       <c r="G1626" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45371,7 +45371,7 @@
         <v>28.5</v>
       </c>
       <c r="G1627" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45397,7 +45397,7 @@
         <v>28.25</v>
       </c>
       <c r="G1628" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45423,7 +45423,7 @@
         <v>28.25</v>
       </c>
       <c r="G1629" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45449,7 +45449,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1630" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45475,7 +45475,7 @@
         <v>28.25</v>
       </c>
       <c r="G1631" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45501,7 +45501,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45527,7 +45527,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45553,7 +45553,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1634" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45579,7 +45579,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45605,7 +45605,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45631,7 +45631,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1637" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45657,7 +45657,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45683,7 +45683,7 @@
         <v>27.25</v>
       </c>
       <c r="G1639" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45709,7 +45709,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1640" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45735,7 +45735,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1641" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45761,7 +45761,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45787,7 +45787,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45813,7 +45813,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1644" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45839,7 +45839,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1645" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45865,7 +45865,7 @@
         <v>27</v>
       </c>
       <c r="G1646" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45891,7 +45891,7 @@
         <v>26.75</v>
       </c>
       <c r="G1647" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45917,7 +45917,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45943,7 +45943,7 @@
         <v>26.75</v>
       </c>
       <c r="G1649" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45969,7 +45969,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1650" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45995,7 +45995,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46021,7 +46021,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1652" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46047,7 +46047,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1653" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46073,7 +46073,7 @@
         <v>26.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46099,7 +46099,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46125,7 +46125,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1656" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46151,7 +46151,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1657" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46177,7 +46177,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1658" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46203,7 +46203,7 @@
         <v>25.75</v>
       </c>
       <c r="G1659" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46229,7 +46229,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1660" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46255,7 +46255,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1661" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46281,7 +46281,7 @@
         <v>26</v>
       </c>
       <c r="G1662" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46307,7 +46307,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1663" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46333,7 +46333,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1664" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46359,7 +46359,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1665" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46385,7 +46385,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46411,7 +46411,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46437,7 +46437,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46463,7 +46463,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1669" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46489,7 +46489,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1670" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46515,7 +46515,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46541,7 +46541,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1672" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46567,7 +46567,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1673" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46593,7 +46593,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46619,7 +46619,7 @@
         <v>28</v>
       </c>
       <c r="G1675" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46645,7 +46645,7 @@
         <v>28.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46671,7 +46671,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46697,7 +46697,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46723,7 +46723,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G1679" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46749,7 +46749,7 @@
         <v>28</v>
       </c>
       <c r="G1680" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46775,7 +46775,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46801,7 +46801,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1682" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46827,7 +46827,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46853,7 +46853,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1684" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46879,7 +46879,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1685" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46905,7 +46905,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1686" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46931,7 +46931,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46957,7 +46957,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46983,7 +46983,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1689" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47009,7 +47009,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1690" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47035,7 +47035,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1691" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47061,7 +47061,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1692" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47087,7 +47087,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47113,7 +47113,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47139,7 +47139,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1695" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47165,7 +47165,7 @@
         <v>25.75</v>
       </c>
       <c r="G1696" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47191,7 +47191,7 @@
         <v>25.5</v>
       </c>
       <c r="G1697" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47217,7 +47217,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47243,7 +47243,7 @@
         <v>25.25</v>
       </c>
       <c r="G1699" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47269,7 +47269,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1700" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47295,7 +47295,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47321,7 +47321,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47347,7 +47347,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47373,7 +47373,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1704" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47399,7 +47399,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47425,7 +47425,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1706" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47451,7 +47451,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47477,7 +47477,7 @@
         <v>26</v>
       </c>
       <c r="G1708" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47503,7 +47503,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1709" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47529,7 +47529,7 @@
         <v>25</v>
       </c>
       <c r="G1710" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47555,7 +47555,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47581,7 +47581,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47607,7 +47607,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1713" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47633,7 +47633,7 @@
         <v>23.25</v>
       </c>
       <c r="G1714" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47659,7 +47659,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47685,7 +47685,7 @@
         <v>22.5</v>
       </c>
       <c r="G1716" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47711,7 +47711,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1717" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47737,7 +47737,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47763,7 +47763,7 @@
         <v>21.75</v>
       </c>
       <c r="G1719" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47789,7 +47789,7 @@
         <v>21.75</v>
       </c>
       <c r="G1720" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47815,7 +47815,7 @@
         <v>21.75</v>
       </c>
       <c r="G1721" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47841,7 +47841,7 @@
         <v>21.75</v>
       </c>
       <c r="G1722" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47867,7 +47867,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47893,7 +47893,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47919,7 +47919,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47945,7 +47945,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1726" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47971,7 +47971,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1727" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47997,7 +47997,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48023,7 +48023,7 @@
         <v>21.5</v>
       </c>
       <c r="G1729" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48049,7 +48049,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1730" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48075,7 +48075,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1731" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48101,7 +48101,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48127,7 +48127,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1733" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48153,7 +48153,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1734" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48179,7 +48179,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1735" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48205,7 +48205,7 @@
         <v>22.75</v>
       </c>
       <c r="G1736" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48231,7 +48231,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48257,7 +48257,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1738" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48283,7 +48283,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48309,7 +48309,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48335,7 +48335,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48361,7 +48361,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48387,7 +48387,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48413,7 +48413,7 @@
         <v>25</v>
       </c>
       <c r="G1744" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48439,7 +48439,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1745" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48465,7 +48465,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1746" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48491,7 +48491,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1747" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48517,7 +48517,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1748" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48543,7 +48543,7 @@
         <v>26.5</v>
       </c>
       <c r="G1749" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48569,7 +48569,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G1750" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48595,7 +48595,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48621,7 +48621,7 @@
         <v>25</v>
       </c>
       <c r="G1752" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48647,7 +48647,7 @@
         <v>25.25</v>
       </c>
       <c r="G1753" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48673,7 +48673,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48699,7 +48699,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1755" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48725,7 +48725,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48751,7 +48751,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48777,7 +48777,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48803,7 +48803,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1759" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48829,7 +48829,7 @@
         <v>26</v>
       </c>
       <c r="G1760" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48855,7 +48855,7 @@
         <v>26.5</v>
       </c>
       <c r="G1761" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48881,7 +48881,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1762" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48907,7 +48907,7 @@
         <v>27</v>
       </c>
       <c r="G1763" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48933,7 +48933,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1764" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48959,7 +48959,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1765" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48985,7 +48985,7 @@
         <v>27.25</v>
       </c>
       <c r="G1766" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49011,7 +49011,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1767" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49037,7 +49037,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1768" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49063,7 +49063,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1769" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49089,7 +49089,7 @@
         <v>27.75</v>
       </c>
       <c r="G1770" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49115,7 +49115,7 @@
         <v>27</v>
       </c>
       <c r="G1771" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49141,7 +49141,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1772" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49167,7 +49167,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1773" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49193,7 +49193,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49219,7 +49219,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1775" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49245,7 +49245,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49271,7 +49271,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1777" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49297,7 +49297,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1778" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49323,7 +49323,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1779" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49349,7 +49349,7 @@
         <v>27.5</v>
       </c>
       <c r="G1780" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49375,7 +49375,7 @@
         <v>27.5</v>
       </c>
       <c r="G1781" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49401,7 +49401,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49427,7 +49427,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49453,7 +49453,7 @@
         <v>27.5</v>
       </c>
       <c r="G1784" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49479,7 +49479,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49505,7 +49505,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G1786" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49531,7 +49531,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49557,7 +49557,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G1788" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49583,7 +49583,7 @@
         <v>29.75</v>
       </c>
       <c r="G1789" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49609,7 +49609,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1790" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49635,7 +49635,7 @@
         <v>30.25</v>
       </c>
       <c r="G1791" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49661,7 +49661,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49687,7 +49687,7 @@
         <v>30.25</v>
       </c>
       <c r="G1793" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49713,7 +49713,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49739,7 +49739,7 @@
         <v>30.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49765,7 +49765,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49791,7 +49791,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49817,7 +49817,7 @@
         <v>30.3500003814697</v>
       </c>
       <c r="G1798" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49843,7 +49843,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49869,7 +49869,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49895,7 +49895,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1801" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49921,7 +49921,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1802" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49947,7 +49947,7 @@
         <v>29.75</v>
       </c>
       <c r="G1803" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49973,7 +49973,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49999,7 +49999,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1805" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50025,7 +50025,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50051,7 +50051,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50077,7 +50077,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50103,7 +50103,7 @@
         <v>27.5</v>
       </c>
       <c r="G1809" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50129,7 +50129,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1810" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50155,7 +50155,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50181,7 +50181,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1812" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50207,7 +50207,7 @@
         <v>26</v>
       </c>
       <c r="G1813" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50233,7 +50233,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50259,7 +50259,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1815" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50285,7 +50285,7 @@
         <v>24.75</v>
       </c>
       <c r="G1816" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50311,7 +50311,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50337,7 +50337,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50363,7 +50363,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1819" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50389,7 +50389,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1820" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50415,7 +50415,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50441,7 +50441,7 @@
         <v>24.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50467,7 +50467,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50493,7 +50493,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50519,7 +50519,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1825" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50545,7 +50545,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50571,7 +50571,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50597,7 +50597,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50623,7 +50623,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50649,7 +50649,7 @@
         <v>25.25</v>
       </c>
       <c r="G1830" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50675,7 +50675,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50701,7 +50701,7 @@
         <v>25.25</v>
       </c>
       <c r="G1832" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50727,7 +50727,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50753,7 +50753,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50779,7 +50779,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1835" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50805,7 +50805,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50831,7 +50831,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50857,7 +50857,7 @@
         <v>22.25</v>
       </c>
       <c r="G1838" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50883,7 +50883,7 @@
         <v>22.25</v>
       </c>
       <c r="G1839" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50909,7 +50909,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1840" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50935,7 +50935,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50961,7 +50961,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1842" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50987,7 +50987,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51013,7 +51013,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1844" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51039,7 +51039,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1845" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51065,7 +51065,7 @@
         <v>23.5</v>
       </c>
       <c r="G1846" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51091,7 +51091,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1847" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51117,7 +51117,7 @@
         <v>24.5</v>
       </c>
       <c r="G1848" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51143,7 +51143,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1849" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51169,7 +51169,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51195,7 +51195,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51221,7 +51221,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1852" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51247,7 +51247,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1853" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51273,7 +51273,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51299,7 +51299,7 @@
         <v>23</v>
       </c>
       <c r="G1855" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51325,7 +51325,7 @@
         <v>23</v>
       </c>
       <c r="G1856" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51351,7 +51351,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51377,7 +51377,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1858" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51403,7 +51403,7 @@
         <v>23</v>
       </c>
       <c r="G1859" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51429,7 +51429,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51455,7 +51455,7 @@
         <v>23</v>
       </c>
       <c r="G1861" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51481,7 +51481,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51507,7 +51507,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1863" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51533,7 +51533,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1864" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51559,7 +51559,7 @@
         <v>23</v>
       </c>
       <c r="G1865" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51585,7 +51585,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1866" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51611,7 +51611,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1867" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51637,7 +51637,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51689,7 +51689,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1870" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51819,7 +51819,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51871,7 +51871,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51897,7 +51897,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52183,7 +52183,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52235,7 +52235,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52261,7 +52261,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52287,7 +52287,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1893" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52313,7 +52313,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52469,7 +52469,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1900" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -59471,7 +59471,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6493981481</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>12391</v>
@@ -59492,6 +59492,32 @@
         <v>894</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6496412037</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>4130</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>22.2000007629395</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>22.2000007629395</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>21.8999996185303</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>896</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991706848145</t>
+    <t xml:space="preserve">8.20991516113281</t>
   </si>
   <si>
     <t xml:space="preserve">IWB.MI</t>
@@ -47,127 +47,127 @@
     <t xml:space="preserve">8.15975379943848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19319438934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10123062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10958957672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06778907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106830596924</t>
+    <t xml:space="preserve">8.19319629669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10123157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10959053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06779003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106735229492</t>
   </si>
   <si>
     <t xml:space="preserve">7.94238328933716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85877895355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976930618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189538955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69157075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960603713989</t>
+    <t xml:space="preserve">7.85877990722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976835250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79189491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69157123565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304853439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960651397705</t>
   </si>
   <si>
     <t xml:space="preserve">7.63722848892212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62886667251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60796785354614</t>
+    <t xml:space="preserve">7.62886714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6079683303833</t>
   </si>
   <si>
     <t xml:space="preserve">7.58288478851318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71665191650391</t>
+    <t xml:space="preserve">7.71665239334106</t>
   </si>
   <si>
     <t xml:space="preserve">7.77517414093018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81697654724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48256254196167</t>
+    <t xml:space="preserve">7.81697797775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48256206512451</t>
   </si>
   <si>
     <t xml:space="preserve">7.75845384597778</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66649007797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62468767166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31535291671753</t>
+    <t xml:space="preserve">7.66648817062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62468862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31535339355469</t>
   </si>
   <si>
     <t xml:space="preserve">7.44075775146484</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52436304092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59124565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76681518554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98418474197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02598762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84623861312866</t>
+    <t xml:space="preserve">7.52436351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59124660491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76263475418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76681280136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98418664932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02598667144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84623765945435</t>
   </si>
   <si>
     <t xml:space="preserve">7.93402147293091</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2600793838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35622310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27679824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89221906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18483543395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99672508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9758243560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13467311859131</t>
+    <t xml:space="preserve">8.26007843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35622215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27679920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89222002029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18483448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672603607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97582530975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13467121124268</t>
   </si>
   <si>
     <t xml:space="preserve">8.12631225585938</t>
@@ -176,61 +176,61 @@
     <t xml:space="preserve">8.15139293670654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23499774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532047271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762676239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9214825630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90894222259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73337411880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80861568450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910453796387</t>
+    <t xml:space="preserve">8.23499870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07615089416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148351669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90894031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73337364196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80861854553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910358428955</t>
   </si>
   <si>
     <t xml:space="preserve">7.89639949798584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70829153060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65394878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67067003250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68739128112793</t>
+    <t xml:space="preserve">7.70829200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65394926071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6706714630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68739080429077</t>
   </si>
   <si>
     <t xml:space="preserve">7.85041809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57870531082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780363082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443620681763</t>
+    <t xml:space="preserve">7.57870483398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55780410766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452535629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443525314331</t>
   </si>
   <si>
     <t xml:space="preserve">7.81279706954956</t>
@@ -239,37 +239,37 @@
     <t xml:space="preserve">7.43239879608154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21920824050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174858093262</t>
+    <t xml:space="preserve">7.21920728683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174953460693</t>
   </si>
   <si>
     <t xml:space="preserve">7.27355098724365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33207368850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18994665145874</t>
+    <t xml:space="preserve">7.33207416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18994760513306</t>
   </si>
   <si>
     <t xml:space="preserve">7.19412660598755</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18576669692993</t>
+    <t xml:space="preserve">7.19830656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18576622009277</t>
   </si>
   <si>
     <t xml:space="preserve">7.06453990936279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05617904663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978338241577</t>
+    <t xml:space="preserve">7.05618000030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978385925293</t>
   </si>
   <si>
     <t xml:space="preserve">6.97257614135742</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">7.14814615249634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21502780914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715627670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3989577293396</t>
+    <t xml:space="preserve">7.21502828598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715532302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895677566528</t>
   </si>
   <si>
     <t xml:space="preserve">7.67484951019287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59542512893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60378742218018</t>
+    <t xml:space="preserve">7.59542465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60378694534302</t>
   </si>
   <si>
     <t xml:space="preserve">7.56616544723511</t>
@@ -305,31 +305,31 @@
     <t xml:space="preserve">7.42403841018677</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51600122451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018213272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47420024871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45329856872559</t>
+    <t xml:space="preserve">7.51600170135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018165588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5410852432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4741997718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4532995223999</t>
   </si>
   <si>
     <t xml:space="preserve">7.57034540176392</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19737529754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35204219818115</t>
+    <t xml:space="preserve">8.10540962219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19737434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35204315185547</t>
   </si>
   <si>
     <t xml:space="preserve">8.29351902008057</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">8.09287166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44400596618652</t>
+    <t xml:space="preserve">8.44400691986084</t>
   </si>
   <si>
     <t xml:space="preserve">8.59449481964111</t>
@@ -353,40 +353,40 @@
     <t xml:space="preserve">8.54433250427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5610523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6530179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97071170806885</t>
+    <t xml:space="preserve">8.56105327606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65301895141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97071266174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.94563007354736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73662281036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86202716827393</t>
+    <t xml:space="preserve">8.73662185668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86202812194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.92055034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90382957458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99579429626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00415325164795</t>
+    <t xml:space="preserve">8.90382766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579334259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00415420532227</t>
   </si>
   <si>
     <t xml:space="preserve">8.97907257080078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04722595214844</t>
+    <t xml:space="preserve">9.04722499847412</t>
   </si>
   <si>
     <t xml:space="preserve">9.07278156280518</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">9.01314830780029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03018665313721</t>
+    <t xml:space="preserve">9.03018760681152</t>
   </si>
   <si>
     <t xml:space="preserve">9.15797328948975</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">9.37094974517822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14945411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26872062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25168132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32835388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45613956451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36243057250977</t>
+    <t xml:space="preserve">9.14945316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26871967315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25168228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32835292816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45613861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36242961883545</t>
   </si>
   <si>
     <t xml:space="preserve">9.41354465484619</t>
@@ -437,43 +437,43 @@
     <t xml:space="preserve">9.54984951019287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61800098419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54133033752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56688594818115</t>
+    <t xml:space="preserve">9.61800193786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54133129119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56688690185547</t>
   </si>
   <si>
     <t xml:space="preserve">9.39650535583496</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55836868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59244346618652</t>
+    <t xml:space="preserve">9.55836772918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59244441986084</t>
   </si>
   <si>
     <t xml:space="preserve">9.5839262008667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60948181152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49021530151367</t>
+    <t xml:space="preserve">9.60948276519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57540512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49021625518799</t>
   </si>
   <si>
     <t xml:space="preserve">9.37946796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33687305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20908832550049</t>
+    <t xml:space="preserve">9.33687210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20908641815186</t>
   </si>
   <si>
     <t xml:space="preserve">9.20057010650635</t>
@@ -485,16 +485,16 @@
     <t xml:space="preserve">9.31983470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30279636383057</t>
+    <t xml:space="preserve">9.30279731750488</t>
   </si>
   <si>
     <t xml:space="preserve">9.53281021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62652111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71170997619629</t>
+    <t xml:space="preserve">9.62652206420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71171188354492</t>
   </si>
   <si>
     <t xml:space="preserve">9.7883825302124</t>
@@ -503,28 +503,28 @@
     <t xml:space="preserve">9.83097743988037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75430488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.095067024231</t>
+    <t xml:space="preserve">9.75430583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0950689315796</t>
   </si>
   <si>
     <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3591575622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4528684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5891742706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6062116622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6488065719604</t>
+    <t xml:space="preserve">10.3591585159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4528694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5891723632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6062107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6488056182861</t>
   </si>
   <si>
     <t xml:space="preserve">10.5721349716187</t>
@@ -533,10 +533,10 @@
     <t xml:space="preserve">10.6232490539551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5636138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017543792725</t>
+    <t xml:space="preserve">10.5636157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017524719238</t>
   </si>
   <si>
     <t xml:space="preserve">10.3676776885986</t>
@@ -545,52 +545,52 @@
     <t xml:space="preserve">10.2228527069092</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2910051345825</t>
+    <t xml:space="preserve">10.2910060882568</t>
   </si>
   <si>
     <t xml:space="preserve">10.3761959075928</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2484092712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2313737869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2398920059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4187908172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4784240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4613847732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3421192169189</t>
+    <t xml:space="preserve">10.2484121322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.231372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2398910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4187917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4784259796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4613857269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3421211242676</t>
   </si>
   <si>
     <t xml:space="preserve">10.3165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3080434799194</t>
+    <t xml:space="preserve">10.3080444335938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506383895874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.733998298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8191871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9469728469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0151243209839</t>
+    <t xml:space="preserve">10.7339963912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9469718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0151252746582</t>
   </si>
   <si>
     <t xml:space="preserve">11.0662384033203</t>
@@ -599,22 +599,22 @@
     <t xml:space="preserve">11.0321626663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0236444473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9895668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0406818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8277063369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214162826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021478652954</t>
+    <t xml:space="preserve">11.0236434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9895687103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0406827926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8277044296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021488189697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8617820739746</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">10.8447427749634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9043779373169</t>
+    <t xml:space="preserve">10.9043769836426</t>
   </si>
   <si>
     <t xml:space="preserve">10.8958587646484</t>
@@ -632,55 +632,55 @@
     <t xml:space="preserve">10.8532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8703022003174</t>
+    <t xml:space="preserve">10.8703002929688</t>
   </si>
   <si>
     <t xml:space="preserve">10.7680730819702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7425155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999206542969</t>
+    <t xml:space="preserve">10.7425146102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999197006226</t>
   </si>
   <si>
     <t xml:space="preserve">10.665843963623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7936315536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6914014816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7595539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.912896156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8106679916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169589996338</t>
+    <t xml:space="preserve">10.7936296463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6913995742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7595520019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128952026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8106670379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169580459595</t>
   </si>
   <si>
     <t xml:space="preserve">11.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1599493026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2025423049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2451391220093</t>
+    <t xml:space="preserve">11.1599502563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.202543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.245138168335</t>
   </si>
   <si>
     <t xml:space="preserve">11.2877340316772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1173543930054</t>
+    <t xml:space="preserve">11.1173534393311</t>
   </si>
   <si>
     <t xml:space="preserve">11.3729248046875</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">11.3303298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">11.543306350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7562808990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9692573547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2248287200928</t>
+    <t xml:space="preserve">11.5433053970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7562828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9692583084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2248277664185</t>
   </si>
   <si>
     <t xml:space="preserve">11.585901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.50071144104</t>
+    <t xml:space="preserve">11.5007104873657</t>
   </si>
   <si>
     <t xml:space="preserve">11.6710910797119</t>
@@ -716,46 +716,49 @@
     <t xml:space="preserve">11.7988767623901</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7136878967285</t>
+    <t xml:space="preserve">11.7136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8840665817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0156240463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.059476852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9279203414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648044586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7525091171265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7086563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963600158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770988464355</t>
   </si>
   <si>
     <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0594778060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.927921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332460403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6648035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7525072097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7086572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963619232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4016885757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717702865601</t>
+    <t xml:space="preserve">11.9717721939087</t>
   </si>
   <si>
     <t xml:space="preserve">11.357834815979</t>
@@ -764,10 +767,10 @@
     <t xml:space="preserve">11.1824245452881</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8498449325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8046178817749</t>
+    <t xml:space="preserve">11.8498458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8046188354492</t>
   </si>
   <si>
     <t xml:space="preserve">11.7141590118408</t>
@@ -776,37 +779,37 @@
     <t xml:space="preserve">11.5332469940186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7593879699707</t>
+    <t xml:space="preserve">11.7593870162964</t>
   </si>
   <si>
     <t xml:space="preserve">11.6689310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4427890777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5784740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.623703956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880180358887</t>
+    <t xml:space="preserve">11.4427881240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5784749984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6237030029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.488018989563</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0809621810913</t>
+    <t xml:space="preserve">11.0809631347656</t>
   </si>
   <si>
     <t xml:space="preserve">11.3523321151733</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2166481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1714191436768</t>
+    <t xml:space="preserve">11.2166471481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1714181900024</t>
   </si>
   <si>
     <t xml:space="preserve">11.3071041107178</t>
@@ -818,31 +821,31 @@
     <t xml:space="preserve">11.1261911392212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9403009414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855308532715</t>
+    <t xml:space="preserve">11.9403018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855298995972</t>
   </si>
   <si>
     <t xml:space="preserve">11.8950729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0759887695312</t>
+    <t xml:space="preserve">12.0759878158569</t>
   </si>
   <si>
     <t xml:space="preserve">12.1664428710938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1212148666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9452781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.809591293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8548202514648</t>
+    <t xml:space="preserve">12.1212167739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9452772140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8095922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8548183441162</t>
   </si>
   <si>
     <t xml:space="preserve">10.7643623352051</t>
@@ -857,19 +860,19 @@
     <t xml:space="preserve">10.4025363922119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0407104492188</t>
+    <t xml:space="preserve">10.0407085418701</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859365463257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2668504714966</t>
+    <t xml:space="preserve">10.2668514251709</t>
   </si>
   <si>
     <t xml:space="preserve">10.3120784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99547863006592</t>
+    <t xml:space="preserve">9.99547958374023</t>
   </si>
   <si>
     <t xml:space="preserve">9.45273876190186</t>
@@ -881,19 +884,19 @@
     <t xml:space="preserve">9.27182483673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18136692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58842468261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67888164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7693395614624</t>
+    <t xml:space="preserve">9.18136787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796772003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58842372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67888069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933860778809</t>
   </si>
   <si>
     <t xml:space="preserve">9.7241096496582</t>
@@ -902,13 +905,13 @@
     <t xml:space="preserve">10.7191352844238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1311664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4477643966675</t>
+    <t xml:space="preserve">10.1311645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4477634429932</t>
   </si>
   <si>
     <t xml:space="preserve">10.357307434082</t>
@@ -920,10 +923,10 @@
     <t xml:space="preserve">10.1763944625854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9050235748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95025157928467</t>
+    <t xml:space="preserve">9.90502262115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95025253295898</t>
   </si>
   <si>
     <t xml:space="preserve">9.81456756591797</t>
@@ -947,16 +950,16 @@
     <t xml:space="preserve">10.63352394104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8208980560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.914587020874</t>
+    <t xml:space="preserve">10.8208990097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145879745483</t>
   </si>
   <si>
     <t xml:space="preserve">10.8677425384521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5866794586182</t>
+    <t xml:space="preserve">10.5866804122925</t>
   </si>
   <si>
     <t xml:space="preserve">10.7272109985352</t>
@@ -965,25 +968,25 @@
     <t xml:space="preserve">10.9614295959473</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1488046646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2893352508545</t>
+    <t xml:space="preserve">11.1488056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2893362045288</t>
   </si>
   <si>
     <t xml:space="preserve">11.2424926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0551176071167</t>
+    <t xml:space="preserve">11.055118560791</t>
   </si>
   <si>
     <t xml:space="preserve">11.1956481933594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.617241859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4767112731934</t>
+    <t xml:space="preserve">11.6172409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.476710319519</t>
   </si>
   <si>
     <t xml:space="preserve">11.4298677444458</t>
@@ -992,13 +995,13 @@
     <t xml:space="preserve">11.3830232620239</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6640863418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.757773399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9919910430908</t>
+    <t xml:space="preserve">11.6640853881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7577743530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9919919967651</t>
   </si>
   <si>
     <t xml:space="preserve">11.8514604568481</t>
@@ -1013,28 +1016,28 @@
     <t xml:space="preserve">11.9451484680176</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5703992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.179368019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2730541229248</t>
+    <t xml:space="preserve">11.5703983306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2730550765991</t>
   </si>
   <si>
     <t xml:space="preserve">12.2262105941772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3198986053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3667411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4135866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0856800079346</t>
+    <t xml:space="preserve">12.3198976516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3667402267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4135847091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0856790542603</t>
   </si>
   <si>
     <t xml:space="preserve">12.1325225830078</t>
@@ -1049,16 +1052,16 @@
     <t xml:space="preserve">11.3361797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5541172027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478052139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6009616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946468353271</t>
+    <t xml:space="preserve">12.5541162490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478042602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6009607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946496963501</t>
   </si>
   <si>
     <t xml:space="preserve">12.7883348464966</t>
@@ -1067,7 +1070,7 @@
     <t xml:space="preserve">12.7414922714233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9288654327393</t>
+    <t xml:space="preserve">12.9288673400879</t>
   </si>
   <si>
     <t xml:space="preserve">12.8351793289185</t>
@@ -1076,7 +1079,7 @@
     <t xml:space="preserve">12.9757099151611</t>
   </si>
   <si>
-    <t xml:space="preserve">12.882022857666</t>
+    <t xml:space="preserve">12.8820219039917</t>
   </si>
   <si>
     <t xml:space="preserve">13.2567720413208</t>
@@ -1094,13 +1097,13 @@
     <t xml:space="preserve">10.0713996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5398378372192</t>
+    <t xml:space="preserve">10.5398359298706</t>
   </si>
   <si>
     <t xml:space="preserve">13.0693969726562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4604291915894</t>
+    <t xml:space="preserve">12.460428237915</t>
   </si>
   <si>
     <t xml:space="preserve">13.7720537185669</t>
@@ -1109,7 +1112,7 @@
     <t xml:space="preserve">14.3341779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5215539932251</t>
+    <t xml:space="preserve">14.5215530395508</t>
   </si>
   <si>
     <t xml:space="preserve">14.6620836257935</t>
@@ -1121,61 +1124,58 @@
     <t xml:space="preserve">14.8963022232056</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8494596481323</t>
+    <t xml:space="preserve">14.849458694458</t>
   </si>
   <si>
     <t xml:space="preserve">14.5683965682983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6152400970459</t>
+    <t xml:space="preserve">14.6152410507202</t>
   </si>
   <si>
     <t xml:space="preserve">14.4278650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9431476593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4747085571289</t>
+    <t xml:space="preserve">14.9431467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4747095108032</t>
   </si>
   <si>
     <t xml:space="preserve">14.146803855896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0531158447266</t>
+    <t xml:space="preserve">14.0531148910522</t>
   </si>
   <si>
     <t xml:space="preserve">14.1936464309692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2404899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.429105758667</t>
+    <t xml:space="preserve">14.2404909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4291067123413</t>
   </si>
   <si>
     <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2876443862915</t>
+    <t xml:space="preserve">14.2876434326172</t>
   </si>
   <si>
     <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2404909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9104118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7689504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6746425628662</t>
+    <t xml:space="preserve">13.9104127883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7689514160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6746416091919</t>
   </si>
   <si>
     <t xml:space="preserve">13.5803337097168</t>
@@ -1184,34 +1184,34 @@
     <t xml:space="preserve">13.2974109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.155948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2031021118164</t>
+    <t xml:space="preserve">13.1559495925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2031030654907</t>
   </si>
   <si>
     <t xml:space="preserve">13.9575662612915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0990285873413</t>
+    <t xml:space="preserve">13.7217969894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.099027633667</t>
   </si>
   <si>
     <t xml:space="preserve">13.5331811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3445644378662</t>
+    <t xml:space="preserve">13.3445653915405</t>
   </si>
   <si>
     <t xml:space="preserve">13.4388732910156</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7120294570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5234136581421</t>
+    <t xml:space="preserve">14.7120304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5234127044678</t>
   </si>
   <si>
     <t xml:space="preserve">14.8534917831421</t>
@@ -1223,55 +1223,55 @@
     <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421085357666</t>
+    <t xml:space="preserve">15.0421075820923</t>
   </si>
   <si>
     <t xml:space="preserve">15.1835699081421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1364135742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2778768539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.372184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5608024597168</t>
+    <t xml:space="preserve">15.1364145278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2778778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3721837997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5608015060425</t>
   </si>
   <si>
     <t xml:space="preserve">15.9380311965942</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7022619247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.032341003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908786773682</t>
+    <t xml:space="preserve">15.702260017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0323390960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908777236938</t>
   </si>
   <si>
     <t xml:space="preserve">16.9754180908203</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6924953460693</t>
+    <t xml:space="preserve">16.692497253418</t>
   </si>
   <si>
     <t xml:space="preserve">17.6355743408203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0697269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7770366668701</t>
+    <t xml:space="preserve">17.0697288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7770347595215</t>
   </si>
   <si>
     <t xml:space="preserve">17.5884189605713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5786533355713</t>
+    <t xml:space="preserve">18.5786514282227</t>
   </si>
   <si>
     <t xml:space="preserve">18.8615760803223</t>
@@ -1280,40 +1280,40 @@
     <t xml:space="preserve">18.7672672271729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1542663574219</t>
+    <t xml:space="preserve">18.1542682647705</t>
   </si>
   <si>
     <t xml:space="preserve">18.2485752105713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.295726776123</t>
+    <t xml:space="preserve">18.2957286834717</t>
   </si>
   <si>
     <t xml:space="preserve">17.8241882324219</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3998031616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4941120147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1640357971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4469604492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7298812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5412673950195</t>
+    <t xml:space="preserve">17.3998050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4941101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1640338897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4469585418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7298793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5412654876709</t>
   </si>
   <si>
     <t xml:space="preserve">16.5981884002686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7396469116211</t>
+    <t xml:space="preserve">16.7396488189697</t>
   </si>
   <si>
     <t xml:space="preserve">17.2583427429199</t>
@@ -1334,25 +1334,25 @@
     <t xml:space="preserve">16.4095726013184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8339557647705</t>
+    <t xml:space="preserve">16.8339576721191</t>
   </si>
   <si>
     <t xml:space="preserve">16.3152637481689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0225715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184951782227</t>
+    <t xml:space="preserve">17.0225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184970855713</t>
   </si>
   <si>
     <t xml:space="preserve">18.3900356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4843425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6729583740234</t>
+    <t xml:space="preserve">18.4843463897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6729602813721</t>
   </si>
   <si>
     <t xml:space="preserve">19.4274234771729</t>
@@ -1364,34 +1364,34 @@
     <t xml:space="preserve">19.616039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.276195526123</t>
+    <t xml:space="preserve">20.2761936187744</t>
   </si>
   <si>
     <t xml:space="preserve">20.9363498687744</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5021934509277</t>
+    <t xml:space="preserve">21.5021953582764</t>
   </si>
   <si>
     <t xml:space="preserve">21.4078884124756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2192726135254</t>
+    <t xml:space="preserve">21.219274520874</t>
   </si>
   <si>
     <t xml:space="preserve">21.3135814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0306568145752</t>
+    <t xml:space="preserve">21.0306587219238</t>
   </si>
   <si>
     <t xml:space="preserve">21.5965042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6908111572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4826641082764</t>
+    <t xml:space="preserve">21.6908130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4826622009277</t>
   </si>
   <si>
     <t xml:space="preserve">22.9168148040771</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">22.1497268676758</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7250423431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3962478637695</t>
+    <t xml:space="preserve">22.7250442504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3962459564209</t>
   </si>
   <si>
     <t xml:space="preserve">23.4921321868896</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">23.0127010345459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6291580200195</t>
+    <t xml:space="preserve">22.6291561126709</t>
   </si>
   <si>
     <t xml:space="preserve">24.3551082611084</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">23.7797908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2044773101807</t>
+    <t xml:space="preserve">23.2044734954834</t>
   </si>
   <si>
     <t xml:space="preserve">23.6839065551758</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">24.0674495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1633358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2180843353271</t>
+    <t xml:space="preserve">24.1633377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2180824279785</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">28.5741024017334</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7111263275146</t>
+    <t xml:space="preserve">27.7111282348633</t>
   </si>
   <si>
     <t xml:space="preserve">27.9987888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">27.807014465332</t>
+    <t xml:space="preserve">27.8070125579834</t>
   </si>
   <si>
     <t xml:space="preserve">27.5193557739258</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">26.7522659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2864456176758</t>
+    <t xml:space="preserve">28.2864475250244</t>
   </si>
   <si>
     <t xml:space="preserve">30.491828918457</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">29.5329647064209</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6779747009277</t>
+    <t xml:space="preserve">29.6779727935791</t>
   </si>
   <si>
     <t xml:space="preserve">29.7746429443359</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">31.3213806152344</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1280364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7413520812988</t>
+    <t xml:space="preserve">31.1280384063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7413539886475</t>
   </si>
   <si>
     <t xml:space="preserve">30.1613292694092</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">30.0646572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3546695709229</t>
+    <t xml:space="preserve">30.3546714782715</t>
   </si>
   <si>
     <t xml:space="preserve">31.2247085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">31.514720916748</t>
+    <t xml:space="preserve">31.5147171020508</t>
   </si>
   <si>
     <t xml:space="preserve">31.6113929748535</t>
@@ -1550,22 +1550,22 @@
     <t xml:space="preserve">31.4180488586426</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8047370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5781021118164</t>
+    <t xml:space="preserve">31.8047332763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5780982971191</t>
   </si>
   <si>
     <t xml:space="preserve">32.2880897521973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4814300537109</t>
+    <t xml:space="preserve">32.4814262390137</t>
   </si>
   <si>
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9014015197754</t>
+    <t xml:space="preserve">31.9014053344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1574,19 +1574,19 @@
     <t xml:space="preserve">30.8380241394043</t>
   </si>
   <si>
-    <t xml:space="preserve">34.414852142334</t>
+    <t xml:space="preserve">34.4148483276367</t>
   </si>
   <si>
     <t xml:space="preserve">34.8982048034668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1549301147461</t>
+    <t xml:space="preserve">36.1549263000488</t>
   </si>
   <si>
     <t xml:space="preserve">35.671573638916</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5083160400391</t>
+    <t xml:space="preserve">37.5083198547363</t>
   </si>
   <si>
     <t xml:space="preserve">39.1517219543457</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">38.9583778381348</t>
   </si>
   <si>
-    <t xml:space="preserve">39.635082244873</t>
+    <t xml:space="preserve">39.6350784301758</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450660705566</t>
+    <t xml:space="preserve">39.3450622558594</t>
   </si>
   <si>
     <t xml:space="preserve">39.4417381286621</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">38.8617095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3117790222168</t>
+    <t xml:space="preserve">40.3117752075195</t>
   </si>
   <si>
     <t xml:space="preserve">40.1184349060059</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">41.181812286377</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6651649475098</t>
+    <t xml:space="preserve">41.665168762207</t>
   </si>
   <si>
     <t xml:space="preserve">41.8585090637207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.438533782959</t>
+    <t xml:space="preserve">42.4385375976562</t>
   </si>
   <si>
     <t xml:space="preserve">42.5352058410645</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">43.888599395752</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0185623168945</t>
+    <t xml:space="preserve">43.0185585021973</t>
   </si>
   <si>
     <t xml:space="preserve">42.8252182006836</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">45.5320053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1120300292969</t>
+    <t xml:space="preserve">46.1120338439941</t>
   </si>
   <si>
     <t xml:space="preserve">45.9186897277832</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">46.0153579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4020462036133</t>
+    <t xml:space="preserve">46.402042388916</t>
   </si>
   <si>
     <t xml:space="preserve">47.0787391662598</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">46.595386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8220176696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.145320892334</t>
+    <t xml:space="preserve">45.822021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1453247070312</t>
   </si>
   <si>
     <t xml:space="preserve">43.3085708618164</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7919273376465</t>
+    <t xml:space="preserve">43.7919235229492</t>
   </si>
   <si>
     <t xml:space="preserve">43.5019149780273</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">40.7951316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9884719848633</t>
+    <t xml:space="preserve">40.9884757995605</t>
   </si>
   <si>
     <t xml:space="preserve">41.3751564025879</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">42.3418617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4718246459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.408447265625</t>
+    <t xml:space="preserve">41.4718284606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4084434509277</t>
   </si>
   <si>
     <t xml:space="preserve">41.0851440429688</t>
@@ -1760,22 +1760,22 @@
     <t xml:space="preserve">39.0550537109375</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6984558105469</t>
+    <t xml:space="preserve">40.6984596252441</t>
   </si>
   <si>
     <t xml:space="preserve">39.2483901977539</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5051231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8917999267578</t>
+    <t xml:space="preserve">40.5051193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8918037414551</t>
   </si>
   <si>
     <t xml:space="preserve">38.475025177002</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9916687011719</t>
+    <t xml:space="preserve">37.9916725158691</t>
   </si>
   <si>
     <t xml:space="preserve">37.8950042724609</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">34.1248359680176</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1882209777832</t>
+    <t xml:space="preserve">35.1882171630859</t>
   </si>
   <si>
     <t xml:space="preserve">34.221508026123</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">36.7349510192871</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3482666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6382827758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8348197937012</t>
+    <t xml:space="preserve">36.3482627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6382789611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8348236083984</t>
   </si>
   <si>
     <t xml:space="preserve">33.9314918518066</t>
@@ -1853,25 +1853,25 @@
     <t xml:space="preserve">33.0131225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3997993469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6414756774902</t>
+    <t xml:space="preserve">33.3998031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6414794921875</t>
   </si>
   <si>
     <t xml:space="preserve">35.0432090759277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9615859985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4298973083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5931434631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9497413635254</t>
+    <t xml:space="preserve">35.9615821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4298934936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9497375488281</t>
   </si>
   <si>
     <t xml:space="preserve">31.7563972473145</t>
@@ -18932,7 +18932,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18984,7 +18984,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19036,7 +19036,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19062,7 +19062,7 @@
         <v>12.75</v>
       </c>
       <c r="G615" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19088,7 +19088,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G616" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19140,7 +19140,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19166,7 +19166,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G619" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19192,7 +19192,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19218,7 +19218,7 @@
         <v>12.75</v>
       </c>
       <c r="G621" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19244,7 +19244,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19270,7 +19270,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G623" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19296,7 +19296,7 @@
         <v>13</v>
       </c>
       <c r="G624" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19322,7 +19322,7 @@
         <v>13</v>
       </c>
       <c r="G625" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19348,7 +19348,7 @@
         <v>12.75</v>
       </c>
       <c r="G626" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19374,7 +19374,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G627" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19400,7 +19400,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G628" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19426,7 +19426,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19452,7 +19452,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19478,7 +19478,7 @@
         <v>12.75</v>
       </c>
       <c r="G631" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19504,7 +19504,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19530,7 +19530,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19556,7 +19556,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19582,7 +19582,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19608,7 +19608,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G636" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19634,7 +19634,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G637" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19660,7 +19660,7 @@
         <v>12.25</v>
       </c>
       <c r="G638" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19686,7 +19686,7 @@
         <v>12.25</v>
       </c>
       <c r="G639" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19712,7 +19712,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19738,7 +19738,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19764,7 +19764,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19790,7 +19790,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19816,7 +19816,7 @@
         <v>12.5</v>
       </c>
       <c r="G644" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19842,7 +19842,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19868,7 +19868,7 @@
         <v>12.5</v>
       </c>
       <c r="G646" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19894,7 +19894,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19920,7 +19920,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G648" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19946,7 +19946,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G649" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19972,7 +19972,7 @@
         <v>12.5</v>
       </c>
       <c r="G650" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19998,7 +19998,7 @@
         <v>12.5</v>
       </c>
       <c r="G651" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20024,7 +20024,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20050,7 +20050,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G653" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20076,7 +20076,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G654" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20102,7 +20102,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20128,7 +20128,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20154,7 +20154,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G657" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20180,7 +20180,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20206,7 +20206,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20232,7 +20232,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G660" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20258,7 +20258,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20284,7 +20284,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20310,7 +20310,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G663" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20336,7 +20336,7 @@
         <v>12.75</v>
       </c>
       <c r="G664" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20362,7 +20362,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G665" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20388,7 +20388,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G666" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20414,7 +20414,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G667" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20440,7 +20440,7 @@
         <v>12.25</v>
       </c>
       <c r="G668" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20466,7 +20466,7 @@
         <v>12.25</v>
       </c>
       <c r="G669" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20492,7 +20492,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20518,7 +20518,7 @@
         <v>12.5</v>
       </c>
       <c r="G671" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20544,7 +20544,7 @@
         <v>12.5</v>
       </c>
       <c r="G672" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20570,7 +20570,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20596,7 +20596,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20622,7 +20622,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G675" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20648,7 +20648,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G676" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20674,7 +20674,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20700,7 +20700,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G678" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20726,7 +20726,7 @@
         <v>12.25</v>
       </c>
       <c r="G679" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20752,7 +20752,7 @@
         <v>12.25</v>
       </c>
       <c r="G680" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20778,7 +20778,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G681" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20804,7 +20804,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20830,7 +20830,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G683" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20856,7 +20856,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20882,7 +20882,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20908,7 +20908,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20934,7 +20934,7 @@
         <v>12.5</v>
       </c>
       <c r="G687" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20960,7 +20960,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20986,7 +20986,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21012,7 +21012,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G690" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21038,7 +21038,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21064,7 +21064,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21090,7 +21090,7 @@
         <v>12.75</v>
       </c>
       <c r="G693" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21116,7 +21116,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21142,7 +21142,7 @@
         <v>13.25</v>
       </c>
       <c r="G695" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21168,7 +21168,7 @@
         <v>13</v>
       </c>
       <c r="G696" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21194,7 +21194,7 @@
         <v>13</v>
       </c>
       <c r="G697" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21220,7 +21220,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21246,7 +21246,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G699" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21272,7 +21272,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21298,7 +21298,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21324,7 +21324,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G702" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21350,7 +21350,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G703" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21376,7 +21376,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G704" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21402,7 +21402,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G705" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21428,7 +21428,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21454,7 +21454,7 @@
         <v>13.25</v>
       </c>
       <c r="G707" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21480,7 +21480,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G708" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21506,7 +21506,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21532,7 +21532,7 @@
         <v>13</v>
       </c>
       <c r="G710" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21558,7 +21558,7 @@
         <v>13</v>
       </c>
       <c r="G711" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21584,7 +21584,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G712" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21610,7 +21610,7 @@
         <v>13</v>
       </c>
       <c r="G713" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21636,7 +21636,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21662,7 +21662,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G715" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21688,7 +21688,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G716" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21714,7 +21714,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G717" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21740,7 +21740,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G718" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21766,7 +21766,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21792,7 +21792,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21818,7 +21818,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G721" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21844,7 +21844,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G722" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21870,7 +21870,7 @@
         <v>12.5</v>
       </c>
       <c r="G723" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21896,7 +21896,7 @@
         <v>13</v>
       </c>
       <c r="G724" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21922,7 +21922,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G725" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21948,7 +21948,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21974,7 +21974,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G727" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22000,7 +22000,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22026,7 +22026,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G729" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22052,7 +22052,7 @@
         <v>12.5</v>
       </c>
       <c r="G730" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22078,7 +22078,7 @@
         <v>12.25</v>
       </c>
       <c r="G731" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22104,7 +22104,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G732" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22130,7 +22130,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22156,7 +22156,7 @@
         <v>12</v>
       </c>
       <c r="G734" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22182,7 +22182,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22208,7 +22208,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G736" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22234,7 +22234,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22260,7 +22260,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22286,7 +22286,7 @@
         <v>11.5</v>
       </c>
       <c r="G739" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22312,7 +22312,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22338,7 +22338,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G741" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22364,7 +22364,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22390,7 +22390,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22416,7 +22416,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22442,7 +22442,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22468,7 +22468,7 @@
         <v>11.5</v>
       </c>
       <c r="G746" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22494,7 +22494,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22520,7 +22520,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G748" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22546,7 +22546,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G749" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22572,7 +22572,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G750" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22598,7 +22598,7 @@
         <v>10.25</v>
       </c>
       <c r="G751" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22624,7 +22624,7 @@
         <v>10.25</v>
       </c>
       <c r="G752" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22650,7 +22650,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G753" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22676,7 +22676,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G754" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22702,7 +22702,7 @@
         <v>10.5</v>
       </c>
       <c r="G755" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22728,7 +22728,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22754,7 +22754,7 @@
         <v>10.5</v>
       </c>
       <c r="G757" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22780,7 +22780,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22806,7 +22806,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22832,7 +22832,7 @@
         <v>10.75</v>
       </c>
       <c r="G760" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22858,7 +22858,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G761" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22884,7 +22884,7 @@
         <v>11.5</v>
       </c>
       <c r="G762" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22910,7 +22910,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22936,7 +22936,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22962,7 +22962,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G765" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22988,7 +22988,7 @@
         <v>11.5</v>
       </c>
       <c r="G766" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23014,7 +23014,7 @@
         <v>11.5</v>
       </c>
       <c r="G767" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23040,7 +23040,7 @@
         <v>11.75</v>
       </c>
       <c r="G768" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23066,7 +23066,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G769" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23092,7 +23092,7 @@
         <v>12</v>
       </c>
       <c r="G770" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23118,7 +23118,7 @@
         <v>11.75</v>
       </c>
       <c r="G771" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23144,7 +23144,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23170,7 +23170,7 @@
         <v>11.5</v>
       </c>
       <c r="G773" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23196,7 +23196,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23222,7 +23222,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G775" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23248,7 +23248,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23274,7 +23274,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G777" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23300,7 +23300,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G778" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23326,7 +23326,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23352,7 +23352,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23378,7 +23378,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23404,7 +23404,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G782" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23430,7 +23430,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G783" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23456,7 +23456,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23482,7 +23482,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G785" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23508,7 +23508,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23534,7 +23534,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23560,7 +23560,7 @@
         <v>11.5</v>
       </c>
       <c r="G788" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23586,7 +23586,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G789" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23612,7 +23612,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G790" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23638,7 +23638,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23664,7 +23664,7 @@
         <v>11.5</v>
       </c>
       <c r="G792" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23690,7 +23690,7 @@
         <v>11.25</v>
       </c>
       <c r="G793" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23716,7 +23716,7 @@
         <v>11.25</v>
       </c>
       <c r="G794" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23742,7 +23742,7 @@
         <v>11.5</v>
       </c>
       <c r="G795" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23768,7 +23768,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23794,7 +23794,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G797" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23820,7 +23820,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23846,7 +23846,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23872,7 +23872,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G800" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23898,7 +23898,7 @@
         <v>11</v>
       </c>
       <c r="G801" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23924,7 +23924,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G802" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23950,7 +23950,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23976,7 +23976,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G804" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24002,7 +24002,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24028,7 +24028,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G806" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24054,7 +24054,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24080,7 +24080,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24106,7 +24106,7 @@
         <v>11</v>
       </c>
       <c r="G809" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24132,7 +24132,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G810" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24158,7 +24158,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G811" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24184,7 +24184,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G812" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24210,7 +24210,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24236,7 +24236,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24262,7 +24262,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24288,7 +24288,7 @@
         <v>10.75</v>
       </c>
       <c r="G816" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24314,7 +24314,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G817" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24340,7 +24340,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G818" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24366,7 +24366,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24392,7 +24392,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G820" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24418,7 +24418,7 @@
         <v>11.25</v>
       </c>
       <c r="G821" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24444,7 +24444,7 @@
         <v>11.25</v>
       </c>
       <c r="G822" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24470,7 +24470,7 @@
         <v>11.25</v>
       </c>
       <c r="G823" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24496,7 +24496,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24522,7 +24522,7 @@
         <v>11.5</v>
       </c>
       <c r="G825" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24548,7 +24548,7 @@
         <v>11.5</v>
       </c>
       <c r="G826" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24574,7 +24574,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G827" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24600,7 +24600,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24626,7 +24626,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24652,7 +24652,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24678,7 +24678,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G831" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24704,7 +24704,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24730,7 +24730,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G833" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24756,7 +24756,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24782,7 +24782,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24808,7 +24808,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G836" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24834,7 +24834,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24860,7 +24860,7 @@
         <v>11.5</v>
       </c>
       <c r="G838" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24886,7 +24886,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24912,7 +24912,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24938,7 +24938,7 @@
         <v>11.5</v>
       </c>
       <c r="G841" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24964,7 +24964,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24990,7 +24990,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G843" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25016,7 +25016,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G844" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25042,7 +25042,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G845" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25068,7 +25068,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G846" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25094,7 +25094,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G847" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25120,7 +25120,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25146,7 +25146,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25172,7 +25172,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25198,7 +25198,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25224,7 +25224,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25250,7 +25250,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G853" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25276,7 +25276,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25302,7 +25302,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25328,7 +25328,7 @@
         <v>11.5</v>
       </c>
       <c r="G856" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25354,7 +25354,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G857" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25380,7 +25380,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25406,7 +25406,7 @@
         <v>11.5</v>
       </c>
       <c r="G859" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25432,7 +25432,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G860" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25458,7 +25458,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25484,7 +25484,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G862" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25510,7 +25510,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G863" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25536,7 +25536,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G864" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25562,7 +25562,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25588,7 +25588,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G866" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25614,7 +25614,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25640,7 +25640,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25666,7 +25666,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G869" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25692,7 +25692,7 @@
         <v>12</v>
       </c>
       <c r="G870" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25718,7 +25718,7 @@
         <v>12</v>
       </c>
       <c r="G871" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25744,7 +25744,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G872" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25770,7 +25770,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G873" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25796,7 +25796,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25822,7 +25822,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25848,7 +25848,7 @@
         <v>12</v>
       </c>
       <c r="G876" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25874,7 +25874,7 @@
         <v>12</v>
       </c>
       <c r="G877" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25900,7 +25900,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G878" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25926,7 +25926,7 @@
         <v>12</v>
       </c>
       <c r="G879" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25952,7 +25952,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G880" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25978,7 +25978,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G881" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26004,7 +26004,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26030,7 +26030,7 @@
         <v>12</v>
       </c>
       <c r="G883" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26056,7 +26056,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G884" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26082,7 +26082,7 @@
         <v>12.25</v>
       </c>
       <c r="G885" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26108,7 +26108,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G886" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26134,7 +26134,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26160,7 +26160,7 @@
         <v>12.25</v>
       </c>
       <c r="G888" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26186,7 +26186,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26212,7 +26212,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G890" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26238,7 +26238,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26264,7 +26264,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G892" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26290,7 +26290,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G893" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26316,7 +26316,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26342,7 +26342,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26368,7 +26368,7 @@
         <v>12.5</v>
       </c>
       <c r="G896" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26394,7 +26394,7 @@
         <v>12.5</v>
       </c>
       <c r="G897" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26420,7 +26420,7 @@
         <v>12.5</v>
       </c>
       <c r="G898" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26446,7 +26446,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G899" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26472,7 +26472,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26498,7 +26498,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G901" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26524,7 +26524,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26550,7 +26550,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26576,7 +26576,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G904" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26602,7 +26602,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26628,7 +26628,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G906" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26654,7 +26654,7 @@
         <v>12.75</v>
       </c>
       <c r="G907" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26680,7 +26680,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G908" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26706,7 +26706,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G909" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26732,7 +26732,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26758,7 +26758,7 @@
         <v>12.5</v>
       </c>
       <c r="G911" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26784,7 +26784,7 @@
         <v>12.5</v>
       </c>
       <c r="G912" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26810,7 +26810,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G913" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26836,7 +26836,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G914" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26862,7 +26862,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G915" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26888,7 +26888,7 @@
         <v>12.5</v>
       </c>
       <c r="G916" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26914,7 +26914,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G917" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26940,7 +26940,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G918" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26966,7 +26966,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26992,7 +26992,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27018,7 +27018,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27044,7 +27044,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27070,7 +27070,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G923" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27096,7 +27096,7 @@
         <v>12.5</v>
       </c>
       <c r="G924" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27122,7 +27122,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27148,7 +27148,7 @@
         <v>12.5</v>
       </c>
       <c r="G926" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27174,7 +27174,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27200,7 +27200,7 @@
         <v>12.5</v>
       </c>
       <c r="G928" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27226,7 +27226,7 @@
         <v>12.5</v>
       </c>
       <c r="G929" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27252,7 +27252,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27278,7 +27278,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G931" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27304,7 +27304,7 @@
         <v>13</v>
       </c>
       <c r="G932" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27330,7 +27330,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27356,7 +27356,7 @@
         <v>13</v>
       </c>
       <c r="G934" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27382,7 +27382,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27408,7 +27408,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G936" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27434,7 +27434,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27460,7 +27460,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27486,7 +27486,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G939" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27512,7 +27512,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G940" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27538,7 +27538,7 @@
         <v>13.25</v>
       </c>
       <c r="G941" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27564,7 +27564,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G942" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27590,7 +27590,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27616,7 +27616,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G944" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27642,7 +27642,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G945" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27668,7 +27668,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G946" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27694,7 +27694,7 @@
         <v>12.75</v>
       </c>
       <c r="G947" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27720,7 +27720,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G948" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27746,7 +27746,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G949" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27772,7 +27772,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G950" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27798,7 +27798,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G951" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27824,7 +27824,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27850,7 +27850,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27876,7 +27876,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G954" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27902,7 +27902,7 @@
         <v>12.5</v>
       </c>
       <c r="G955" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27928,7 +27928,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27954,7 +27954,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G957" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27980,7 +27980,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G958" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28006,7 +28006,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G959" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28032,7 +28032,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28058,7 +28058,7 @@
         <v>11.75</v>
       </c>
       <c r="G961" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28084,7 +28084,7 @@
         <v>11.5</v>
       </c>
       <c r="G962" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28110,7 +28110,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28136,7 +28136,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G964" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28162,7 +28162,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G965" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28188,7 +28188,7 @@
         <v>12.25</v>
       </c>
       <c r="G966" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28214,7 +28214,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28240,7 +28240,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28266,7 +28266,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G969" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28292,7 +28292,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G970" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28318,7 +28318,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G971" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28344,7 +28344,7 @@
         <v>12.25</v>
       </c>
       <c r="G972" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28370,7 +28370,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28396,7 +28396,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28422,7 +28422,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28448,7 +28448,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G976" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28474,7 +28474,7 @@
         <v>12.5</v>
       </c>
       <c r="G977" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28500,7 +28500,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28526,7 +28526,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G979" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28552,7 +28552,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G980" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28578,7 +28578,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28604,7 +28604,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28630,7 +28630,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G983" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28656,7 +28656,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G984" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28682,7 +28682,7 @@
         <v>12.25</v>
       </c>
       <c r="G985" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28708,7 +28708,7 @@
         <v>12.25</v>
       </c>
       <c r="G986" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28734,7 +28734,7 @@
         <v>12.25</v>
       </c>
       <c r="G987" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28760,7 +28760,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G988" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28786,7 +28786,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28812,7 +28812,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28838,7 +28838,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28864,7 +28864,7 @@
         <v>11.75</v>
       </c>
       <c r="G992" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28890,7 +28890,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G993" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28916,7 +28916,7 @@
         <v>12</v>
       </c>
       <c r="G994" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28942,7 +28942,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G995" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28968,7 +28968,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G996" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28994,7 +28994,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G997" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29020,7 +29020,7 @@
         <v>12.25</v>
       </c>
       <c r="G998" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29046,7 +29046,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29072,7 +29072,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29098,7 +29098,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29124,7 +29124,7 @@
         <v>12</v>
       </c>
       <c r="G1002" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29150,7 +29150,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1003" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29176,7 +29176,7 @@
         <v>12.25</v>
       </c>
       <c r="G1004" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29202,7 +29202,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1005" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29228,7 +29228,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1006" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29254,7 +29254,7 @@
         <v>12.25</v>
       </c>
       <c r="G1007" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29280,7 +29280,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29306,7 +29306,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1009" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29332,7 +29332,7 @@
         <v>12.5</v>
       </c>
       <c r="G1010" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29358,7 +29358,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1011" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29384,7 +29384,7 @@
         <v>12.5</v>
       </c>
       <c r="G1012" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29410,7 +29410,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G1013" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29436,7 +29436,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G1014" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29462,7 +29462,7 @@
         <v>12.75</v>
       </c>
       <c r="G1015" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29488,7 +29488,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1016" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29514,7 +29514,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29540,7 +29540,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29566,7 +29566,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29592,7 +29592,7 @@
         <v>13.25</v>
       </c>
       <c r="G1020" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29618,7 +29618,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1021" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29644,7 +29644,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1022" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29670,7 +29670,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1023" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29696,7 +29696,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1024" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29722,7 +29722,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1025" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29748,7 +29748,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29774,7 +29774,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29800,7 +29800,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29826,7 +29826,7 @@
         <v>13.5</v>
       </c>
       <c r="G1029" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29852,7 +29852,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G1030" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29878,7 +29878,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1031" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29904,7 +29904,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29930,7 +29930,7 @@
         <v>13.5</v>
       </c>
       <c r="G1033" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29956,7 +29956,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1034" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29982,7 +29982,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1035" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30008,7 +30008,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30034,7 +30034,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1037" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30060,7 +30060,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1038" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30086,7 +30086,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30112,7 +30112,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30138,7 +30138,7 @@
         <v>13.5</v>
       </c>
       <c r="G1041" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30164,7 +30164,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1042" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30190,7 +30190,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1043" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30216,7 +30216,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1044" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30242,7 +30242,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1045" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30268,7 +30268,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G1046" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30294,7 +30294,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30320,7 +30320,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30346,7 +30346,7 @@
         <v>13.75</v>
       </c>
       <c r="G1049" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30372,7 +30372,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1050" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30398,7 +30398,7 @@
         <v>13.75</v>
       </c>
       <c r="G1051" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30424,7 +30424,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30450,7 +30450,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30476,7 +30476,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1054" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30502,7 +30502,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30528,7 +30528,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1056" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30554,7 +30554,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1057" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30580,7 +30580,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1058" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30606,7 +30606,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30632,7 +30632,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30658,7 +30658,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1061" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30684,7 +30684,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1062" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30710,7 +30710,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30736,7 +30736,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1064" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30762,7 +30762,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1065" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30788,7 +30788,7 @@
         <v>12</v>
       </c>
       <c r="G1066" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30814,7 +30814,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30840,7 +30840,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1068" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30866,7 +30866,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1069" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30892,7 +30892,7 @@
         <v>10.75</v>
       </c>
       <c r="G1070" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30918,7 +30918,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30944,7 +30944,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1072" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30970,7 +30970,7 @@
         <v>11.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30996,7 +30996,7 @@
         <v>11.25</v>
       </c>
       <c r="G1074" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31022,7 +31022,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31048,7 +31048,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1076" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31074,7 +31074,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31100,7 +31100,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1078" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31126,7 +31126,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31152,7 +31152,7 @@
         <v>11.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31178,7 +31178,7 @@
         <v>11.75</v>
       </c>
       <c r="G1081" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31204,7 +31204,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31230,7 +31230,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1083" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31256,7 +31256,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31282,7 +31282,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1085" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31308,7 +31308,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31334,7 +31334,7 @@
         <v>12</v>
       </c>
       <c r="G1087" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31360,7 +31360,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31386,7 +31386,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1089" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31412,7 +31412,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31438,7 +31438,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31464,7 +31464,7 @@
         <v>12</v>
       </c>
       <c r="G1092" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31490,7 +31490,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1093" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31516,7 +31516,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31542,7 +31542,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31568,7 +31568,7 @@
         <v>12.5</v>
       </c>
       <c r="G1096" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31594,7 +31594,7 @@
         <v>13.5</v>
       </c>
       <c r="G1097" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31620,7 +31620,7 @@
         <v>13.75</v>
       </c>
       <c r="G1098" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31646,7 +31646,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31672,7 +31672,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31698,7 +31698,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1101" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31724,7 +31724,7 @@
         <v>13.5</v>
       </c>
       <c r="G1102" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31750,7 +31750,7 @@
         <v>13.5</v>
       </c>
       <c r="G1103" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31776,7 +31776,7 @@
         <v>13.25</v>
       </c>
       <c r="G1104" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31802,7 +31802,7 @@
         <v>13.5</v>
       </c>
       <c r="G1105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31828,7 +31828,7 @@
         <v>13.5</v>
       </c>
       <c r="G1106" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31854,7 +31854,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31880,7 +31880,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31906,7 +31906,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1109" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31932,7 +31932,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31958,7 +31958,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1111" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31984,7 +31984,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32010,7 +32010,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1113" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32036,7 +32036,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32062,7 +32062,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32088,7 +32088,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32114,7 +32114,7 @@
         <v>15.5</v>
       </c>
       <c r="G1117" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32140,7 +32140,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32166,7 +32166,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1119" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32192,7 +32192,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32218,7 +32218,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32244,7 +32244,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32270,7 +32270,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32296,7 +32296,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32322,7 +32322,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32348,7 +32348,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32374,7 +32374,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32400,7 +32400,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32426,7 +32426,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32452,7 +32452,7 @@
         <v>15</v>
       </c>
       <c r="G1130" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32478,7 +32478,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32504,7 +32504,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32530,7 +32530,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1133" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32556,7 +32556,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32582,7 +32582,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32608,7 +32608,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32634,7 +32634,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1137" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32660,7 +32660,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1138" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32686,7 +32686,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32712,7 +32712,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32738,7 +32738,7 @@
         <v>15</v>
       </c>
       <c r="G1141" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32764,7 +32764,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33180,7 +33180,7 @@
         <v>15</v>
       </c>
       <c r="G1158" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33466,7 +33466,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1169" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33518,7 +33518,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1171" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33570,7 +33570,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -59630,7 +59630,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6494560185</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>1763</v>
@@ -59651,6 +59651,32 @@
         <v>896</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6494328704</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>826</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>21.6000003814697</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>21.6000003814697</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>896</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -44,46 +44,46 @@
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975475311279</t>
+    <t xml:space="preserve">8.15975284576416</t>
   </si>
   <si>
     <t xml:space="preserve">8.19319534301758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10123157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10959148406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06778812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94238328933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877752304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976787567139</t>
+    <t xml:space="preserve">8.10123062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10959053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06778907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94238233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8587794303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976835250854</t>
   </si>
   <si>
     <t xml:space="preserve">7.79189586639404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6915717124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304901123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63722896575928</t>
+    <t xml:space="preserve">7.69157075881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304853439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6372275352478</t>
   </si>
   <si>
     <t xml:space="preserve">7.62886762619019</t>
@@ -92,223 +92,223 @@
     <t xml:space="preserve">7.6079683303833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5828857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697702407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48255920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75845384597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6664891242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62468814849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31535196304321</t>
+    <t xml:space="preserve">7.58288478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81697797775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48256015777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75845336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66649103164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62468767166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31535291671753</t>
   </si>
   <si>
     <t xml:space="preserve">7.440758228302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52436399459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59124517440796</t>
+    <t xml:space="preserve">7.52436113357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59124660491943</t>
   </si>
   <si>
     <t xml:space="preserve">7.76263523101807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76681566238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98418521881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02598667144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84623908996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26007843017578</t>
+    <t xml:space="preserve">7.76681327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98418569564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02598857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84623765945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007747650146</t>
   </si>
   <si>
     <t xml:space="preserve">8.35622310638428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27680015563965</t>
+    <t xml:space="preserve">8.2767972946167</t>
   </si>
   <si>
     <t xml:space="preserve">7.89222049713135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18483543395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9967246055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97582244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13467216491699</t>
+    <t xml:space="preserve">8.18483448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672698974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97582292556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13467121124268</t>
   </si>
   <si>
     <t xml:space="preserve">8.12631130218506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15139389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23499584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532333374023</t>
+    <t xml:space="preserve">8.15139293670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23499774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353214263916</t>
   </si>
   <si>
     <t xml:space="preserve">8.07614898681641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01762771606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92148208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90894269943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7333722114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80861473083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89640092849731</t>
+    <t xml:space="preserve">8.01762676239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148303985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9089412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73337268829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80861759185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910215377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89640140533447</t>
   </si>
   <si>
     <t xml:space="preserve">7.70829153060913</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65394973754883</t>
+    <t xml:space="preserve">7.65394735336304</t>
   </si>
   <si>
     <t xml:space="preserve">7.67067003250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68739080429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85041952133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57870578765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81279802322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239831924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920728683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355051040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33207321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18994760513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19412660598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19830799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18576717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06454086303711</t>
+    <t xml:space="preserve">7.68739175796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85041904449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57870388031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5578031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452630996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81279563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27355098724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3320746421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18994617462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19412612915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19830656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18576669692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06454133987427</t>
   </si>
   <si>
     <t xml:space="preserve">7.05618000030518</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13978481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97257709503174</t>
+    <t xml:space="preserve">7.13978385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97257614135742</t>
   </si>
   <si>
     <t xml:space="preserve">7.14814424514771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21502780914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895677566528</t>
+    <t xml:space="preserve">7.21502876281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715436935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3989577293396</t>
   </si>
   <si>
     <t xml:space="preserve">7.67485094070435</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5954270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60378646850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56616449356079</t>
+    <t xml:space="preserve">7.59542655944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60378742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56616592407227</t>
   </si>
   <si>
     <t xml:space="preserve">7.42403793334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5160026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018117904663</t>
+    <t xml:space="preserve">7.51600170135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018260955811</t>
   </si>
   <si>
     <t xml:space="preserve">7.54108333587646</t>
@@ -317,28 +317,28 @@
     <t xml:space="preserve">7.47420120239258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45329904556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19737529754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35204315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29351997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303112030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254608154297</t>
+    <t xml:space="preserve">7.45329856872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57034397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10541152954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1973762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35204219818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29351806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254465103149</t>
   </si>
   <si>
     <t xml:space="preserve">8.09287071228027</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">8.5944938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54433345794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5610523223877</t>
+    <t xml:space="preserve">8.54433250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56105327606201</t>
   </si>
   <si>
     <t xml:space="preserve">8.6530179977417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97071075439453</t>
+    <t xml:space="preserve">8.97071266174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.94563102722168</t>
@@ -371,64 +371,64 @@
     <t xml:space="preserve">8.86202716827393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92055130004883</t>
+    <t xml:space="preserve">8.92055034637451</t>
   </si>
   <si>
     <t xml:space="preserve">8.90382957458496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99579524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00415515899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97907257080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04722595214844</t>
+    <t xml:space="preserve">8.99579429626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00415325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9790735244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04722499847412</t>
   </si>
   <si>
     <t xml:space="preserve">9.07278347015381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01314830780029</t>
+    <t xml:space="preserve">9.01314926147461</t>
   </si>
   <si>
     <t xml:space="preserve">9.03018760681152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15797424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464393615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28575706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37095069885254</t>
+    <t xml:space="preserve">9.15797138214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464488983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28575897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37094783782959</t>
   </si>
   <si>
     <t xml:space="preserve">9.14945411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26872158050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25168228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32835388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45613956451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36242961883545</t>
+    <t xml:space="preserve">9.26872062683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25168323516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32835292816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45614147186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206287384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36243057250977</t>
   </si>
   <si>
     <t xml:space="preserve">9.41354560852051</t>
@@ -440,31 +440,31 @@
     <t xml:space="preserve">9.61800098419189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54133033752441</t>
+    <t xml:space="preserve">9.5413293838501</t>
   </si>
   <si>
     <t xml:space="preserve">9.56688594818115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39650630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55836963653564</t>
+    <t xml:space="preserve">9.39650726318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55836868286133</t>
   </si>
   <si>
     <t xml:space="preserve">9.59244441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5839262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948085784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49021530151367</t>
+    <t xml:space="preserve">9.58392524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948276519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57540512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49021625518799</t>
   </si>
   <si>
     <t xml:space="preserve">9.37946891784668</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">9.33687210083008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20908641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20056819915771</t>
+    <t xml:space="preserve">9.20908832550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20056915283203</t>
   </si>
   <si>
     <t xml:space="preserve">9.27723979949951</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">9.31983470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30279731750488</t>
+    <t xml:space="preserve">9.30279636383057</t>
   </si>
   <si>
     <t xml:space="preserve">9.53281116485596</t>
@@ -494,64 +494,64 @@
     <t xml:space="preserve">9.62652111053467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71171092987061</t>
+    <t xml:space="preserve">9.71170997619629</t>
   </si>
   <si>
     <t xml:space="preserve">9.78838157653809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83097648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75430679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0950689315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0524730682373</t>
+    <t xml:space="preserve">9.83097743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75430488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.095067024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0524740219116</t>
   </si>
   <si>
     <t xml:space="preserve">10.3591575622559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4528684616089</t>
+    <t xml:space="preserve">10.4528675079346</t>
   </si>
   <si>
     <t xml:space="preserve">10.5891733169556</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6062097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6488056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5721340179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6232490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5636157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017534255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676776885986</t>
+    <t xml:space="preserve">10.6062107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6488075256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5721349716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6232471466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5636138916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3676786422729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2228546142578</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2910060882568</t>
+    <t xml:space="preserve">10.2910051345825</t>
   </si>
   <si>
     <t xml:space="preserve">10.3761968612671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2484111785889</t>
+    <t xml:space="preserve">10.2484102249146</t>
   </si>
   <si>
     <t xml:space="preserve">10.231372833252</t>
@@ -560,34 +560,34 @@
     <t xml:space="preserve">10.2398920059204</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4187908172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4784259796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4613876342773</t>
+    <t xml:space="preserve">10.4187898635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4784250259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.461386680603</t>
   </si>
   <si>
     <t xml:space="preserve">10.3421192169189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3165616989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3080434799194</t>
+    <t xml:space="preserve">10.3165626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3080444335938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3506383895874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.733998298645</t>
+    <t xml:space="preserve">10.7339963912964</t>
   </si>
   <si>
     <t xml:space="preserve">10.8191871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9469728469849</t>
+    <t xml:space="preserve">10.9469709396362</t>
   </si>
   <si>
     <t xml:space="preserve">11.0151252746582</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">11.0662393569946</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0321626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0236444473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9895677566528</t>
+    <t xml:space="preserve">11.0321645736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.023642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9895658493042</t>
   </si>
   <si>
     <t xml:space="preserve">11.0406818389893</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">10.8277053833008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.802149772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617820739746</t>
+    <t xml:space="preserve">10.9214162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617830276489</t>
   </si>
   <si>
     <t xml:space="preserve">10.8447427749634</t>
@@ -626,34 +626,34 @@
     <t xml:space="preserve">10.9043779373169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8958578109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8532629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7680730819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7425155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6658449172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7936305999756</t>
+    <t xml:space="preserve">10.8958587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8532638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703012466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7680721282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7425146102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999197006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6658430099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7936296463013</t>
   </si>
   <si>
     <t xml:space="preserve">10.6914014816284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7595548629761</t>
+    <t xml:space="preserve">10.7595529556274</t>
   </si>
   <si>
     <t xml:space="preserve">10.912896156311</t>
@@ -668,37 +668,37 @@
     <t xml:space="preserve">11.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1599493026733</t>
+    <t xml:space="preserve">11.1599473953247</t>
   </si>
   <si>
     <t xml:space="preserve">11.202543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2451391220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1173543930054</t>
+    <t xml:space="preserve">11.2451400756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877340316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1173534393311</t>
   </si>
   <si>
     <t xml:space="preserve">11.3729238510132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3303308486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433044433594</t>
+    <t xml:space="preserve">11.3303289413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433053970337</t>
   </si>
   <si>
     <t xml:space="preserve">11.7562818527222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9692583084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2248306274414</t>
+    <t xml:space="preserve">11.969259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2248296737671</t>
   </si>
   <si>
     <t xml:space="preserve">11.585901260376</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">11.8414726257324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7988786697388</t>
+    <t xml:space="preserve">11.7988767623901</t>
   </si>
   <si>
     <t xml:space="preserve">11.7136859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8840665817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0156259536743</t>
+    <t xml:space="preserve">11.8840675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.015625</t>
   </si>
   <si>
     <t xml:space="preserve">12.0594778060913</t>
@@ -731,49 +731,49 @@
     <t xml:space="preserve">12.1033306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9279193878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332450866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6648044586182</t>
+    <t xml:space="preserve">11.9279203414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648035049438</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7086572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.401686668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770978927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717721939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.357834815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824245452881</t>
+    <t xml:space="preserve">11.7086563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963619232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.971773147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3578367233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824254989624</t>
   </si>
   <si>
     <t xml:space="preserve">11.8498458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8046178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141590118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332460403442</t>
+    <t xml:space="preserve">11.8046188354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141599655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332469940186</t>
   </si>
   <si>
     <t xml:space="preserve">11.7593879699707</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">11.6689310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4427881240845</t>
+    <t xml:space="preserve">11.4427890777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.5784749984741</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">11.6237030029297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4880170822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618761062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.080961227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3523330688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2166481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1714200973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3071050643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3975620269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1261911392212</t>
+    <t xml:space="preserve">11.4880180358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618751525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0809621810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3523321151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2166471481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1714191436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3071031570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3975610733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1261901855469</t>
   </si>
   <si>
     <t xml:space="preserve">11.9403018951416</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">11.9855308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950719833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0759868621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1664438247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1212158203125</t>
+    <t xml:space="preserve">11.8950729370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0759878158569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1664428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1212148666382</t>
   </si>
   <si>
     <t xml:space="preserve">10.9452772140503</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">10.809591293335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8548212051392</t>
+    <t xml:space="preserve">10.8548192977905</t>
   </si>
   <si>
     <t xml:space="preserve">10.7643632888794</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9905052185059</t>
+    <t xml:space="preserve">10.9905061721802</t>
   </si>
   <si>
     <t xml:space="preserve">10.4929933547974</t>
@@ -857,61 +857,61 @@
     <t xml:space="preserve">10.4025354385376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0407094955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0859365463257</t>
+    <t xml:space="preserve">10.0407075881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0859346389771</t>
   </si>
   <si>
     <t xml:space="preserve">10.2668504714966</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3120794296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99548053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45273971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22659683227539</t>
+    <t xml:space="preserve">10.3120784759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99547958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45273876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22659587860107</t>
   </si>
   <si>
     <t xml:space="preserve">9.27182483673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18136787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58842468261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.678879737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76933670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72410869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191352844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286783218384</t>
+    <t xml:space="preserve">9.18136882781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58842372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67888164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72411060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191362380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286773681641</t>
   </si>
   <si>
     <t xml:space="preserve">10.4477653503418</t>
   </si>
   <si>
-    <t xml:space="preserve">10.357307434082</t>
+    <t xml:space="preserve">10.3573064804077</t>
   </si>
   <si>
     <t xml:space="preserve">10.221622467041</t>
@@ -920,31 +920,31 @@
     <t xml:space="preserve">10.1763944625854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90502262115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95025157928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81456661224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8597936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63365364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382194519043</t>
+    <t xml:space="preserve">9.90502452850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9502534866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81456756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85979461669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63365268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382204055786</t>
   </si>
   <si>
     <t xml:space="preserve">10.7740545272827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6803684234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63352394104</t>
+    <t xml:space="preserve">10.6803674697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6335248947144</t>
   </si>
   <si>
     <t xml:space="preserve">10.8208999633789</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">10.5866804122925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7272109985352</t>
+    <t xml:space="preserve">10.7272100448608</t>
   </si>
   <si>
     <t xml:space="preserve">10.9614305496216</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">11.1488046646118</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2893362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2424936294556</t>
+    <t xml:space="preserve">11.2893371582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2424926757812</t>
   </si>
   <si>
     <t xml:space="preserve">11.055118560791</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">11.1956481933594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6172428131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.476710319519</t>
+    <t xml:space="preserve">11.617241859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4767112731934</t>
   </si>
   <si>
     <t xml:space="preserve">11.4298677444458</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">11.9919919967651</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8514595031738</t>
+    <t xml:space="preserve">11.8514604568481</t>
   </si>
   <si>
     <t xml:space="preserve">11.7109308242798</t>
@@ -1013,64 +1013,64 @@
     <t xml:space="preserve">11.9451475143433</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5703992843628</t>
+    <t xml:space="preserve">11.5703983306885</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793661117554</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2730550765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2262115478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.319896697998</t>
+    <t xml:space="preserve">12.2730541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2262096405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">12.3667411804199</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4135856628418</t>
+    <t xml:space="preserve">12.4135866165161</t>
   </si>
   <si>
     <t xml:space="preserve">12.0856790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1325216293335</t>
+    <t xml:space="preserve">12.1325235366821</t>
   </si>
   <si>
     <t xml:space="preserve">11.0082740783691</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5235557556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3361797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5541162490845</t>
+    <t xml:space="preserve">11.5235538482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3361787796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5541172027588</t>
   </si>
   <si>
     <t xml:space="preserve">12.6478042602539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.600959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946468353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7883348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.741491317749</t>
+    <t xml:space="preserve">12.6009607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7883338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7414922714233</t>
   </si>
   <si>
     <t xml:space="preserve">12.9288673400879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8351793289185</t>
+    <t xml:space="preserve">12.8351783752441</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757108688354</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">13.2567720413208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2099294662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1630849838257</t>
+    <t xml:space="preserve">13.2099285125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1630859375</t>
   </si>
   <si>
     <t xml:space="preserve">11.1019620895386</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">10.0713987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5398368835449</t>
+    <t xml:space="preserve">10.5398359298706</t>
   </si>
   <si>
     <t xml:space="preserve">13.0693969726562</t>
@@ -1103,16 +1103,16 @@
     <t xml:space="preserve">12.4604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7720537185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3341789245605</t>
+    <t xml:space="preserve">13.7720527648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3341779708862</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215530395508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6620836257935</t>
+    <t xml:space="preserve">14.6620845794678</t>
   </si>
   <si>
     <t xml:space="preserve">14.8026161193848</t>
@@ -1124,25 +1124,25 @@
     <t xml:space="preserve">14.8494596481323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5683965682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6152400970459</t>
+    <t xml:space="preserve">14.568395614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6152410507202</t>
   </si>
   <si>
     <t xml:space="preserve">14.427864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9431467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4747095108032</t>
+    <t xml:space="preserve">14.9431457519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4747085571289</t>
   </si>
   <si>
     <t xml:space="preserve">14.146803855896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0531148910522</t>
+    <t xml:space="preserve">14.0531158447266</t>
   </si>
   <si>
     <t xml:space="preserve">14.1936473846436</t>
@@ -1160,124 +1160,127 @@
     <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2876434326172</t>
+    <t xml:space="preserve">14.2876443862915</t>
   </si>
   <si>
     <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
+    <t xml:space="preserve">14.2404909133911</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.9104118347168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7689514160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6746425628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5803346633911</t>
+    <t xml:space="preserve">13.7689504623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6746435165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5803337097168</t>
   </si>
   <si>
     <t xml:space="preserve">13.2974109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1559495925903</t>
+    <t xml:space="preserve">13.155948638916</t>
   </si>
   <si>
     <t xml:space="preserve">13.2031030654907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9575662612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217969894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0990285873413</t>
+    <t xml:space="preserve">13.9575672149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217960357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0990295410156</t>
   </si>
   <si>
     <t xml:space="preserve">13.5331811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3445653915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4388742446899</t>
+    <t xml:space="preserve">13.3445644378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4388732910156</t>
   </si>
   <si>
     <t xml:space="preserve">14.7120304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5234136581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8534908294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949522018433</t>
+    <t xml:space="preserve">14.5234127044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8534917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949531555176</t>
   </si>
   <si>
     <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1835689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1364135742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2778768539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.372184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5608005523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9380311965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7022619247437</t>
+    <t xml:space="preserve">15.042106628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1835680007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1364145278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2778778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3721837997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5607995986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9380321502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7022609710693</t>
   </si>
   <si>
     <t xml:space="preserve">16.032341003418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8908767700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9754199981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6924953460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6355743408203</t>
+    <t xml:space="preserve">15.8908796310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9754180908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.692497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6355762481689</t>
   </si>
   <si>
     <t xml:space="preserve">17.0697269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7770366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5884189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5786514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8615760803223</t>
+    <t xml:space="preserve">17.7770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5884208679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5786533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8615779876709</t>
   </si>
   <si>
     <t xml:space="preserve">18.7672691345215</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1542663574219</t>
+    <t xml:space="preserve">18.1542682647705</t>
   </si>
   <si>
     <t xml:space="preserve">18.2485752105713</t>
@@ -1286,19 +1289,19 @@
     <t xml:space="preserve">18.2957286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8241863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998031616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4941101074219</t>
+    <t xml:space="preserve">17.8241882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4941120147705</t>
   </si>
   <si>
     <t xml:space="preserve">17.1640338897705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4469604492188</t>
+    <t xml:space="preserve">17.4469585418701</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298793792725</t>
@@ -1307,25 +1310,25 @@
     <t xml:space="preserve">17.5412673950195</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5981884002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7396469116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2583427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1168823242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9282665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3054981231689</t>
+    <t xml:space="preserve">16.5981864929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7396507263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2583389282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1168785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526515960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3054962158203</t>
   </si>
   <si>
     <t xml:space="preserve">16.4095706939697</t>
@@ -1334,34 +1337,34 @@
     <t xml:space="preserve">16.8339557647705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3152618408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0225734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184970855713</t>
+    <t xml:space="preserve">16.3152637481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184989929199</t>
   </si>
   <si>
     <t xml:space="preserve">18.3900356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4843425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6729602813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4274253845215</t>
+    <t xml:space="preserve">18.4843444824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4274234771729</t>
   </si>
   <si>
     <t xml:space="preserve">19.2388076782227</t>
   </si>
   <si>
-    <t xml:space="preserve">19.616039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.276195526123</t>
+    <t xml:space="preserve">19.6160373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2761936187744</t>
   </si>
   <si>
     <t xml:space="preserve">20.9363498687744</t>
@@ -1373,19 +1376,19 @@
     <t xml:space="preserve">21.4078903198242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2192707061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0306568145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965061187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6908130645752</t>
+    <t xml:space="preserve">21.2192726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0306587219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965023040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6908111572266</t>
   </si>
   <si>
     <t xml:space="preserve">23.4826641082764</t>
@@ -1394,10 +1397,7 @@
     <t xml:space="preserve">22.9168148040771</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5332717895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9168128967285</t>
+    <t xml:space="preserve">22.5332698822021</t>
   </si>
   <si>
     <t xml:space="preserve">22.1497249603271</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">23.3962459564209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4921321868896</t>
+    <t xml:space="preserve">23.4921340942383</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1085891723633</t>
+    <t xml:space="preserve">23.1085872650146</t>
   </si>
   <si>
     <t xml:space="preserve">23.0127010345459</t>
@@ -1427,13 +1427,13 @@
     <t xml:space="preserve">24.3551082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9715633392334</t>
+    <t xml:space="preserve">23.971565246582</t>
   </si>
   <si>
     <t xml:space="preserve">23.7797908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.204475402832</t>
+    <t xml:space="preserve">23.2044734954834</t>
   </si>
   <si>
     <t xml:space="preserve">23.6839046478271</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">24.1633358001709</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2180843353271</t>
+    <t xml:space="preserve">25.2180862426758</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
@@ -1457,43 +1457,43 @@
     <t xml:space="preserve">27.423469543457</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0946731567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9029026031494</t>
+    <t xml:space="preserve">28.0946712493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9029006958008</t>
   </si>
   <si>
     <t xml:space="preserve">28.574104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7111263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9987888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8070125579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5193557739258</t>
+    <t xml:space="preserve">27.7111282348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9987850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5193538665771</t>
   </si>
   <si>
     <t xml:space="preserve">26.7522659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2864437103271</t>
+    <t xml:space="preserve">28.2864456176758</t>
   </si>
   <si>
     <t xml:space="preserve">30.4918270111084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7247409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4370803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5329666137695</t>
+    <t xml:space="preserve">29.724739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4370822906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5329647064209</t>
   </si>
   <si>
     <t xml:space="preserve">29.6779747009277</t>
@@ -32761,7 +32761,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32787,7 +32787,7 @@
         <v>14.75</v>
       </c>
       <c r="G1143" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32813,7 +32813,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32839,7 +32839,7 @@
         <v>14.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32865,7 +32865,7 @@
         <v>14.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32891,7 +32891,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1147" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32917,7 +32917,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1148" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32943,7 +32943,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1149" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32969,7 +32969,7 @@
         <v>14</v>
       </c>
       <c r="G1150" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32995,7 +32995,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33021,7 +33021,7 @@
         <v>14.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33047,7 +33047,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33073,7 +33073,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1154" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33099,7 +33099,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33125,7 +33125,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33151,7 +33151,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33203,7 +33203,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1159" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33229,7 +33229,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1160" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33255,7 +33255,7 @@
         <v>14.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33281,7 +33281,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1162" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33307,7 +33307,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1163" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33333,7 +33333,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1164" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33359,7 +33359,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33385,7 +33385,7 @@
         <v>14.25</v>
       </c>
       <c r="G1166" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33411,7 +33411,7 @@
         <v>14.5</v>
       </c>
       <c r="G1167" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33437,7 +33437,7 @@
         <v>14.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33489,7 +33489,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33541,7 +33541,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1172" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33593,7 +33593,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33619,7 +33619,7 @@
         <v>15.75</v>
       </c>
       <c r="G1175" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33645,7 +33645,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33671,7 +33671,7 @@
         <v>16</v>
       </c>
       <c r="G1177" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33697,7 +33697,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33723,7 +33723,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1179" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33749,7 +33749,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33775,7 +33775,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1181" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33801,7 +33801,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33827,7 +33827,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33853,7 +33853,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33879,7 +33879,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33905,7 +33905,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33931,7 +33931,7 @@
         <v>16.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33957,7 +33957,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1188" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33983,7 +33983,7 @@
         <v>16.5</v>
       </c>
       <c r="G1189" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34009,7 +34009,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1190" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34035,7 +34035,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34061,7 +34061,7 @@
         <v>17</v>
       </c>
       <c r="G1192" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34087,7 +34087,7 @@
         <v>17</v>
       </c>
       <c r="G1193" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34113,7 +34113,7 @@
         <v>17</v>
       </c>
       <c r="G1194" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34139,7 +34139,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34165,7 +34165,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1196" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34191,7 +34191,7 @@
         <v>18</v>
       </c>
       <c r="G1197" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34217,7 +34217,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1198" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34243,7 +34243,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34269,7 +34269,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34295,7 +34295,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34321,7 +34321,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34347,7 +34347,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34373,7 +34373,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1204" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34399,7 +34399,7 @@
         <v>20</v>
       </c>
       <c r="G1205" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34425,7 +34425,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1206" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34451,7 +34451,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1207" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34477,7 +34477,7 @@
         <v>19.25</v>
       </c>
       <c r="G1208" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34503,7 +34503,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34529,7 +34529,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34555,7 +34555,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1211" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34581,7 +34581,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1212" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34607,7 +34607,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1213" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34633,7 +34633,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1214" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34659,7 +34659,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1215" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34685,7 +34685,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1216" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34711,7 +34711,7 @@
         <v>18.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34737,7 +34737,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1218" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34763,7 +34763,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34789,7 +34789,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34815,7 +34815,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34841,7 +34841,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1222" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34867,7 +34867,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34893,7 +34893,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1224" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34919,7 +34919,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1225" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34945,7 +34945,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34971,7 +34971,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34997,7 +34997,7 @@
         <v>17.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35023,7 +35023,7 @@
         <v>18</v>
       </c>
       <c r="G1229" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35049,7 +35049,7 @@
         <v>18.5</v>
       </c>
       <c r="G1230" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35075,7 +35075,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35101,7 +35101,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35127,7 +35127,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35153,7 +35153,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1234" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35179,7 +35179,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35205,7 +35205,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35231,7 +35231,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35257,7 +35257,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35283,7 +35283,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35309,7 +35309,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35335,7 +35335,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1241" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35361,7 +35361,7 @@
         <v>18.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35387,7 +35387,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1243" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35413,7 +35413,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1244" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35439,7 +35439,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35465,7 +35465,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35491,7 +35491,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35517,7 +35517,7 @@
         <v>17.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35543,7 +35543,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35569,7 +35569,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35595,7 +35595,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1251" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35621,7 +35621,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35647,7 +35647,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1253" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35673,7 +35673,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35699,7 +35699,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35725,7 +35725,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1256" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35751,7 +35751,7 @@
         <v>18</v>
       </c>
       <c r="G1257" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35777,7 +35777,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1258" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35803,7 +35803,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1259" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35829,7 +35829,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1260" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35855,7 +35855,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1261" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35881,7 +35881,7 @@
         <v>19</v>
       </c>
       <c r="G1262" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35907,7 +35907,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35933,7 +35933,7 @@
         <v>19.5</v>
       </c>
       <c r="G1264" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35959,7 +35959,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1265" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35985,7 +35985,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1266" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36011,7 +36011,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36037,7 +36037,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1268" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36063,7 +36063,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36089,7 +36089,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1270" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36115,7 +36115,7 @@
         <v>21.5</v>
       </c>
       <c r="G1271" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36141,7 +36141,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36167,7 +36167,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36193,7 +36193,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1274" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36219,7 +36219,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36245,7 +36245,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1276" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36271,7 +36271,7 @@
         <v>22.5</v>
       </c>
       <c r="G1277" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36297,7 +36297,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36323,7 +36323,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36349,7 +36349,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1280" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36375,7 +36375,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36401,7 +36401,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36427,7 +36427,7 @@
         <v>23</v>
       </c>
       <c r="G1283" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36453,7 +36453,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36479,7 +36479,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1285" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36505,7 +36505,7 @@
         <v>23.5</v>
       </c>
       <c r="G1286" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36531,7 +36531,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36583,7 +36583,7 @@
         <v>23.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -59679,7 +59679,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6493171296</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>3922</v>
@@ -59700,6 +59700,32 @@
         <v>904</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6493634259</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>22.2000007629395</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>22.1000003814697</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>21.8999996185303</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>896</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19319248199463</t>
+    <t xml:space="preserve">8.15975379943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19319534301758</t>
   </si>
   <si>
     <t xml:space="preserve">8.10123062133789</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">8.10959053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06778812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106925964355</t>
+    <t xml:space="preserve">8.06778907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106830596924</t>
   </si>
   <si>
     <t xml:space="preserve">7.94238424301147</t>
@@ -71,28 +71,28 @@
     <t xml:space="preserve">7.6497688293457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79189538955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69157075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960651397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63722848892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62886714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60796785354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58288431167603</t>
+    <t xml:space="preserve">7.7918963432312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6915717124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304853439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722944259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62886810302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60796689987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5828857421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.71665191650391</t>
@@ -104,49 +104,49 @@
     <t xml:space="preserve">7.81697654724121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48256015777588</t>
+    <t xml:space="preserve">7.48255968093872</t>
   </si>
   <si>
     <t xml:space="preserve">7.75845384597778</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66648864746094</t>
+    <t xml:space="preserve">7.66648960113525</t>
   </si>
   <si>
     <t xml:space="preserve">7.62468719482422</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31535148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.440758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52436399459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59124612808228</t>
+    <t xml:space="preserve">7.31535291671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44075870513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52436256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59124422073364</t>
   </si>
   <si>
     <t xml:space="preserve">7.76263523101807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7668137550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98418664932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02598667144775</t>
+    <t xml:space="preserve">7.76681470870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98418474197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02598762512207</t>
   </si>
   <si>
     <t xml:space="preserve">7.84623908996582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93402099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2600793838501</t>
+    <t xml:space="preserve">7.93402290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007843017578</t>
   </si>
   <si>
     <t xml:space="preserve">8.35622406005859</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">8.27679824829102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89221954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18483543395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99672555923462</t>
+    <t xml:space="preserve">7.89222049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18483448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9967246055603</t>
   </si>
   <si>
     <t xml:space="preserve">7.97582387924194</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">8.13467121124268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12631225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15139293670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23499584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92148303985596</t>
+    <t xml:space="preserve">8.12631130218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15139389038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2349967956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07614898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762676239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148208618164</t>
   </si>
   <si>
     <t xml:space="preserve">7.9089412689209</t>
@@ -197,64 +197,64 @@
     <t xml:space="preserve">7.73337268829346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80861663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910406112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.896399974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7082896232605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65394735336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67067003250122</t>
+    <t xml:space="preserve">7.80861854553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910215377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89640092849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829057693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65394830703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67067098617554</t>
   </si>
   <si>
     <t xml:space="preserve">7.68739080429077</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85041809082031</t>
+    <t xml:space="preserve">7.850417137146</t>
   </si>
   <si>
     <t xml:space="preserve">7.57870388031006</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5578031539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452535629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443525314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81279802322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239831924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920824050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174858093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3320746421814</t>
+    <t xml:space="preserve">7.55780553817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452630996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81279611587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27355098724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33207416534424</t>
   </si>
   <si>
     <t xml:space="preserve">7.1899471282959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19412612915039</t>
+    <t xml:space="preserve">7.19412565231323</t>
   </si>
   <si>
     <t xml:space="preserve">7.19830703735352</t>
@@ -272,85 +272,85 @@
     <t xml:space="preserve">7.13978338241577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97257614135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14814472198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21502733230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895868301392</t>
+    <t xml:space="preserve">6.97257661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14814519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21502780914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715436935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895677566528</t>
   </si>
   <si>
     <t xml:space="preserve">7.67485094070435</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5954270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182174682617</t>
+    <t xml:space="preserve">7.59542608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182270050049</t>
   </si>
   <si>
     <t xml:space="preserve">7.60378694534302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56616592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403793334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51600074768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108381271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47420072555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45329904556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1054105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19737529754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35204315185547</t>
+    <t xml:space="preserve">7.56616497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51600217819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54108428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47419929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45329809188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5703444480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10540962219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1973762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35204124450684</t>
   </si>
   <si>
     <t xml:space="preserve">8.29351997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14303112030029</t>
+    <t xml:space="preserve">8.14303207397461</t>
   </si>
   <si>
     <t xml:space="preserve">7.99254560470581</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09287166595459</t>
+    <t xml:space="preserve">8.09287071228027</t>
   </si>
   <si>
     <t xml:space="preserve">8.44400787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59449481964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54433250427246</t>
+    <t xml:space="preserve">8.5944938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54433345794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.56105327606201</t>
@@ -362,46 +362,46 @@
     <t xml:space="preserve">8.97071170806885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94563007354736</t>
+    <t xml:space="preserve">8.94563102722168</t>
   </si>
   <si>
     <t xml:space="preserve">8.73661994934082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86202716827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92054843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90382957458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99579238891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00415515899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9790735244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04722595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07278251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01314735412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03018856048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15797328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464488983154</t>
+    <t xml:space="preserve">8.86202621459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92055034637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90383052825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579334259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00415325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97907257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04722499847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07278347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01314830780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03018760681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15797233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464584350586</t>
   </si>
   <si>
     <t xml:space="preserve">9.28575706481934</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">9.14945316314697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26872062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25168323516846</t>
+    <t xml:space="preserve">9.26871967315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25168228149414</t>
   </si>
   <si>
     <t xml:space="preserve">9.32835388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613956451416</t>
+    <t xml:space="preserve">9.45614147186279</t>
   </si>
   <si>
     <t xml:space="preserve">9.42206287384033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36242961883545</t>
+    <t xml:space="preserve">9.36243057250977</t>
   </si>
   <si>
     <t xml:space="preserve">9.41354370117188</t>
@@ -440,16 +440,16 @@
     <t xml:space="preserve">9.61800193786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54133129119873</t>
+    <t xml:space="preserve">9.5413293838501</t>
   </si>
   <si>
     <t xml:space="preserve">9.56688690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39650440216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55836868286133</t>
+    <t xml:space="preserve">9.39650535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55836772918701</t>
   </si>
   <si>
     <t xml:space="preserve">9.59244346618652</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">9.58392524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60948181152344</t>
+    <t xml:space="preserve">9.60948371887207</t>
   </si>
   <si>
     <t xml:space="preserve">9.57540607452393</t>
@@ -467,19 +467,19 @@
     <t xml:space="preserve">9.49021530151367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37946796417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20908641815186</t>
+    <t xml:space="preserve">9.37946891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20908737182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.20056915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27724075317383</t>
+    <t xml:space="preserve">9.27723789215088</t>
   </si>
   <si>
     <t xml:space="preserve">9.31983375549316</t>
@@ -497,19 +497,19 @@
     <t xml:space="preserve">9.71171092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78838348388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83097648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75430488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0950689315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0524740219116</t>
+    <t xml:space="preserve">9.7883825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83097839355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75430583953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0950679779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
     <t xml:space="preserve">10.3591594696045</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">10.4528675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5891742706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6062107086182</t>
+    <t xml:space="preserve">10.5891733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6062116622925</t>
   </si>
   <si>
     <t xml:space="preserve">10.6488046646118</t>
@@ -530,34 +530,34 @@
     <t xml:space="preserve">10.57213306427</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6232481002808</t>
+    <t xml:space="preserve">10.6232490539551</t>
   </si>
   <si>
     <t xml:space="preserve">10.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017534255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676776885986</t>
+    <t xml:space="preserve">10.4017524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3676786422729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2228536605835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2910051345825</t>
+    <t xml:space="preserve">10.2910060882568</t>
   </si>
   <si>
     <t xml:space="preserve">10.3761968612671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2484111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2313718795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2398910522461</t>
+    <t xml:space="preserve">10.2484092712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.231372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.239893913269</t>
   </si>
   <si>
     <t xml:space="preserve">10.4187908172607</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">10.4784250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.461386680603</t>
+    <t xml:space="preserve">10.4613876342773</t>
   </si>
   <si>
     <t xml:space="preserve">10.3421201705933</t>
@@ -575,31 +575,31 @@
     <t xml:space="preserve">10.3165626525879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3080444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506383895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7339963912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8191862106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9469728469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0151243209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0662393569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0321626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0236434936523</t>
+    <t xml:space="preserve">10.3080434799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506393432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7339973449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8191871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9469718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0151252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0662384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0321636199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.023642539978</t>
   </si>
   <si>
     <t xml:space="preserve">10.9895668029785</t>
@@ -608,19 +608,19 @@
     <t xml:space="preserve">11.0406818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8277063369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617820739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8447427749634</t>
+    <t xml:space="preserve">10.8277044296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021478652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617830276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.844744682312</t>
   </si>
   <si>
     <t xml:space="preserve">10.9043769836426</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">10.8703022003174</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7680730819702</t>
+    <t xml:space="preserve">10.7680740356445</t>
   </si>
   <si>
     <t xml:space="preserve">10.7425155639648</t>
@@ -644,43 +644,43 @@
     <t xml:space="preserve">10.6999206542969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.665843963623</t>
+    <t xml:space="preserve">10.6658449172974</t>
   </si>
   <si>
     <t xml:space="preserve">10.7936296463013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6914005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7595548629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128971099854</t>
+    <t xml:space="preserve">10.6914014816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7595529556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.912896156311</t>
   </si>
   <si>
     <t xml:space="preserve">10.8106679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169580459595</t>
+    <t xml:space="preserve">10.7169570922852</t>
   </si>
   <si>
     <t xml:space="preserve">11.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1599473953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.202543258667</t>
+    <t xml:space="preserve">11.159948348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2025442123413</t>
   </si>
   <si>
     <t xml:space="preserve">11.2451391220093</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2877340316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1173534393311</t>
+    <t xml:space="preserve">11.2877349853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1173543930054</t>
   </si>
   <si>
     <t xml:space="preserve">11.3729257583618</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">11.7562818527222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9692583084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2248296737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5859003067017</t>
+    <t xml:space="preserve">11.9692573547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2248287200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.585901260376</t>
   </si>
   <si>
     <t xml:space="preserve">11.5007104873657</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">11.6710910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8414726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7988767623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136850357056</t>
+    <t xml:space="preserve">11.8414716720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7988758087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7136869430542</t>
   </si>
   <si>
     <t xml:space="preserve">11.8840665817261</t>
@@ -731,31 +731,31 @@
     <t xml:space="preserve">12.1033306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9279193878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332450866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6648025512695</t>
+    <t xml:space="preserve">11.9279203414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332469940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648035049438</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7086553573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963619232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4016895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.971773147583</t>
+    <t xml:space="preserve">11.7086572647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963628768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770978927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717721939087</t>
   </si>
   <si>
     <t xml:space="preserve">11.357834815979</t>
@@ -764,22 +764,19 @@
     <t xml:space="preserve">11.1824254989624</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8498439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8046159744263</t>
+    <t xml:space="preserve">11.8498449325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8046178817749</t>
   </si>
   <si>
     <t xml:space="preserve">11.7141599655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5332469940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7593898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6689310073853</t>
+    <t xml:space="preserve">11.759388923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6689319610596</t>
   </si>
   <si>
     <t xml:space="preserve">11.4427890777588</t>
@@ -788,10 +785,10 @@
     <t xml:space="preserve">11.5784749984741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.623703956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880170822144</t>
+    <t xml:space="preserve">11.6237030029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880180358887</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
@@ -806,40 +803,40 @@
     <t xml:space="preserve">11.2166471481323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1714200973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3071041107178</t>
+    <t xml:space="preserve">11.1714191436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3071031570435</t>
   </si>
   <si>
     <t xml:space="preserve">11.3975620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1261901855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9403009414673</t>
+    <t xml:space="preserve">11.1261911392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9403018951416</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950719833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0759859085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1664438247681</t>
+    <t xml:space="preserve">11.895073890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0759878158569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1664447784424</t>
   </si>
   <si>
     <t xml:space="preserve">12.1212148666382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9452781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8095922470093</t>
+    <t xml:space="preserve">10.9452772140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8095903396606</t>
   </si>
   <si>
     <t xml:space="preserve">10.8548202514648</t>
@@ -848,52 +845,52 @@
     <t xml:space="preserve">10.7643623352051</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9905052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.492992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4025363922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0407075881958</t>
+    <t xml:space="preserve">10.9905061721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4929933547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4025344848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0407094955444</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859365463257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2668504714966</t>
+    <t xml:space="preserve">10.2668495178223</t>
   </si>
   <si>
     <t xml:space="preserve">10.3120784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99548053741455</t>
+    <t xml:space="preserve">9.99547958374023</t>
   </si>
   <si>
     <t xml:space="preserve">9.45273780822754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22659683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27182483673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18136882781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796676635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58842468261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67888164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7693395614624</t>
+    <t xml:space="preserve">9.22659778594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27182674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18136692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796772003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58842372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67888069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933860778809</t>
   </si>
   <si>
     <t xml:space="preserve">9.7241096496582</t>
@@ -902,34 +899,34 @@
     <t xml:space="preserve">10.7191343307495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1311655044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4477643966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3573083877563</t>
+    <t xml:space="preserve">10.1311645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4477653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.357307434082</t>
   </si>
   <si>
     <t xml:space="preserve">10.221622467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1763935089111</t>
+    <t xml:space="preserve">10.1763944625854</t>
   </si>
   <si>
     <t xml:space="preserve">9.9050235748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95025253295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81456756591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85979557037354</t>
+    <t xml:space="preserve">9.95025157928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81456661224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8597936630249</t>
   </si>
   <si>
     <t xml:space="preserve">9.63365364074707</t>
@@ -938,7 +935,7 @@
     <t xml:space="preserve">10.5382213592529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.774055480957</t>
+    <t xml:space="preserve">10.7740545272827</t>
   </si>
   <si>
     <t xml:space="preserve">10.6803674697876</t>
@@ -947,19 +944,19 @@
     <t xml:space="preserve">10.63352394104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8208990097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677415847778</t>
+    <t xml:space="preserve">10.8208999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.914587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677425384521</t>
   </si>
   <si>
     <t xml:space="preserve">10.5866804122925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7272119522095</t>
+    <t xml:space="preserve">10.7272109985352</t>
   </si>
   <si>
     <t xml:space="preserve">10.9614305496216</t>
@@ -977,19 +974,19 @@
     <t xml:space="preserve">11.0551176071167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1956491470337</t>
+    <t xml:space="preserve">11.1956481933594</t>
   </si>
   <si>
     <t xml:space="preserve">11.617241859436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4767112731934</t>
+    <t xml:space="preserve">11.4767122268677</t>
   </si>
   <si>
     <t xml:space="preserve">11.4298677444458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3830232620239</t>
+    <t xml:space="preserve">11.3830242156982</t>
   </si>
   <si>
     <t xml:space="preserve">11.6640863418579</t>
@@ -998,7 +995,7 @@
     <t xml:space="preserve">11.8046188354492</t>
   </si>
   <si>
-    <t xml:space="preserve">11.757773399353</t>
+    <t xml:space="preserve">11.7577743530273</t>
   </si>
   <si>
     <t xml:space="preserve">11.9919919967651</t>
@@ -1007,55 +1004,55 @@
     <t xml:space="preserve">11.8514604568481</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7109298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8983039855957</t>
+    <t xml:space="preserve">11.7109289169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.89830493927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9451494216919</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5703992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.179368019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2730541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2262096405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.319896697998</t>
+    <t xml:space="preserve">11.5703983306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2730550765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2262115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">12.3667411804199</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4135866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0856790542603</t>
+    <t xml:space="preserve">12.4135856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0856800079346</t>
   </si>
   <si>
     <t xml:space="preserve">12.1325235366821</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0082740783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5235538482666</t>
+    <t xml:space="preserve">11.0082750320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5235548019409</t>
   </si>
   <si>
     <t xml:space="preserve">11.3361806869507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5541162490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478042602539</t>
+    <t xml:space="preserve">12.5541152954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478033065796</t>
   </si>
   <si>
     <t xml:space="preserve">12.6009607315063</t>
@@ -1064,10 +1061,10 @@
     <t xml:space="preserve">12.6946468353271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7883348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.741491317749</t>
+    <t xml:space="preserve">12.7883338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7414922714233</t>
   </si>
   <si>
     <t xml:space="preserve">12.9288663864136</t>
@@ -1082,10 +1079,10 @@
     <t xml:space="preserve">12.882022857666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2567720413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2099294662476</t>
+    <t xml:space="preserve">13.2567729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2099285125732</t>
   </si>
   <si>
     <t xml:space="preserve">13.1630849838257</t>
@@ -1094,64 +1091,61 @@
     <t xml:space="preserve">11.1019611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0713987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5398359298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4929933547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0693979263306</t>
+    <t xml:space="preserve">10.0713996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5398368835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0693969726562</t>
   </si>
   <si>
     <t xml:space="preserve">12.460428237915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7720537185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3341770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215530395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6620836257935</t>
+    <t xml:space="preserve">13.7720527648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3341779708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6620845794678</t>
   </si>
   <si>
     <t xml:space="preserve">14.8026151657104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8963022232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.849458694458</t>
+    <t xml:space="preserve">14.8963012695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8494596481323</t>
   </si>
   <si>
     <t xml:space="preserve">14.5683965682983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6152391433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431457519531</t>
+    <t xml:space="preserve">14.6152400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4278650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1468029022217</t>
+    <t xml:space="preserve">14.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">14.0531158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1936454772949</t>
+    <t xml:space="preserve">14.1936473846436</t>
   </si>
   <si>
     <t xml:space="preserve">14.2404899597168</t>
@@ -1160,34 +1154,37 @@
     <t xml:space="preserve">14.3347978591919</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4291048049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4762601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2876424789429</t>
+    <t xml:space="preserve">14.429105758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4762592315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2876443862915</t>
   </si>
   <si>
     <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
+    <t xml:space="preserve">14.2404909133911</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.9104127883911</t>
   </si>
   <si>
     <t xml:space="preserve">13.7689514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6746425628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5803346633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2974119186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1559495925903</t>
+    <t xml:space="preserve">13.6746435165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5803337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2974109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.155948638916</t>
   </si>
   <si>
     <t xml:space="preserve">13.2031030654907</t>
@@ -1196,58 +1193,58 @@
     <t xml:space="preserve">13.9575662612915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217969894409</t>
+    <t xml:space="preserve">13.7217960357666</t>
   </si>
   <si>
     <t xml:space="preserve">14.0990285873413</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5331811904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3445644378662</t>
+    <t xml:space="preserve">13.5331802368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3445653915405</t>
   </si>
   <si>
     <t xml:space="preserve">13.4388732910156</t>
   </si>
   <si>
-    <t xml:space="preserve">14.712028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5234127044678</t>
+    <t xml:space="preserve">14.7120294570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5234136581421</t>
   </si>
   <si>
     <t xml:space="preserve">14.8534917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9949531555176</t>
+    <t xml:space="preserve">14.9949522018433</t>
   </si>
   <si>
     <t xml:space="preserve">15.089262008667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.042106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1835689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1364145278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2778778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.372184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5607995986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9380321502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7022609710693</t>
+    <t xml:space="preserve">15.0421075820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1835699081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1364135742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2778768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3721857070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5608024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9380311965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.702260017395</t>
   </si>
   <si>
     <t xml:space="preserve">16.0323390960693</t>
@@ -1259,25 +1256,25 @@
     <t xml:space="preserve">16.9754180908203</t>
   </si>
   <si>
-    <t xml:space="preserve">16.692497253418</t>
+    <t xml:space="preserve">16.6924953460693</t>
   </si>
   <si>
     <t xml:space="preserve">17.6355743408203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0697269439697</t>
+    <t xml:space="preserve">17.0697288513184</t>
   </si>
   <si>
     <t xml:space="preserve">17.7770366668701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5884189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5786533355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8615760803223</t>
+    <t xml:space="preserve">17.5884170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5786514282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8615741729736</t>
   </si>
   <si>
     <t xml:space="preserve">18.7672691345215</t>
@@ -1286,49 +1283,49 @@
     <t xml:space="preserve">18.1542682647705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2485771179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2957305908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8241901397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998069763184</t>
+    <t xml:space="preserve">18.2485752105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.295726776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8241882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998050689697</t>
   </si>
   <si>
     <t xml:space="preserve">17.4941120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1640338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4469566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7298793792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5412654876709</t>
+    <t xml:space="preserve">17.1640357971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4469604492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7298812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5412673950195</t>
   </si>
   <si>
     <t xml:space="preserve">16.5981884002686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7396488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2583389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1168785095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9282665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526496887207</t>
+    <t xml:space="preserve">16.7396469116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2583427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1168804168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526515960693</t>
   </si>
   <si>
     <t xml:space="preserve">17.3054962158203</t>
@@ -1337,10 +1334,10 @@
     <t xml:space="preserve">16.4095726013184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8339557647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152637481689</t>
+    <t xml:space="preserve">16.8339576721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152618408203</t>
   </si>
   <si>
     <t xml:space="preserve">17.0225715637207</t>
@@ -1349,16 +1346,16 @@
     <t xml:space="preserve">17.9184970855713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3900356292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4843425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6729602813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4274215698242</t>
+    <t xml:space="preserve">18.3900375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4843444824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4274234771729</t>
   </si>
   <si>
     <t xml:space="preserve">19.2388076782227</t>
@@ -1367,10 +1364,10 @@
     <t xml:space="preserve">19.616039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2761936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9363479614258</t>
+    <t xml:space="preserve">20.276195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.936351776123</t>
   </si>
   <si>
     <t xml:space="preserve">21.5021953582764</t>
@@ -1379,7 +1376,7 @@
     <t xml:space="preserve">21.4078884124756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2192726135254</t>
+    <t xml:space="preserve">21.219274520874</t>
   </si>
   <si>
     <t xml:space="preserve">21.3135814666748</t>
@@ -1388,31 +1385,34 @@
     <t xml:space="preserve">21.0306568145752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965061187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6908130645752</t>
+    <t xml:space="preserve">21.5965042114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6908111572266</t>
   </si>
   <si>
     <t xml:space="preserve">23.4826641082764</t>
   </si>
   <si>
+    <t xml:space="preserve">22.9168167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5332717895508</t>
+  </si>
+  <si>
     <t xml:space="preserve">22.9168148040771</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5332717895508</t>
-  </si>
-  <si>
     <t xml:space="preserve">22.1497249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7250442504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3962440490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4921321868896</t>
+    <t xml:space="preserve">22.7250423431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3962478637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4921340942383</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">23.1085872650146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0127010345459</t>
+    <t xml:space="preserve">23.0127029418945</t>
   </si>
   <si>
     <t xml:space="preserve">22.6291561126709</t>
@@ -1436,22 +1436,22 @@
     <t xml:space="preserve">23.7797908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2044734954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6839046478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0674514770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633377075195</t>
+    <t xml:space="preserve">23.204475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6839065551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0674495697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633358001709</t>
   </si>
   <si>
     <t xml:space="preserve">25.2180843353271</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4098567962646</t>
+    <t xml:space="preserve">25.4098587036133</t>
   </si>
   <si>
     <t xml:space="preserve">26.0810623168945</t>
@@ -1463,37 +1463,37 @@
     <t xml:space="preserve">28.0946731567383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9029026031494</t>
+    <t xml:space="preserve">27.9029006958008</t>
   </si>
   <si>
     <t xml:space="preserve">28.5741024017334</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7111282348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9987869262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8070125579834</t>
+    <t xml:space="preserve">27.7111263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9987888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.807014465332</t>
   </si>
   <si>
     <t xml:space="preserve">27.5193557739258</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7522659301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2864456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.491828918457</t>
+    <t xml:space="preserve">26.7522640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2864475250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4918270111084</t>
   </si>
   <si>
     <t xml:space="preserve">29.724739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4370803833008</t>
+    <t xml:space="preserve">29.4370784759521</t>
   </si>
   <si>
     <t xml:space="preserve">29.5329647064209</t>
@@ -19221,7 +19221,7 @@
         <v>12.75</v>
       </c>
       <c r="G621" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19299,7 +19299,7 @@
         <v>13</v>
       </c>
       <c r="G624" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19325,7 +19325,7 @@
         <v>13</v>
       </c>
       <c r="G625" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19351,7 +19351,7 @@
         <v>12.75</v>
       </c>
       <c r="G626" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19377,7 +19377,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G627" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19429,7 +19429,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19455,7 +19455,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19481,7 +19481,7 @@
         <v>12.75</v>
       </c>
       <c r="G631" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19507,7 +19507,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19533,7 +19533,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19559,7 +19559,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19585,7 +19585,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19611,7 +19611,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G636" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19637,7 +19637,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G637" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19663,7 +19663,7 @@
         <v>12.25</v>
       </c>
       <c r="G638" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19689,7 +19689,7 @@
         <v>12.25</v>
       </c>
       <c r="G639" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19715,7 +19715,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19741,7 +19741,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19767,7 +19767,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19793,7 +19793,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19819,7 +19819,7 @@
         <v>12.5</v>
       </c>
       <c r="G644" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19845,7 +19845,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19871,7 +19871,7 @@
         <v>12.5</v>
       </c>
       <c r="G646" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19897,7 +19897,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19923,7 +19923,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G648" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19949,7 +19949,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G649" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19975,7 +19975,7 @@
         <v>12.5</v>
       </c>
       <c r="G650" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20001,7 +20001,7 @@
         <v>12.5</v>
       </c>
       <c r="G651" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20027,7 +20027,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20053,7 +20053,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G653" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20079,7 +20079,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G654" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20105,7 +20105,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20183,7 +20183,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20209,7 +20209,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20235,7 +20235,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G660" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20261,7 +20261,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20287,7 +20287,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20313,7 +20313,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G663" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20339,7 +20339,7 @@
         <v>12.75</v>
       </c>
       <c r="G664" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20365,7 +20365,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G665" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20391,7 +20391,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G666" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20417,7 +20417,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G667" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20443,7 +20443,7 @@
         <v>12.25</v>
       </c>
       <c r="G668" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20469,7 +20469,7 @@
         <v>12.25</v>
       </c>
       <c r="G669" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20495,7 +20495,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20521,7 +20521,7 @@
         <v>12.5</v>
       </c>
       <c r="G671" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20547,7 +20547,7 @@
         <v>12.5</v>
       </c>
       <c r="G672" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20573,7 +20573,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20599,7 +20599,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20625,7 +20625,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G675" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20651,7 +20651,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G676" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20677,7 +20677,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20703,7 +20703,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G678" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20729,7 +20729,7 @@
         <v>12.25</v>
       </c>
       <c r="G679" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20755,7 +20755,7 @@
         <v>12.25</v>
       </c>
       <c r="G680" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20781,7 +20781,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G681" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20807,7 +20807,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20833,7 +20833,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G683" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20859,7 +20859,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20885,7 +20885,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20911,7 +20911,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20937,7 +20937,7 @@
         <v>12.5</v>
       </c>
       <c r="G687" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20963,7 +20963,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20989,7 +20989,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21015,7 +21015,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G690" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21041,7 +21041,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21067,7 +21067,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21093,7 +21093,7 @@
         <v>12.75</v>
       </c>
       <c r="G693" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21119,7 +21119,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21145,7 +21145,7 @@
         <v>13.25</v>
       </c>
       <c r="G695" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21171,7 +21171,7 @@
         <v>13</v>
       </c>
       <c r="G696" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21197,7 +21197,7 @@
         <v>13</v>
       </c>
       <c r="G697" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21223,7 +21223,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21301,7 +21301,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21327,7 +21327,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G702" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21353,7 +21353,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G703" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21379,7 +21379,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G704" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21405,7 +21405,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G705" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21431,7 +21431,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21457,7 +21457,7 @@
         <v>13.25</v>
       </c>
       <c r="G707" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21535,7 +21535,7 @@
         <v>13</v>
       </c>
       <c r="G710" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21561,7 +21561,7 @@
         <v>13</v>
       </c>
       <c r="G711" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21613,7 +21613,7 @@
         <v>13</v>
       </c>
       <c r="G713" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21639,7 +21639,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21691,7 +21691,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G716" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21717,7 +21717,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G717" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21743,7 +21743,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G718" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21769,7 +21769,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21795,7 +21795,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21821,7 +21821,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G721" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21847,7 +21847,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G722" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21873,7 +21873,7 @@
         <v>12.5</v>
       </c>
       <c r="G723" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21899,7 +21899,7 @@
         <v>13</v>
       </c>
       <c r="G724" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21925,7 +21925,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G725" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21951,7 +21951,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21977,7 +21977,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G727" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22003,7 +22003,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22029,7 +22029,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G729" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22055,7 +22055,7 @@
         <v>12.5</v>
       </c>
       <c r="G730" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22081,7 +22081,7 @@
         <v>12.25</v>
       </c>
       <c r="G731" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22107,7 +22107,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G732" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22133,7 +22133,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22159,7 +22159,7 @@
         <v>12</v>
       </c>
       <c r="G734" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22185,7 +22185,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22211,7 +22211,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G736" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22237,7 +22237,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22263,7 +22263,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22289,7 +22289,7 @@
         <v>11.5</v>
       </c>
       <c r="G739" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22315,7 +22315,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22341,7 +22341,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G741" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22367,7 +22367,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22393,7 +22393,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22419,7 +22419,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22445,7 +22445,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22471,7 +22471,7 @@
         <v>11.5</v>
       </c>
       <c r="G746" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22497,7 +22497,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22523,7 +22523,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G748" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22549,7 +22549,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G749" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22575,7 +22575,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G750" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22601,7 +22601,7 @@
         <v>10.25</v>
       </c>
       <c r="G751" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22627,7 +22627,7 @@
         <v>10.25</v>
       </c>
       <c r="G752" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22653,7 +22653,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G753" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22679,7 +22679,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G754" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22705,7 +22705,7 @@
         <v>10.5</v>
       </c>
       <c r="G755" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22731,7 +22731,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22757,7 +22757,7 @@
         <v>10.5</v>
       </c>
       <c r="G757" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22783,7 +22783,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22809,7 +22809,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22835,7 +22835,7 @@
         <v>10.75</v>
       </c>
       <c r="G760" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22861,7 +22861,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G761" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22887,7 +22887,7 @@
         <v>11.5</v>
       </c>
       <c r="G762" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22913,7 +22913,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22939,7 +22939,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22965,7 +22965,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G765" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22991,7 +22991,7 @@
         <v>11.5</v>
       </c>
       <c r="G766" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23017,7 +23017,7 @@
         <v>11.5</v>
       </c>
       <c r="G767" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23043,7 +23043,7 @@
         <v>11.75</v>
       </c>
       <c r="G768" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23069,7 +23069,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G769" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23095,7 +23095,7 @@
         <v>12</v>
       </c>
       <c r="G770" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23121,7 +23121,7 @@
         <v>11.75</v>
       </c>
       <c r="G771" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23147,7 +23147,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23173,7 +23173,7 @@
         <v>11.5</v>
       </c>
       <c r="G773" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23199,7 +23199,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23225,7 +23225,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G775" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23251,7 +23251,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23277,7 +23277,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G777" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23303,7 +23303,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G778" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23329,7 +23329,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23355,7 +23355,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23381,7 +23381,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23407,7 +23407,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G782" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23433,7 +23433,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G783" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23459,7 +23459,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23485,7 +23485,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G785" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23511,7 +23511,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23537,7 +23537,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23563,7 +23563,7 @@
         <v>11.5</v>
       </c>
       <c r="G788" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23589,7 +23589,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G789" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23615,7 +23615,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G790" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23641,7 +23641,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23667,7 +23667,7 @@
         <v>11.5</v>
       </c>
       <c r="G792" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23693,7 +23693,7 @@
         <v>11.25</v>
       </c>
       <c r="G793" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23719,7 +23719,7 @@
         <v>11.25</v>
       </c>
       <c r="G794" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23745,7 +23745,7 @@
         <v>11.5</v>
       </c>
       <c r="G795" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23771,7 +23771,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23797,7 +23797,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G797" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23823,7 +23823,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23849,7 +23849,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23875,7 +23875,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G800" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23901,7 +23901,7 @@
         <v>11</v>
       </c>
       <c r="G801" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23927,7 +23927,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G802" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23953,7 +23953,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23979,7 +23979,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G804" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24005,7 +24005,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24031,7 +24031,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G806" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24057,7 +24057,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24083,7 +24083,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24109,7 +24109,7 @@
         <v>11</v>
       </c>
       <c r="G809" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24135,7 +24135,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G810" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24161,7 +24161,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G811" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24187,7 +24187,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G812" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24213,7 +24213,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24239,7 +24239,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24265,7 +24265,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24291,7 +24291,7 @@
         <v>10.75</v>
       </c>
       <c r="G816" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24317,7 +24317,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G817" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24343,7 +24343,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G818" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24369,7 +24369,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24395,7 +24395,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G820" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24421,7 +24421,7 @@
         <v>11.25</v>
       </c>
       <c r="G821" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24447,7 +24447,7 @@
         <v>11.25</v>
       </c>
       <c r="G822" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24473,7 +24473,7 @@
         <v>11.25</v>
       </c>
       <c r="G823" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24499,7 +24499,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24525,7 +24525,7 @@
         <v>11.5</v>
       </c>
       <c r="G825" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24551,7 +24551,7 @@
         <v>11.5</v>
       </c>
       <c r="G826" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24577,7 +24577,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G827" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24603,7 +24603,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24629,7 +24629,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24655,7 +24655,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24681,7 +24681,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G831" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24707,7 +24707,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24733,7 +24733,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G833" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24759,7 +24759,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24785,7 +24785,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24811,7 +24811,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G836" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24837,7 +24837,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24863,7 +24863,7 @@
         <v>11.5</v>
       </c>
       <c r="G838" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24889,7 +24889,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24915,7 +24915,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24941,7 +24941,7 @@
         <v>11.5</v>
       </c>
       <c r="G841" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24967,7 +24967,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24993,7 +24993,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G843" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25019,7 +25019,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G844" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25045,7 +25045,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G845" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25071,7 +25071,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G846" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25097,7 +25097,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G847" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25123,7 +25123,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25149,7 +25149,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25175,7 +25175,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25201,7 +25201,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25227,7 +25227,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25253,7 +25253,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G853" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25279,7 +25279,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25305,7 +25305,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25331,7 +25331,7 @@
         <v>11.5</v>
       </c>
       <c r="G856" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25357,7 +25357,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G857" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25383,7 +25383,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25409,7 +25409,7 @@
         <v>11.5</v>
       </c>
       <c r="G859" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25435,7 +25435,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G860" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25461,7 +25461,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25487,7 +25487,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G862" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25513,7 +25513,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G863" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25539,7 +25539,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G864" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25565,7 +25565,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25591,7 +25591,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G866" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25617,7 +25617,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25643,7 +25643,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25669,7 +25669,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G869" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25695,7 +25695,7 @@
         <v>12</v>
       </c>
       <c r="G870" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25721,7 +25721,7 @@
         <v>12</v>
       </c>
       <c r="G871" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25747,7 +25747,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G872" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25773,7 +25773,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G873" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25799,7 +25799,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25825,7 +25825,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25851,7 +25851,7 @@
         <v>12</v>
       </c>
       <c r="G876" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25877,7 +25877,7 @@
         <v>12</v>
       </c>
       <c r="G877" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25903,7 +25903,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G878" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25929,7 +25929,7 @@
         <v>12</v>
       </c>
       <c r="G879" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25955,7 +25955,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G880" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25981,7 +25981,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G881" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26007,7 +26007,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26033,7 +26033,7 @@
         <v>12</v>
       </c>
       <c r="G883" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26059,7 +26059,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G884" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26085,7 +26085,7 @@
         <v>12.25</v>
       </c>
       <c r="G885" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26111,7 +26111,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G886" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26137,7 +26137,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26163,7 +26163,7 @@
         <v>12.25</v>
       </c>
       <c r="G888" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26189,7 +26189,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26215,7 +26215,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G890" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26241,7 +26241,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26267,7 +26267,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G892" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26293,7 +26293,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G893" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26319,7 +26319,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26345,7 +26345,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26371,7 +26371,7 @@
         <v>12.5</v>
       </c>
       <c r="G896" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26397,7 +26397,7 @@
         <v>12.5</v>
       </c>
       <c r="G897" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26423,7 +26423,7 @@
         <v>12.5</v>
       </c>
       <c r="G898" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26449,7 +26449,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G899" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26475,7 +26475,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26501,7 +26501,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G901" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26527,7 +26527,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26553,7 +26553,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26579,7 +26579,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G904" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26605,7 +26605,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26631,7 +26631,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G906" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26657,7 +26657,7 @@
         <v>12.75</v>
       </c>
       <c r="G907" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26683,7 +26683,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G908" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26709,7 +26709,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G909" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26735,7 +26735,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26761,7 +26761,7 @@
         <v>12.5</v>
       </c>
       <c r="G911" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26787,7 +26787,7 @@
         <v>12.5</v>
       </c>
       <c r="G912" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26813,7 +26813,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G913" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26839,7 +26839,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G914" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26865,7 +26865,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G915" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26891,7 +26891,7 @@
         <v>12.5</v>
       </c>
       <c r="G916" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26917,7 +26917,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G917" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26943,7 +26943,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G918" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26969,7 +26969,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26995,7 +26995,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27021,7 +27021,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27047,7 +27047,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27073,7 +27073,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G923" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27099,7 +27099,7 @@
         <v>12.5</v>
       </c>
       <c r="G924" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27125,7 +27125,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27151,7 +27151,7 @@
         <v>12.5</v>
       </c>
       <c r="G926" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27177,7 +27177,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27203,7 +27203,7 @@
         <v>12.5</v>
       </c>
       <c r="G928" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27229,7 +27229,7 @@
         <v>12.5</v>
       </c>
       <c r="G929" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27255,7 +27255,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27281,7 +27281,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G931" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27307,7 +27307,7 @@
         <v>13</v>
       </c>
       <c r="G932" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27333,7 +27333,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27359,7 +27359,7 @@
         <v>13</v>
       </c>
       <c r="G934" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27385,7 +27385,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27411,7 +27411,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G936" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27437,7 +27437,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27463,7 +27463,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27489,7 +27489,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G939" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27515,7 +27515,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G940" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27541,7 +27541,7 @@
         <v>13.25</v>
       </c>
       <c r="G941" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27567,7 +27567,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G942" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27593,7 +27593,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27619,7 +27619,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G944" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27645,7 +27645,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G945" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27671,7 +27671,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G946" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27697,7 +27697,7 @@
         <v>12.75</v>
       </c>
       <c r="G947" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27723,7 +27723,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G948" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27749,7 +27749,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G949" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27775,7 +27775,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G950" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27801,7 +27801,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G951" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27827,7 +27827,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27853,7 +27853,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27879,7 +27879,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G954" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27905,7 +27905,7 @@
         <v>12.5</v>
       </c>
       <c r="G955" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27931,7 +27931,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27957,7 +27957,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G957" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27983,7 +27983,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G958" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28009,7 +28009,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G959" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28035,7 +28035,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28061,7 +28061,7 @@
         <v>11.75</v>
       </c>
       <c r="G961" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28087,7 +28087,7 @@
         <v>11.5</v>
       </c>
       <c r="G962" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28113,7 +28113,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28139,7 +28139,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G964" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28165,7 +28165,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G965" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28191,7 +28191,7 @@
         <v>12.25</v>
       </c>
       <c r="G966" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28217,7 +28217,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28243,7 +28243,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28269,7 +28269,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G969" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28295,7 +28295,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G970" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28321,7 +28321,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G971" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28347,7 +28347,7 @@
         <v>12.25</v>
       </c>
       <c r="G972" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28373,7 +28373,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28399,7 +28399,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28425,7 +28425,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28451,7 +28451,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G976" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28477,7 +28477,7 @@
         <v>12.5</v>
       </c>
       <c r="G977" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28503,7 +28503,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28529,7 +28529,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G979" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28555,7 +28555,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G980" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28581,7 +28581,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28607,7 +28607,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28633,7 +28633,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G983" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28659,7 +28659,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G984" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28685,7 +28685,7 @@
         <v>12.25</v>
       </c>
       <c r="G985" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28711,7 +28711,7 @@
         <v>12.25</v>
       </c>
       <c r="G986" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28737,7 +28737,7 @@
         <v>12.25</v>
       </c>
       <c r="G987" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28763,7 +28763,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G988" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28789,7 +28789,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28815,7 +28815,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28841,7 +28841,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28867,7 +28867,7 @@
         <v>11.75</v>
       </c>
       <c r="G992" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28893,7 +28893,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G993" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28919,7 +28919,7 @@
         <v>12</v>
       </c>
       <c r="G994" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28945,7 +28945,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G995" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28971,7 +28971,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G996" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28997,7 +28997,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G997" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29023,7 +29023,7 @@
         <v>12.25</v>
       </c>
       <c r="G998" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29049,7 +29049,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29075,7 +29075,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29101,7 +29101,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29127,7 +29127,7 @@
         <v>12</v>
       </c>
       <c r="G1002" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29153,7 +29153,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1003" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29179,7 +29179,7 @@
         <v>12.25</v>
       </c>
       <c r="G1004" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29205,7 +29205,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1005" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29231,7 +29231,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1006" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29257,7 +29257,7 @@
         <v>12.25</v>
       </c>
       <c r="G1007" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29283,7 +29283,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29309,7 +29309,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1009" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29335,7 +29335,7 @@
         <v>12.5</v>
       </c>
       <c r="G1010" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29361,7 +29361,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1011" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29387,7 +29387,7 @@
         <v>12.5</v>
       </c>
       <c r="G1012" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29413,7 +29413,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G1013" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29439,7 +29439,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G1014" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29465,7 +29465,7 @@
         <v>12.75</v>
       </c>
       <c r="G1015" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29491,7 +29491,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1016" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29517,7 +29517,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29543,7 +29543,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29569,7 +29569,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29595,7 +29595,7 @@
         <v>13.25</v>
       </c>
       <c r="G1020" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29621,7 +29621,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1021" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29647,7 +29647,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1022" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29673,7 +29673,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1023" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29699,7 +29699,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1024" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29725,7 +29725,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1025" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29751,7 +29751,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29777,7 +29777,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29803,7 +29803,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29829,7 +29829,7 @@
         <v>13.5</v>
       </c>
       <c r="G1029" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29855,7 +29855,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G1030" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29881,7 +29881,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1031" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29907,7 +29907,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29933,7 +29933,7 @@
         <v>13.5</v>
       </c>
       <c r="G1033" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29959,7 +29959,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1034" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29985,7 +29985,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1035" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30011,7 +30011,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30037,7 +30037,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1037" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30063,7 +30063,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1038" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30089,7 +30089,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30115,7 +30115,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30141,7 +30141,7 @@
         <v>13.5</v>
       </c>
       <c r="G1041" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30167,7 +30167,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1042" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30193,7 +30193,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1043" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30219,7 +30219,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1044" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30245,7 +30245,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1045" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30271,7 +30271,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G1046" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30297,7 +30297,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30323,7 +30323,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30349,7 +30349,7 @@
         <v>13.75</v>
       </c>
       <c r="G1049" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30375,7 +30375,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1050" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30401,7 +30401,7 @@
         <v>13.75</v>
       </c>
       <c r="G1051" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30427,7 +30427,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30453,7 +30453,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30479,7 +30479,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1054" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30505,7 +30505,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30531,7 +30531,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1056" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30557,7 +30557,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1057" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30583,7 +30583,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1058" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30609,7 +30609,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30635,7 +30635,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30661,7 +30661,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1061" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30687,7 +30687,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1062" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30713,7 +30713,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30739,7 +30739,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1064" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30765,7 +30765,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1065" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30791,7 +30791,7 @@
         <v>12</v>
       </c>
       <c r="G1066" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30817,7 +30817,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30843,7 +30843,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1068" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30869,7 +30869,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1069" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30895,7 +30895,7 @@
         <v>10.75</v>
       </c>
       <c r="G1070" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30921,7 +30921,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30947,7 +30947,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1072" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30973,7 +30973,7 @@
         <v>11.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30999,7 +30999,7 @@
         <v>11.25</v>
       </c>
       <c r="G1074" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31025,7 +31025,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31051,7 +31051,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1076" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31077,7 +31077,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31103,7 +31103,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1078" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31129,7 +31129,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31155,7 +31155,7 @@
         <v>11.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31181,7 +31181,7 @@
         <v>11.75</v>
       </c>
       <c r="G1081" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31207,7 +31207,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31233,7 +31233,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1083" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31259,7 +31259,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31285,7 +31285,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1085" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31311,7 +31311,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31337,7 +31337,7 @@
         <v>12</v>
       </c>
       <c r="G1087" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31363,7 +31363,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31389,7 +31389,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1089" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31415,7 +31415,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31441,7 +31441,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31467,7 +31467,7 @@
         <v>12</v>
       </c>
       <c r="G1092" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31493,7 +31493,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1093" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31519,7 +31519,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31545,7 +31545,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31571,7 +31571,7 @@
         <v>12.5</v>
       </c>
       <c r="G1096" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31597,7 +31597,7 @@
         <v>13.5</v>
       </c>
       <c r="G1097" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31623,7 +31623,7 @@
         <v>13.75</v>
       </c>
       <c r="G1098" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31649,7 +31649,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31675,7 +31675,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31701,7 +31701,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31727,7 +31727,7 @@
         <v>13.5</v>
       </c>
       <c r="G1102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31753,7 +31753,7 @@
         <v>13.5</v>
       </c>
       <c r="G1103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31779,7 +31779,7 @@
         <v>13.25</v>
       </c>
       <c r="G1104" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31805,7 +31805,7 @@
         <v>13.5</v>
       </c>
       <c r="G1105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31831,7 +31831,7 @@
         <v>13.5</v>
       </c>
       <c r="G1106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31857,7 +31857,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31883,7 +31883,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31909,7 +31909,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1109" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31935,7 +31935,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31961,7 +31961,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31987,7 +31987,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32013,7 +32013,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32039,7 +32039,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32065,7 +32065,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1115" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32091,7 +32091,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32117,7 +32117,7 @@
         <v>15.5</v>
       </c>
       <c r="G1117" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32143,7 +32143,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32169,7 +32169,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1119" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32195,7 +32195,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32221,7 +32221,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32247,7 +32247,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32273,7 +32273,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32299,7 +32299,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1124" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32325,7 +32325,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32351,7 +32351,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32377,7 +32377,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32403,7 +32403,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32429,7 +32429,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32455,7 +32455,7 @@
         <v>15</v>
       </c>
       <c r="G1130" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32481,7 +32481,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32507,7 +32507,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32533,7 +32533,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1133" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32559,7 +32559,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1134" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32585,7 +32585,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1135" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32611,7 +32611,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32637,7 +32637,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1137" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32663,7 +32663,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1138" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32689,7 +32689,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32715,7 +32715,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32741,7 +32741,7 @@
         <v>15</v>
       </c>
       <c r="G1141" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32767,7 +32767,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32793,7 +32793,7 @@
         <v>14.75</v>
       </c>
       <c r="G1143" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32819,7 +32819,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32845,7 +32845,7 @@
         <v>14.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32871,7 +32871,7 @@
         <v>14.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32897,7 +32897,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1147" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32923,7 +32923,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1148" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32949,7 +32949,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1149" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32975,7 +32975,7 @@
         <v>14</v>
       </c>
       <c r="G1150" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33001,7 +33001,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33027,7 +33027,7 @@
         <v>14.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33053,7 +33053,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33079,7 +33079,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1154" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33105,7 +33105,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33131,7 +33131,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33157,7 +33157,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33183,7 +33183,7 @@
         <v>15</v>
       </c>
       <c r="G1158" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33209,7 +33209,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33235,7 +33235,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33261,7 +33261,7 @@
         <v>14.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33287,7 +33287,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1162" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33313,7 +33313,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1163" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33339,7 +33339,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1164" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33365,7 +33365,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33391,7 +33391,7 @@
         <v>14.25</v>
       </c>
       <c r="G1166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33417,7 +33417,7 @@
         <v>14.5</v>
       </c>
       <c r="G1167" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33443,7 +33443,7 @@
         <v>14.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33469,7 +33469,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1169" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33495,7 +33495,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33521,7 +33521,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1171" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33547,7 +33547,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1172" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33573,7 +33573,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33599,7 +33599,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33625,7 +33625,7 @@
         <v>15.75</v>
       </c>
       <c r="G1175" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33651,7 +33651,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33677,7 +33677,7 @@
         <v>16</v>
       </c>
       <c r="G1177" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33703,7 +33703,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33729,7 +33729,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1179" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33755,7 +33755,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33781,7 +33781,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1181" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33807,7 +33807,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33833,7 +33833,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33859,7 +33859,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33885,7 +33885,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33911,7 +33911,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33937,7 +33937,7 @@
         <v>16.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33963,7 +33963,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1188" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33989,7 +33989,7 @@
         <v>16.5</v>
       </c>
       <c r="G1189" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34015,7 +34015,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1190" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34041,7 +34041,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34067,7 +34067,7 @@
         <v>17</v>
       </c>
       <c r="G1192" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34093,7 +34093,7 @@
         <v>17</v>
       </c>
       <c r="G1193" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34119,7 +34119,7 @@
         <v>17</v>
       </c>
       <c r="G1194" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34145,7 +34145,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34171,7 +34171,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1196" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34197,7 +34197,7 @@
         <v>18</v>
       </c>
       <c r="G1197" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34223,7 +34223,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1198" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34249,7 +34249,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34275,7 +34275,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34301,7 +34301,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34327,7 +34327,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34353,7 +34353,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34379,7 +34379,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1204" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34405,7 +34405,7 @@
         <v>20</v>
       </c>
       <c r="G1205" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34431,7 +34431,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1206" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34457,7 +34457,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1207" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34483,7 +34483,7 @@
         <v>19.25</v>
       </c>
       <c r="G1208" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34509,7 +34509,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34535,7 +34535,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34561,7 +34561,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1211" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34587,7 +34587,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1212" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34613,7 +34613,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1213" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34639,7 +34639,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34665,7 +34665,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1215" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34691,7 +34691,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1216" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34717,7 +34717,7 @@
         <v>18.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34743,7 +34743,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1218" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34769,7 +34769,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34795,7 +34795,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34821,7 +34821,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34847,7 +34847,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1222" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34873,7 +34873,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34899,7 +34899,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1224" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34925,7 +34925,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1225" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34951,7 +34951,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34977,7 +34977,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35003,7 +35003,7 @@
         <v>17.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35029,7 +35029,7 @@
         <v>18</v>
       </c>
       <c r="G1229" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35055,7 +35055,7 @@
         <v>18.5</v>
       </c>
       <c r="G1230" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35081,7 +35081,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35107,7 +35107,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35133,7 +35133,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35159,7 +35159,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1234" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35185,7 +35185,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35211,7 +35211,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35237,7 +35237,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35263,7 +35263,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35289,7 +35289,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35315,7 +35315,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35341,7 +35341,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1241" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35367,7 +35367,7 @@
         <v>18.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35393,7 +35393,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1243" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35419,7 +35419,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35445,7 +35445,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35471,7 +35471,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35497,7 +35497,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35523,7 +35523,7 @@
         <v>17.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35549,7 +35549,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35575,7 +35575,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35601,7 +35601,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1251" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35627,7 +35627,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35653,7 +35653,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1253" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35679,7 +35679,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35705,7 +35705,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35731,7 +35731,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1256" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35757,7 +35757,7 @@
         <v>18</v>
       </c>
       <c r="G1257" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35783,7 +35783,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1258" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35809,7 +35809,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1259" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35835,7 +35835,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1260" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35861,7 +35861,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1261" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35887,7 +35887,7 @@
         <v>19</v>
       </c>
       <c r="G1262" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35913,7 +35913,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35939,7 +35939,7 @@
         <v>19.5</v>
       </c>
       <c r="G1264" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35965,7 +35965,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1265" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35991,7 +35991,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1266" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36017,7 +36017,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36043,7 +36043,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1268" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36069,7 +36069,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36095,7 +36095,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1270" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36121,7 +36121,7 @@
         <v>21.5</v>
       </c>
       <c r="G1271" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36147,7 +36147,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36173,7 +36173,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36199,7 +36199,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1274" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36225,7 +36225,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36251,7 +36251,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1276" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36277,7 +36277,7 @@
         <v>22.5</v>
       </c>
       <c r="G1277" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36303,7 +36303,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36329,7 +36329,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36355,7 +36355,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1280" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36381,7 +36381,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36407,7 +36407,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36433,7 +36433,7 @@
         <v>23</v>
       </c>
       <c r="G1283" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36459,7 +36459,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36485,7 +36485,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1285" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36511,7 +36511,7 @@
         <v>23.5</v>
       </c>
       <c r="G1286" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36537,7 +36537,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36589,7 +36589,7 @@
         <v>23.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -59919,13 +59919,13 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6493055556</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>1142</v>
       </c>
       <c r="C2187" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="D2187" t="n">
         <v>21.3999996185303</v>
@@ -59940,6 +59940,32 @@
         <v>897</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5898842593</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>1626</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>21.7999992370605</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>21.2999992370605</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>909</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="910">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2099142074585</t>
+    <t xml:space="preserve">8.20991611480713</t>
   </si>
   <si>
     <t xml:space="preserve">IWB.MI</t>
@@ -50,28 +50,28 @@
     <t xml:space="preserve">8.19319534301758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10123062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10959148406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06779098510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877847671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976978302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189538955688</t>
+    <t xml:space="preserve">8.10122966766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10959053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06778812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94238376617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85878038406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976930618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79189491271973</t>
   </si>
   <si>
     <t xml:space="preserve">7.69157075881958</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">7.63304805755615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59960699081421</t>
+    <t xml:space="preserve">7.59960556030273</t>
   </si>
   <si>
     <t xml:space="preserve">7.63722705841064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62886667251587</t>
+    <t xml:space="preserve">7.6288685798645</t>
   </si>
   <si>
     <t xml:space="preserve">7.60796737670898</t>
@@ -95,67 +95,67 @@
     <t xml:space="preserve">7.5828857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71665191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517557144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697702407837</t>
+    <t xml:space="preserve">7.71665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81697750091553</t>
   </si>
   <si>
     <t xml:space="preserve">7.48256015777588</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75845432281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66648864746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62468767166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31535339355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.440758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52436399459839</t>
+    <t xml:space="preserve">7.75845336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66649007797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62468862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31535196304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44075870513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52436304092407</t>
   </si>
   <si>
     <t xml:space="preserve">7.59124612808228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76263523101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76681470870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98418426513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02598762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84623908996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2600793838501</t>
+    <t xml:space="preserve">7.76263380050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7668137550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98418474197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02598857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84623861312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9340238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007843017578</t>
   </si>
   <si>
     <t xml:space="preserve">8.35622310638428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27679920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89222002029419</t>
+    <t xml:space="preserve">8.27679824829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89222097396851</t>
   </si>
   <si>
     <t xml:space="preserve">8.18483448028564</t>
@@ -164,91 +164,91 @@
     <t xml:space="preserve">7.99672651290894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97582530975342</t>
+    <t xml:space="preserve">7.97582387924194</t>
   </si>
   <si>
     <t xml:space="preserve">8.13467216491699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12631225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15139293670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2349967956543</t>
+    <t xml:space="preserve">8.12631130218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15139389038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23499774932861</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07614898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762676239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92148351669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90894174575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73337411880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80861711502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89640140533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70829248428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65394878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67067098617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68738985061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85041856765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57870674133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780363082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452535629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81279754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239784240723</t>
+    <t xml:space="preserve">8.07614994049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762866973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148303985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90894031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73337268829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80861616134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910310745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89639949798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65394830703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67067003250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68739080429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8504204750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57870388031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55780410766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452487945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443429946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81279563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239831924438</t>
   </si>
   <si>
     <t xml:space="preserve">7.21920776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23174858093262</t>
+    <t xml:space="preserve">7.23174905776978</t>
   </si>
   <si>
     <t xml:space="preserve">7.27355051040649</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33207321166992</t>
+    <t xml:space="preserve">7.3320746421814</t>
   </si>
   <si>
     <t xml:space="preserve">7.1899471282959</t>
@@ -260,100 +260,100 @@
     <t xml:space="preserve">7.19830703735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18576717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06454038619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05617952346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97257614135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14814567565918</t>
+    <t xml:space="preserve">7.18576765060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06453990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05618047714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97257661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14814424514771</t>
   </si>
   <si>
     <t xml:space="preserve">7.21502876281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35715532302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895629882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67484998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59542655944824</t>
+    <t xml:space="preserve">7.35715436935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895582199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67485046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5954270362854</t>
   </si>
   <si>
     <t xml:space="preserve">7.51182126998901</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6037859916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56616401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403841018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51600360870361</t>
+    <t xml:space="preserve">7.60378742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56616592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51600170135498</t>
   </si>
   <si>
     <t xml:space="preserve">7.52018356323242</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54108285903931</t>
+    <t xml:space="preserve">7.54108476638794</t>
   </si>
   <si>
     <t xml:space="preserve">7.4741997718811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45329999923706</t>
+    <t xml:space="preserve">7.45329856872559</t>
   </si>
   <si>
     <t xml:space="preserve">7.57034540176392</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10541152954102</t>
+    <t xml:space="preserve">8.1054105758667</t>
   </si>
   <si>
     <t xml:space="preserve">8.19737529754639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35204315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29351902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09287071228027</t>
+    <t xml:space="preserve">8.35204124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29351997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303398132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254512786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09286975860596</t>
   </si>
   <si>
     <t xml:space="preserve">8.44400787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5944938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54433345794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5610523223877</t>
+    <t xml:space="preserve">8.59449481964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54433155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56105136871338</t>
   </si>
   <si>
     <t xml:space="preserve">8.6530179977417</t>
@@ -362,76 +362,76 @@
     <t xml:space="preserve">8.97071361541748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94563293457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73661994934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86202621459961</t>
+    <t xml:space="preserve">8.94563102722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73662090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86202716827393</t>
   </si>
   <si>
     <t xml:space="preserve">8.92055034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90382957458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99579429626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0041561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97907447814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04722595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07278156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01314926147461</t>
+    <t xml:space="preserve">8.90382766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579238891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00415420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9790735244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04722499847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07278060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01314830780029</t>
   </si>
   <si>
     <t xml:space="preserve">9.03018760681152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15797233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464393615723</t>
+    <t xml:space="preserve">9.15797138214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464488983154</t>
   </si>
   <si>
     <t xml:space="preserve">9.28575897216797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37094879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14945507049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26872062683105</t>
+    <t xml:space="preserve">9.37094783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14945411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26872253417969</t>
   </si>
   <si>
     <t xml:space="preserve">9.25168228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32835483551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45614051818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206478118896</t>
+    <t xml:space="preserve">9.32835292816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45613956451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">9.36242961883545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41354274749756</t>
+    <t xml:space="preserve">9.41354465484619</t>
   </si>
   <si>
     <t xml:space="preserve">9.54984855651855</t>
@@ -440,31 +440,31 @@
     <t xml:space="preserve">9.61800193786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54133129119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56688785552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39650535583496</t>
+    <t xml:space="preserve">9.54132843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56688690185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39650630950928</t>
   </si>
   <si>
     <t xml:space="preserve">9.55836868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59244441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5839262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948181152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57540512084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49021530151367</t>
+    <t xml:space="preserve">9.59244537353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58392524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948276519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49021625518799</t>
   </si>
   <si>
     <t xml:space="preserve">9.37946701049805</t>
@@ -488,19 +488,19 @@
     <t xml:space="preserve">9.30279636383057</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53281116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62652015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71170997619629</t>
+    <t xml:space="preserve">9.53281021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62652111053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71171188354492</t>
   </si>
   <si>
     <t xml:space="preserve">9.78838157653809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.830979347229</t>
+    <t xml:space="preserve">9.83097648620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.75430679321289</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3591594696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4528703689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5891723632812</t>
+    <t xml:space="preserve">10.3591575622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4528694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5891733169556</t>
   </si>
   <si>
     <t xml:space="preserve">10.6062097549438</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">10.6488056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5721349716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6232481002808</t>
+    <t xml:space="preserve">10.5721340179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6232490539551</t>
   </si>
   <si>
     <t xml:space="preserve">10.5636148452759</t>
@@ -539,25 +539,25 @@
     <t xml:space="preserve">10.4017524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3676767349243</t>
+    <t xml:space="preserve">10.3676786422729</t>
   </si>
   <si>
     <t xml:space="preserve">10.2228536605835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2910070419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3761978149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2484102249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2313718795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2398920059204</t>
+    <t xml:space="preserve">10.2910060882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3761968612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2484111785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2313737869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2398929595947</t>
   </si>
   <si>
     <t xml:space="preserve">10.4187917709351</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">10.461386680603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3421211242676</t>
+    <t xml:space="preserve">10.3421201705933</t>
   </si>
   <si>
     <t xml:space="preserve">10.3165626525879</t>
@@ -578,40 +578,40 @@
     <t xml:space="preserve">10.3080434799194</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3506383895874</t>
+    <t xml:space="preserve">10.3506393432617</t>
   </si>
   <si>
     <t xml:space="preserve">10.7339973449707</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8191862106323</t>
+    <t xml:space="preserve">10.8191871643066</t>
   </si>
   <si>
     <t xml:space="preserve">10.9469728469849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0151252746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0662384033203</t>
+    <t xml:space="preserve">11.0151233673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0662393569946</t>
   </si>
   <si>
     <t xml:space="preserve">11.0321626663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0236434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9895668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0406837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8277063369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214153289795</t>
+    <t xml:space="preserve">11.0236444473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9895677566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0406808853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8277053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214143753052</t>
   </si>
   <si>
     <t xml:space="preserve">10.8021478652954</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">10.8617820739746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8447427749634</t>
+    <t xml:space="preserve">10.8447437286377</t>
   </si>
   <si>
     <t xml:space="preserve">10.9043779373169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8958587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8532609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703002929688</t>
+    <t xml:space="preserve">10.8958578109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8532638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703012466431</t>
   </si>
   <si>
     <t xml:space="preserve">10.7680730819702</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">10.7425155639648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999216079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6658458709717</t>
+    <t xml:space="preserve">10.6999206542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6658449172974</t>
   </si>
   <si>
     <t xml:space="preserve">10.7936296463013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6914005279541</t>
+    <t xml:space="preserve">10.6914014816284</t>
   </si>
   <si>
     <t xml:space="preserve">10.7595539093018</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">10.7169580459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0747575759888</t>
+    <t xml:space="preserve">11.0747585296631</t>
   </si>
   <si>
     <t xml:space="preserve">11.1599493026733</t>
@@ -677,19 +677,19 @@
     <t xml:space="preserve">11.245138168335</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2877368927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1173543930054</t>
+    <t xml:space="preserve">11.2877340316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1173534393311</t>
   </si>
   <si>
     <t xml:space="preserve">11.3729248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3303298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.543306350708</t>
+    <t xml:space="preserve">11.3303308486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433044433594</t>
   </si>
   <si>
     <t xml:space="preserve">11.7562808990479</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">12.2248287200928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5859022140503</t>
+    <t xml:space="preserve">11.5859003067017</t>
   </si>
   <si>
     <t xml:space="preserve">11.5007104873657</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0156259536743</t>
+    <t xml:space="preserve">12.0156240463257</t>
   </si>
   <si>
     <t xml:space="preserve">12.059476852417</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">12.1033296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.927921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332450866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6648035049438</t>
+    <t xml:space="preserve">11.9279184341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332460403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648054122925</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525091171265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7086572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963600158691</t>
+    <t xml:space="preserve">11.7086563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963609695435</t>
   </si>
   <si>
     <t xml:space="preserve">11.4016876220703</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">11.5770978927612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8840684890747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717721939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.357834815979</t>
+    <t xml:space="preserve">11.8840665817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3578357696533</t>
   </si>
   <si>
     <t xml:space="preserve">11.1824254989624</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">11.8498458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8046178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141590118408</t>
+    <t xml:space="preserve">11.8046159744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141599655151</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332469940186</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">11.7593879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6689310073853</t>
+    <t xml:space="preserve">11.6689319610596</t>
   </si>
   <si>
     <t xml:space="preserve">11.4427890777588</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5784749984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6237030029297</t>
+    <t xml:space="preserve">11.5784759521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.623703956604</t>
   </si>
   <si>
     <t xml:space="preserve">11.4880180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2618751525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0809631347656</t>
+    <t xml:space="preserve">11.2618761062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0809621810913</t>
   </si>
   <si>
     <t xml:space="preserve">11.3523321151733</t>
@@ -809,22 +809,22 @@
     <t xml:space="preserve">11.2166471481323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1714200973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3071041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3975620269775</t>
+    <t xml:space="preserve">11.1714210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3071031570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3975601196289</t>
   </si>
   <si>
     <t xml:space="preserve">11.1261901855469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9403009414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855318069458</t>
+    <t xml:space="preserve">11.9403018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855298995972</t>
   </si>
   <si>
     <t xml:space="preserve">11.8950729370117</t>
@@ -833,22 +833,22 @@
     <t xml:space="preserve">12.0759878158569</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1664419174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1212158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9452772140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.809591293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8548192977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7643623352051</t>
+    <t xml:space="preserve">12.1664428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1212148666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.945276260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8095922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8548212051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7643632888794</t>
   </si>
   <si>
     <t xml:space="preserve">10.9905042648315</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">10.4025363922119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0407094955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0859365463257</t>
+    <t xml:space="preserve">10.0407104492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0859375</t>
   </si>
   <si>
     <t xml:space="preserve">10.2668504714966</t>
@@ -872,55 +872,55 @@
     <t xml:space="preserve">10.3120784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99547863006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45273876190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22659778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27182483673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18136787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796772003174</t>
+    <t xml:space="preserve">9.99548149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45273971557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22659683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27182579040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18136882781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796867370605</t>
   </si>
   <si>
     <t xml:space="preserve">9.58842372894287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67888164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76933860778809</t>
+    <t xml:space="preserve">9.67888069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933670043945</t>
   </si>
   <si>
     <t xml:space="preserve">9.7241096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7191352844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4477643966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3573083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2216215133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1763944625854</t>
+    <t xml:space="preserve">10.7191362380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4477634429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.357307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1763935089111</t>
   </si>
   <si>
     <t xml:space="preserve">9.9050235748291</t>
@@ -929,34 +929,34 @@
     <t xml:space="preserve">9.95025253295898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81456756591797</t>
+    <t xml:space="preserve">9.81456565856934</t>
   </si>
   <si>
     <t xml:space="preserve">9.85979461669922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63365268707275</t>
+    <t xml:space="preserve">9.63365173339844</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382204055786</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7740564346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6803665161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6335248947144</t>
+    <t xml:space="preserve">10.774055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6803674697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.63352394104</t>
   </si>
   <si>
     <t xml:space="preserve">10.8208980560303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9145860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677434921265</t>
+    <t xml:space="preserve">10.9145851135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677425384521</t>
   </si>
   <si>
     <t xml:space="preserve">10.5866804122925</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">10.7272109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9614295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1488056182861</t>
+    <t xml:space="preserve">10.9614305496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1488046646118</t>
   </si>
   <si>
     <t xml:space="preserve">11.2893362045288</t>
@@ -977,46 +977,46 @@
     <t xml:space="preserve">11.2424926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0551176071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1956481933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6172428131104</t>
+    <t xml:space="preserve">11.055118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1956491470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.617241859436</t>
   </si>
   <si>
     <t xml:space="preserve">11.4767112731934</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4298677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830242156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640853881836</t>
+    <t xml:space="preserve">11.4298667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640863418579</t>
   </si>
   <si>
     <t xml:space="preserve">11.7577724456787</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9919910430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8514614105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7109298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8983039855957</t>
+    <t xml:space="preserve">11.9919929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8514604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7109279632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.89830493927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9451484680176</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5703992843628</t>
+    <t xml:space="preserve">11.5704002380371</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793670654297</t>
@@ -1028,31 +1028,31 @@
     <t xml:space="preserve">12.2262105941772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3198986053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3667402267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4135856628418</t>
+    <t xml:space="preserve">12.319896697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3667411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4135847091675</t>
   </si>
   <si>
     <t xml:space="preserve">12.0856800079346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5235538482666</t>
+    <t xml:space="preserve">12.1325235366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5235548019409</t>
   </si>
   <si>
     <t xml:space="preserve">11.3361797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5541172027588</t>
+    <t xml:space="preserve">12.5541162490845</t>
   </si>
   <si>
     <t xml:space="preserve">12.6478042602539</t>
@@ -1061,19 +1061,19 @@
     <t xml:space="preserve">12.600959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6946477890015</t>
+    <t xml:space="preserve">12.6946487426758</t>
   </si>
   <si>
     <t xml:space="preserve">12.7883348464966</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7414922714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9288654327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8351783752441</t>
+    <t xml:space="preserve">12.741491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9288663864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8351793289185</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757108688354</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">13.2099285125732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1630840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1019611358643</t>
+    <t xml:space="preserve">13.1630849838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1019620895386</t>
   </si>
   <si>
     <t xml:space="preserve">10.0713987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5398378372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0693969726562</t>
+    <t xml:space="preserve">10.5398359298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0693979263306</t>
   </si>
   <si>
     <t xml:space="preserve">12.4604291915894</t>
@@ -1109,22 +1109,22 @@
     <t xml:space="preserve">13.7720537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3341779708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215530395508</t>
+    <t xml:space="preserve">14.3341789245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215520858765</t>
   </si>
   <si>
     <t xml:space="preserve">14.6620836257935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8026161193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8963012695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.849458694458</t>
+    <t xml:space="preserve">14.8026151657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8963022232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8494596481323</t>
   </si>
   <si>
     <t xml:space="preserve">14.5683965682983</t>
@@ -1136,22 +1136,22 @@
     <t xml:space="preserve">14.4278650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9431467056274</t>
+    <t xml:space="preserve">14.9431457519531</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.146803855896</t>
+    <t xml:space="preserve">14.1468029022217</t>
   </si>
   <si>
     <t xml:space="preserve">14.0531148910522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1936454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2404909133911</t>
+    <t xml:space="preserve">14.1936464309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2404899597168</t>
   </si>
   <si>
     <t xml:space="preserve">14.3347988128662</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">14.429105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2876434326172</t>
+    <t xml:space="preserve">14.4762601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2876443862915</t>
   </si>
   <si>
     <t xml:space="preserve">14.1461811065674</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">13.7689504623413</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6746425628662</t>
+    <t xml:space="preserve">13.6746435165405</t>
   </si>
   <si>
     <t xml:space="preserve">13.5803346633911</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">13.9575662612915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217960357666</t>
+    <t xml:space="preserve">13.7217969894409</t>
   </si>
   <si>
     <t xml:space="preserve">14.0990285873413</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">13.5331811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3445644378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4388723373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7120294570923</t>
+    <t xml:space="preserve">13.3445653915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4388732910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7120304107666</t>
   </si>
   <si>
     <t xml:space="preserve">14.5234136581421</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421075820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1835689544678</t>
+    <t xml:space="preserve">15.042106628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1835680007935</t>
   </si>
   <si>
     <t xml:space="preserve">15.1364135742188</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">15.2778778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3721837997437</t>
+    <t xml:space="preserve">15.372184753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.5608005523682</t>
@@ -1244,28 +1244,28 @@
     <t xml:space="preserve">15.9380311965942</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7022619247437</t>
+    <t xml:space="preserve">15.7022609710693</t>
   </si>
   <si>
     <t xml:space="preserve">16.0323390960693</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8908786773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9754199981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.692497253418</t>
+    <t xml:space="preserve">15.8908796310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9754180908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6924991607666</t>
   </si>
   <si>
     <t xml:space="preserve">17.6355743408203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0697288513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7770366668701</t>
+    <t xml:space="preserve">17.0697269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7770347595215</t>
   </si>
   <si>
     <t xml:space="preserve">17.5884189605713</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">18.5786533355713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8615760803223</t>
+    <t xml:space="preserve">18.8615779876709</t>
   </si>
   <si>
     <t xml:space="preserve">18.7672672271729</t>
@@ -1283,25 +1283,25 @@
     <t xml:space="preserve">18.1542663574219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2485771179199</t>
+    <t xml:space="preserve">18.2485733032227</t>
   </si>
   <si>
     <t xml:space="preserve">18.2957286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8241882324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998031616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4941120147705</t>
+    <t xml:space="preserve">17.8241863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4941139221191</t>
   </si>
   <si>
     <t xml:space="preserve">17.1640357971191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4469604492188</t>
+    <t xml:space="preserve">17.4469566345215</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298812866211</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">17.5412673950195</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5981903076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7396488189697</t>
+    <t xml:space="preserve">16.5981864929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7396507263184</t>
   </si>
   <si>
     <t xml:space="preserve">17.2583408355713</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">17.1168804168701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9282646179199</t>
+    <t xml:space="preserve">16.9282665252686</t>
   </si>
   <si>
     <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3054962158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095706939697</t>
+    <t xml:space="preserve">17.3054981231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095687866211</t>
   </si>
   <si>
     <t xml:space="preserve">16.8339557647705</t>
@@ -1340,28 +1340,28 @@
     <t xml:space="preserve">16.3152637481689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0225715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184970855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3900375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4843444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6729583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4274234771729</t>
+    <t xml:space="preserve">17.0225696563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184989929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3900356292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4843463897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6729621887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4274215698242</t>
   </si>
   <si>
     <t xml:space="preserve">19.2388076782227</t>
   </si>
   <si>
-    <t xml:space="preserve">19.616039276123</t>
+    <t xml:space="preserve">19.6160373687744</t>
   </si>
   <si>
     <t xml:space="preserve">20.2761936187744</t>
@@ -1370,46 +1370,46 @@
     <t xml:space="preserve">20.9363498687744</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5021934509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4078903198242</t>
+    <t xml:space="preserve">21.5021953582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4078884124756</t>
   </si>
   <si>
     <t xml:space="preserve">21.2192726135254</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3135833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0306568145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965042114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6908130645752</t>
+    <t xml:space="preserve">21.3135814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0306587219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965023040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6908149719238</t>
   </si>
   <si>
     <t xml:space="preserve">23.4826622009277</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9168167114258</t>
+    <t xml:space="preserve">22.9168148040771</t>
   </si>
   <si>
     <t xml:space="preserve">22.5332698822021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1497268676758</t>
+    <t xml:space="preserve">22.1497249603271</t>
   </si>
   <si>
     <t xml:space="preserve">22.7250423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3962478637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4921321868896</t>
+    <t xml:space="preserve">23.3962459564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4921340942383</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
@@ -1430,16 +1430,16 @@
     <t xml:space="preserve">23.971565246582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7797908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.204475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6839065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0674495697021</t>
+    <t xml:space="preserve">23.7797889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2044715881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6839046478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0674514770508</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633358001709</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">27.9029006958008</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5741024017334</t>
+    <t xml:space="preserve">28.574104309082</t>
   </si>
   <si>
     <t xml:space="preserve">27.7111282348633</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">26.7522640228271</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2864475250244</t>
+    <t xml:space="preserve">28.2864437103271</t>
   </si>
   <si>
     <t xml:space="preserve">30.4918270111084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.724739074707</t>
+    <t xml:space="preserve">29.7247409820557</t>
   </si>
   <si>
     <t xml:space="preserve">29.4370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5329647064209</t>
+    <t xml:space="preserve">29.5329666137695</t>
   </si>
   <si>
     <t xml:space="preserve">29.6779747009277</t>
@@ -1502,19 +1502,19 @@
     <t xml:space="preserve">29.7746429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">29.38796043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2912883758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1946201324463</t>
+    <t xml:space="preserve">29.3879623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2912902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1946182250977</t>
   </si>
   <si>
     <t xml:space="preserve">29.0012760162354</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4513416290283</t>
+    <t xml:space="preserve">30.4513397216797</t>
   </si>
   <si>
     <t xml:space="preserve">31.3213806152344</t>
@@ -1535,19 +1535,19 @@
     <t xml:space="preserve">30.0646572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3546695709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2247085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.514720916748</t>
+    <t xml:space="preserve">30.3546676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2247066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5147190093994</t>
   </si>
   <si>
     <t xml:space="preserve">31.6113929748535</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4180488586426</t>
+    <t xml:space="preserve">31.4180507659912</t>
   </si>
   <si>
     <t xml:space="preserve">31.8047370910645</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9014015197754</t>
+    <t xml:space="preserve">31.901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">30.8380241394043</t>
   </si>
   <si>
-    <t xml:space="preserve">34.414852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8982048034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1549301147461</t>
+    <t xml:space="preserve">34.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8982009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1549263000488</t>
   </si>
   <si>
     <t xml:space="preserve">35.671573638916</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">39.1517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9551811218262</t>
+    <t xml:space="preserve">41.9551849365234</t>
   </si>
   <si>
     <t xml:space="preserve">38.9583778381348</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450660705566</t>
+    <t xml:space="preserve">39.3450698852539</t>
   </si>
   <si>
     <t xml:space="preserve">39.4417381286621</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">38.8617095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3117790222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1184349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1850128173828</t>
+    <t xml:space="preserve">40.3117752075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1184310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1850166320801</t>
   </si>
   <si>
     <t xml:space="preserve">37.6049919128418</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">39.731746673584</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8284225463867</t>
+    <t xml:space="preserve">39.8284187316895</t>
   </si>
   <si>
     <t xml:space="preserve">40.2151031494141</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">42.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.888599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0185623168945</t>
+    <t xml:space="preserve">43.8886032104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0185585021973</t>
   </si>
   <si>
     <t xml:space="preserve">42.8252182006836</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">44.2752799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5320053100586</t>
+    <t xml:space="preserve">45.5320014953613</t>
   </si>
   <si>
     <t xml:space="preserve">46.1120300292969</t>
@@ -1688,10 +1688,10 @@
     <t xml:space="preserve">46.0153579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4020462036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0787391662598</t>
+    <t xml:space="preserve">46.402042388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.078742980957</t>
   </si>
   <si>
     <t xml:space="preserve">46.8853988647461</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">45.145320892334</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3085708618164</t>
+    <t xml:space="preserve">43.3085746765137</t>
   </si>
   <si>
     <t xml:space="preserve">43.7919273376465</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">43.5019149780273</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1152305603027</t>
+    <t xml:space="preserve">43.115234375</t>
   </si>
   <si>
     <t xml:space="preserve">42.0518531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2784881591797</t>
+    <t xml:space="preserve">41.2784843444824</t>
   </si>
   <si>
     <t xml:space="preserve">40.7951316833496</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">42.9218902587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5684967041016</t>
+    <t xml:space="preserve">41.5684928894043</t>
   </si>
   <si>
     <t xml:space="preserve">41.7618408203125</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">41.4718246459961</t>
   </si>
   <si>
-    <t xml:space="preserve">40.408447265625</t>
+    <t xml:space="preserve">40.4084434509277</t>
   </si>
   <si>
     <t xml:space="preserve">41.0851440429688</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">40.6984558105469</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2483901977539</t>
+    <t xml:space="preserve">39.2483940124512</t>
   </si>
   <si>
     <t xml:space="preserve">40.5051231384277</t>
@@ -1772,16 +1772,16 @@
     <t xml:space="preserve">40.8917999267578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.475025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9916687011719</t>
+    <t xml:space="preserve">38.4750289916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9916725158691</t>
   </si>
   <si>
     <t xml:space="preserve">37.8950042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0249633789062</t>
+    <t xml:space="preserve">37.0249671936035</t>
   </si>
   <si>
     <t xml:space="preserve">37.70166015625</t>
@@ -1790,19 +1790,19 @@
     <t xml:space="preserve">35.7682418823242</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2848892211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7048645019531</t>
+    <t xml:space="preserve">35.2848854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7048606872559</t>
   </si>
   <si>
     <t xml:space="preserve">34.1248359680176</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1882209777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.221508026123</t>
+    <t xml:space="preserve">35.1882171630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2215118408203</t>
   </si>
   <si>
     <t xml:space="preserve">33.4481391906738</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">33.5448112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8681106567383</t>
+    <t xml:space="preserve">32.8681144714355</t>
   </si>
   <si>
     <t xml:space="preserve">33.1581268310547</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">35.4782295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7349510192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3482666015625</t>
+    <t xml:space="preserve">36.7349548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3482627868652</t>
   </si>
   <si>
     <t xml:space="preserve">36.6382827758789</t>
@@ -1847,16 +1847,16 @@
     <t xml:space="preserve">32.9647827148438</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7714424133301</t>
+    <t xml:space="preserve">32.7714462280273</t>
   </si>
   <si>
     <t xml:space="preserve">33.0131225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3997993469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6414756774902</t>
+    <t xml:space="preserve">33.3998031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6414794921875</t>
   </si>
   <si>
     <t xml:space="preserve">35.0432090759277</t>
@@ -1865,19 +1865,19 @@
     <t xml:space="preserve">35.9615859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4298973083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5931434631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9497413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7563972473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1129913330078</t>
+    <t xml:space="preserve">35.4298934936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.593147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9497394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7563953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1129932403564</t>
   </si>
   <si>
     <t xml:space="preserve">29.6776580810547</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">29.3866996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2897148132324</t>
+    <t xml:space="preserve">29.2897167205811</t>
   </si>
   <si>
     <t xml:space="preserve">29.9686145782471</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">30.8899803161621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5203876495361</t>
+    <t xml:space="preserve">31.5203895568848</t>
   </si>
   <si>
     <t xml:space="preserve">30.9384727478027</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">30.4535446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1927280426025</t>
+    <t xml:space="preserve">29.1927299499512</t>
   </si>
   <si>
     <t xml:space="preserve">28.9987564086914</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">27.3984909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8349266052246</t>
+    <t xml:space="preserve">27.8349285125732</t>
   </si>
   <si>
     <t xml:space="preserve">27.4469833374023</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">27.5439682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0105476379395</t>
+    <t xml:space="preserve">27.0105495452881</t>
   </si>
   <si>
     <t xml:space="preserve">26.8165760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4286346435547</t>
+    <t xml:space="preserve">26.4286327362061</t>
   </si>
   <si>
     <t xml:space="preserve">25.8467178344727</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">25.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0708332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8283672332764</t>
+    <t xml:space="preserve">25.0708312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.828369140625</t>
   </si>
   <si>
     <t xml:space="preserve">26.1861686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9437026977539</t>
+    <t xml:space="preserve">25.9437046051025</t>
   </si>
   <si>
     <t xml:space="preserve">25.4102821350098</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">25.0223388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3132972717285</t>
+    <t xml:space="preserve">25.3132953643799</t>
   </si>
   <si>
     <t xml:space="preserve">26.0406894683838</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">26.1376762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0590400695801</t>
+    <t xml:space="preserve">27.0590419769287</t>
   </si>
   <si>
     <t xml:space="preserve">26.2831554412842</t>
@@ -2090,22 +2090,22 @@
     <t xml:space="preserve">22.258243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8218059539795</t>
+    <t xml:space="preserve">21.8218078613281</t>
   </si>
   <si>
     <t xml:space="preserve">21.6763286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9004421234131</t>
+    <t xml:space="preserve">20.9004402160645</t>
   </si>
   <si>
     <t xml:space="preserve">21.0944137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7549629211426</t>
+    <t xml:space="preserve">21.1429042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7549610137939</t>
   </si>
   <si>
     <t xml:space="preserve">20.4640064239502</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">20.5124988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8519496917725</t>
+    <t xml:space="preserve">20.8519477844238</t>
   </si>
   <si>
     <t xml:space="preserve">20.9974269866943</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">21.5308494567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0642700195312</t>
+    <t xml:space="preserve">22.0642719268799</t>
   </si>
   <si>
     <t xml:space="preserve">22.5976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0826225280762</t>
+    <t xml:space="preserve">23.0826206207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.4705657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4220733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3735809326172</t>
+    <t xml:space="preserve">23.4220714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3735790252686</t>
   </si>
   <si>
     <t xml:space="preserve">24.7798748016357</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">26.3316478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3801422119141</t>
+    <t xml:space="preserve">26.3801403045654</t>
   </si>
   <si>
     <t xml:space="preserve">25.9921951293945</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">26.5256195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7195892333984</t>
+    <t xml:space="preserve">26.7195911407471</t>
   </si>
   <si>
     <t xml:space="preserve">26.4771251678467</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">26.6710987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9502639770508</t>
+    <t xml:space="preserve">28.9502658843994</t>
   </si>
   <si>
     <t xml:space="preserve">28.4653358459473</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">28.8532791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.338207244873</t>
+    <t xml:space="preserve">29.3382091522217</t>
   </si>
   <si>
     <t xml:space="preserve">29.4836845397949</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">29.5806713104248</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4351940155029</t>
+    <t xml:space="preserve">29.4351921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.707799911499</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">26.5741119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0039863586426</t>
+    <t xml:space="preserve">24.0039882659912</t>
   </si>
   <si>
     <t xml:space="preserve">23.2281017303467</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">23.1796073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1311168670654</t>
+    <t xml:space="preserve">23.1311149597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.7615222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0524787902832</t>
+    <t xml:space="preserve">24.0524806976318</t>
   </si>
   <si>
     <t xml:space="preserve">24.2949447631836</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">21.4338645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1914005279541</t>
+    <t xml:space="preserve">21.1913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">21.4823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127624511719</t>
+    <t xml:space="preserve">22.1127643585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.7916660308838</t>
@@ -2276,25 +2276,22 @@
     <t xml:space="preserve">22.6461868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2097492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3067378997803</t>
+    <t xml:space="preserve">22.2097511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3067359924316</t>
   </si>
   <si>
     <t xml:space="preserve">22.888650894165</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1612567901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8702983856201</t>
+    <t xml:space="preserve">22.1612586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8703002929688</t>
   </si>
   <si>
     <t xml:space="preserve">21.624870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3067359924316</t>
   </si>
   <si>
     <t xml:space="preserve">22.4041442871094</t>
@@ -51646,7 +51643,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51672,7 +51669,7 @@
         <v>23</v>
       </c>
       <c r="G1869" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51698,7 +51695,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1870" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51724,7 +51721,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1871" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51750,7 +51747,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51776,7 +51773,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1873" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51802,7 +51799,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51828,7 +51825,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51854,7 +51851,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1876" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51880,7 +51877,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51906,7 +51903,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51932,7 +51929,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1879" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51958,7 +51955,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1880" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51984,7 +51981,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1881" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52010,7 +52007,7 @@
         <v>23</v>
       </c>
       <c r="G1882" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52036,7 +52033,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52062,7 +52059,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1884" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52088,7 +52085,7 @@
         <v>22.75</v>
       </c>
       <c r="G1885" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52114,7 +52111,7 @@
         <v>23</v>
       </c>
       <c r="G1886" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52140,7 +52137,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1887" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52166,7 +52163,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52192,7 +52189,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52218,7 +52215,7 @@
         <v>22.5</v>
       </c>
       <c r="G1890" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52244,7 +52241,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52270,7 +52267,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52348,7 +52345,7 @@
         <v>22</v>
       </c>
       <c r="G1895" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52374,7 +52371,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1896" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52400,7 +52397,7 @@
         <v>22</v>
       </c>
       <c r="G1897" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52426,7 +52423,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1898" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52452,7 +52449,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52504,7 +52501,7 @@
         <v>21.75</v>
       </c>
       <c r="G1901" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52530,7 +52527,7 @@
         <v>21.75</v>
       </c>
       <c r="G1902" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52556,7 +52553,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52582,7 +52579,7 @@
         <v>21.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52608,7 +52605,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52634,7 +52631,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52660,7 +52657,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1907" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52686,7 +52683,7 @@
         <v>21.25</v>
       </c>
       <c r="G1908" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52712,7 +52709,7 @@
         <v>21.25</v>
       </c>
       <c r="G1909" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52738,7 +52735,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1910" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52764,7 +52761,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52790,7 +52787,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52816,7 +52813,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52842,7 +52839,7 @@
         <v>20.75</v>
       </c>
       <c r="G1914" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52868,7 +52865,7 @@
         <v>21</v>
       </c>
       <c r="G1915" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52894,7 +52891,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1916" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52920,7 +52917,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1917" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52946,7 +52943,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1918" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52972,7 +52969,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1919" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52998,7 +52995,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1920" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53024,7 +53021,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1921" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53050,7 +53047,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53076,7 +53073,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53102,7 +53099,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53128,7 +53125,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53154,7 +53151,7 @@
         <v>21.5</v>
       </c>
       <c r="G1926" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53180,7 +53177,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53206,7 +53203,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53232,7 +53229,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53258,7 +53255,7 @@
         <v>21.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53284,7 +53281,7 @@
         <v>20.75</v>
       </c>
       <c r="G1931" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53310,7 +53307,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1932" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53336,7 +53333,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53362,7 +53359,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1934" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53388,7 +53385,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1935" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53414,7 +53411,7 @@
         <v>20</v>
       </c>
       <c r="G1936" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53440,7 +53437,7 @@
         <v>20.25</v>
       </c>
       <c r="G1937" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53466,7 +53463,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1938" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53492,7 +53489,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53518,7 +53515,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1940" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53544,7 +53541,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53570,7 +53567,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53596,7 +53593,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1943" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53622,7 +53619,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53648,7 +53645,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1945" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53674,7 +53671,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G1946" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53700,7 +53697,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53726,7 +53723,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53752,7 +53749,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53778,7 +53775,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1950" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53804,7 +53801,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1951" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53830,7 +53827,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53856,7 +53853,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1953" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53882,7 +53879,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1954" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53908,7 +53905,7 @@
         <v>19</v>
       </c>
       <c r="G1955" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53934,7 +53931,7 @@
         <v>19</v>
       </c>
       <c r="G1956" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53960,7 +53957,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53986,7 +53983,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1958" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54012,7 +54009,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1959" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54038,7 +54035,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1960" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54064,7 +54061,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54090,7 +54087,7 @@
         <v>18</v>
       </c>
       <c r="G1962" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54116,7 +54113,7 @@
         <v>18.5</v>
       </c>
       <c r="G1963" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54142,7 +54139,7 @@
         <v>19</v>
       </c>
       <c r="G1964" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54168,7 +54165,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1965" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54194,7 +54191,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54220,7 +54217,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1967" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54246,7 +54243,7 @@
         <v>19</v>
       </c>
       <c r="G1968" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54272,7 +54269,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1969" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54298,7 +54295,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1970" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54324,7 +54321,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1971" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54350,7 +54347,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1972" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54376,7 +54373,7 @@
         <v>19</v>
       </c>
       <c r="G1973" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54402,7 +54399,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1974" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54428,7 +54425,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54454,7 +54451,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54480,7 +54477,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1977" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54506,7 +54503,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1978" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54532,7 +54529,7 @@
         <v>18.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54558,7 +54555,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1980" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54584,7 +54581,7 @@
         <v>18</v>
       </c>
       <c r="G1981" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54610,7 +54607,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1982" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54636,7 +54633,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1983" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54662,7 +54659,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1984" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54688,7 +54685,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1985" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54714,7 +54711,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54740,7 +54737,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1987" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54766,7 +54763,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54792,7 +54789,7 @@
         <v>18.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54818,7 +54815,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54844,7 +54841,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1991" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54870,7 +54867,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1992" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54896,7 +54893,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54922,7 +54919,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1994" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54948,7 +54945,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1995" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54974,7 +54971,7 @@
         <v>17.5</v>
       </c>
       <c r="G1996" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55000,7 +54997,7 @@
         <v>18</v>
       </c>
       <c r="G1997" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55026,7 +55023,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1998" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55052,7 +55049,7 @@
         <v>18</v>
       </c>
       <c r="G1999" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55078,7 +55075,7 @@
         <v>18</v>
       </c>
       <c r="G2000" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55104,7 +55101,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2001" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55130,7 +55127,7 @@
         <v>18</v>
       </c>
       <c r="G2002" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55156,7 +55153,7 @@
         <v>18</v>
       </c>
       <c r="G2003" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55182,7 +55179,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G2004" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55208,7 +55205,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2005" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55234,7 +55231,7 @@
         <v>17.5</v>
       </c>
       <c r="G2006" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55260,7 +55257,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G2007" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55286,7 +55283,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G2008" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55312,7 +55309,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2009" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55338,7 +55335,7 @@
         <v>17.5</v>
       </c>
       <c r="G2010" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55364,7 +55361,7 @@
         <v>17.5</v>
       </c>
       <c r="G2011" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55390,7 +55387,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2012" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55416,7 +55413,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2013" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55442,7 +55439,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G2014" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55468,7 +55465,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55494,7 +55491,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55520,7 +55517,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2017" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55546,7 +55543,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G2018" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55572,7 +55569,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2019" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55598,7 +55595,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2020" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55624,7 +55621,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2021" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55650,7 +55647,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2022" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55676,7 +55673,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2023" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55702,7 +55699,7 @@
         <v>17.5</v>
       </c>
       <c r="G2024" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55728,7 +55725,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2025" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55754,7 +55751,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2026" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55780,7 +55777,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55806,7 +55803,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2028" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55832,7 +55829,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G2029" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55858,7 +55855,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2030" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55884,7 +55881,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2031" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55910,7 +55907,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G2032" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55936,7 +55933,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G2033" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55962,7 +55959,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55988,7 +55985,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56014,7 +56011,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G2036" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56040,7 +56037,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G2037" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56066,7 +56063,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2038" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56092,7 +56089,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2039" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56118,7 +56115,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2040" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56144,7 +56141,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56170,7 +56167,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56196,7 +56193,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2043" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56222,7 +56219,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2044" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56248,7 +56245,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2045" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56274,7 +56271,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2046" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56300,7 +56297,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2047" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56326,7 +56323,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2048" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56352,7 +56349,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G2049" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56378,7 +56375,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G2050" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56404,7 +56401,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2051" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56430,7 +56427,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2052" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56456,7 +56453,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2053" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56482,7 +56479,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2054" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56508,7 +56505,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2055" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56534,7 +56531,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56560,7 +56557,7 @@
         <v>18</v>
       </c>
       <c r="G2057" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56586,7 +56583,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56612,7 +56609,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2059" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56638,7 +56635,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2060" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56664,7 +56661,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G2061" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56690,7 +56687,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2062" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56716,7 +56713,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56742,7 +56739,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2064" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56768,7 +56765,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56794,7 +56791,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2066" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56820,7 +56817,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2067" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56846,7 +56843,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2068" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56872,7 +56869,7 @@
         <v>17.5</v>
       </c>
       <c r="G2069" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56898,7 +56895,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2070" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56924,7 +56921,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2071" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56950,7 +56947,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2072" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56976,7 +56973,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57002,7 +56999,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57028,7 +57025,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2075" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57054,7 +57051,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57080,7 +57077,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57106,7 +57103,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2078" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57132,7 +57129,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2079" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57158,7 +57155,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2080" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57184,7 +57181,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2081" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57210,7 +57207,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2082" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57236,7 +57233,7 @@
         <v>17.5</v>
       </c>
       <c r="G2083" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57262,7 +57259,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2084" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57288,7 +57285,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G2085" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57314,7 +57311,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57340,7 +57337,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57366,7 +57363,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57392,7 +57389,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2089" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57418,7 +57415,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2090" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57444,7 +57441,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57470,7 +57467,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G2092" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57496,7 +57493,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G2093" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57522,7 +57519,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G2094" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57548,7 +57545,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57574,7 +57571,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57600,7 +57597,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57626,7 +57623,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G2098" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57652,7 +57649,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G2099" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57678,7 +57675,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57704,7 +57701,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57730,7 +57727,7 @@
         <v>19</v>
       </c>
       <c r="G2102" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57756,7 +57753,7 @@
         <v>19</v>
       </c>
       <c r="G2103" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57782,7 +57779,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57808,7 +57805,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G2105" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57834,7 +57831,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2106" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57860,7 +57857,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57886,7 +57883,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2108" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57912,7 +57909,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57938,7 +57935,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G2110" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57964,7 +57961,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57990,7 +57987,7 @@
         <v>18.75</v>
       </c>
       <c r="G2112" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58016,7 +58013,7 @@
         <v>19</v>
       </c>
       <c r="G2113" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58042,7 +58039,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58068,7 +58065,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58094,7 +58091,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58120,7 +58117,7 @@
         <v>19</v>
       </c>
       <c r="G2117" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58146,7 +58143,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2118" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58172,7 +58169,7 @@
         <v>19.5</v>
       </c>
       <c r="G2119" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58198,7 +58195,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58224,7 +58221,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G2121" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58250,7 +58247,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2122" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58276,7 +58273,7 @@
         <v>19.25</v>
       </c>
       <c r="G2123" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58302,7 +58299,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2124" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58328,7 +58325,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58354,7 +58351,7 @@
         <v>19.5</v>
       </c>
       <c r="G2126" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58380,7 +58377,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58406,7 +58403,7 @@
         <v>20</v>
       </c>
       <c r="G2128" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58432,7 +58429,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58458,7 +58455,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2130" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58484,7 +58481,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G2131" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58510,7 +58507,7 @@
         <v>21</v>
       </c>
       <c r="G2132" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58536,7 +58533,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58562,7 +58559,7 @@
         <v>22</v>
       </c>
       <c r="G2134" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58588,7 +58585,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58614,7 +58611,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58640,7 +58637,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58666,7 +58663,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2138" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58692,7 +58689,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58718,7 +58715,7 @@
         <v>21.5</v>
       </c>
       <c r="G2140" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58744,7 +58741,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58770,7 +58767,7 @@
         <v>21.5</v>
       </c>
       <c r="G2142" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58796,7 +58793,7 @@
         <v>22</v>
       </c>
       <c r="G2143" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58822,7 +58819,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58848,7 +58845,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58874,7 +58871,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58900,7 +58897,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58926,7 +58923,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2148" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58952,7 +58949,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58978,7 +58975,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2150" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59004,7 +59001,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59030,7 +59027,7 @@
         <v>21</v>
       </c>
       <c r="G2152" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59056,7 +59053,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2153" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59082,7 +59079,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G2154" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59108,7 +59105,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2155" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59134,7 +59131,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59160,7 +59157,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59186,7 +59183,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59212,7 +59209,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G2159" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59238,7 +59235,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59264,7 +59261,7 @@
         <v>21.5</v>
       </c>
       <c r="G2161" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59290,7 +59287,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2162" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59316,7 +59313,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59342,7 +59339,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2164" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59368,7 +59365,7 @@
         <v>21.5</v>
       </c>
       <c r="G2165" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59394,7 +59391,7 @@
         <v>22</v>
       </c>
       <c r="G2166" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59420,7 +59417,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2167" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59446,7 +59443,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2168" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -59472,7 +59469,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2169" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -59498,7 +59495,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2170" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -59524,7 +59521,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2171" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -59550,7 +59547,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -59576,7 +59573,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2173" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59602,7 +59599,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2174" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59628,7 +59625,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2175" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -59654,7 +59651,7 @@
         <v>22</v>
       </c>
       <c r="G2176" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -59680,7 +59677,7 @@
         <v>22</v>
       </c>
       <c r="G2177" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -59706,7 +59703,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2178" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -59732,7 +59729,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2179" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -59758,7 +59755,7 @@
         <v>22</v>
       </c>
       <c r="G2180" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -59784,7 +59781,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2181" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -59810,7 +59807,7 @@
         <v>22</v>
       </c>
       <c r="G2182" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -59836,7 +59833,7 @@
         <v>22</v>
       </c>
       <c r="G2183" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -59862,7 +59859,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2184" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -59888,7 +59885,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2185" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -59914,7 +59911,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2186" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -59940,7 +59937,7 @@
         <v>22</v>
       </c>
       <c r="G2187" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -59966,7 +59963,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2188" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -59992,7 +59989,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2189" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -60018,7 +60015,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2190" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -60044,7 +60041,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G2191" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -60070,7 +60067,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G2192" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -60096,7 +60093,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G2193" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -60122,7 +60119,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2194" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -60130,7 +60127,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="1" t="n">
-        <v>45518.575787037</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B2195" t="n">
         <v>28</v>
@@ -60148,7 +60145,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2195" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -44,139 +44,139 @@
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19319534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10122966766357</t>
+    <t xml:space="preserve">8.15975379943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19319438934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10123062133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.10959053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06778812408447</t>
+    <t xml:space="preserve">8.06778717041016</t>
   </si>
   <si>
     <t xml:space="preserve">8.05106830596924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94238376617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85878038406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64976930618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69157075881958</t>
+    <t xml:space="preserve">7.94238233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85877799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6497688293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79189586639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69157028198242</t>
   </si>
   <si>
     <t xml:space="preserve">7.63304805755615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59960556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63722705841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6288685798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60796737670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5828857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517414093018</t>
+    <t xml:space="preserve">7.59960699081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62886762619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6079683303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58288526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517461776733</t>
   </si>
   <si>
     <t xml:space="preserve">7.81697750091553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48256015777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75845336914062</t>
+    <t xml:space="preserve">7.48256158828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75845384597778</t>
   </si>
   <si>
     <t xml:space="preserve">7.66649007797241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62468862533569</t>
+    <t xml:space="preserve">7.62468671798706</t>
   </si>
   <si>
     <t xml:space="preserve">7.31535196304321</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44075870513916</t>
+    <t xml:space="preserve">7.440758228302</t>
   </si>
   <si>
     <t xml:space="preserve">7.52436304092407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59124612808228</t>
+    <t xml:space="preserve">7.59124517440796</t>
   </si>
   <si>
     <t xml:space="preserve">7.76263380050659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7668137550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98418474197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02598857879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84623861312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9340238571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26007843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35622310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27679824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89222097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18483448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99672651290894</t>
+    <t xml:space="preserve">7.76681423187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98418617248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02598571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84623908996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402194976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35622215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27679920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89221954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18483352661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672412872314</t>
   </si>
   <si>
     <t xml:space="preserve">7.97582387924194</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13467216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12631130218506</t>
+    <t xml:space="preserve">8.13467121124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12631225585938</t>
   </si>
   <si>
     <t xml:space="preserve">8.15139389038086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23499774932861</t>
+    <t xml:space="preserve">8.2349967956543</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532238006592</t>
@@ -185,76 +185,76 @@
     <t xml:space="preserve">8.07614994049072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01762866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92148303985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90894031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73337268829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80861616134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910310745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89639949798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70829296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65394830703735</t>
+    <t xml:space="preserve">8.01762580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148160934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90894174575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73337316513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80861711502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910358428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.896399974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65394735336304</t>
   </si>
   <si>
     <t xml:space="preserve">7.67067003250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68739080429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8504204750061</t>
+    <t xml:space="preserve">7.68739032745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85041856765747</t>
   </si>
   <si>
     <t xml:space="preserve">7.57870388031006</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55780410766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452487945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443429946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81279563903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239831924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920776367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355051040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3320746421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1899471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19412660598755</t>
+    <t xml:space="preserve">7.55780506134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81279754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920824050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27355098724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33207368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18994665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19412708282471</t>
   </si>
   <si>
     <t xml:space="preserve">7.19830703735352</t>
@@ -266,61 +266,61 @@
     <t xml:space="preserve">7.06453990936279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05618047714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97257661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14814424514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21502876281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715436935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895582199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67485046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5954270362854</t>
+    <t xml:space="preserve">7.05617952346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978433609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97257614135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14814519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21502780914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715532302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3989577293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67485189437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59542560577393</t>
   </si>
   <si>
     <t xml:space="preserve">7.51182126998901</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60378742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56616592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403888702393</t>
+    <t xml:space="preserve">7.60378646850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56616449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403936386108</t>
   </si>
   <si>
     <t xml:space="preserve">7.51600170135498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52018356323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4741997718811</t>
+    <t xml:space="preserve">7.52018213272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54108333587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47420072555542</t>
   </si>
   <si>
     <t xml:space="preserve">7.45329856872559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57034540176392</t>
+    <t xml:space="preserve">7.57034492492676</t>
   </si>
   <si>
     <t xml:space="preserve">8.1054105758667</t>
@@ -332,94 +332,94 @@
     <t xml:space="preserve">8.35204124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29351997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303398132324</t>
+    <t xml:space="preserve">8.29351806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303207397461</t>
   </si>
   <si>
     <t xml:space="preserve">7.99254512786865</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09286975860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44400787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59449481964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54433155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56105136871338</t>
+    <t xml:space="preserve">8.09287071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44400882720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5944938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54433250427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5610523223877</t>
   </si>
   <si>
     <t xml:space="preserve">8.6530179977417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97071361541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94563102722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73662090301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86202716827393</t>
+    <t xml:space="preserve">8.97071170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94563007354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73662185668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86202907562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.92055034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90382766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99579238891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00415420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9790735244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04722499847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07278060913086</t>
+    <t xml:space="preserve">8.90382957458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0041561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97907257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04722595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07278251647949</t>
   </si>
   <si>
     <t xml:space="preserve">9.01314830780029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03018760681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15797138214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464488983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28575897216797</t>
+    <t xml:space="preserve">9.03018856048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15797424316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28575801849365</t>
   </si>
   <si>
     <t xml:space="preserve">9.37094783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14945411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26872253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25168228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32835292816162</t>
+    <t xml:space="preserve">9.14945316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26871871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25168132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32835388183594</t>
   </si>
   <si>
     <t xml:space="preserve">9.45613956451416</t>
@@ -437,73 +437,73 @@
     <t xml:space="preserve">9.54984855651855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61800193786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54132843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56688690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39650630950928</t>
+    <t xml:space="preserve">9.61800098419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5413293838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56688594818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39650535583496</t>
   </si>
   <si>
     <t xml:space="preserve">9.55836868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59244537353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58392524719238</t>
+    <t xml:space="preserve">9.59244441986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5839262008667</t>
   </si>
   <si>
     <t xml:space="preserve">9.60948276519775</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57540607452393</t>
+    <t xml:space="preserve">9.57540416717529</t>
   </si>
   <si>
     <t xml:space="preserve">9.49021625518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37946701049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20908832550049</t>
+    <t xml:space="preserve">9.37946891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20908737182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.20056819915771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27723979949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31983470916748</t>
+    <t xml:space="preserve">9.2772388458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31983280181885</t>
   </si>
   <si>
     <t xml:space="preserve">9.30279636383057</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53281021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62652111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71171188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78838157653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83097648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75430679321289</t>
+    <t xml:space="preserve">9.53281116485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62651824951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71171092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7883825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83097743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75430583953857</t>
   </si>
   <si>
     <t xml:space="preserve">10.0950689315796</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3591575622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4528694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5891733169556</t>
+    <t xml:space="preserve">10.3591594696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4528684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5891723632812</t>
   </si>
   <si>
     <t xml:space="preserve">10.6062097549438</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">10.5721340179443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6232490539551</t>
+    <t xml:space="preserve">10.6232481002808</t>
   </si>
   <si>
     <t xml:space="preserve">10.5636148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4017524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676786422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2228536605835</t>
+    <t xml:space="preserve">10.4017534255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3676776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2228546142578</t>
   </si>
   <si>
     <t xml:space="preserve">10.2910060882568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3761968612671</t>
+    <t xml:space="preserve">10.3761978149414</t>
   </si>
   <si>
     <t xml:space="preserve">10.2484111785889</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">10.2313737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2398929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4187917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4784240722656</t>
+    <t xml:space="preserve">10.2398920059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4187898635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4784250259399</t>
   </si>
   <si>
     <t xml:space="preserve">10.461386680603</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">10.3421201705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3165626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3080434799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7339973449707</t>
+    <t xml:space="preserve">10.3165636062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3080453872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7339963912964</t>
   </si>
   <si>
     <t xml:space="preserve">10.8191871643066</t>
@@ -590,61 +590,61 @@
     <t xml:space="preserve">10.9469728469849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0151233673096</t>
+    <t xml:space="preserve">11.0151252746582</t>
   </si>
   <si>
     <t xml:space="preserve">11.0662393569946</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0321626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0236444473267</t>
+    <t xml:space="preserve">11.0321617126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0236415863037</t>
   </si>
   <si>
     <t xml:space="preserve">10.9895677566528</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0406808853149</t>
+    <t xml:space="preserve">11.0406818389893</t>
   </si>
   <si>
     <t xml:space="preserve">10.8277053833008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021478652954</t>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021488189697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8617820739746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8447437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9043779373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8958578109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8532638549805</t>
+    <t xml:space="preserve">10.8447418212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9043769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8958568572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8532629013062</t>
   </si>
   <si>
     <t xml:space="preserve">10.8703012466431</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7680730819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7425155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6658449172974</t>
+    <t xml:space="preserve">10.7680711746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7425146102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999187469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.665843963623</t>
   </si>
   <si>
     <t xml:space="preserve">10.7936296463013</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">10.912896156311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8106670379639</t>
+    <t xml:space="preserve">10.8106679916382</t>
   </si>
   <si>
     <t xml:space="preserve">10.7169580459595</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">11.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1599493026733</t>
+    <t xml:space="preserve">11.159948348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.202543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245138168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877340316772</t>
+    <t xml:space="preserve">11.2451391220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877330780029</t>
   </si>
   <si>
     <t xml:space="preserve">11.1173534393311</t>
@@ -686,94 +686,91 @@
     <t xml:space="preserve">11.3729248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3303308486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433044433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7562808990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9692583084106</t>
+    <t xml:space="preserve">11.3303298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433053970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7562818527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9692573547363</t>
   </si>
   <si>
     <t xml:space="preserve">12.2248287200928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5859003067017</t>
+    <t xml:space="preserve">11.585901260376</t>
   </si>
   <si>
     <t xml:space="preserve">11.5007104873657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6710910797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8414716720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7988777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136850357056</t>
+    <t xml:space="preserve">11.6710901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8414707183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7988767623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7136859893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0156240463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.059476852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9279184341431</t>
+    <t xml:space="preserve">12.015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0594778060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9279203414917</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332460403442</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6648054122925</t>
+    <t xml:space="preserve">11.6648044586182</t>
   </si>
   <si>
     <t xml:space="preserve">11.7525091171265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7086563110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4016876220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770978927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8840665817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3578357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824254989624</t>
+    <t xml:space="preserve">11.7086572647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963619232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.971773147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.357834815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824245452881</t>
   </si>
   <si>
     <t xml:space="preserve">11.8498458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8046159744263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141599655151</t>
+    <t xml:space="preserve">11.8046188354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141590118408</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332469940186</t>
@@ -782,19 +779,19 @@
     <t xml:space="preserve">11.7593879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6689319610596</t>
+    <t xml:space="preserve">11.6689310073853</t>
   </si>
   <si>
     <t xml:space="preserve">11.4427890777588</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5784759521484</t>
+    <t xml:space="preserve">11.5784740447998</t>
   </si>
   <si>
     <t xml:space="preserve">11.623703956604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4880180358887</t>
+    <t xml:space="preserve">11.4880170822144</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
@@ -806,136 +803,136 @@
     <t xml:space="preserve">11.3523321151733</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2166471481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1714210510254</t>
+    <t xml:space="preserve">11.2166481018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1714191436768</t>
   </si>
   <si>
     <t xml:space="preserve">11.3071031570435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3975601196289</t>
+    <t xml:space="preserve">11.3975610733032</t>
   </si>
   <si>
     <t xml:space="preserve">11.1261901855469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9403018951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855298995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8950729370117</t>
+    <t xml:space="preserve">11.9403028488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855308532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.895073890686</t>
   </si>
   <si>
     <t xml:space="preserve">12.0759878158569</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1664428710938</t>
+    <t xml:space="preserve">12.1664438247681</t>
   </si>
   <si>
     <t xml:space="preserve">12.1212148666382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.945276260376</t>
+    <t xml:space="preserve">10.9452772140503</t>
   </si>
   <si>
     <t xml:space="preserve">10.8095922470093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8548212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7643632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9905042648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.492992401123</t>
+    <t xml:space="preserve">10.8548202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7643623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9905052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4929933547974</t>
   </si>
   <si>
     <t xml:space="preserve">10.4025363922119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0407104492188</t>
+    <t xml:space="preserve">10.0407094955444</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2668504714966</t>
+    <t xml:space="preserve">10.2668514251709</t>
   </si>
   <si>
     <t xml:space="preserve">10.3120784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45273971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22659683227539</t>
+    <t xml:space="preserve">9.99548053741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45273876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22659587860107</t>
   </si>
   <si>
     <t xml:space="preserve">9.27182579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18136882781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796867370605</t>
+    <t xml:space="preserve">9.18136692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796772003174</t>
   </si>
   <si>
     <t xml:space="preserve">9.58842372894287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67888069152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76933670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7241096496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311645507812</t>
+    <t xml:space="preserve">9.67888259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72410869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191352844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311655044556</t>
   </si>
   <si>
     <t xml:space="preserve">10.6286773681641</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4477634429932</t>
+    <t xml:space="preserve">10.4477643966675</t>
   </si>
   <si>
     <t xml:space="preserve">10.357307434082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.221622467041</t>
+    <t xml:space="preserve">10.2216234207153</t>
   </si>
   <si>
     <t xml:space="preserve">10.1763935089111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9050235748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95025253295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81456565856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85979461669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63365173339844</t>
+    <t xml:space="preserve">9.90502166748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95025157928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81456756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8597936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63365268707275</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382204055786</t>
@@ -944,13 +941,13 @@
     <t xml:space="preserve">10.774055480957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6803674697876</t>
+    <t xml:space="preserve">10.6803665161133</t>
   </si>
   <si>
     <t xml:space="preserve">10.63352394104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8208980560303</t>
+    <t xml:space="preserve">10.8208990097046</t>
   </si>
   <si>
     <t xml:space="preserve">10.9145851135254</t>
@@ -959,13 +956,13 @@
     <t xml:space="preserve">10.8677425384521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5866804122925</t>
+    <t xml:space="preserve">10.5866813659668</t>
   </si>
   <si>
     <t xml:space="preserve">10.7272109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9614305496216</t>
+    <t xml:space="preserve">10.9614295959473</t>
   </si>
   <si>
     <t xml:space="preserve">11.1488046646118</t>
@@ -974,13 +971,13 @@
     <t xml:space="preserve">11.2893362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2424926757812</t>
+    <t xml:space="preserve">11.2424917221069</t>
   </si>
   <si>
     <t xml:space="preserve">11.055118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1956491470337</t>
+    <t xml:space="preserve">11.1956481933594</t>
   </si>
   <si>
     <t xml:space="preserve">11.617241859436</t>
@@ -992,43 +989,46 @@
     <t xml:space="preserve">11.4298667907715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3830232620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640863418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7577724456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9919929504395</t>
+    <t xml:space="preserve">11.3830223083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640853881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8046178817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7577743530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9919919967651</t>
   </si>
   <si>
     <t xml:space="preserve">11.8514604568481</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7109279632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.89830493927</t>
+    <t xml:space="preserve">11.7109298706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8983039855957</t>
   </si>
   <si>
     <t xml:space="preserve">11.9451484680176</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5704002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793670654297</t>
+    <t xml:space="preserve">11.5703992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.179368019104</t>
   </si>
   <si>
     <t xml:space="preserve">12.2730550765991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2262105941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.319896697998</t>
+    <t xml:space="preserve">12.2262115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3198976516724</t>
   </si>
   <si>
     <t xml:space="preserve">12.3667411804199</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">12.0856800079346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1325235366821</t>
+    <t xml:space="preserve">12.1325225830078</t>
   </si>
   <si>
     <t xml:space="preserve">11.0082740783691</t>
@@ -1049,19 +1049,19 @@
     <t xml:space="preserve">11.5235548019409</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3361797332764</t>
+    <t xml:space="preserve">11.3361806869507</t>
   </si>
   <si>
     <t xml:space="preserve">12.5541162490845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6478042602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.600959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946487426758</t>
+    <t xml:space="preserve">12.6478033065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6009588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946468353271</t>
   </si>
   <si>
     <t xml:space="preserve">12.7883348464966</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">12.9288663864136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8351793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757108688354</t>
+    <t xml:space="preserve">12.8351783752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757099151611</t>
   </si>
   <si>
     <t xml:space="preserve">12.882022857666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2567720413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2099285125732</t>
+    <t xml:space="preserve">13.2567710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2099294662476</t>
   </si>
   <si>
     <t xml:space="preserve">13.1630849838257</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">11.1019620895386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0713987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5398359298706</t>
+    <t xml:space="preserve">10.0713996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5398368835449</t>
   </si>
   <si>
     <t xml:space="preserve">13.0693979263306</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">13.7720537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3341789245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6620836257935</t>
+    <t xml:space="preserve">14.3341770172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6620826721191</t>
   </si>
   <si>
     <t xml:space="preserve">14.8026151657104</t>
@@ -1124,19 +1124,19 @@
     <t xml:space="preserve">14.8963022232056</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8494596481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5683965682983</t>
+    <t xml:space="preserve">14.849458694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.568395614624</t>
   </si>
   <si>
     <t xml:space="preserve">14.6152400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4278650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431457519531</t>
+    <t xml:space="preserve">14.427864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">14.1468029022217</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0531148910522</t>
+    <t xml:space="preserve">14.0531139373779</t>
   </si>
   <si>
     <t xml:space="preserve">14.1936464309692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2404899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347988128662</t>
+    <t xml:space="preserve">14.2404909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347969055176</t>
   </si>
   <si>
     <t xml:space="preserve">14.429105758667</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2876443862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1461811065674</t>
+    <t xml:space="preserve">14.2876434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
     <t xml:space="preserve">13.9104118347168</t>
@@ -1178,34 +1178,34 @@
     <t xml:space="preserve">13.6746435165405</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5803346633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2974109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.155948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2031030654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9575662612915</t>
+    <t xml:space="preserve">13.5803337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2974119186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1559505462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2031021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9575672149658</t>
   </si>
   <si>
     <t xml:space="preserve">13.7217969894409</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0990285873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5331811904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3445653915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4388732910156</t>
+    <t xml:space="preserve">14.099027633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.533182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3445644378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4388723373413</t>
   </si>
   <si>
     <t xml:space="preserve">14.7120304107666</t>
@@ -1214,61 +1214,61 @@
     <t xml:space="preserve">14.5234136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8534908294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949522018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0892610549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.042106628418</t>
+    <t xml:space="preserve">14.8534917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949531555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.089262008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421056747437</t>
   </si>
   <si>
     <t xml:space="preserve">15.1835680007935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1364135742188</t>
+    <t xml:space="preserve">15.1364145278931</t>
   </si>
   <si>
     <t xml:space="preserve">15.2778778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.372184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5608005523682</t>
+    <t xml:space="preserve">15.3721837997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5607995986938</t>
   </si>
   <si>
     <t xml:space="preserve">15.9380311965942</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7022609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908796310425</t>
+    <t xml:space="preserve">15.702262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.032341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908786773682</t>
   </si>
   <si>
     <t xml:space="preserve">16.9754180908203</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6924991607666</t>
+    <t xml:space="preserve">16.6924953460693</t>
   </si>
   <si>
     <t xml:space="preserve">17.6355743408203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0697269439697</t>
+    <t xml:space="preserve">17.0697250366211</t>
   </si>
   <si>
     <t xml:space="preserve">17.7770347595215</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5884189605713</t>
+    <t xml:space="preserve">17.5884208679199</t>
   </si>
   <si>
     <t xml:space="preserve">18.5786533355713</t>
@@ -1280,28 +1280,28 @@
     <t xml:space="preserve">18.7672672271729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1542663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2485733032227</t>
+    <t xml:space="preserve">18.1542682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2485771179199</t>
   </si>
   <si>
     <t xml:space="preserve">18.2957286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8241863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998050689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4941139221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1640357971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4469566345215</t>
+    <t xml:space="preserve">17.8241901397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998031616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4941120147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1640377044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4469585418701</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298812866211</t>
@@ -1316,46 +1316,46 @@
     <t xml:space="preserve">16.7396507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2583408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1168804168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9282665252686</t>
+    <t xml:space="preserve">17.2583427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1168785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9282646179199</t>
   </si>
   <si>
     <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3054981231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8339557647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152637481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0225696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184989929199</t>
+    <t xml:space="preserve">17.3054962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8339595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152618408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184970855713</t>
   </si>
   <si>
     <t xml:space="preserve">18.3900356292725</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4843463897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6729621887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4274215698242</t>
+    <t xml:space="preserve">18.4843444824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6729602813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4274272918701</t>
   </si>
   <si>
     <t xml:space="preserve">19.2388076782227</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">21.5021953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4078884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2192726135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135814666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0306587219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5965023040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6908149719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4826622009277</t>
+    <t xml:space="preserve">21.4078903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.219274520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0306549072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5965042114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6908111572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4826602935791</t>
   </si>
   <si>
     <t xml:space="preserve">22.9168148040771</t>
@@ -1400,64 +1400,64 @@
     <t xml:space="preserve">22.5332698822021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1497249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7250423431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3962459564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4921340942383</t>
+    <t xml:space="preserve">22.1497268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7250442504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3962478637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4921321868896</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1085891723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0127010345459</t>
+    <t xml:space="preserve">23.1085872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0127029418945</t>
   </si>
   <si>
     <t xml:space="preserve">22.6291580200195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3551082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.971565246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7797889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2044715881348</t>
+    <t xml:space="preserve">24.3551063537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9715614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7797908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2044734954834</t>
   </si>
   <si>
     <t xml:space="preserve">23.6839046478271</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0674514770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2180843353271</t>
+    <t xml:space="preserve">24.0674495697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2180824279785</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0810642242432</t>
+    <t xml:space="preserve">26.0810623168945</t>
   </si>
   <si>
     <t xml:space="preserve">27.423469543457</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0946731567383</t>
+    <t xml:space="preserve">28.0946712493896</t>
   </si>
   <si>
     <t xml:space="preserve">27.9029006958008</t>
@@ -1484,34 +1484,34 @@
     <t xml:space="preserve">28.2864437103271</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4918270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7247409820557</t>
+    <t xml:space="preserve">30.491828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.724739074707</t>
   </si>
   <si>
     <t xml:space="preserve">29.4370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5329666137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6779747009277</t>
+    <t xml:space="preserve">29.5329647064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6779727935791</t>
   </si>
   <si>
     <t xml:space="preserve">29.7746429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3879623413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2912902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1946182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0012760162354</t>
+    <t xml:space="preserve">29.3879585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2912883758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1946201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.001277923584</t>
   </si>
   <si>
     <t xml:space="preserve">30.4513397216797</t>
@@ -1520,52 +1520,52 @@
     <t xml:space="preserve">31.3213806152344</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1280364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7413520812988</t>
+    <t xml:space="preserve">31.1280384063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7413539886475</t>
   </si>
   <si>
     <t xml:space="preserve">30.1613292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">30.257999420166</t>
+    <t xml:space="preserve">30.2579975128174</t>
   </si>
   <si>
     <t xml:space="preserve">30.0646572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3546676635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2247066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5147190093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6113929748535</t>
+    <t xml:space="preserve">30.3546695709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2247085571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5147171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6113910675049</t>
   </si>
   <si>
     <t xml:space="preserve">31.4180507659912</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8047370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5781021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2880897521973</t>
+    <t xml:space="preserve">31.8047332763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5780982971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2880935668945</t>
   </si>
   <si>
     <t xml:space="preserve">32.4814300537109</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0947456359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.901403427124</t>
+    <t xml:space="preserve">32.0947494506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9014053344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1592,34 +1592,34 @@
     <t xml:space="preserve">39.1517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9551849365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9583778381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.635082244873</t>
+    <t xml:space="preserve">41.9551811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6350784301758</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4417381286621</t>
+    <t xml:space="preserve">39.3450660705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4417343139648</t>
   </si>
   <si>
     <t xml:space="preserve">39.5384101867676</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8617095947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3117752075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1184310913086</t>
+    <t xml:space="preserve">38.8617134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3117790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1184349060059</t>
   </si>
   <si>
     <t xml:space="preserve">38.1850166320801</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">38.3783569335938</t>
   </si>
   <si>
-    <t xml:space="preserve">39.731746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8284187316895</t>
+    <t xml:space="preserve">39.7317504882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8284225463867</t>
   </si>
   <si>
     <t xml:space="preserve">40.2151031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6017875671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.181812286377</t>
+    <t xml:space="preserve">40.6017913818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1818161010742</t>
   </si>
   <si>
     <t xml:space="preserve">41.6651649475098</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">41.8585090637207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.438533782959</t>
+    <t xml:space="preserve">42.4385375976562</t>
   </si>
   <si>
     <t xml:space="preserve">42.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8886032104492</t>
+    <t xml:space="preserve">43.888599395752</t>
   </si>
   <si>
     <t xml:space="preserve">43.0185585021973</t>
@@ -1670,34 +1670,34 @@
     <t xml:space="preserve">42.8252182006836</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2752799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5320014953613</t>
+    <t xml:space="preserve">44.2752838134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5320053100586</t>
   </si>
   <si>
     <t xml:space="preserve">46.1120300292969</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9186897277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7253494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0153579711914</t>
+    <t xml:space="preserve">45.9186859130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7253456115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0153541564941</t>
   </si>
   <si>
     <t xml:space="preserve">46.402042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">47.078742980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8853988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.595386505127</t>
+    <t xml:space="preserve">47.0787391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8853950500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5953826904297</t>
   </si>
   <si>
     <t xml:space="preserve">45.8220176696777</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">43.7919273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5019149780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.115234375</t>
+    <t xml:space="preserve">43.5019187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1152305603027</t>
   </si>
   <si>
     <t xml:space="preserve">42.0518531799316</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">40.7951316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9884719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3751564025879</t>
+    <t xml:space="preserve">40.9884757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3751525878906</t>
   </si>
   <si>
     <t xml:space="preserve">42.6318740844727</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">41.5684928894043</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7618408203125</t>
+    <t xml:space="preserve">41.7618370056152</t>
   </si>
   <si>
     <t xml:space="preserve">42.3418617248535</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">41.4718246459961</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4084434509277</t>
+    <t xml:space="preserve">40.408447265625</t>
   </si>
   <si>
     <t xml:space="preserve">41.0851440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0550537109375</t>
+    <t xml:space="preserve">39.0550575256348</t>
   </si>
   <si>
     <t xml:space="preserve">40.6984558105469</t>
@@ -1766,46 +1766,46 @@
     <t xml:space="preserve">39.2483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5051231384277</t>
+    <t xml:space="preserve">40.5051193237305</t>
   </si>
   <si>
     <t xml:space="preserve">40.8917999267578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4750289916992</t>
+    <t xml:space="preserve">38.475025177002</t>
   </si>
   <si>
     <t xml:space="preserve">37.9916725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8950042724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0249671936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.70166015625</t>
+    <t xml:space="preserve">37.8950004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.024959564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7016563415527</t>
   </si>
   <si>
     <t xml:space="preserve">35.7682418823242</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2848854064941</t>
+    <t xml:space="preserve">35.2848892211914</t>
   </si>
   <si>
     <t xml:space="preserve">34.7048606872559</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1248359680176</t>
+    <t xml:space="preserve">34.1248321533203</t>
   </si>
   <si>
     <t xml:space="preserve">35.1882171630859</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2215118408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4481391906738</t>
+    <t xml:space="preserve">34.221508026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4481353759766</t>
   </si>
   <si>
     <t xml:space="preserve">33.5448112487793</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">33.1581268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">33.738151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3181800842285</t>
+    <t xml:space="preserve">33.7381553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3181762695312</t>
   </si>
   <si>
     <t xml:space="preserve">35.4782295227051</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">36.7349548339844</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3482627868652</t>
+    <t xml:space="preserve">36.3482666015625</t>
   </si>
   <si>
     <t xml:space="preserve">36.6382827758789</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8348197937012</t>
+    <t xml:space="preserve">33.8348236083984</t>
   </si>
   <si>
     <t xml:space="preserve">33.9314918518066</t>
@@ -1847,19 +1847,19 @@
     <t xml:space="preserve">32.9647827148438</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7714462280273</t>
+    <t xml:space="preserve">32.7714424133301</t>
   </si>
   <si>
     <t xml:space="preserve">33.0131225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3998031616211</t>
+    <t xml:space="preserve">33.3998069763184</t>
   </si>
   <si>
     <t xml:space="preserve">33.6414794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0432090759277</t>
+    <t xml:space="preserve">35.0432052612305</t>
   </si>
   <si>
     <t xml:space="preserve">35.9615859985352</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">35.4298934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">33.593147277832</t>
+    <t xml:space="preserve">33.5931434631348</t>
   </si>
   <si>
     <t xml:space="preserve">31.9497394561768</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7563953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1129932403564</t>
+    <t xml:space="preserve">31.7563972473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1129913330078</t>
   </si>
   <si>
     <t xml:space="preserve">29.6776580810547</t>
@@ -18935,7 +18935,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18987,7 +18987,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19039,7 +19039,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19065,7 +19065,7 @@
         <v>12.75</v>
       </c>
       <c r="G615" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19091,7 +19091,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G616" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19143,7 +19143,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19169,7 +19169,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G619" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19195,7 +19195,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19221,7 +19221,7 @@
         <v>12.75</v>
       </c>
       <c r="G621" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19247,7 +19247,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19273,7 +19273,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G623" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19299,7 +19299,7 @@
         <v>13</v>
       </c>
       <c r="G624" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19325,7 +19325,7 @@
         <v>13</v>
       </c>
       <c r="G625" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19351,7 +19351,7 @@
         <v>12.75</v>
       </c>
       <c r="G626" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19377,7 +19377,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G627" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19403,7 +19403,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G628" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19429,7 +19429,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19455,7 +19455,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19481,7 +19481,7 @@
         <v>12.75</v>
       </c>
       <c r="G631" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19507,7 +19507,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19533,7 +19533,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19559,7 +19559,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19585,7 +19585,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19611,7 +19611,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G636" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19637,7 +19637,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G637" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19663,7 +19663,7 @@
         <v>12.25</v>
       </c>
       <c r="G638" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19689,7 +19689,7 @@
         <v>12.25</v>
       </c>
       <c r="G639" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19715,7 +19715,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19741,7 +19741,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19767,7 +19767,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19793,7 +19793,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19819,7 +19819,7 @@
         <v>12.5</v>
       </c>
       <c r="G644" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19845,7 +19845,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19871,7 +19871,7 @@
         <v>12.5</v>
       </c>
       <c r="G646" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19897,7 +19897,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19923,7 +19923,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G648" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19949,7 +19949,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G649" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19975,7 +19975,7 @@
         <v>12.5</v>
       </c>
       <c r="G650" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20001,7 +20001,7 @@
         <v>12.5</v>
       </c>
       <c r="G651" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20027,7 +20027,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20053,7 +20053,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G653" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20079,7 +20079,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G654" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20105,7 +20105,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20131,7 +20131,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20157,7 +20157,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G657" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20183,7 +20183,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20209,7 +20209,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20235,7 +20235,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G660" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20261,7 +20261,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20287,7 +20287,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20313,7 +20313,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G663" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20339,7 +20339,7 @@
         <v>12.75</v>
       </c>
       <c r="G664" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20365,7 +20365,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G665" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20391,7 +20391,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G666" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20417,7 +20417,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G667" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20443,7 +20443,7 @@
         <v>12.25</v>
       </c>
       <c r="G668" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20469,7 +20469,7 @@
         <v>12.25</v>
       </c>
       <c r="G669" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20495,7 +20495,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20521,7 +20521,7 @@
         <v>12.5</v>
       </c>
       <c r="G671" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20547,7 +20547,7 @@
         <v>12.5</v>
       </c>
       <c r="G672" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20573,7 +20573,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20599,7 +20599,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20625,7 +20625,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G675" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20651,7 +20651,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G676" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20677,7 +20677,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20703,7 +20703,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G678" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20729,7 +20729,7 @@
         <v>12.25</v>
       </c>
       <c r="G679" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20755,7 +20755,7 @@
         <v>12.25</v>
       </c>
       <c r="G680" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20781,7 +20781,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G681" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20807,7 +20807,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20833,7 +20833,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G683" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20859,7 +20859,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20885,7 +20885,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20911,7 +20911,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20937,7 +20937,7 @@
         <v>12.5</v>
       </c>
       <c r="G687" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20963,7 +20963,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20989,7 +20989,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21015,7 +21015,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G690" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21041,7 +21041,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21067,7 +21067,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21093,7 +21093,7 @@
         <v>12.75</v>
       </c>
       <c r="G693" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21119,7 +21119,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21145,7 +21145,7 @@
         <v>13.25</v>
       </c>
       <c r="G695" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21171,7 +21171,7 @@
         <v>13</v>
       </c>
       <c r="G696" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21197,7 +21197,7 @@
         <v>13</v>
       </c>
       <c r="G697" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21223,7 +21223,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21249,7 +21249,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G699" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21275,7 +21275,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21301,7 +21301,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21327,7 +21327,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G702" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21353,7 +21353,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G703" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21379,7 +21379,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G704" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21405,7 +21405,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G705" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21431,7 +21431,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21457,7 +21457,7 @@
         <v>13.25</v>
       </c>
       <c r="G707" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21483,7 +21483,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G708" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21509,7 +21509,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21535,7 +21535,7 @@
         <v>13</v>
       </c>
       <c r="G710" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21561,7 +21561,7 @@
         <v>13</v>
       </c>
       <c r="G711" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21587,7 +21587,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G712" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21613,7 +21613,7 @@
         <v>13</v>
       </c>
       <c r="G713" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21639,7 +21639,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21665,7 +21665,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G715" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21691,7 +21691,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G716" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21717,7 +21717,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G717" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21743,7 +21743,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G718" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21769,7 +21769,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21795,7 +21795,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21821,7 +21821,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G721" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21847,7 +21847,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G722" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21873,7 +21873,7 @@
         <v>12.5</v>
       </c>
       <c r="G723" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21899,7 +21899,7 @@
         <v>13</v>
       </c>
       <c r="G724" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21925,7 +21925,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G725" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21951,7 +21951,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21977,7 +21977,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G727" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22003,7 +22003,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22029,7 +22029,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G729" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22055,7 +22055,7 @@
         <v>12.5</v>
       </c>
       <c r="G730" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22081,7 +22081,7 @@
         <v>12.25</v>
       </c>
       <c r="G731" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22107,7 +22107,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G732" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22133,7 +22133,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22159,7 +22159,7 @@
         <v>12</v>
       </c>
       <c r="G734" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22185,7 +22185,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22211,7 +22211,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G736" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22237,7 +22237,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22263,7 +22263,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22289,7 +22289,7 @@
         <v>11.5</v>
       </c>
       <c r="G739" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22315,7 +22315,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22341,7 +22341,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G741" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22367,7 +22367,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22393,7 +22393,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22419,7 +22419,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22445,7 +22445,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22471,7 +22471,7 @@
         <v>11.5</v>
       </c>
       <c r="G746" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22497,7 +22497,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22523,7 +22523,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G748" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22549,7 +22549,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G749" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22575,7 +22575,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G750" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22601,7 +22601,7 @@
         <v>10.25</v>
       </c>
       <c r="G751" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22627,7 +22627,7 @@
         <v>10.25</v>
       </c>
       <c r="G752" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22653,7 +22653,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G753" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22679,7 +22679,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G754" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22705,7 +22705,7 @@
         <v>10.5</v>
       </c>
       <c r="G755" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22731,7 +22731,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22757,7 +22757,7 @@
         <v>10.5</v>
       </c>
       <c r="G757" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22783,7 +22783,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22809,7 +22809,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22835,7 +22835,7 @@
         <v>10.75</v>
       </c>
       <c r="G760" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22861,7 +22861,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G761" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22887,7 +22887,7 @@
         <v>11.5</v>
       </c>
       <c r="G762" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22913,7 +22913,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22939,7 +22939,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22965,7 +22965,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G765" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22991,7 +22991,7 @@
         <v>11.5</v>
       </c>
       <c r="G766" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23017,7 +23017,7 @@
         <v>11.5</v>
       </c>
       <c r="G767" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23043,7 +23043,7 @@
         <v>11.75</v>
       </c>
       <c r="G768" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23069,7 +23069,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G769" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23095,7 +23095,7 @@
         <v>12</v>
       </c>
       <c r="G770" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23121,7 +23121,7 @@
         <v>11.75</v>
       </c>
       <c r="G771" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23147,7 +23147,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23173,7 +23173,7 @@
         <v>11.5</v>
       </c>
       <c r="G773" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23199,7 +23199,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23225,7 +23225,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G775" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23251,7 +23251,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23277,7 +23277,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G777" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23303,7 +23303,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G778" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23329,7 +23329,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23355,7 +23355,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23381,7 +23381,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23407,7 +23407,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G782" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23433,7 +23433,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G783" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23459,7 +23459,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23485,7 +23485,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G785" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23511,7 +23511,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23537,7 +23537,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23563,7 +23563,7 @@
         <v>11.5</v>
       </c>
       <c r="G788" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23589,7 +23589,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G789" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23615,7 +23615,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G790" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23641,7 +23641,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23667,7 +23667,7 @@
         <v>11.5</v>
       </c>
       <c r="G792" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23693,7 +23693,7 @@
         <v>11.25</v>
       </c>
       <c r="G793" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23719,7 +23719,7 @@
         <v>11.25</v>
       </c>
       <c r="G794" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23745,7 +23745,7 @@
         <v>11.5</v>
       </c>
       <c r="G795" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23771,7 +23771,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23797,7 +23797,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G797" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23823,7 +23823,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23849,7 +23849,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23875,7 +23875,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G800" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23901,7 +23901,7 @@
         <v>11</v>
       </c>
       <c r="G801" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23927,7 +23927,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G802" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23953,7 +23953,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23979,7 +23979,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G804" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24005,7 +24005,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24031,7 +24031,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G806" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24057,7 +24057,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24083,7 +24083,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24109,7 +24109,7 @@
         <v>11</v>
       </c>
       <c r="G809" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24135,7 +24135,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G810" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24161,7 +24161,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G811" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24187,7 +24187,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G812" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24213,7 +24213,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24239,7 +24239,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24265,7 +24265,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24291,7 +24291,7 @@
         <v>10.75</v>
       </c>
       <c r="G816" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24317,7 +24317,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G817" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24343,7 +24343,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G818" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24369,7 +24369,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24395,7 +24395,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G820" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24421,7 +24421,7 @@
         <v>11.25</v>
       </c>
       <c r="G821" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24447,7 +24447,7 @@
         <v>11.25</v>
       </c>
       <c r="G822" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24473,7 +24473,7 @@
         <v>11.25</v>
       </c>
       <c r="G823" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24499,7 +24499,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24525,7 +24525,7 @@
         <v>11.5</v>
       </c>
       <c r="G825" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24551,7 +24551,7 @@
         <v>11.5</v>
       </c>
       <c r="G826" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24577,7 +24577,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G827" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24603,7 +24603,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24629,7 +24629,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24655,7 +24655,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24681,7 +24681,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G831" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24707,7 +24707,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24733,7 +24733,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G833" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24759,7 +24759,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24785,7 +24785,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24811,7 +24811,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G836" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24837,7 +24837,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24863,7 +24863,7 @@
         <v>11.5</v>
       </c>
       <c r="G838" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24889,7 +24889,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24915,7 +24915,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24941,7 +24941,7 @@
         <v>11.5</v>
       </c>
       <c r="G841" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24967,7 +24967,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24993,7 +24993,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G843" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25019,7 +25019,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G844" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25045,7 +25045,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G845" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25071,7 +25071,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G846" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25097,7 +25097,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G847" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25123,7 +25123,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25149,7 +25149,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25175,7 +25175,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25201,7 +25201,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25227,7 +25227,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25253,7 +25253,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G853" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25279,7 +25279,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25305,7 +25305,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25331,7 +25331,7 @@
         <v>11.5</v>
       </c>
       <c r="G856" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25357,7 +25357,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G857" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25383,7 +25383,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25409,7 +25409,7 @@
         <v>11.5</v>
       </c>
       <c r="G859" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25435,7 +25435,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G860" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25461,7 +25461,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25487,7 +25487,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G862" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25513,7 +25513,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G863" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25539,7 +25539,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G864" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25565,7 +25565,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25591,7 +25591,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G866" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25617,7 +25617,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25643,7 +25643,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25669,7 +25669,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G869" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25695,7 +25695,7 @@
         <v>12</v>
       </c>
       <c r="G870" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25721,7 +25721,7 @@
         <v>12</v>
       </c>
       <c r="G871" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25747,7 +25747,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G872" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25773,7 +25773,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G873" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25799,7 +25799,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25825,7 +25825,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25851,7 +25851,7 @@
         <v>12</v>
       </c>
       <c r="G876" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25877,7 +25877,7 @@
         <v>12</v>
       </c>
       <c r="G877" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25903,7 +25903,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G878" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25929,7 +25929,7 @@
         <v>12</v>
       </c>
       <c r="G879" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25955,7 +25955,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G880" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25981,7 +25981,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G881" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26007,7 +26007,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26033,7 +26033,7 @@
         <v>12</v>
       </c>
       <c r="G883" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26059,7 +26059,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G884" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26085,7 +26085,7 @@
         <v>12.25</v>
       </c>
       <c r="G885" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26111,7 +26111,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G886" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26137,7 +26137,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26163,7 +26163,7 @@
         <v>12.25</v>
       </c>
       <c r="G888" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26189,7 +26189,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26215,7 +26215,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G890" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26241,7 +26241,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26345,7 +26345,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26501,7 +26501,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G901" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26605,7 +26605,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26631,7 +26631,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G906" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26735,7 +26735,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26813,7 +26813,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G913" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26943,7 +26943,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G918" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26969,7 +26969,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27047,7 +27047,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27073,7 +27073,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G923" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27255,7 +27255,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27801,7 +27801,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G951" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27853,7 +27853,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27931,7 +27931,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27957,7 +27957,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G957" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27983,7 +27983,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G958" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28009,7 +28009,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G959" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28035,7 +28035,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28087,7 +28087,7 @@
         <v>11.5</v>
       </c>
       <c r="G962" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28113,7 +28113,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28139,7 +28139,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G964" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28165,7 +28165,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G965" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28191,7 +28191,7 @@
         <v>12.25</v>
       </c>
       <c r="G966" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28217,7 +28217,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28243,7 +28243,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28295,7 +28295,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G970" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28347,7 +28347,7 @@
         <v>12.25</v>
       </c>
       <c r="G972" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28373,7 +28373,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28399,7 +28399,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28425,7 +28425,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28503,7 +28503,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28555,7 +28555,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G980" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28633,7 +28633,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G983" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28685,7 +28685,7 @@
         <v>12.25</v>
       </c>
       <c r="G985" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28711,7 +28711,7 @@
         <v>12.25</v>
       </c>
       <c r="G986" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28737,7 +28737,7 @@
         <v>12.25</v>
       </c>
       <c r="G987" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28763,7 +28763,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G988" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28789,7 +28789,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28815,7 +28815,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28841,7 +28841,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28893,7 +28893,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G993" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28919,7 +28919,7 @@
         <v>12</v>
       </c>
       <c r="G994" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28945,7 +28945,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G995" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28971,7 +28971,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G996" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28997,7 +28997,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G997" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29023,7 +29023,7 @@
         <v>12.25</v>
       </c>
       <c r="G998" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29101,7 +29101,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29127,7 +29127,7 @@
         <v>12</v>
       </c>
       <c r="G1002" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29179,7 +29179,7 @@
         <v>12.25</v>
       </c>
       <c r="G1004" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29205,7 +29205,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1005" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29231,7 +29231,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1006" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29257,7 +29257,7 @@
         <v>12.25</v>
       </c>
       <c r="G1007" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29309,7 +29309,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1009" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29361,7 +29361,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1011" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29543,7 +29543,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30765,7 +30765,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1065" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30791,7 +30791,7 @@
         <v>12</v>
       </c>
       <c r="G1066" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30817,7 +30817,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30843,7 +30843,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1068" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30921,7 +30921,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30947,7 +30947,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1072" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31025,7 +31025,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31051,7 +31051,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1076" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31077,7 +31077,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31103,7 +31103,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1078" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31129,7 +31129,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31207,7 +31207,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31259,7 +31259,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31337,7 +31337,7 @@
         <v>12</v>
       </c>
       <c r="G1087" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31363,7 +31363,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31389,7 +31389,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1089" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31415,7 +31415,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31441,7 +31441,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31467,7 +31467,7 @@
         <v>12</v>
       </c>
       <c r="G1092" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31545,7 +31545,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -60148,6 +60148,32 @@
         <v>905</v>
       </c>
       <c r="H2195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="1" t="n">
+        <v>45520.6436458333</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>21.6000003814697</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>21.2999992370605</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>907</v>
+      </c>
+      <c r="H2196" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19319438934326</t>
+    <t xml:space="preserve">8.15975570678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19319534301758</t>
   </si>
   <si>
     <t xml:space="preserve">8.10123062133789</t>
@@ -56,82 +56,82 @@
     <t xml:space="preserve">8.10959053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06778812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877895355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6497688293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189538955688</t>
+    <t xml:space="preserve">8.06778907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106639862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94238328933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85877990722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976787567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7918963432312</t>
   </si>
   <si>
     <t xml:space="preserve">7.69157028198242</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960651397705</t>
+    <t xml:space="preserve">7.63304805755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960746765137</t>
   </si>
   <si>
     <t xml:space="preserve">7.63722848892212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62886762619019</t>
+    <t xml:space="preserve">7.6288685798645</t>
   </si>
   <si>
     <t xml:space="preserve">7.60796737670898</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5828857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697750091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48256063461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75845336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66649103164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62468767166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31535148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.440758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52436399459839</t>
+    <t xml:space="preserve">7.58288526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517509460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81697702407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48255968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75845432281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66648864746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62468862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31535291671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44075870513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52436256408691</t>
   </si>
   <si>
     <t xml:space="preserve">7.59124708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76263475418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76681327819824</t>
+    <t xml:space="preserve">7.76263427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76681518554688</t>
   </si>
   <si>
     <t xml:space="preserve">7.98418521881104</t>
@@ -140,16 +140,16 @@
     <t xml:space="preserve">8.02598762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84623908996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26007747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35622310638428</t>
+    <t xml:space="preserve">7.84623765945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35622406005859</t>
   </si>
   <si>
     <t xml:space="preserve">8.27679920196533</t>
@@ -158,100 +158,100 @@
     <t xml:space="preserve">7.89222049713135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18483352661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99672698974609</t>
+    <t xml:space="preserve">8.18483448028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672555923462</t>
   </si>
   <si>
     <t xml:space="preserve">7.97582483291626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13467311859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12631130218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15139198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23499870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07615089416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762771606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9214825630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90894174575806</t>
+    <t xml:space="preserve">8.13467216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12631225585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15139102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2349967956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07614803314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148065567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9089412689209</t>
   </si>
   <si>
     <t xml:space="preserve">7.73337316513062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80861711502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910501480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89639854431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70829153060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65394926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67067050933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68739128112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85041856765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57870531082153</t>
+    <t xml:space="preserve">7.80861806869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.896399974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70829200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6539478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67067003250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68739032745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.850417137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57870674133301</t>
   </si>
   <si>
     <t xml:space="preserve">7.55780458450317</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57452535629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8127965927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239831924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920776367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174858093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355003356934</t>
+    <t xml:space="preserve">7.57452583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81279706954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27354955673218</t>
   </si>
   <si>
     <t xml:space="preserve">7.33207321166992</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18994760513306</t>
+    <t xml:space="preserve">7.18994617462158</t>
   </si>
   <si>
     <t xml:space="preserve">7.19412708282471</t>
@@ -260,31 +260,31 @@
     <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18576765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06453990936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05618000030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97257661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14814615249634</t>
+    <t xml:space="preserve">7.18576669692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06454133987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05618095397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978290557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97257614135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14814472198486</t>
   </si>
   <si>
     <t xml:space="preserve">7.21502876281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35715484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895629882812</t>
+    <t xml:space="preserve">7.35715627670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895820617676</t>
   </si>
   <si>
     <t xml:space="preserve">7.67485046386719</t>
@@ -293,43 +293,43 @@
     <t xml:space="preserve">7.59542608261108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51182174682617</t>
+    <t xml:space="preserve">7.51182126998901</t>
   </si>
   <si>
     <t xml:space="preserve">7.60378694534302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56616497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403841018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51600313186646</t>
+    <t xml:space="preserve">7.56616544723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51600217819214</t>
   </si>
   <si>
     <t xml:space="preserve">7.52018213272095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54108428955078</t>
+    <t xml:space="preserve">7.54108381271362</t>
   </si>
   <si>
     <t xml:space="preserve">7.4741997718811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45329904556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10541152954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1973762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35204219818115</t>
+    <t xml:space="preserve">7.45329856872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5703444480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1054105758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19737434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35204124450684</t>
   </si>
   <si>
     <t xml:space="preserve">8.29351902008057</t>
@@ -338,67 +338,67 @@
     <t xml:space="preserve">8.14303207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99254608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09287071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44400787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59449481964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54433441162109</t>
+    <t xml:space="preserve">7.99254560470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09286880493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44400691986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5944938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54433250427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.56105327606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65301609039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97071266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94563102722168</t>
+    <t xml:space="preserve">8.65301704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97071075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94563293457031</t>
   </si>
   <si>
     <t xml:space="preserve">8.73662185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86202907562256</t>
+    <t xml:space="preserve">8.86202812194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.92055034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90382862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99579429626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00415420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9790735244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0472240447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07278060913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01314926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03018760681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15797328948975</t>
+    <t xml:space="preserve">8.90383052825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99579334259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00415515899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97907257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04722499847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07278347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01315021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03018856048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15797233581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.23464393615723</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">9.28575706481934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37094783782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14945507049561</t>
+    <t xml:space="preserve">9.37094974517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14945316314697</t>
   </si>
   <si>
     <t xml:space="preserve">9.26872158050537</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">9.32835292816162</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613956451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206287384033</t>
+    <t xml:space="preserve">9.45614051818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">9.36243057250977</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">9.41354465484619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54984951019287</t>
+    <t xml:space="preserve">9.54984855651855</t>
   </si>
   <si>
     <t xml:space="preserve">9.61800193786621</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">9.5413293838501</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56688690185547</t>
+    <t xml:space="preserve">9.5668888092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.39650535583496</t>
@@ -452,139 +452,139 @@
     <t xml:space="preserve">9.55836772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59244537353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58392524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948276519775</t>
+    <t xml:space="preserve">9.59244346618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58392429351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948371887207</t>
   </si>
   <si>
     <t xml:space="preserve">9.57540512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49021625518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37946701049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687305450439</t>
+    <t xml:space="preserve">9.49021530151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37946796417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687210083008</t>
   </si>
   <si>
     <t xml:space="preserve">9.20908737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20056819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2772388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3198356628418</t>
+    <t xml:space="preserve">9.20056915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27723979949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31983375549316</t>
   </si>
   <si>
     <t xml:space="preserve">9.30279731750488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53280925750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62652015686035</t>
+    <t xml:space="preserve">9.53281021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62652111053467</t>
   </si>
   <si>
     <t xml:space="preserve">9.71171092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78838157653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83097743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75430583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0950679779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0524730682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3591585159302</t>
+    <t xml:space="preserve">9.7883825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83097839355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75430679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0950689315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0524740219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3591575622559</t>
   </si>
   <si>
     <t xml:space="preserve">10.4528694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5891723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6062097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6488056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.572135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6232490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5636148452759</t>
+    <t xml:space="preserve">10.5891733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6062107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6488065719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5721340179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6232500076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5636157989502</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017534255981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3676776885986</t>
+    <t xml:space="preserve">10.3676767349243</t>
   </si>
   <si>
     <t xml:space="preserve">10.2228536605835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2910079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3761968612671</t>
+    <t xml:space="preserve">10.2910051345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3761959075928</t>
   </si>
   <si>
     <t xml:space="preserve">10.2484111785889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2313718795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2398910522461</t>
+    <t xml:space="preserve">10.231372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2398920059204</t>
   </si>
   <si>
     <t xml:space="preserve">10.4187908172607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4784259796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.461386680603</t>
+    <t xml:space="preserve">10.4784231185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4613857269287</t>
   </si>
   <si>
     <t xml:space="preserve">10.3421201705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3165636062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3080425262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3506393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7339963912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8191862106323</t>
+    <t xml:space="preserve">10.3165626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3080434799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7339973449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.819185256958</t>
   </si>
   <si>
     <t xml:space="preserve">10.9469728469849</t>
@@ -593,34 +593,34 @@
     <t xml:space="preserve">11.0151262283325</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662393569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0321626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.023642539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9895677566528</t>
+    <t xml:space="preserve">11.0662384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0321636199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0236434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9895668029785</t>
   </si>
   <si>
     <t xml:space="preserve">11.0406827926636</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8277063369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214162826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.802149772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617811203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8447427749634</t>
+    <t xml:space="preserve">10.8277072906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.844744682312</t>
   </si>
   <si>
     <t xml:space="preserve">10.9043779373169</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">10.8958578109741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8532629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7680721282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7425155639648</t>
+    <t xml:space="preserve">10.8532619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703012466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7680730819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7425146102905</t>
   </si>
   <si>
     <t xml:space="preserve">10.6999206542969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6658458709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7936296463013</t>
+    <t xml:space="preserve">10.665843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7936305999756</t>
   </si>
   <si>
     <t xml:space="preserve">10.6914005279541</t>
@@ -659,25 +659,25 @@
     <t xml:space="preserve">10.912896156311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8106660842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0747575759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1599493026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.202543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.245138168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877330780029</t>
+    <t xml:space="preserve">10.8106679916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169570922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0747585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.159948348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2025442123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2451391220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877349853516</t>
   </si>
   <si>
     <t xml:space="preserve">11.1173534393311</t>
@@ -692,19 +692,19 @@
     <t xml:space="preserve">11.5433053970337</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7562818527222</t>
+    <t xml:space="preserve">11.7562828063965</t>
   </si>
   <si>
     <t xml:space="preserve">11.9692583084106</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2248296737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5859003067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.50071144104</t>
+    <t xml:space="preserve">12.2248306274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5859022140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5007095336914</t>
   </si>
   <si>
     <t xml:space="preserve">11.6710901260376</t>
@@ -713,85 +713,85 @@
     <t xml:space="preserve">11.8414716720581</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7988767623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8840675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0156240463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0594787597656</t>
+    <t xml:space="preserve">11.7988777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8840665817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0594778060913</t>
   </si>
   <si>
     <t xml:space="preserve">12.1033306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9279203414917</t>
+    <t xml:space="preserve">11.9279222488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332450866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648054122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7525081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7086572647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963619232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016885757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770969390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3578367233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824245452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8498458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8046178817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141599655151</t>
   </si>
   <si>
     <t xml:space="preserve">11.5332460403442</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6648035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7525091171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7086572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.401686668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770978927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.971773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3578357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824245452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8498468399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8046188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141590118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332469940186</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.6689310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4427890777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5784740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.623703956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880180358887</t>
+    <t xml:space="preserve">11.4427900314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5784749984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6237030029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880170822144</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
@@ -806,307 +806,310 @@
     <t xml:space="preserve">11.2166471481323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1714200973511</t>
+    <t xml:space="preserve">11.1714181900024</t>
   </si>
   <si>
     <t xml:space="preserve">11.3071050643921</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3975610733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1261911392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9403018951416</t>
+    <t xml:space="preserve">11.3975620269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1261901855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9403009414673</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855298995972</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0759868621826</t>
+    <t xml:space="preserve">11.895073890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0759887695312</t>
   </si>
   <si>
     <t xml:space="preserve">12.1664438247681</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1212158203125</t>
+    <t xml:space="preserve">12.1212148666382</t>
   </si>
   <si>
     <t xml:space="preserve">10.9452772140503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8095932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8548192977905</t>
+    <t xml:space="preserve">10.8095922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8548202514648</t>
   </si>
   <si>
     <t xml:space="preserve">10.7643632888794</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9905061721802</t>
+    <t xml:space="preserve">10.9905052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4929943084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4025354385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0407104492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0859365463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2668523788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3120775222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99548053741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45273971557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22659683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27182674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18136692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58842372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67888164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7241096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191343307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4477653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.357307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1763935089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90502262115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95025253295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81456565856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85979461669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63365268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382204055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.774055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6803674697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6335248947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8208999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145860671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677434921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5866813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9614295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1488056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2893362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2424926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.055118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1956491470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.617241859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4767112731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4298677444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640863418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7577724456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9919929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8514604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7109308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8983039855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9451475143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5703973770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2730541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2262105941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3198976516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3667411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4135847091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0856790542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1325235366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5235548019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3361806869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5541162490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478042602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6009588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946477890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7883338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7414922714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9288673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8351783752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8820219039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2567729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2099285125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1630849838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1019611358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5398359298706</t>
   </si>
   <si>
     <t xml:space="preserve">10.4929933547974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4025363922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0407094955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0859355926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2668514251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3120794296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99548053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45273876190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22659587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27182483673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18136882781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796772003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58842372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67888259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7693395614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72411060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286783218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4477634429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3573064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2216234207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1763954162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9050235748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95025157928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81456756591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85979557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63365268707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382204055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.774055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6803674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63352394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8208990097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.914587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677434921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5866813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7272109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9614295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1488046646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2893362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2424926757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0551176071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1956481933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.617241859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.476710319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4298677444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830232620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640844345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.757773399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9919919967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8514595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7109298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.89830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9451484680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5703992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2730550765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2262105941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3198976516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3667421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4135847091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0856800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082740783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5235548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3361797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5541152954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478042602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.600959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7883348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7414922714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9288663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8351793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757108688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.882022857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2567710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2099294662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1019620895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5398359298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0693969726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4604291915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7720527648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3341770172119</t>
+    <t xml:space="preserve">13.0693960189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4604301452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7720537185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3341779708862</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215520858765</t>
@@ -1115,7 +1118,7 @@
     <t xml:space="preserve">14.6620836257935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8026142120361</t>
+    <t xml:space="preserve">14.8026151657104</t>
   </si>
   <si>
     <t xml:space="preserve">14.8963012695312</t>
@@ -1127,37 +1130,37 @@
     <t xml:space="preserve">14.5683975219727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6152400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431457519531</t>
+    <t xml:space="preserve">14.6152420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4278650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1468019485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0531158447266</t>
+    <t xml:space="preserve">14.1468029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0531148910522</t>
   </si>
   <si>
     <t xml:space="preserve">14.1936464309692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2404890060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347969055176</t>
+    <t xml:space="preserve">14.2404909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347978591919</t>
   </si>
   <si>
     <t xml:space="preserve">14.429105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4762592315674</t>
+    <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
     <t xml:space="preserve">14.2876434326172</t>
@@ -1169,10 +1172,10 @@
     <t xml:space="preserve">14.2404899597168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7689523696899</t>
+    <t xml:space="preserve">13.9104127883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7689504623413</t>
   </si>
   <si>
     <t xml:space="preserve">13.6746425628662</t>
@@ -1184,79 +1187,79 @@
     <t xml:space="preserve">13.2974109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1559495925903</t>
+    <t xml:space="preserve">13.155948638916</t>
   </si>
   <si>
     <t xml:space="preserve">13.2031030654907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9575672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0990266799927</t>
+    <t xml:space="preserve">13.9575662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217960357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0990285873413</t>
   </si>
   <si>
     <t xml:space="preserve">13.5331811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3445644378662</t>
+    <t xml:space="preserve">13.3445653915405</t>
   </si>
   <si>
     <t xml:space="preserve">13.4388732910156</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7120304107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5234127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8534917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949522018433</t>
+    <t xml:space="preserve">14.7120313644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5234136581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8534908294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949512481689</t>
   </si>
   <si>
     <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.042106628418</t>
+    <t xml:space="preserve">15.0421075820923</t>
   </si>
   <si>
     <t xml:space="preserve">15.1835689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1364135742188</t>
+    <t xml:space="preserve">15.1364145278931</t>
   </si>
   <si>
     <t xml:space="preserve">15.2778768539429</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3721837997437</t>
+    <t xml:space="preserve">15.372184753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.5608005523682</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9380302429199</t>
+    <t xml:space="preserve">15.9380331039429</t>
   </si>
   <si>
     <t xml:space="preserve">15.7022619247437</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908777236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9754180908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6924953460693</t>
+    <t xml:space="preserve">16.032341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908786773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9754199981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.692497253418</t>
   </si>
   <si>
     <t xml:space="preserve">17.6355762481689</t>
@@ -1265,13 +1268,13 @@
     <t xml:space="preserve">17.0697269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7770347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5884189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5786533355713</t>
+    <t xml:space="preserve">17.7770366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5884208679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5786514282227</t>
   </si>
   <si>
     <t xml:space="preserve">18.8615760803223</t>
@@ -1280,22 +1283,22 @@
     <t xml:space="preserve">18.7672691345215</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1542682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2485771179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2957286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8241901397705</t>
+    <t xml:space="preserve">18.1542663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2485752105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2957305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8241863250732</t>
   </si>
   <si>
     <t xml:space="preserve">17.3998031616211</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4941082000732</t>
+    <t xml:space="preserve">17.4941101074219</t>
   </si>
   <si>
     <t xml:space="preserve">17.1640357971191</t>
@@ -1304,103 +1307,103 @@
     <t xml:space="preserve">17.4469585418701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7298812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5412654876709</t>
+    <t xml:space="preserve">17.7298793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5412673950195</t>
   </si>
   <si>
     <t xml:space="preserve">16.5981884002686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7396488189697</t>
+    <t xml:space="preserve">16.7396469116211</t>
   </si>
   <si>
     <t xml:space="preserve">17.2583408355713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1168785095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9282646179199</t>
+    <t xml:space="preserve">17.1168823242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9282665252686</t>
   </si>
   <si>
     <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3054943084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8339576721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152637481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0225696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184989929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3900375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4843463897705</t>
+    <t xml:space="preserve">17.3054962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8339538574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152618408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184970855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3900356292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4843444824219</t>
   </si>
   <si>
     <t xml:space="preserve">18.6729602813721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2388095855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6160373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2761936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9363498687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5021934509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4078884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2192726135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135795593262</t>
+    <t xml:space="preserve">19.4274234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2388076782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.616039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.276195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.936351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5021953582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4078922271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2192707061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135833740234</t>
   </si>
   <si>
     <t xml:space="preserve">21.0306568145752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965023040771</t>
+    <t xml:space="preserve">21.5965042114258</t>
   </si>
   <si>
     <t xml:space="preserve">21.6908130645752</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4826602935791</t>
+    <t xml:space="preserve">23.4826641082764</t>
   </si>
   <si>
     <t xml:space="preserve">22.9168148040771</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5332717895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1497268676758</t>
+    <t xml:space="preserve">22.5332698822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1497249603271</t>
   </si>
   <si>
     <t xml:space="preserve">22.7250423431396</t>
@@ -1421,16 +1424,16 @@
     <t xml:space="preserve">23.0127010345459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6291561126709</t>
+    <t xml:space="preserve">22.6291580200195</t>
   </si>
   <si>
     <t xml:space="preserve">24.3551082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9715633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7797889709473</t>
+    <t xml:space="preserve">23.971565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7797908782959</t>
   </si>
   <si>
     <t xml:space="preserve">23.2044734954834</t>
@@ -1442,10 +1445,10 @@
     <t xml:space="preserve">24.0674495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1633377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2180824279785</t>
+    <t xml:space="preserve">24.1633358001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2180843353271</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
@@ -1457,7 +1460,7 @@
     <t xml:space="preserve">27.423469543457</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0946712493896</t>
+    <t xml:space="preserve">28.0946731567383</t>
   </si>
   <si>
     <t xml:space="preserve">27.9029006958008</t>
@@ -1466,16 +1469,16 @@
     <t xml:space="preserve">28.574104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7111263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9987888336182</t>
+    <t xml:space="preserve">27.7111282348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9987869262695</t>
   </si>
   <si>
     <t xml:space="preserve">27.8070125579834</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5193538665771</t>
+    <t xml:space="preserve">27.5193557739258</t>
   </si>
   <si>
     <t xml:space="preserve">26.7522640228271</t>
@@ -1484,76 +1487,76 @@
     <t xml:space="preserve">28.2864456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4918270111084</t>
+    <t xml:space="preserve">30.4918251037598</t>
   </si>
   <si>
     <t xml:space="preserve">29.724739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4370784759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5329647064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6779727935791</t>
+    <t xml:space="preserve">29.4370803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5329666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6779747009277</t>
   </si>
   <si>
     <t xml:space="preserve">29.7746429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3879585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2912883758545</t>
+    <t xml:space="preserve">29.3879623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2912902832031</t>
   </si>
   <si>
     <t xml:space="preserve">29.1946182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">29.001277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4513416290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3213787078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1280384063721</t>
+    <t xml:space="preserve">29.0012760162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4513397216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3213806152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1280364990234</t>
   </si>
   <si>
     <t xml:space="preserve">30.7413520812988</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1613311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2579975128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0646591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3546695709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2247085571289</t>
+    <t xml:space="preserve">30.1613292694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.257999420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0646572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3546676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2247066497803</t>
   </si>
   <si>
     <t xml:space="preserve">31.5147190093994</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6113910675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4180488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8047351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5780982971191</t>
+    <t xml:space="preserve">31.6113929748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4180507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8047370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5781021118164</t>
   </si>
   <si>
     <t xml:space="preserve">32.2880897521973</t>
@@ -1565,7 +1568,7 @@
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9014053344727</t>
+    <t xml:space="preserve">31.901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1592,34 +1595,34 @@
     <t xml:space="preserve">39.1517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9551811218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.958381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6350746154785</t>
+    <t xml:space="preserve">41.9551849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9583778381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.635082244873</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450660705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4417343139648</t>
+    <t xml:space="preserve">39.3450698852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4417381286621</t>
   </si>
   <si>
     <t xml:space="preserve">39.5384101867676</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8617134094238</t>
+    <t xml:space="preserve">38.8617095947266</t>
   </si>
   <si>
     <t xml:space="preserve">40.3117752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1184349060059</t>
+    <t xml:space="preserve">40.1184310913086</t>
   </si>
   <si>
     <t xml:space="preserve">38.1850166320801</t>
@@ -1640,28 +1643,28 @@
     <t xml:space="preserve">39.8284187316895</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2150993347168</t>
+    <t xml:space="preserve">40.2151031494141</t>
   </si>
   <si>
     <t xml:space="preserve">40.6017875671387</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1818161010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.665168762207</t>
+    <t xml:space="preserve">41.181812286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6651649475098</t>
   </si>
   <si>
     <t xml:space="preserve">41.8585090637207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4385375976562</t>
+    <t xml:space="preserve">42.438533782959</t>
   </si>
   <si>
     <t xml:space="preserve">42.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.888599395752</t>
+    <t xml:space="preserve">43.8886032104492</t>
   </si>
   <si>
     <t xml:space="preserve">43.0185585021973</t>
@@ -1673,16 +1676,16 @@
     <t xml:space="preserve">44.2752799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5320053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1120338439941</t>
+    <t xml:space="preserve">45.5320014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1120300292969</t>
   </si>
   <si>
     <t xml:space="preserve">45.9186897277832</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7253456115723</t>
+    <t xml:space="preserve">45.7253494262695</t>
   </si>
   <si>
     <t xml:space="preserve">46.0153579711914</t>
@@ -1691,10 +1694,10 @@
     <t xml:space="preserve">46.402042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0787391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8853950500488</t>
+    <t xml:space="preserve">47.078742980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8853988647461</t>
   </si>
   <si>
     <t xml:space="preserve">46.595386505127</t>
@@ -1715,7 +1718,7 @@
     <t xml:space="preserve">43.5019149780273</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1152305603027</t>
+    <t xml:space="preserve">43.115234375</t>
   </si>
   <si>
     <t xml:space="preserve">42.0518531799316</t>
@@ -1727,7 +1730,7 @@
     <t xml:space="preserve">40.7951316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9884757995605</t>
+    <t xml:space="preserve">40.9884719848633</t>
   </si>
   <si>
     <t xml:space="preserve">41.3751564025879</t>
@@ -1739,7 +1742,7 @@
     <t xml:space="preserve">42.9218902587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5684967041016</t>
+    <t xml:space="preserve">41.5684928894043</t>
   </si>
   <si>
     <t xml:space="preserve">41.7618408203125</t>
@@ -1748,7 +1751,7 @@
     <t xml:space="preserve">42.3418617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4718284606934</t>
+    <t xml:space="preserve">41.4718246459961</t>
   </si>
   <si>
     <t xml:space="preserve">40.4084434509277</t>
@@ -1766,7 +1769,7 @@
     <t xml:space="preserve">39.2483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5051155090332</t>
+    <t xml:space="preserve">40.5051231384277</t>
   </si>
   <si>
     <t xml:space="preserve">40.8917999267578</t>
@@ -1781,7 +1784,7 @@
     <t xml:space="preserve">37.8950042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0249633789062</t>
+    <t xml:space="preserve">37.0249671936035</t>
   </si>
   <si>
     <t xml:space="preserve">37.70166015625</t>
@@ -1802,13 +1805,13 @@
     <t xml:space="preserve">35.1882171630859</t>
   </si>
   <si>
-    <t xml:space="preserve">34.221508026123</t>
+    <t xml:space="preserve">34.2215118408203</t>
   </si>
   <si>
     <t xml:space="preserve">33.4481391906738</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5448150634766</t>
+    <t xml:space="preserve">33.5448112487793</t>
   </si>
   <si>
     <t xml:space="preserve">32.8681144714355</t>
@@ -1817,10 +1820,10 @@
     <t xml:space="preserve">33.1581268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7381553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3181762695312</t>
+    <t xml:space="preserve">33.738151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3181800842285</t>
   </si>
   <si>
     <t xml:space="preserve">35.4782295227051</t>
@@ -1832,28 +1835,28 @@
     <t xml:space="preserve">36.3482627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6382789611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8348236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9314956665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0281677246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.964786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7714424133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.013126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3998069763184</t>
+    <t xml:space="preserve">36.6382827758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8348197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9314918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0281639099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9647827148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7714462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0131225585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3998031616211</t>
   </si>
   <si>
     <t xml:space="preserve">33.6414794921875</t>
@@ -1862,19 +1865,19 @@
     <t xml:space="preserve">35.0432090759277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9615821838379</t>
+    <t xml:space="preserve">35.9615859985352</t>
   </si>
   <si>
     <t xml:space="preserve">35.4298934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5931434631348</t>
+    <t xml:space="preserve">33.593147277832</t>
   </si>
   <si>
     <t xml:space="preserve">31.9497394561768</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7563972473145</t>
+    <t xml:space="preserve">31.7563953399658</t>
   </si>
   <si>
     <t xml:space="preserve">30.1129932403564</t>
@@ -1895,7 +1898,7 @@
     <t xml:space="preserve">29.3866996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2897148132324</t>
+    <t xml:space="preserve">29.2897167205811</t>
   </si>
   <si>
     <t xml:space="preserve">29.9686145782471</t>
@@ -1904,7 +1907,7 @@
     <t xml:space="preserve">30.8899803161621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5203876495361</t>
+    <t xml:space="preserve">31.5203895568848</t>
   </si>
   <si>
     <t xml:space="preserve">30.9384727478027</t>
@@ -1913,7 +1916,7 @@
     <t xml:space="preserve">30.4535446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1927280426025</t>
+    <t xml:space="preserve">29.1927299499512</t>
   </si>
   <si>
     <t xml:space="preserve">28.9987564086914</t>
@@ -1931,7 +1934,7 @@
     <t xml:space="preserve">27.3984909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8349266052246</t>
+    <t xml:space="preserve">27.8349285125732</t>
   </si>
   <si>
     <t xml:space="preserve">27.4469833374023</t>
@@ -1943,13 +1946,13 @@
     <t xml:space="preserve">27.5439682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0105476379395</t>
+    <t xml:space="preserve">27.0105495452881</t>
   </si>
   <si>
     <t xml:space="preserve">26.8165760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4286346435547</t>
+    <t xml:space="preserve">26.4286327362061</t>
   </si>
   <si>
     <t xml:space="preserve">25.8467178344727</t>
@@ -1958,16 +1961,16 @@
     <t xml:space="preserve">25.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0708332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8283672332764</t>
+    <t xml:space="preserve">25.0708312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.828369140625</t>
   </si>
   <si>
     <t xml:space="preserve">26.1861686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9437026977539</t>
+    <t xml:space="preserve">25.9437046051025</t>
   </si>
   <si>
     <t xml:space="preserve">25.4102821350098</t>
@@ -2006,7 +2009,7 @@
     <t xml:space="preserve">25.0223388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3132972717285</t>
+    <t xml:space="preserve">25.3132953643799</t>
   </si>
   <si>
     <t xml:space="preserve">26.0406894683838</t>
@@ -2033,7 +2036,7 @@
     <t xml:space="preserve">26.1376762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0590400695801</t>
+    <t xml:space="preserve">27.0590419769287</t>
   </si>
   <si>
     <t xml:space="preserve">26.2831554412842</t>
@@ -2090,22 +2093,22 @@
     <t xml:space="preserve">22.258243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8218059539795</t>
+    <t xml:space="preserve">21.8218078613281</t>
   </si>
   <si>
     <t xml:space="preserve">21.6763286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9004421234131</t>
+    <t xml:space="preserve">20.9004402160645</t>
   </si>
   <si>
     <t xml:space="preserve">21.0944137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7549629211426</t>
+    <t xml:space="preserve">21.1429042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7549610137939</t>
   </si>
   <si>
     <t xml:space="preserve">20.4640064239502</t>
@@ -2114,7 +2117,7 @@
     <t xml:space="preserve">20.5124988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8519496917725</t>
+    <t xml:space="preserve">20.8519477844238</t>
   </si>
   <si>
     <t xml:space="preserve">20.9974269866943</t>
@@ -2132,22 +2135,22 @@
     <t xml:space="preserve">21.5308494567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0642700195312</t>
+    <t xml:space="preserve">22.0642719268799</t>
   </si>
   <si>
     <t xml:space="preserve">22.5976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0826225280762</t>
+    <t xml:space="preserve">23.0826206207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.4705657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4220733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3735809326172</t>
+    <t xml:space="preserve">23.4220714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3735790252686</t>
   </si>
   <si>
     <t xml:space="preserve">24.7798748016357</t>
@@ -2162,7 +2165,7 @@
     <t xml:space="preserve">26.3316478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3801422119141</t>
+    <t xml:space="preserve">26.3801403045654</t>
   </si>
   <si>
     <t xml:space="preserve">25.9921951293945</t>
@@ -2177,7 +2180,7 @@
     <t xml:space="preserve">26.5256195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7195892333984</t>
+    <t xml:space="preserve">26.7195911407471</t>
   </si>
   <si>
     <t xml:space="preserve">26.4771251678467</t>
@@ -2189,7 +2192,7 @@
     <t xml:space="preserve">26.6710987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9502639770508</t>
+    <t xml:space="preserve">28.9502658843994</t>
   </si>
   <si>
     <t xml:space="preserve">28.4653358459473</t>
@@ -2204,7 +2207,7 @@
     <t xml:space="preserve">28.8532791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.338207244873</t>
+    <t xml:space="preserve">29.3382091522217</t>
   </si>
   <si>
     <t xml:space="preserve">29.4836845397949</t>
@@ -2213,7 +2216,7 @@
     <t xml:space="preserve">29.5806713104248</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4351940155029</t>
+    <t xml:space="preserve">29.4351921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.707799911499</t>
@@ -2228,7 +2231,7 @@
     <t xml:space="preserve">26.5741119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0039863586426</t>
+    <t xml:space="preserve">24.0039882659912</t>
   </si>
   <si>
     <t xml:space="preserve">23.2281017303467</t>
@@ -2237,13 +2240,13 @@
     <t xml:space="preserve">23.1796073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1311168670654</t>
+    <t xml:space="preserve">23.1311149597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.7615222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0524787902832</t>
+    <t xml:space="preserve">24.0524806976318</t>
   </si>
   <si>
     <t xml:space="preserve">24.2949447631836</t>
@@ -2261,13 +2264,13 @@
     <t xml:space="preserve">21.4338645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1914005279541</t>
+    <t xml:space="preserve">21.1913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">21.4823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127624511719</t>
+    <t xml:space="preserve">22.1127643585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.7916660308838</t>
@@ -2276,25 +2279,22 @@
     <t xml:space="preserve">22.6461868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2097492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3067378997803</t>
+    <t xml:space="preserve">22.2097511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3067359924316</t>
   </si>
   <si>
     <t xml:space="preserve">22.888650894165</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1612567901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8702983856201</t>
+    <t xml:space="preserve">22.1612586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8703002929688</t>
   </si>
   <si>
     <t xml:space="preserve">21.624870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3067359924316</t>
   </si>
   <si>
     <t xml:space="preserve">22.4041442871094</t>
@@ -31028,7 +31028,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31652,7 +31652,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31912,7 +31912,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1109" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32068,7 +32068,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32094,7 +32094,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32120,7 +32120,7 @@
         <v>15.5</v>
       </c>
       <c r="G1117" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32146,7 +32146,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32172,7 +32172,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1119" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32198,7 +32198,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32224,7 +32224,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32250,7 +32250,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32276,7 +32276,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32302,7 +32302,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32328,7 +32328,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32354,7 +32354,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32380,7 +32380,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32406,7 +32406,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32432,7 +32432,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32458,7 +32458,7 @@
         <v>15</v>
       </c>
       <c r="G1130" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32484,7 +32484,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32510,7 +32510,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32536,7 +32536,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1133" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32562,7 +32562,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32588,7 +32588,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32614,7 +32614,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32640,7 +32640,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1137" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32666,7 +32666,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1138" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32692,7 +32692,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32718,7 +32718,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32744,7 +32744,7 @@
         <v>15</v>
       </c>
       <c r="G1141" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32770,7 +32770,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32796,7 +32796,7 @@
         <v>14.75</v>
       </c>
       <c r="G1143" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32822,7 +32822,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32848,7 +32848,7 @@
         <v>14.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32874,7 +32874,7 @@
         <v>14.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32900,7 +32900,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1147" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32926,7 +32926,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1148" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32952,7 +32952,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1149" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32978,7 +32978,7 @@
         <v>14</v>
       </c>
       <c r="G1150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33004,7 +33004,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33030,7 +33030,7 @@
         <v>14.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33056,7 +33056,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33082,7 +33082,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1154" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33108,7 +33108,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33134,7 +33134,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33160,7 +33160,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33186,7 +33186,7 @@
         <v>15</v>
       </c>
       <c r="G1158" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33212,7 +33212,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1159" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33238,7 +33238,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1160" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33264,7 +33264,7 @@
         <v>14.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33290,7 +33290,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1162" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33316,7 +33316,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1163" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33342,7 +33342,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1164" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33368,7 +33368,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33394,7 +33394,7 @@
         <v>14.25</v>
       </c>
       <c r="G1166" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33420,7 +33420,7 @@
         <v>14.5</v>
       </c>
       <c r="G1167" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33446,7 +33446,7 @@
         <v>14.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33472,7 +33472,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1169" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33498,7 +33498,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33524,7 +33524,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1171" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33550,7 +33550,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1172" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33576,7 +33576,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33602,7 +33602,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33628,7 +33628,7 @@
         <v>15.75</v>
       </c>
       <c r="G1175" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33654,7 +33654,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33680,7 +33680,7 @@
         <v>16</v>
       </c>
       <c r="G1177" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33706,7 +33706,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33732,7 +33732,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1179" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33758,7 +33758,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33784,7 +33784,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1181" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33810,7 +33810,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33836,7 +33836,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33862,7 +33862,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33888,7 +33888,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33914,7 +33914,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33940,7 +33940,7 @@
         <v>16.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33966,7 +33966,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1188" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33992,7 +33992,7 @@
         <v>16.5</v>
       </c>
       <c r="G1189" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34018,7 +34018,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1190" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34044,7 +34044,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34070,7 +34070,7 @@
         <v>17</v>
       </c>
       <c r="G1192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34096,7 +34096,7 @@
         <v>17</v>
       </c>
       <c r="G1193" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34122,7 +34122,7 @@
         <v>17</v>
       </c>
       <c r="G1194" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34148,7 +34148,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34174,7 +34174,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1196" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34200,7 +34200,7 @@
         <v>18</v>
       </c>
       <c r="G1197" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34226,7 +34226,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1198" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34252,7 +34252,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34278,7 +34278,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34304,7 +34304,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34330,7 +34330,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34356,7 +34356,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34382,7 +34382,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1204" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34408,7 +34408,7 @@
         <v>20</v>
       </c>
       <c r="G1205" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34434,7 +34434,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1206" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34460,7 +34460,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1207" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34486,7 +34486,7 @@
         <v>19.25</v>
       </c>
       <c r="G1208" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34512,7 +34512,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34538,7 +34538,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34564,7 +34564,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1211" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34590,7 +34590,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1212" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34616,7 +34616,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1213" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34642,7 +34642,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1214" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34668,7 +34668,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1215" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34694,7 +34694,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1216" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34720,7 +34720,7 @@
         <v>18.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34746,7 +34746,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1218" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34772,7 +34772,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34798,7 +34798,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34824,7 +34824,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34850,7 +34850,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1222" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34876,7 +34876,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34902,7 +34902,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1224" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34928,7 +34928,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1225" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34954,7 +34954,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34980,7 +34980,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35006,7 +35006,7 @@
         <v>17.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35032,7 +35032,7 @@
         <v>18</v>
       </c>
       <c r="G1229" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35058,7 +35058,7 @@
         <v>18.5</v>
       </c>
       <c r="G1230" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35084,7 +35084,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35110,7 +35110,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35136,7 +35136,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35162,7 +35162,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1234" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35188,7 +35188,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35214,7 +35214,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35240,7 +35240,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35266,7 +35266,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35292,7 +35292,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35318,7 +35318,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35344,7 +35344,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1241" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35370,7 +35370,7 @@
         <v>18.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35396,7 +35396,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1243" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35422,7 +35422,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1244" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35448,7 +35448,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35474,7 +35474,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35500,7 +35500,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35526,7 +35526,7 @@
         <v>17.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35552,7 +35552,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35578,7 +35578,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35604,7 +35604,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1251" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35630,7 +35630,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35656,7 +35656,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1253" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35682,7 +35682,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35708,7 +35708,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35734,7 +35734,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1256" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35760,7 +35760,7 @@
         <v>18</v>
       </c>
       <c r="G1257" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35786,7 +35786,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1258" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35812,7 +35812,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1259" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35838,7 +35838,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1260" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35864,7 +35864,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1261" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35890,7 +35890,7 @@
         <v>19</v>
       </c>
       <c r="G1262" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35916,7 +35916,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35942,7 +35942,7 @@
         <v>19.5</v>
       </c>
       <c r="G1264" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35968,7 +35968,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1265" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35994,7 +35994,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1266" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36020,7 +36020,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36046,7 +36046,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1268" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36072,7 +36072,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36098,7 +36098,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1270" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36124,7 +36124,7 @@
         <v>21.5</v>
       </c>
       <c r="G1271" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36150,7 +36150,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36176,7 +36176,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36202,7 +36202,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1274" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36228,7 +36228,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36254,7 +36254,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1276" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36280,7 +36280,7 @@
         <v>22.5</v>
       </c>
       <c r="G1277" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36306,7 +36306,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36332,7 +36332,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36358,7 +36358,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1280" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36384,7 +36384,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36410,7 +36410,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36436,7 +36436,7 @@
         <v>23</v>
       </c>
       <c r="G1283" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36462,7 +36462,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36488,7 +36488,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1285" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36514,7 +36514,7 @@
         <v>23.5</v>
       </c>
       <c r="G1286" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36540,7 +36540,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36566,7 +36566,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36592,7 +36592,7 @@
         <v>23.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36618,7 +36618,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36644,7 +36644,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1291" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36670,7 +36670,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1292" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36696,7 +36696,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1293" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36722,7 +36722,7 @@
         <v>24.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36748,7 +36748,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1295" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36774,7 +36774,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1296" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36800,7 +36800,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1297" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36826,7 +36826,7 @@
         <v>24</v>
       </c>
       <c r="G1298" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36852,7 +36852,7 @@
         <v>24</v>
       </c>
       <c r="G1299" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36878,7 +36878,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1300" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36904,7 +36904,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1301" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36930,7 +36930,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1302" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36956,7 +36956,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1303" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36982,7 +36982,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37008,7 +37008,7 @@
         <v>24</v>
       </c>
       <c r="G1305" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37034,7 +37034,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1306" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37060,7 +37060,7 @@
         <v>25</v>
       </c>
       <c r="G1307" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37086,7 +37086,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37112,7 +37112,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37138,7 +37138,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37164,7 +37164,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1311" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37190,7 +37190,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37216,7 +37216,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1313" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37242,7 +37242,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1314" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37268,7 +37268,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1315" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37294,7 +37294,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37320,7 +37320,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1317" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37346,7 +37346,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37372,7 +37372,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1319" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37398,7 +37398,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37424,7 +37424,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1321" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37450,7 +37450,7 @@
         <v>24.5</v>
       </c>
       <c r="G1322" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37476,7 +37476,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37502,7 +37502,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1324" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37528,7 +37528,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1325" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37554,7 +37554,7 @@
         <v>26.5</v>
       </c>
       <c r="G1326" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37580,7 +37580,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37606,7 +37606,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1328" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37632,7 +37632,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1329" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37658,7 +37658,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1330" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37684,7 +37684,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1331" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37710,7 +37710,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37736,7 +37736,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1333" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37762,7 +37762,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1334" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37788,7 +37788,7 @@
         <v>29</v>
       </c>
       <c r="G1335" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37814,7 +37814,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37840,7 +37840,7 @@
         <v>29</v>
       </c>
       <c r="G1337" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37866,7 +37866,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37892,7 +37892,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1339" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37918,7 +37918,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1340" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37944,7 +37944,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1341" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37970,7 +37970,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1342" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37996,7 +37996,7 @@
         <v>29.5</v>
       </c>
       <c r="G1343" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38022,7 +38022,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1344" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38048,7 +38048,7 @@
         <v>31</v>
       </c>
       <c r="G1345" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38074,7 +38074,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1346" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38100,7 +38100,7 @@
         <v>31</v>
       </c>
       <c r="G1347" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38126,7 +38126,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1348" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38152,7 +38152,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38178,7 +38178,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1350" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38204,7 +38204,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1351" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38230,7 +38230,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1352" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38256,7 +38256,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1353" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38282,7 +38282,7 @@
         <v>30</v>
       </c>
       <c r="G1354" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38308,7 +38308,7 @@
         <v>30</v>
       </c>
       <c r="G1355" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38334,7 +38334,7 @@
         <v>31.5</v>
       </c>
       <c r="G1356" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38360,7 +38360,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1357" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38386,7 +38386,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1358" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38412,7 +38412,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1359" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38438,7 +38438,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1360" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38464,7 +38464,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1361" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38490,7 +38490,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1362" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38516,7 +38516,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38542,7 +38542,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1364" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38568,7 +38568,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1365" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38594,7 +38594,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1366" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38620,7 +38620,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1367" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38646,7 +38646,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1368" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38672,7 +38672,7 @@
         <v>32.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38698,7 +38698,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1370" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38724,7 +38724,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1371" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38750,7 +38750,7 @@
         <v>33.7000007629395</v>
       </c>
       <c r="G1372" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38776,7 +38776,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1373" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38802,7 +38802,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1374" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38828,7 +38828,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38854,7 +38854,7 @@
         <v>33</v>
       </c>
       <c r="G1376" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38880,7 +38880,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1377" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38906,7 +38906,7 @@
         <v>32.5</v>
       </c>
       <c r="G1378" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38932,7 +38932,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1379" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38958,7 +38958,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1380" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38984,7 +38984,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1381" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39010,7 +39010,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1382" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39036,7 +39036,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1383" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39062,7 +39062,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1384" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39088,7 +39088,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1385" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39114,7 +39114,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1386" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39140,7 +39140,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1387" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39166,7 +39166,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G1388" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39192,7 +39192,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G1389" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39218,7 +39218,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1390" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39244,7 +39244,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1391" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39270,7 +39270,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G1392" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39296,7 +39296,7 @@
         <v>40.5</v>
       </c>
       <c r="G1393" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39322,7 +39322,7 @@
         <v>43.4000015258789</v>
       </c>
       <c r="G1394" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39348,7 +39348,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39374,7 +39374,7 @@
         <v>41</v>
       </c>
       <c r="G1396" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39400,7 +39400,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1397" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39426,7 +39426,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1398" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39452,7 +39452,7 @@
         <v>40.5</v>
       </c>
       <c r="G1399" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39478,7 +39478,7 @@
         <v>41</v>
       </c>
       <c r="G1400" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39504,7 +39504,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39530,7 +39530,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1402" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39556,7 +39556,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1403" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39582,7 +39582,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1404" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39608,7 +39608,7 @@
         <v>41.7000007629395</v>
       </c>
       <c r="G1405" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39634,7 +39634,7 @@
         <v>41.5</v>
       </c>
       <c r="G1406" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39660,7 +39660,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39686,7 +39686,7 @@
         <v>39.5</v>
       </c>
       <c r="G1408" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39712,7 +39712,7 @@
         <v>38.9000015258789</v>
       </c>
       <c r="G1409" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39738,7 +39738,7 @@
         <v>39.4000015258789</v>
       </c>
       <c r="G1410" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39764,7 +39764,7 @@
         <v>39.7000007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39790,7 +39790,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1412" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39816,7 +39816,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1413" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39842,7 +39842,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1414" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39868,7 +39868,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1415" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39894,7 +39894,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1416" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39920,7 +39920,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1417" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39946,7 +39946,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1418" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39972,7 +39972,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1419" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39998,7 +39998,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1420" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40024,7 +40024,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1421" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40050,7 +40050,7 @@
         <v>41</v>
       </c>
       <c r="G1422" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40076,7 +40076,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1423" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40102,7 +40102,7 @@
         <v>42</v>
       </c>
       <c r="G1424" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40128,7 +40128,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1425" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40154,7 +40154,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1426" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40180,7 +40180,7 @@
         <v>43.2999992370605</v>
       </c>
       <c r="G1427" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40206,7 +40206,7 @@
         <v>43.9000015258789</v>
       </c>
       <c r="G1428" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40232,7 +40232,7 @@
         <v>44</v>
       </c>
       <c r="G1429" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40258,7 +40258,7 @@
         <v>44</v>
       </c>
       <c r="G1430" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40284,7 +40284,7 @@
         <v>45.4000015258789</v>
       </c>
       <c r="G1431" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40310,7 +40310,7 @@
         <v>44.5</v>
       </c>
       <c r="G1432" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40336,7 +40336,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1433" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40362,7 +40362,7 @@
         <v>45.7999992370605</v>
       </c>
       <c r="G1434" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40388,7 +40388,7 @@
         <v>47.0999984741211</v>
       </c>
       <c r="G1435" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40414,7 +40414,7 @@
         <v>47.7000007629395</v>
       </c>
       <c r="G1436" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40440,7 +40440,7 @@
         <v>47.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40466,7 +40466,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1438" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40492,7 +40492,7 @@
         <v>47.5999984741211</v>
       </c>
       <c r="G1439" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40518,7 +40518,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1440" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40544,7 +40544,7 @@
         <v>47.5</v>
       </c>
       <c r="G1441" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40570,7 +40570,7 @@
         <v>48</v>
       </c>
       <c r="G1442" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40596,7 +40596,7 @@
         <v>48</v>
       </c>
       <c r="G1443" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40622,7 +40622,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G1444" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40648,7 +40648,7 @@
         <v>48.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40674,7 +40674,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G1446" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40700,7 +40700,7 @@
         <v>47.5999984741211</v>
       </c>
       <c r="G1447" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40726,7 +40726,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1448" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40752,7 +40752,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G1449" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40778,7 +40778,7 @@
         <v>48</v>
       </c>
       <c r="G1450" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40804,7 +40804,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40830,7 +40830,7 @@
         <v>45.7999992370605</v>
       </c>
       <c r="G1452" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40856,7 +40856,7 @@
         <v>44.7999992370605</v>
       </c>
       <c r="G1453" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40882,7 +40882,7 @@
         <v>44.7999992370605</v>
       </c>
       <c r="G1454" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40908,7 +40908,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1455" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40934,7 +40934,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1456" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40960,7 +40960,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1457" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40986,7 +40986,7 @@
         <v>45</v>
       </c>
       <c r="G1458" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41012,7 +41012,7 @@
         <v>44.5999984741211</v>
       </c>
       <c r="G1459" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41038,7 +41038,7 @@
         <v>43.5</v>
       </c>
       <c r="G1460" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41064,7 +41064,7 @@
         <v>41.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41090,7 +41090,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1462" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41116,7 +41116,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1463" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41142,7 +41142,7 @@
         <v>41.5</v>
       </c>
       <c r="G1464" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41168,7 +41168,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1465" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41194,7 +41194,7 @@
         <v>42</v>
       </c>
       <c r="G1466" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41220,7 +41220,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1467" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41246,7 +41246,7 @@
         <v>42.2000007629395</v>
       </c>
       <c r="G1468" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41272,7 +41272,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1469" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41298,7 +41298,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1470" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41324,7 +41324,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1471" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41350,7 +41350,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1472" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41376,7 +41376,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1473" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41402,7 +41402,7 @@
         <v>43.5</v>
       </c>
       <c r="G1474" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41428,7 +41428,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1475" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41454,7 +41454,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1476" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41480,7 +41480,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1477" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41506,7 +41506,7 @@
         <v>44.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41532,7 +41532,7 @@
         <v>44.5999984741211</v>
       </c>
       <c r="G1479" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41558,7 +41558,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1480" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41584,7 +41584,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1481" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41610,7 +41610,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1482" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41636,7 +41636,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1483" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41662,7 +41662,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1484" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41688,7 +41688,7 @@
         <v>43</v>
       </c>
       <c r="G1485" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41714,7 +41714,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41740,7 +41740,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1487" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41766,7 +41766,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1488" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41792,7 +41792,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1489" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41818,7 +41818,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1490" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41844,7 +41844,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1491" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41870,7 +41870,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1492" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41896,7 +41896,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1493" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41922,7 +41922,7 @@
         <v>43</v>
       </c>
       <c r="G1494" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41948,7 +41948,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1495" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41974,7 +41974,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1496" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42000,7 +42000,7 @@
         <v>43</v>
       </c>
       <c r="G1497" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42026,7 +42026,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1498" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42052,7 +42052,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1499" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42078,7 +42078,7 @@
         <v>43.5</v>
       </c>
       <c r="G1500" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42104,7 +42104,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1501" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42130,7 +42130,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1502" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42156,7 +42156,7 @@
         <v>43</v>
       </c>
       <c r="G1503" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42182,7 +42182,7 @@
         <v>42.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42208,7 +42208,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1505" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42234,7 +42234,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1506" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42260,7 +42260,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1507" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42286,7 +42286,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1508" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42312,7 +42312,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1509" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42338,7 +42338,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1510" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42364,7 +42364,7 @@
         <v>42.5</v>
       </c>
       <c r="G1511" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42390,7 +42390,7 @@
         <v>43</v>
       </c>
       <c r="G1512" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42416,7 +42416,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1513" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42442,7 +42442,7 @@
         <v>41.5</v>
       </c>
       <c r="G1514" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42468,7 +42468,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42494,7 +42494,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42520,7 +42520,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1517" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42546,7 +42546,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1518" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42572,7 +42572,7 @@
         <v>41.5</v>
       </c>
       <c r="G1519" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42598,7 +42598,7 @@
         <v>40.5</v>
       </c>
       <c r="G1520" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42624,7 +42624,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1521" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42650,7 +42650,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1522" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42676,7 +42676,7 @@
         <v>40.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42702,7 +42702,7 @@
         <v>40.5</v>
       </c>
       <c r="G1524" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42728,7 +42728,7 @@
         <v>41</v>
       </c>
       <c r="G1525" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42754,7 +42754,7 @@
         <v>41.5</v>
       </c>
       <c r="G1526" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42780,7 +42780,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1527" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42806,7 +42806,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42832,7 +42832,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1529" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42858,7 +42858,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1530" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42884,7 +42884,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1531" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42910,7 +42910,7 @@
         <v>40.5</v>
       </c>
       <c r="G1532" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42936,7 +42936,7 @@
         <v>40.5999984741211</v>
       </c>
       <c r="G1533" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42962,7 +42962,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42988,7 +42988,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1535" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43014,7 +43014,7 @@
         <v>41.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43040,7 +43040,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1537" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43066,7 +43066,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1538" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43092,7 +43092,7 @@
         <v>42.5</v>
       </c>
       <c r="G1539" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43118,7 +43118,7 @@
         <v>41.9000015258789</v>
       </c>
       <c r="G1540" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43144,7 +43144,7 @@
         <v>42.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43170,7 +43170,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1542" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43196,7 +43196,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1543" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43222,7 +43222,7 @@
         <v>40.5</v>
       </c>
       <c r="G1544" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43248,7 +43248,7 @@
         <v>40.5</v>
       </c>
       <c r="G1545" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43274,7 +43274,7 @@
         <v>40.2999992370605</v>
       </c>
       <c r="G1546" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43300,7 +43300,7 @@
         <v>42</v>
       </c>
       <c r="G1547" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43326,7 +43326,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1548" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43352,7 +43352,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1549" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43378,7 +43378,7 @@
         <v>41.5</v>
       </c>
       <c r="G1550" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43404,7 +43404,7 @@
         <v>41.2999992370605</v>
       </c>
       <c r="G1551" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43430,7 +43430,7 @@
         <v>41</v>
       </c>
       <c r="G1552" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43456,7 +43456,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43482,7 +43482,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1554" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43508,7 +43508,7 @@
         <v>41</v>
       </c>
       <c r="G1555" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43534,7 +43534,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1556" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43560,7 +43560,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43586,7 +43586,7 @@
         <v>39.2999992370605</v>
       </c>
       <c r="G1558" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43612,7 +43612,7 @@
         <v>39.2000007629395</v>
       </c>
       <c r="G1559" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43638,7 +43638,7 @@
         <v>38.2999992370605</v>
       </c>
       <c r="G1560" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43664,7 +43664,7 @@
         <v>39</v>
       </c>
       <c r="G1561" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43690,7 +43690,7 @@
         <v>37</v>
       </c>
       <c r="G1562" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43716,7 +43716,7 @@
         <v>36.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43742,7 +43742,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1564" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43768,7 +43768,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G1565" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43794,7 +43794,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G1566" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43820,7 +43820,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1567" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43846,7 +43846,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1568" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43872,7 +43872,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1569" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43898,7 +43898,7 @@
         <v>34.7000007629395</v>
       </c>
       <c r="G1570" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43924,7 +43924,7 @@
         <v>34</v>
       </c>
       <c r="G1571" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43950,7 +43950,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1572" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43976,7 +43976,7 @@
         <v>33</v>
       </c>
       <c r="G1573" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44002,7 +44002,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1574" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44028,7 +44028,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1575" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44054,7 +44054,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1576" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44080,7 +44080,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1577" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44106,7 +44106,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G1578" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44132,7 +44132,7 @@
         <v>35.5</v>
       </c>
       <c r="G1579" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44158,7 +44158,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G1580" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44184,7 +44184,7 @@
         <v>38</v>
       </c>
       <c r="G1581" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44210,7 +44210,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1582" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44236,7 +44236,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1583" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44262,7 +44262,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1584" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44288,7 +44288,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1585" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44314,7 +44314,7 @@
         <v>35</v>
       </c>
       <c r="G1586" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44340,7 +44340,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G1587" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44366,7 +44366,7 @@
         <v>35.2000007629395</v>
       </c>
       <c r="G1588" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44392,7 +44392,7 @@
         <v>35</v>
       </c>
       <c r="G1589" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44418,7 +44418,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G1590" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44444,7 +44444,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1591" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44470,7 +44470,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1592" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44496,7 +44496,7 @@
         <v>35</v>
       </c>
       <c r="G1593" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44522,7 +44522,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G1594" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44548,7 +44548,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G1595" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44574,7 +44574,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G1596" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44600,7 +44600,7 @@
         <v>36.25</v>
       </c>
       <c r="G1597" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44626,7 +44626,7 @@
         <v>36.5</v>
       </c>
       <c r="G1598" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44652,7 +44652,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1599" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44678,7 +44678,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44704,7 +44704,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1601" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44730,7 +44730,7 @@
         <v>34.75</v>
       </c>
       <c r="G1602" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44756,7 +44756,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1603" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44782,7 +44782,7 @@
         <v>33.0499992370605</v>
       </c>
       <c r="G1604" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44808,7 +44808,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G1605" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44834,7 +44834,7 @@
         <v>32.5</v>
       </c>
       <c r="G1606" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44860,7 +44860,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G1607" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44886,7 +44886,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44912,7 +44912,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44938,7 +44938,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1610" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44964,7 +44964,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G1611" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44990,7 +44990,7 @@
         <v>30</v>
       </c>
       <c r="G1612" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45016,7 +45016,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G1613" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45042,7 +45042,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1614" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45068,7 +45068,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G1615" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45094,7 +45094,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G1616" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45120,7 +45120,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1617" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45146,7 +45146,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G1618" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45172,7 +45172,7 @@
         <v>32.5</v>
       </c>
       <c r="G1619" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45198,7 +45198,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1620" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45224,7 +45224,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1621" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45250,7 +45250,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45276,7 +45276,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1623" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45302,7 +45302,7 @@
         <v>29.25</v>
       </c>
       <c r="G1624" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45328,7 +45328,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45354,7 +45354,7 @@
         <v>28.5</v>
       </c>
       <c r="G1626" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45380,7 +45380,7 @@
         <v>28.5</v>
       </c>
       <c r="G1627" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45406,7 +45406,7 @@
         <v>28.25</v>
       </c>
       <c r="G1628" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45432,7 +45432,7 @@
         <v>28.25</v>
       </c>
       <c r="G1629" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45458,7 +45458,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1630" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45484,7 +45484,7 @@
         <v>28.25</v>
       </c>
       <c r="G1631" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45510,7 +45510,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45536,7 +45536,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45562,7 +45562,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1634" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45588,7 +45588,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45614,7 +45614,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45640,7 +45640,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G1637" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45666,7 +45666,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45692,7 +45692,7 @@
         <v>27.25</v>
       </c>
       <c r="G1639" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45718,7 +45718,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1640" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45744,7 +45744,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1641" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45770,7 +45770,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45796,7 +45796,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1643" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45822,7 +45822,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1644" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45848,7 +45848,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1645" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45874,7 +45874,7 @@
         <v>27</v>
       </c>
       <c r="G1646" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45900,7 +45900,7 @@
         <v>26.75</v>
       </c>
       <c r="G1647" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45926,7 +45926,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45952,7 +45952,7 @@
         <v>26.75</v>
       </c>
       <c r="G1649" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45978,7 +45978,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1650" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46004,7 +46004,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46030,7 +46030,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1652" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46056,7 +46056,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1653" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46082,7 +46082,7 @@
         <v>26.25</v>
       </c>
       <c r="G1654" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46108,7 +46108,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46134,7 +46134,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1656" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46160,7 +46160,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1657" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46186,7 +46186,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1658" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46212,7 +46212,7 @@
         <v>25.75</v>
       </c>
       <c r="G1659" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46238,7 +46238,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1660" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46264,7 +46264,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1661" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46290,7 +46290,7 @@
         <v>26</v>
       </c>
       <c r="G1662" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46316,7 +46316,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1663" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46342,7 +46342,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1664" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46368,7 +46368,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1665" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46394,7 +46394,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46420,7 +46420,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46446,7 +46446,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46472,7 +46472,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1669" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46498,7 +46498,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1670" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46524,7 +46524,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46550,7 +46550,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1672" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46576,7 +46576,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1673" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46602,7 +46602,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46628,7 +46628,7 @@
         <v>28</v>
       </c>
       <c r="G1675" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46654,7 +46654,7 @@
         <v>28.5</v>
       </c>
       <c r="G1676" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46680,7 +46680,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1677" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46706,7 +46706,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46732,7 +46732,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G1679" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46758,7 +46758,7 @@
         <v>28</v>
       </c>
       <c r="G1680" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46784,7 +46784,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1681" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46810,7 +46810,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1682" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46836,7 +46836,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46862,7 +46862,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1684" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46888,7 +46888,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1685" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46914,7 +46914,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1686" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46940,7 +46940,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46966,7 +46966,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46992,7 +46992,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1689" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47018,7 +47018,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1690" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47044,7 +47044,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1691" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47070,7 +47070,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1692" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47096,7 +47096,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47122,7 +47122,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1694" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47148,7 +47148,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1695" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47174,7 +47174,7 @@
         <v>25.75</v>
       </c>
       <c r="G1696" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47200,7 +47200,7 @@
         <v>25.5</v>
       </c>
       <c r="G1697" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47226,7 +47226,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47252,7 +47252,7 @@
         <v>25.25</v>
       </c>
       <c r="G1699" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47278,7 +47278,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1700" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47304,7 +47304,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1701" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47330,7 +47330,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47356,7 +47356,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47382,7 +47382,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1704" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47408,7 +47408,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47434,7 +47434,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1706" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47460,7 +47460,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47486,7 +47486,7 @@
         <v>26</v>
       </c>
       <c r="G1708" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47512,7 +47512,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1709" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47538,7 +47538,7 @@
         <v>25</v>
       </c>
       <c r="G1710" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47564,7 +47564,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47590,7 +47590,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47616,7 +47616,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1713" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47642,7 +47642,7 @@
         <v>23.25</v>
       </c>
       <c r="G1714" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47668,7 +47668,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47694,7 +47694,7 @@
         <v>22.5</v>
       </c>
       <c r="G1716" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47720,7 +47720,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1717" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47746,7 +47746,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47772,7 +47772,7 @@
         <v>21.75</v>
       </c>
       <c r="G1719" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47798,7 +47798,7 @@
         <v>21.75</v>
       </c>
       <c r="G1720" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47824,7 +47824,7 @@
         <v>21.75</v>
       </c>
       <c r="G1721" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47850,7 +47850,7 @@
         <v>21.75</v>
       </c>
       <c r="G1722" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47876,7 +47876,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47902,7 +47902,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47928,7 +47928,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47954,7 +47954,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1726" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47980,7 +47980,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1727" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48006,7 +48006,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48032,7 +48032,7 @@
         <v>21.5</v>
       </c>
       <c r="G1729" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48058,7 +48058,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1730" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48084,7 +48084,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1731" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48110,7 +48110,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48136,7 +48136,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1733" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48162,7 +48162,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1734" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48188,7 +48188,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1735" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48214,7 +48214,7 @@
         <v>22.75</v>
       </c>
       <c r="G1736" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48240,7 +48240,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1737" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48266,7 +48266,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1738" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48292,7 +48292,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48318,7 +48318,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48344,7 +48344,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1741" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48370,7 +48370,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48396,7 +48396,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48422,7 +48422,7 @@
         <v>25</v>
       </c>
       <c r="G1744" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48448,7 +48448,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1745" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48474,7 +48474,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1746" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48500,7 +48500,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1747" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48526,7 +48526,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1748" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48552,7 +48552,7 @@
         <v>26.5</v>
       </c>
       <c r="G1749" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48578,7 +48578,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G1750" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48604,7 +48604,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48630,7 +48630,7 @@
         <v>25</v>
       </c>
       <c r="G1752" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48656,7 +48656,7 @@
         <v>25.25</v>
       </c>
       <c r="G1753" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48682,7 +48682,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1754" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48708,7 +48708,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1755" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48734,7 +48734,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48760,7 +48760,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1757" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48786,7 +48786,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48812,7 +48812,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1759" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48838,7 +48838,7 @@
         <v>26</v>
       </c>
       <c r="G1760" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48864,7 +48864,7 @@
         <v>26.5</v>
       </c>
       <c r="G1761" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48890,7 +48890,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1762" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48916,7 +48916,7 @@
         <v>27</v>
       </c>
       <c r="G1763" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48942,7 +48942,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1764" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48968,7 +48968,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1765" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48994,7 +48994,7 @@
         <v>27.25</v>
       </c>
       <c r="G1766" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49020,7 +49020,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1767" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49046,7 +49046,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1768" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49072,7 +49072,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1769" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49098,7 +49098,7 @@
         <v>27.75</v>
       </c>
       <c r="G1770" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49124,7 +49124,7 @@
         <v>27</v>
       </c>
       <c r="G1771" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49150,7 +49150,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1772" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49176,7 +49176,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1773" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49202,7 +49202,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49228,7 +49228,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1775" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49254,7 +49254,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49280,7 +49280,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1777" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49306,7 +49306,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1778" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49332,7 +49332,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1779" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49358,7 +49358,7 @@
         <v>27.5</v>
       </c>
       <c r="G1780" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49384,7 +49384,7 @@
         <v>27.5</v>
       </c>
       <c r="G1781" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49410,7 +49410,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49436,7 +49436,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49462,7 +49462,7 @@
         <v>27.5</v>
       </c>
       <c r="G1784" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49488,7 +49488,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G1785" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49514,7 +49514,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G1786" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49540,7 +49540,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49566,7 +49566,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G1788" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49592,7 +49592,7 @@
         <v>29.75</v>
       </c>
       <c r="G1789" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49618,7 +49618,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1790" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49644,7 +49644,7 @@
         <v>30.25</v>
       </c>
       <c r="G1791" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49670,7 +49670,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49696,7 +49696,7 @@
         <v>30.25</v>
       </c>
       <c r="G1793" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49722,7 +49722,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49748,7 +49748,7 @@
         <v>30.5</v>
       </c>
       <c r="G1795" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49774,7 +49774,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49800,7 +49800,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49826,7 +49826,7 @@
         <v>30.3500003814697</v>
       </c>
       <c r="G1798" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49852,7 +49852,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49878,7 +49878,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49904,7 +49904,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1801" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49930,7 +49930,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1802" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49956,7 +49956,7 @@
         <v>29.75</v>
       </c>
       <c r="G1803" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49982,7 +49982,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50008,7 +50008,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1805" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50034,7 +50034,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50060,7 +50060,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50086,7 +50086,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50112,7 +50112,7 @@
         <v>27.5</v>
       </c>
       <c r="G1809" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50138,7 +50138,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1810" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50164,7 +50164,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50190,7 +50190,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1812" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50216,7 +50216,7 @@
         <v>26</v>
       </c>
       <c r="G1813" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50242,7 +50242,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50268,7 +50268,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1815" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50294,7 +50294,7 @@
         <v>24.75</v>
       </c>
       <c r="G1816" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50320,7 +50320,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50346,7 +50346,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1818" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50372,7 +50372,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1819" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50398,7 +50398,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1820" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50424,7 +50424,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50450,7 +50450,7 @@
         <v>24.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50476,7 +50476,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50502,7 +50502,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50528,7 +50528,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1825" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50554,7 +50554,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1826" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50580,7 +50580,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50606,7 +50606,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50632,7 +50632,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50658,7 +50658,7 @@
         <v>25.25</v>
       </c>
       <c r="G1830" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50684,7 +50684,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1831" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50710,7 +50710,7 @@
         <v>25.25</v>
       </c>
       <c r="G1832" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50736,7 +50736,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50762,7 +50762,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1834" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50788,7 +50788,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1835" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50814,7 +50814,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50840,7 +50840,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50866,7 +50866,7 @@
         <v>22.25</v>
       </c>
       <c r="G1838" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50892,7 +50892,7 @@
         <v>22.25</v>
       </c>
       <c r="G1839" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50918,7 +50918,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1840" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50944,7 +50944,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1841" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50970,7 +50970,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1842" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50996,7 +50996,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1843" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51022,7 +51022,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1844" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51048,7 +51048,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1845" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51074,7 +51074,7 @@
         <v>23.5</v>
       </c>
       <c r="G1846" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51100,7 +51100,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1847" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51126,7 +51126,7 @@
         <v>24.5</v>
       </c>
       <c r="G1848" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51152,7 +51152,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1849" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51178,7 +51178,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1850" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51204,7 +51204,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1851" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51230,7 +51230,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1852" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51256,7 +51256,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1853" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51282,7 +51282,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51308,7 +51308,7 @@
         <v>23</v>
       </c>
       <c r="G1855" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51334,7 +51334,7 @@
         <v>23</v>
       </c>
       <c r="G1856" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51360,7 +51360,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1857" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51386,7 +51386,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1858" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51412,7 +51412,7 @@
         <v>23</v>
       </c>
       <c r="G1859" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51438,7 +51438,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51464,7 +51464,7 @@
         <v>23</v>
       </c>
       <c r="G1861" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51490,7 +51490,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51516,7 +51516,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1863" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51542,7 +51542,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1864" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51568,7 +51568,7 @@
         <v>23</v>
       </c>
       <c r="G1865" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51594,7 +51594,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1866" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51620,7 +51620,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1867" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51646,7 +51646,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51698,7 +51698,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1870" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51828,7 +51828,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51880,7 +51880,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51906,7 +51906,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52192,7 +52192,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52244,7 +52244,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52270,7 +52270,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52296,7 +52296,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1893" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52322,7 +52322,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1894" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52478,7 +52478,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1900" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -60208,7 +60208,7 @@
     </row>
     <row r="2198">
       <c r="A2198" s="1" t="n">
-        <v>45524.6496296296</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B2198" t="n">
         <v>965</v>
@@ -60229,6 +60229,32 @@
         <v>898</v>
       </c>
       <c r="H2198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>45525.6495717593</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>995</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>21.8999996185303</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>21.3999996185303</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>21.8999996185303</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>21.7999992370605</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>895</v>
+      </c>
+      <c r="H2199" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -44,124 +44,124 @@
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19319534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10123062133789</t>
+    <t xml:space="preserve">8.15975475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19319438934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10123157501221</t>
   </si>
   <si>
     <t xml:space="preserve">8.10959148406982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06778812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94238328933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877752304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6497688293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189443588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69157075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304901123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960794448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6372275352478</t>
+    <t xml:space="preserve">8.06778717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94238233566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8587794303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976787567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79189491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69157028198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304805755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722896575928</t>
   </si>
   <si>
     <t xml:space="preserve">7.62886762619019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60796785354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58288526535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517461776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697702407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48255968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7584547996521</t>
+    <t xml:space="preserve">7.60796642303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5828857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517509460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81697654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4825611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75845384597778</t>
   </si>
   <si>
     <t xml:space="preserve">7.66648960113525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62468767166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31535243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.440758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52436351776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59124612808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76681518554688</t>
+    <t xml:space="preserve">7.62468862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31535291671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44075727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52436208724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59124565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76263523101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7668137550354</t>
   </si>
   <si>
     <t xml:space="preserve">7.98418521881104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02598571777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84624004364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402194976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26007843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35622310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2767972946167</t>
+    <t xml:space="preserve">8.02598762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84623908996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35622215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27680015563965</t>
   </si>
   <si>
     <t xml:space="preserve">7.89222049713135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18483352661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9967246055603</t>
+    <t xml:space="preserve">8.18483543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672555923462</t>
   </si>
   <si>
     <t xml:space="preserve">7.9758243560791</t>
@@ -170,28 +170,28 @@
     <t xml:space="preserve">8.13467216491699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12631225585938</t>
+    <t xml:space="preserve">8.12631320953369</t>
   </si>
   <si>
     <t xml:space="preserve">8.15139293670654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23499774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33532238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07614898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762771606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92148160934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90894222259521</t>
+    <t xml:space="preserve">8.23499584197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3353214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07614994049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762676239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92148113250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90894174575806</t>
   </si>
   <si>
     <t xml:space="preserve">7.7333722114563</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">7.80861663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95910453796387</t>
+    <t xml:space="preserve">7.95910358428955</t>
   </si>
   <si>
     <t xml:space="preserve">7.89640092849731</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70829248428345</t>
+    <t xml:space="preserve">7.70829200744629</t>
   </si>
   <si>
     <t xml:space="preserve">7.65394830703735</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">7.67067050933838</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6873893737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85041952133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57870578765869</t>
+    <t xml:space="preserve">7.68738985061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8504204750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57870435714722</t>
   </si>
   <si>
     <t xml:space="preserve">7.55780458450317</t>
@@ -233,130 +233,130 @@
     <t xml:space="preserve">7.80443716049194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8127965927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239831924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920871734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355146408081</t>
+    <t xml:space="preserve">7.81279706954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920776367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27355051040649</t>
   </si>
   <si>
     <t xml:space="preserve">7.33207368850708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18994665145874</t>
+    <t xml:space="preserve">7.1899471282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.19412612915039</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18576574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06454133987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05618000030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978433609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97257661819458</t>
+    <t xml:space="preserve">7.19830703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18576812744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06454038619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05617904663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97257614135742</t>
   </si>
   <si>
     <t xml:space="preserve">7.14814567565918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21502828598022</t>
+    <t xml:space="preserve">7.21502733230591</t>
   </si>
   <si>
     <t xml:space="preserve">7.35715532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39895725250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67485094070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59542655944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60378694534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56616449356079</t>
+    <t xml:space="preserve">7.39895677566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67484998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59542608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60378551483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56616401672363</t>
   </si>
   <si>
     <t xml:space="preserve">7.42403745651245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5160026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47419929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45329999923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10540962219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1973762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35204219818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29351997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303398132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254465103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09286975860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44400787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5944938659668</t>
+    <t xml:space="preserve">7.51600122451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018213272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54108381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4741997718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45329904556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57034635543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1054105758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19737434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3520450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09286880493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44400691986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59449291229248</t>
   </si>
   <si>
     <t xml:space="preserve">8.54433155059814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56105327606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6530179977417</t>
+    <t xml:space="preserve">8.56105422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65301895141602</t>
   </si>
   <si>
     <t xml:space="preserve">8.97071170806885</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">8.945631980896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73662090301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86202907562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92055034637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90383052825928</t>
+    <t xml:space="preserve">8.73661994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86202716827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90382957458496</t>
   </si>
   <si>
     <t xml:space="preserve">8.99579334259033</t>
@@ -389,28 +389,28 @@
     <t xml:space="preserve">9.04722595214844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07278156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01315021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03018665313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15797233581543</t>
+    <t xml:space="preserve">9.07278251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01314830780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03018760681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15797328948975</t>
   </si>
   <si>
     <t xml:space="preserve">9.23464393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28575706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37094783782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14945316314697</t>
+    <t xml:space="preserve">9.28575897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37094879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14945411682129</t>
   </si>
   <si>
     <t xml:space="preserve">9.26872062683105</t>
@@ -422,157 +422,157 @@
     <t xml:space="preserve">9.32835388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613956451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206573486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36242961883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354560852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54984951019287</t>
+    <t xml:space="preserve">9.45614051818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36243057250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354465484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54984855651855</t>
   </si>
   <si>
     <t xml:space="preserve">9.61800193786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54133033752441</t>
+    <t xml:space="preserve">9.5413293838501</t>
   </si>
   <si>
     <t xml:space="preserve">9.56688690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39650535583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55836772918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59244441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58392524719238</t>
+    <t xml:space="preserve">9.39650630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55836963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59244537353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5839262008667</t>
   </si>
   <si>
     <t xml:space="preserve">9.60948276519775</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49021625518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37946796417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33687210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20908641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20056915283203</t>
+    <t xml:space="preserve">9.57540512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49021530151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37946891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33687114715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20908737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20056819915771</t>
   </si>
   <si>
     <t xml:space="preserve">9.27723979949951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31983375549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30279731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53281116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62651920318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71170997619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78838062286377</t>
+    <t xml:space="preserve">9.31983470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30279636383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53281021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62652015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71171092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78838157653809</t>
   </si>
   <si>
     <t xml:space="preserve">9.83097648620605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75430583953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0950679779053</t>
+    <t xml:space="preserve">9.75430488586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0950689315796</t>
   </si>
   <si>
     <t xml:space="preserve">10.0524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3591585159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4528694152832</t>
+    <t xml:space="preserve">10.3591556549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4528684616089</t>
   </si>
   <si>
     <t xml:space="preserve">10.5891723632812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6062097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6488065719604</t>
+    <t xml:space="preserve">10.6062107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6488046646118</t>
   </si>
   <si>
     <t xml:space="preserve">10.5721340179443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6232490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5636148452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2228517532349</t>
+    <t xml:space="preserve">10.6232481002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5636157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017534255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3676767349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2228546142578</t>
   </si>
   <si>
     <t xml:space="preserve">10.2910051345825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3761978149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2484111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231372833252</t>
+    <t xml:space="preserve">10.3761968612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2484121322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2313737869263</t>
   </si>
   <si>
     <t xml:space="preserve">10.2398929595947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4187889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4784250259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4613876342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3421211242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3165626525879</t>
+    <t xml:space="preserve">10.4187908172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4784269332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.461386680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3421201705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3165616989136</t>
   </si>
   <si>
     <t xml:space="preserve">10.3080434799194</t>
@@ -581,58 +581,58 @@
     <t xml:space="preserve">10.3506393432617</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7339954376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8191862106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9469738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0151243209839</t>
+    <t xml:space="preserve">10.733998298645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8191871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9469728469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0151252746582</t>
   </si>
   <si>
     <t xml:space="preserve">11.0662384033203</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0321626663208</t>
+    <t xml:space="preserve">11.0321617126465</t>
   </si>
   <si>
     <t xml:space="preserve">11.023642539978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9895668029785</t>
+    <t xml:space="preserve">10.9895677566528</t>
   </si>
   <si>
     <t xml:space="preserve">11.0406818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8277044296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617830276489</t>
+    <t xml:space="preserve">10.8277053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021478652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617820739746</t>
   </si>
   <si>
     <t xml:space="preserve">10.8447427749634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9043760299683</t>
+    <t xml:space="preserve">10.9043769836426</t>
   </si>
   <si>
     <t xml:space="preserve">10.8958578109741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8532638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8703031539917</t>
+    <t xml:space="preserve">10.8532619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8703012466431</t>
   </si>
   <si>
     <t xml:space="preserve">10.7680721282959</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">10.7425146102905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999216079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.665843963623</t>
+    <t xml:space="preserve">10.6999206542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6658449172974</t>
   </si>
   <si>
     <t xml:space="preserve">10.7936296463013</t>
@@ -653,52 +653,52 @@
     <t xml:space="preserve">10.6914014816284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7595539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9128952026367</t>
+    <t xml:space="preserve">10.7595529556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9128971099854</t>
   </si>
   <si>
     <t xml:space="preserve">10.8106670379639</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169580459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0747594833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1599473953247</t>
+    <t xml:space="preserve">10.7169570922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0747585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1599493026733</t>
   </si>
   <si>
     <t xml:space="preserve">11.2025442123413</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245138168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2877349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1173543930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3729238510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3303289413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433053970337</t>
+    <t xml:space="preserve">11.2451391220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2877330780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1173553466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3729257583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3303308486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.543306350708</t>
   </si>
   <si>
     <t xml:space="preserve">11.7562828063965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.969256401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2248315811157</t>
+    <t xml:space="preserve">11.9692583084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2248287200928</t>
   </si>
   <si>
     <t xml:space="preserve">11.585901260376</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">11.5007095336914</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6710910797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8414716720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7988767623901</t>
+    <t xml:space="preserve">11.6710901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8414726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7988777160645</t>
   </si>
   <si>
     <t xml:space="preserve">11.7136869430542</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0594778060913</t>
+    <t xml:space="preserve">12.0156259536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0594787597656</t>
   </si>
   <si>
     <t xml:space="preserve">12.1033306121826</t>
@@ -734,64 +734,64 @@
     <t xml:space="preserve">11.9279203414917</t>
   </si>
   <si>
+    <t xml:space="preserve">11.5332450866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6648035049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7525081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7086572647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4016876220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5770978927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717721939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3578357696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824245452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8498449325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8046178817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141590118408</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.5332460403442</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6648035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7525100708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7086572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963619232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4016876220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717721939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3578338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824245452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8498449325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8046169281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141590118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332469940186</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.6689310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4427900314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5784740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.623703956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880180358887</t>
+    <t xml:space="preserve">11.4427890777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5784749984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6237030029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880170822144</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
@@ -800,46 +800,46 @@
     <t xml:space="preserve">11.0809621810913</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3523321151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2166481018066</t>
+    <t xml:space="preserve">11.3523330688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2166471481323</t>
   </si>
   <si>
     <t xml:space="preserve">11.1714191436768</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3071050643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3975610733032</t>
+    <t xml:space="preserve">11.3071041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3975620269775</t>
   </si>
   <si>
     <t xml:space="preserve">11.1261901855469</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9403018951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855298995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.895073890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0759887695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1664438247681</t>
+    <t xml:space="preserve">11.9403028488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855308532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8950719833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0759878158569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1664447784424</t>
   </si>
   <si>
     <t xml:space="preserve">12.1212158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9452772140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8095922470093</t>
+    <t xml:space="preserve">10.9452781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.809591293335</t>
   </si>
   <si>
     <t xml:space="preserve">10.8548202514648</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">10.9905042648315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4929914474487</t>
+    <t xml:space="preserve">10.4929933547974</t>
   </si>
   <si>
     <t xml:space="preserve">10.4025363922119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0407085418701</t>
+    <t xml:space="preserve">10.0407104492188</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859365463257</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">10.3120794296265</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99548053741455</t>
+    <t xml:space="preserve">9.99547958374023</t>
   </si>
   <si>
     <t xml:space="preserve">9.45273876190186</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">9.27182579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18136787414551</t>
+    <t xml:space="preserve">9.18136692047119</t>
   </si>
   <si>
     <t xml:space="preserve">9.49796772003174</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">9.58842372894287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67888164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76933765411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72410869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191343307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311664581299</t>
+    <t xml:space="preserve">9.67888069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76933670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72411060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311645507812</t>
   </si>
   <si>
     <t xml:space="preserve">10.6286783218384</t>
@@ -911,28 +911,28 @@
     <t xml:space="preserve">10.4477643966675</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3573083877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.221622467041</t>
+    <t xml:space="preserve">10.357307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2216234207153</t>
   </si>
   <si>
     <t xml:space="preserve">10.1763944625854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90502262115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95025253295898</t>
+    <t xml:space="preserve">9.9050235748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95025062561035</t>
   </si>
   <si>
     <t xml:space="preserve">9.81456661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8597936630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63365173339844</t>
+    <t xml:space="preserve">9.85979557037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63365268707275</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382204055786</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">10.774055480957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6803674697876</t>
+    <t xml:space="preserve">10.6803684234619</t>
   </si>
   <si>
     <t xml:space="preserve">10.6335248947144</t>
@@ -953,124 +953,124 @@
     <t xml:space="preserve">10.9145860671997</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8677425384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5866804122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7272119522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9614305496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1488046646118</t>
+    <t xml:space="preserve">10.8677434921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5866813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9614295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1488056182861</t>
   </si>
   <si>
     <t xml:space="preserve">11.2893362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2424917221069</t>
+    <t xml:space="preserve">11.2424926757812</t>
   </si>
   <si>
     <t xml:space="preserve">11.055118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1956491470337</t>
+    <t xml:space="preserve">11.1956481933594</t>
   </si>
   <si>
     <t xml:space="preserve">11.617241859436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.476710319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4298658370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3830232620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640844345093</t>
+    <t xml:space="preserve">11.4767112731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4298686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3830223083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640863418579</t>
   </si>
   <si>
     <t xml:space="preserve">11.757773399353</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9919910430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8514614105225</t>
+    <t xml:space="preserve">11.9919919967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8514604568481</t>
   </si>
   <si>
     <t xml:space="preserve">11.7109298706055</t>
   </si>
   <si>
-    <t xml:space="preserve">11.89830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9451494216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5703992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.179368019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2730550765991</t>
+    <t xml:space="preserve">11.8983039855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9451475143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5703983306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2730541229248</t>
   </si>
   <si>
     <t xml:space="preserve">12.2262115478516</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3198976516724</t>
+    <t xml:space="preserve">12.319896697998</t>
   </si>
   <si>
     <t xml:space="preserve">12.3667421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4135847091675</t>
+    <t xml:space="preserve">12.4135856628418</t>
   </si>
   <si>
     <t xml:space="preserve">12.0856790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082750320435</t>
+    <t xml:space="preserve">12.1325216293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082740783691</t>
   </si>
   <si>
     <t xml:space="preserve">11.5235548019409</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3361797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5541152954102</t>
+    <t xml:space="preserve">11.3361806869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5541162490845</t>
   </si>
   <si>
     <t xml:space="preserve">12.6478033065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.600959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7883338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7414903640747</t>
+    <t xml:space="preserve">12.6009607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946468353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7883329391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7414922714233</t>
   </si>
   <si>
     <t xml:space="preserve">12.9288663864136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8351783752441</t>
+    <t xml:space="preserve">12.8351793289185</t>
   </si>
   <si>
     <t xml:space="preserve">12.9757099151611</t>
@@ -1082,115 +1082,115 @@
     <t xml:space="preserve">13.2567720413208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2099294662476</t>
+    <t xml:space="preserve">13.2099285125732</t>
   </si>
   <si>
     <t xml:space="preserve">13.1630849838257</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1019611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5398359298706</t>
+    <t xml:space="preserve">11.1019601821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.071400642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5398368835449</t>
   </si>
   <si>
     <t xml:space="preserve">10.492992401123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0693988800049</t>
+    <t xml:space="preserve">13.0693969726562</t>
   </si>
   <si>
     <t xml:space="preserve">12.4604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7720527648926</t>
+    <t xml:space="preserve">13.7720537185669</t>
   </si>
   <si>
     <t xml:space="preserve">14.3341779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5215520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6620826721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8026161193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8963022232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8494577407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5683965682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6152400970459</t>
+    <t xml:space="preserve">14.5215530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6620845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8026142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8963012695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8494606018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5683975219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6152391433716</t>
   </si>
   <si>
     <t xml:space="preserve">14.4278650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9431467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4747085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.146803855896</t>
+    <t xml:space="preserve">14.9431457519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4747095108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1468029022217</t>
   </si>
   <si>
     <t xml:space="preserve">14.0531158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1936473846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2404909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4291067123413</t>
+    <t xml:space="preserve">14.1936483383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2404899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347978591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.429105758667</t>
   </si>
   <si>
     <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2876434326172</t>
+    <t xml:space="preserve">14.2876443862915</t>
   </si>
   <si>
     <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9104108810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7689504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6746435165405</t>
+    <t xml:space="preserve">13.9104118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7689514160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6746425628662</t>
   </si>
   <si>
     <t xml:space="preserve">13.5803337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2974119186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.155948638916</t>
+    <t xml:space="preserve">13.2974109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1559495925903</t>
   </si>
   <si>
     <t xml:space="preserve">13.2031030654907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9575672149658</t>
+    <t xml:space="preserve">13.9575662612915</t>
   </si>
   <si>
     <t xml:space="preserve">13.7217969894409</t>
@@ -1199,58 +1199,58 @@
     <t xml:space="preserve">14.0990285873413</t>
   </si>
   <si>
-    <t xml:space="preserve">13.533182144165</t>
+    <t xml:space="preserve">13.5331811904907</t>
   </si>
   <si>
     <t xml:space="preserve">13.3445644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4388732910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7120304107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5234127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8534917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949541091919</t>
+    <t xml:space="preserve">13.4388742446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7120294570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5234136581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8534908294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949522018433</t>
   </si>
   <si>
     <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.042106628418</t>
+    <t xml:space="preserve">15.0421075820923</t>
   </si>
   <si>
     <t xml:space="preserve">15.1835689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1364145278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2778778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3721828460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5607995986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9380321502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7022609710693</t>
+    <t xml:space="preserve">15.1364135742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2778768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.372184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5608024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9380311965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.702260017395</t>
   </si>
   <si>
     <t xml:space="preserve">16.032341003418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8908796310425</t>
+    <t xml:space="preserve">15.8908767700195</t>
   </si>
   <si>
     <t xml:space="preserve">16.9754180908203</t>
@@ -1259,28 +1259,28 @@
     <t xml:space="preserve">16.6924953460693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6355743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0697269439697</t>
+    <t xml:space="preserve">17.6355724334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0697288513184</t>
   </si>
   <si>
     <t xml:space="preserve">17.7770347595215</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5884208679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5786533355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8615779876709</t>
+    <t xml:space="preserve">17.5884189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5786552429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8615741729736</t>
   </si>
   <si>
     <t xml:space="preserve">18.7672672271729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1542682647705</t>
+    <t xml:space="preserve">18.1542663574219</t>
   </si>
   <si>
     <t xml:space="preserve">18.2485752105713</t>
@@ -1292,94 +1292,94 @@
     <t xml:space="preserve">17.8241901397705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3998069763184</t>
+    <t xml:space="preserve">17.3998031616211</t>
   </si>
   <si>
     <t xml:space="preserve">17.4941120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1640338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4469585418701</t>
+    <t xml:space="preserve">17.1640357971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4469604492188</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5412673950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5981864929199</t>
+    <t xml:space="preserve">17.5412654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5981884002686</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2583389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1168785095215</t>
+    <t xml:space="preserve">17.2583427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1168804168701</t>
   </si>
   <si>
     <t xml:space="preserve">16.9282646179199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3526515960693</t>
+    <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
     <t xml:space="preserve">17.3054962158203</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4095726013184</t>
+    <t xml:space="preserve">16.4095706939697</t>
   </si>
   <si>
     <t xml:space="preserve">16.8339576721191</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3152637481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0225715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9184989929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3900356292725</t>
+    <t xml:space="preserve">16.3152618408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9184970855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3900375366211</t>
   </si>
   <si>
     <t xml:space="preserve">18.4843444824219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6729583740234</t>
+    <t xml:space="preserve">18.6729602813721</t>
   </si>
   <si>
     <t xml:space="preserve">19.4274253845215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.238805770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6160373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2761936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9363498687744</t>
+    <t xml:space="preserve">19.2388076782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.616039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2761974334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.936351776123</t>
   </si>
   <si>
     <t xml:space="preserve">21.502197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4078903198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2192726135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135795593262</t>
+    <t xml:space="preserve">21.4078922271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2192707061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135833740234</t>
   </si>
   <si>
     <t xml:space="preserve">21.0306568145752</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">21.5965042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6908092498779</t>
+    <t xml:space="preserve">21.6908111572266</t>
   </si>
   <si>
     <t xml:space="preserve">23.4826641082764</t>
@@ -1400,58 +1400,58 @@
     <t xml:space="preserve">22.5332698822021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1497230529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7250442504883</t>
+    <t xml:space="preserve">22.1497249603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7250423431396</t>
   </si>
   <si>
     <t xml:space="preserve">23.3962459564209</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4921321868896</t>
+    <t xml:space="preserve">23.4921340942383</t>
   </si>
   <si>
     <t xml:space="preserve">23.3003597259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.108585357666</t>
+    <t xml:space="preserve">23.1085872650146</t>
   </si>
   <si>
     <t xml:space="preserve">23.0127010345459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6291561126709</t>
+    <t xml:space="preserve">22.6291580200195</t>
   </si>
   <si>
     <t xml:space="preserve">24.3551082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9715633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7797927856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.204475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6839046478271</t>
+    <t xml:space="preserve">23.9715614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7797889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2044734954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6839065551758</t>
   </si>
   <si>
     <t xml:space="preserve">24.0674514770508</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1633358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2180843353271</t>
+    <t xml:space="preserve">24.1633377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2180824279785</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0810604095459</t>
+    <t xml:space="preserve">26.0810623168945</t>
   </si>
   <si>
     <t xml:space="preserve">27.423469543457</t>
@@ -1460,16 +1460,16 @@
     <t xml:space="preserve">28.0946712493896</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9029026031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.574104309082</t>
+    <t xml:space="preserve">27.9029006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5741024017334</t>
   </si>
   <si>
     <t xml:space="preserve">27.7111263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9987850189209</t>
+    <t xml:space="preserve">27.9987888336182</t>
   </si>
   <si>
     <t xml:space="preserve">27.807014465332</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">28.2864437103271</t>
   </si>
   <si>
-    <t xml:space="preserve">30.491828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.724739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4370822906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5329647064209</t>
+    <t xml:space="preserve">30.4918270111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7247409820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4370803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5329666137695</t>
   </si>
   <si>
     <t xml:space="preserve">29.6779747009277</t>
@@ -2752,7 +2752,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -2790,7 +2790,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60390,7 +60390,7 @@
     </row>
     <row r="2205">
       <c r="A2205" s="1" t="n">
-        <v>45533.6493402778</v>
+        <v>45533.2916666667</v>
       </c>
       <c r="B2205" t="n">
         <v>3958</v>
@@ -60411,6 +60411,32 @@
         <v>910</v>
       </c>
       <c r="H2205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="1" t="n">
+        <v>45534.6494907407</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>2732</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>22.2000007629395</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>21.7000007629395</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>21.7999992370605</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>894</v>
+      </c>
+      <c r="H2206" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991611480713</t>
+    <t xml:space="preserve">8.20991516113281</t>
   </si>
   <si>
     <t xml:space="preserve">IWB.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">8.15975379943848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19319534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10123062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10959053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06778812408447</t>
+    <t xml:space="preserve">8.19319629669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10122966766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10958957672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06779003143311</t>
   </si>
   <si>
     <t xml:space="preserve">8.05106830596924</t>
@@ -65,61 +65,61 @@
     <t xml:space="preserve">7.94238328933716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85877895355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6497688293457</t>
+    <t xml:space="preserve">7.85877847671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976835250854</t>
   </si>
   <si>
     <t xml:space="preserve">7.79189538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69157123565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960603713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6372275352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62886714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60796594619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58288526535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71665191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697559356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48256063461304</t>
+    <t xml:space="preserve">7.69157218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304710388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6288685798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60796689987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58288669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517604827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81697750091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48256015777588</t>
   </si>
   <si>
     <t xml:space="preserve">7.75845432281494</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66649198532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62468767166138</t>
+    <t xml:space="preserve">7.6664891242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62468910217285</t>
   </si>
   <si>
     <t xml:space="preserve">7.31535243988037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44075727462769</t>
+    <t xml:space="preserve">7.44075918197632</t>
   </si>
   <si>
     <t xml:space="preserve">7.52436304092407</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">7.59124517440796</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76681470870972</t>
+    <t xml:space="preserve">7.76263475418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76681423187256</t>
   </si>
   <si>
     <t xml:space="preserve">7.98418474197388</t>
@@ -140,91 +140,91 @@
     <t xml:space="preserve">8.02598762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84623956680298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402147293091</t>
+    <t xml:space="preserve">7.84623861312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402099609375</t>
   </si>
   <si>
     <t xml:space="preserve">8.26007843017578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35622310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27679824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89222002029419</t>
+    <t xml:space="preserve">8.35622215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27679920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89222049713135</t>
   </si>
   <si>
     <t xml:space="preserve">8.18483352661133</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99672603607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97582340240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13467311859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12631225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15139293670654</t>
+    <t xml:space="preserve">7.99672508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9758243560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13467216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12631320953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15139389038086</t>
   </si>
   <si>
     <t xml:space="preserve">8.23499774932861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33532238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01762771606445</t>
+    <t xml:space="preserve">8.33531951904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07615089416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01762580871582</t>
   </si>
   <si>
     <t xml:space="preserve">7.9214825630188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9089412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73337316513062</t>
+    <t xml:space="preserve">7.90894079208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7333722114563</t>
   </si>
   <si>
     <t xml:space="preserve">7.80861663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95910453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89639949798584</t>
+    <t xml:space="preserve">7.95910501480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.896399974823</t>
   </si>
   <si>
     <t xml:space="preserve">7.70829296112061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65394830703735</t>
+    <t xml:space="preserve">7.65394878387451</t>
   </si>
   <si>
     <t xml:space="preserve">7.6706714630127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68739223480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.850417137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5787034034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780410766602</t>
+    <t xml:space="preserve">7.68738985061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85041999816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57870435714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55780506134033</t>
   </si>
   <si>
     <t xml:space="preserve">7.57452535629272</t>
@@ -233,25 +233,25 @@
     <t xml:space="preserve">7.80443716049194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81279706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920776367188</t>
+    <t xml:space="preserve">7.81279516220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239974975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920871734619</t>
   </si>
   <si>
     <t xml:space="preserve">7.23174810409546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27355051040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33207416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18994665145874</t>
+    <t xml:space="preserve">7.27355003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33207368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18994760513306</t>
   </si>
   <si>
     <t xml:space="preserve">7.19412660598755</t>
@@ -260,109 +260,109 @@
     <t xml:space="preserve">7.19830703735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18576622009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06453990936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05618000030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978433609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97257566452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14814567565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21502733230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35715484619141</t>
+    <t xml:space="preserve">7.18576669692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06454181671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05618047714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978338241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97257518768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14814519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21502780914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35715579986572</t>
   </si>
   <si>
     <t xml:space="preserve">7.39895677566528</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6748514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59542608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182222366333</t>
+    <t xml:space="preserve">7.67484855651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59542655944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182174682617</t>
   </si>
   <si>
     <t xml:space="preserve">7.60378742218018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56616544723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403841018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51600170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018165588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54108428955078</t>
+    <t xml:space="preserve">7.56616401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51600313186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018356323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54108381271362</t>
   </si>
   <si>
     <t xml:space="preserve">7.47420024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4532995223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57034492492676</t>
+    <t xml:space="preserve">7.45329904556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57034540176392</t>
   </si>
   <si>
     <t xml:space="preserve">8.10541152954102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19737529754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35204315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29351997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14303302764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99254560470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09286975860596</t>
+    <t xml:space="preserve">8.19737339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35204410552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29351806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14303207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99254465103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09287071228027</t>
   </si>
   <si>
     <t xml:space="preserve">8.44400691986084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59449481964111</t>
+    <t xml:space="preserve">8.59449291229248</t>
   </si>
   <si>
     <t xml:space="preserve">8.54433250427246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5610523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6530179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97071266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94563007354736</t>
+    <t xml:space="preserve">8.56105327606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65301704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97071170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.945631980896</t>
   </si>
   <si>
     <t xml:space="preserve">8.73662185668945</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">8.92055034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90382766723633</t>
+    <t xml:space="preserve">8.90382957458496</t>
   </si>
   <si>
     <t xml:space="preserve">8.99579334259033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00415515899658</t>
+    <t xml:space="preserve">9.0041561126709</t>
   </si>
   <si>
     <t xml:space="preserve">8.97907257080078</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">9.04722499847412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07278060913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01314830780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03018665313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15797328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464393615723</t>
+    <t xml:space="preserve">9.07278347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01314926147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03018760681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15797519683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464298248291</t>
   </si>
   <si>
     <t xml:space="preserve">9.28575801849365</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">9.37094879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14945316314697</t>
+    <t xml:space="preserve">9.14945220947266</t>
   </si>
   <si>
     <t xml:space="preserve">9.26872062683105</t>
@@ -422,37 +422,37 @@
     <t xml:space="preserve">9.32835388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45613956451416</t>
+    <t xml:space="preserve">9.45614051818848</t>
   </si>
   <si>
     <t xml:space="preserve">9.42206382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36242961883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354465484619</t>
+    <t xml:space="preserve">9.36243152618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354560852051</t>
   </si>
   <si>
     <t xml:space="preserve">9.54984951019287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61800193786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54133033752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56688690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39650535583496</t>
+    <t xml:space="preserve">9.61800289154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54132843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56688594818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39650630950928</t>
   </si>
   <si>
     <t xml:space="preserve">9.55836772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59244632720947</t>
+    <t xml:space="preserve">9.59244537353516</t>
   </si>
   <si>
     <t xml:space="preserve">9.58392524719238</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">9.57540607452393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49021434783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37946796417236</t>
+    <t xml:space="preserve">9.49021530151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37946701049805</t>
   </si>
   <si>
     <t xml:space="preserve">9.33687400817871</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">9.20908737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20056819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2772388458252</t>
+    <t xml:space="preserve">9.20056915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27723979949951</t>
   </si>
   <si>
     <t xml:space="preserve">9.3198356628418</t>
@@ -488,76 +488,76 @@
     <t xml:space="preserve">9.30279731750488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53281116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62652111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71170997619629</t>
+    <t xml:space="preserve">9.53281021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62652015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71171092987061</t>
   </si>
   <si>
     <t xml:space="preserve">9.7883825302124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83097743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75430679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0950689315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.052472114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3591575622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4528694152832</t>
+    <t xml:space="preserve">9.83097648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75430774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0950679779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0524730682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3591585159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4528684616089</t>
   </si>
   <si>
     <t xml:space="preserve">10.5891733169556</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6062097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6488046646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5721349716187</t>
+    <t xml:space="preserve">10.6062107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6488065719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.57213306427</t>
   </si>
   <si>
     <t xml:space="preserve">10.6232481002808</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5636138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4017534255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676767349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2228536605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2910060882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3761968612671</t>
+    <t xml:space="preserve">10.5636148452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4017524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3676776885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2228527069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2910051345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3761959075928</t>
   </si>
   <si>
     <t xml:space="preserve">10.2484102249146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.231372833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2398910522461</t>
+    <t xml:space="preserve">10.2313718795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2398920059204</t>
   </si>
   <si>
     <t xml:space="preserve">10.4187917709351</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">10.4784250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.461386680603</t>
+    <t xml:space="preserve">10.4613857269287</t>
   </si>
   <si>
     <t xml:space="preserve">10.3421201705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3165636062622</t>
+    <t xml:space="preserve">10.3165616989136</t>
   </si>
   <si>
     <t xml:space="preserve">10.3080444335938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.350640296936</t>
+    <t xml:space="preserve">10.3506393432617</t>
   </si>
   <si>
     <t xml:space="preserve">10.7339963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">10.819188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9469718933105</t>
+    <t xml:space="preserve">10.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9469728469849</t>
   </si>
   <si>
     <t xml:space="preserve">11.0151243209839</t>
@@ -602,28 +602,28 @@
     <t xml:space="preserve">11.0236434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9895668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0406818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8277072906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214153289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617820739746</t>
+    <t xml:space="preserve">10.9895677566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0406827926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8277044296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214143753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021478652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617830276489</t>
   </si>
   <si>
     <t xml:space="preserve">10.8447437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9043769836426</t>
+    <t xml:space="preserve">10.9043779373169</t>
   </si>
   <si>
     <t xml:space="preserve">10.8958578109741</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">10.8532609939575</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8703012466431</t>
+    <t xml:space="preserve">10.8703002929688</t>
   </si>
   <si>
     <t xml:space="preserve">10.7680721282959</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">10.7425146102905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999216079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.665843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7936305999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6914005279541</t>
+    <t xml:space="preserve">10.6999206542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6658449172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.793628692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6914024353027</t>
   </si>
   <si>
     <t xml:space="preserve">10.7595539093018</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">10.912896156311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8106670379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169589996338</t>
+    <t xml:space="preserve">10.8106679916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169570922852</t>
   </si>
   <si>
     <t xml:space="preserve">11.0747585296631</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">11.159948348999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.202543258667</t>
+    <t xml:space="preserve">11.2025442123413</t>
   </si>
   <si>
     <t xml:space="preserve">11.245138168335</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2877330780029</t>
+    <t xml:space="preserve">11.2877340316772</t>
   </si>
   <si>
     <t xml:space="preserve">11.1173534393311</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">11.3729248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3303308486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.543306350708</t>
+    <t xml:space="preserve">11.3303298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433053970337</t>
   </si>
   <si>
     <t xml:space="preserve">11.7562818527222</t>
@@ -698,52 +698,52 @@
     <t xml:space="preserve">11.9692573547363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2248287200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5859022140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.50071144104</t>
+    <t xml:space="preserve">12.2248296737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5859003067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5007104873657</t>
   </si>
   <si>
     <t xml:space="preserve">11.6710910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8414726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7988767623901</t>
+    <t xml:space="preserve">11.8414707183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7988777160645</t>
   </si>
   <si>
     <t xml:space="preserve">11.7136869430542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8840684890747</t>
+    <t xml:space="preserve">11.8840675354004</t>
   </si>
   <si>
     <t xml:space="preserve">12.015625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0594778060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1033296585083</t>
+    <t xml:space="preserve">12.0594787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1033306121826</t>
   </si>
   <si>
     <t xml:space="preserve">11.9279193878174</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5332450866699</t>
+    <t xml:space="preserve">11.5332469940186</t>
   </si>
   <si>
     <t xml:space="preserve">11.6648044586182</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7525091171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7086563110352</t>
+    <t xml:space="preserve">11.7525081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7086572647095</t>
   </si>
   <si>
     <t xml:space="preserve">11.7963619232178</t>
@@ -752,13 +752,10 @@
     <t xml:space="preserve">11.4016885757446</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8840675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9717721939087</t>
+    <t xml:space="preserve">11.5770978927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9717712402344</t>
   </si>
   <si>
     <t xml:space="preserve">11.3578357696533</t>
@@ -767,40 +764,40 @@
     <t xml:space="preserve">11.1824254989624</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8498458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8046178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7141590118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332460403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7593879699707</t>
+    <t xml:space="preserve">11.8498449325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8046159744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7141599655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332479476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7593898773193</t>
   </si>
   <si>
     <t xml:space="preserve">11.6689319610596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4427900314331</t>
+    <t xml:space="preserve">11.4427890777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.5784759521484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6237030029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880170822144</t>
+    <t xml:space="preserve">11.623703956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880180358887</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0809631347656</t>
+    <t xml:space="preserve">11.0809621810913</t>
   </si>
   <si>
     <t xml:space="preserve">11.3523330688477</t>
@@ -809,7 +806,7 @@
     <t xml:space="preserve">11.2166471481323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1714191436768</t>
+    <t xml:space="preserve">11.1714200973511</t>
   </si>
   <si>
     <t xml:space="preserve">11.3071041107178</t>
@@ -818,10 +815,10 @@
     <t xml:space="preserve">11.3975610733032</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1261911392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9403028488159</t>
+    <t xml:space="preserve">11.1261901855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9403018951416</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855308532715</t>
@@ -830,46 +827,46 @@
     <t xml:space="preserve">11.8950729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0759878158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1664428710938</t>
+    <t xml:space="preserve">12.0759868621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1664447784424</t>
   </si>
   <si>
     <t xml:space="preserve">12.1212148666382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9452781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8095922470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8548192977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7643623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9905042648315</t>
+    <t xml:space="preserve">10.9452772140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.809591293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8548202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7643632888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9905052185059</t>
   </si>
   <si>
     <t xml:space="preserve">10.492992401123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4025363922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0407075881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2668504714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3120794296265</t>
+    <t xml:space="preserve">10.4025354385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0407094955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0859355926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2668514251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3120775222778</t>
   </si>
   <si>
     <t xml:space="preserve">9.99547958374023</t>
@@ -878,13 +875,13 @@
     <t xml:space="preserve">9.45273971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22659778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27182388305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18136787414551</t>
+    <t xml:space="preserve">9.22659683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27182579040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18136882781982</t>
   </si>
   <si>
     <t xml:space="preserve">9.49796676635742</t>
@@ -893,16 +890,16 @@
     <t xml:space="preserve">9.58842468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67888164520264</t>
+    <t xml:space="preserve">9.67888259887695</t>
   </si>
   <si>
     <t xml:space="preserve">9.76933860778809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72411060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7191352844238</t>
+    <t xml:space="preserve">9.7241096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7191333770752</t>
   </si>
   <si>
     <t xml:space="preserve">10.1311645507812</t>
@@ -911,43 +908,43 @@
     <t xml:space="preserve">10.6286783218384</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4477643966675</t>
+    <t xml:space="preserve">10.4477634429932</t>
   </si>
   <si>
     <t xml:space="preserve">10.357307434082</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2216234207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1763944625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90502262115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95025253295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81456756591797</t>
+    <t xml:space="preserve">10.2216215133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1763954162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9050235748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95025157928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81456661224365</t>
   </si>
   <si>
     <t xml:space="preserve">9.85979461669922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63365173339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.774055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6803674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63352394104</t>
+    <t xml:space="preserve">9.63365364074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382204055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7740545272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6803665161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6335248947144</t>
   </si>
   <si>
     <t xml:space="preserve">10.8208980560303</t>
@@ -962,10 +959,10 @@
     <t xml:space="preserve">10.5866794586182</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7272109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9614295959473</t>
+    <t xml:space="preserve">10.7272119522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9614305496216</t>
   </si>
   <si>
     <t xml:space="preserve">11.1488046646118</t>
@@ -974,10 +971,10 @@
     <t xml:space="preserve">11.2893362045288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2424936294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0551176071167</t>
+    <t xml:space="preserve">11.2424926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.055118560791</t>
   </si>
   <si>
     <t xml:space="preserve">11.1956481933594</t>
@@ -992,19 +989,22 @@
     <t xml:space="preserve">11.4298677444458</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3830242156982</t>
+    <t xml:space="preserve">11.3830232620239</t>
   </si>
   <si>
     <t xml:space="preserve">11.6640863418579</t>
   </si>
   <si>
+    <t xml:space="preserve">11.8046169281006</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.757773399353</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9919919967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8514595031738</t>
+    <t xml:space="preserve">11.9919929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8514604568481</t>
   </si>
   <si>
     <t xml:space="preserve">11.7109298706055</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">11.89830493927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9451503753662</t>
+    <t xml:space="preserve">11.9451494216919</t>
   </si>
   <si>
     <t xml:space="preserve">11.5703992843628</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">12.2730541229248</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2262105941772</t>
+    <t xml:space="preserve">12.2262096405029</t>
   </si>
   <si>
     <t xml:space="preserve">12.3198976516724</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">12.3667411804199</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4135847091675</t>
+    <t xml:space="preserve">12.4135856628418</t>
   </si>
   <si>
     <t xml:space="preserve">12.0856800079346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1325235366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0082731246948</t>
+    <t xml:space="preserve">12.1325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0082740783691</t>
   </si>
   <si>
     <t xml:space="preserve">11.5235548019409</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">12.5541152954102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6478033065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.600959777832</t>
+    <t xml:space="preserve">12.6478042602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6009607315063</t>
   </si>
   <si>
     <t xml:space="preserve">12.6946468353271</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">12.7883338928223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7414922714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9288654327393</t>
+    <t xml:space="preserve">12.741491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9288663864136</t>
   </si>
   <si>
     <t xml:space="preserve">12.8351793289185</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">13.2567720413208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2099285125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1630849838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1019620895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713987350464</t>
+    <t xml:space="preserve">13.2099294662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1630840301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1019601821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713996887207</t>
   </si>
   <si>
     <t xml:space="preserve">10.5398378372192</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">13.0693969726562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4604291915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7720537185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3341770172119</t>
+    <t xml:space="preserve">12.460428237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7720546722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3341779708862</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215530395508</t>
@@ -1121,22 +1121,22 @@
     <t xml:space="preserve">14.8026161193848</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8963012695312</t>
+    <t xml:space="preserve">14.8963022232056</t>
   </si>
   <si>
     <t xml:space="preserve">14.849458694458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5683975219727</t>
+    <t xml:space="preserve">14.5683965682983</t>
   </si>
   <si>
     <t xml:space="preserve">14.6152400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4278659820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431467056274</t>
+    <t xml:space="preserve">14.4278650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431457519531</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747085571289</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">14.0531148910522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1936445236206</t>
+    <t xml:space="preserve">14.1936454772949</t>
   </si>
   <si>
     <t xml:space="preserve">14.2404899597168</t>
@@ -1157,43 +1157,43 @@
     <t xml:space="preserve">14.3347978591919</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4291048049927</t>
+    <t xml:space="preserve">14.429105758667</t>
   </si>
   <si>
     <t xml:space="preserve">14.4762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2876424789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1461820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9104127883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7689514160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6746435165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5803337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2974109649658</t>
+    <t xml:space="preserve">14.2876434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1461811065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9104118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7689504623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6746425628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5803346633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2974119186401</t>
   </si>
   <si>
     <t xml:space="preserve">13.155948638916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2031030654907</t>
+    <t xml:space="preserve">13.2031021118164</t>
   </si>
   <si>
     <t xml:space="preserve">13.9575672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217960357666</t>
+    <t xml:space="preserve">13.7217969894409</t>
   </si>
   <si>
     <t xml:space="preserve">14.0990285873413</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">13.3445644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4388732910156</t>
+    <t xml:space="preserve">13.4388723373413</t>
   </si>
   <si>
     <t xml:space="preserve">14.7120294570923</t>
@@ -1214,43 +1214,43 @@
     <t xml:space="preserve">14.5234136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8534917831421</t>
+    <t xml:space="preserve">14.8534908294678</t>
   </si>
   <si>
     <t xml:space="preserve">14.9949522018433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.089262008667</t>
+    <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
     <t xml:space="preserve">15.0421075820923</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1835689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1364145278931</t>
+    <t xml:space="preserve">15.1835699081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1364135742188</t>
   </si>
   <si>
     <t xml:space="preserve">15.2778778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3721857070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5608005523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9380331039429</t>
+    <t xml:space="preserve">15.3721837997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5608024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9380311965942</t>
   </si>
   <si>
     <t xml:space="preserve">15.7022619247437</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908777236938</t>
+    <t xml:space="preserve">16.032341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908786773682</t>
   </si>
   <si>
     <t xml:space="preserve">16.9754199981689</t>
@@ -1259,25 +1259,25 @@
     <t xml:space="preserve">16.692497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6355743408203</t>
+    <t xml:space="preserve">17.6355724334717</t>
   </si>
   <si>
     <t xml:space="preserve">17.0697269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7770385742188</t>
+    <t xml:space="preserve">17.7770366668701</t>
   </si>
   <si>
     <t xml:space="preserve">17.5884189605713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5786514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8615741729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7672691345215</t>
+    <t xml:space="preserve">18.5786533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8615760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7672653198242</t>
   </si>
   <si>
     <t xml:space="preserve">18.1542682647705</t>
@@ -1292,40 +1292,40 @@
     <t xml:space="preserve">17.8241882324219</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3998050689697</t>
+    <t xml:space="preserve">17.3998031616211</t>
   </si>
   <si>
     <t xml:space="preserve">17.4941120147705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1640338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4469566345215</t>
+    <t xml:space="preserve">17.1640357971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4469585418701</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298812866211</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5412654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5981884002686</t>
+    <t xml:space="preserve">17.5412673950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5981903076172</t>
   </si>
   <si>
     <t xml:space="preserve">16.7396488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2583427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1168804168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9282665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3526515960693</t>
+    <t xml:space="preserve">17.2583408355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1168785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9282646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
     <t xml:space="preserve">17.3054962158203</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">16.3152637481689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0225696563721</t>
+    <t xml:space="preserve">17.0225715637207</t>
   </si>
   <si>
     <t xml:space="preserve">17.9184951782227</t>
@@ -1352,34 +1352,34 @@
     <t xml:space="preserve">18.4843444824219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6729602813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4274234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2388076782227</t>
+    <t xml:space="preserve">18.6729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.238805770874</t>
   </si>
   <si>
     <t xml:space="preserve">19.616039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2761936187744</t>
+    <t xml:space="preserve">20.276195526123</t>
   </si>
   <si>
     <t xml:space="preserve">20.9363498687744</t>
   </si>
   <si>
-    <t xml:space="preserve">21.502197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4078884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.219274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135795593262</t>
+    <t xml:space="preserve">21.5021934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4078903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2192726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135814666748</t>
   </si>
   <si>
     <t xml:space="preserve">21.0306549072266</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">21.5965042114258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6908130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4826641082764</t>
+    <t xml:space="preserve">21.6908111572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4826622009277</t>
   </si>
   <si>
     <t xml:space="preserve">22.9168167114258</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">22.5332698822021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1497249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7250442504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3962459564209</t>
+    <t xml:space="preserve">22.1497268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7250423431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3962478637695</t>
   </si>
   <si>
     <t xml:space="preserve">23.4921321868896</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">23.3003597259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1085872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0127029418945</t>
+    <t xml:space="preserve">23.1085891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0127010345459</t>
   </si>
   <si>
     <t xml:space="preserve">22.6291580200195</t>
@@ -1427,13 +1427,13 @@
     <t xml:space="preserve">24.3551082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9715633392334</t>
+    <t xml:space="preserve">23.971565246582</t>
   </si>
   <si>
     <t xml:space="preserve">23.7797908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2044734954834</t>
+    <t xml:space="preserve">23.204475402832</t>
   </si>
   <si>
     <t xml:space="preserve">23.6839065551758</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">25.4098567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0810623168945</t>
+    <t xml:space="preserve">26.0810642242432</t>
   </si>
   <si>
     <t xml:space="preserve">27.423469543457</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">28.0946731567383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9029026031494</t>
+    <t xml:space="preserve">27.9029006958008</t>
   </si>
   <si>
     <t xml:space="preserve">28.5741024017334</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7111263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9987888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8070125579834</t>
+    <t xml:space="preserve">27.7111282348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9987869262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.807014465332</t>
   </si>
   <si>
     <t xml:space="preserve">27.5193557739258</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">29.724739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4370784759521</t>
+    <t xml:space="preserve">29.4370803833008</t>
   </si>
   <si>
     <t xml:space="preserve">29.5329647064209</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6779727935791</t>
+    <t xml:space="preserve">29.6779747009277</t>
   </si>
   <si>
     <t xml:space="preserve">29.7746429443359</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">31.3213806152344</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1280384063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7413539886475</t>
+    <t xml:space="preserve">31.1280364990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7413520812988</t>
   </si>
   <si>
     <t xml:space="preserve">30.1613292694092</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">30.0646572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3546714782715</t>
+    <t xml:space="preserve">30.3546695709229</t>
   </si>
   <si>
     <t xml:space="preserve">31.2247085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5147171020508</t>
+    <t xml:space="preserve">31.514720916748</t>
   </si>
   <si>
     <t xml:space="preserve">31.6113929748535</t>
@@ -1550,22 +1550,22 @@
     <t xml:space="preserve">31.4180488586426</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8047332763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5780982971191</t>
+    <t xml:space="preserve">31.8047370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5781021118164</t>
   </si>
   <si>
     <t xml:space="preserve">32.2880897521973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4814262390137</t>
+    <t xml:space="preserve">32.4814300537109</t>
   </si>
   <si>
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9014053344727</t>
+    <t xml:space="preserve">31.9014015197754</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1574,19 +1574,19 @@
     <t xml:space="preserve">30.8380241394043</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4148483276367</t>
+    <t xml:space="preserve">34.414852142334</t>
   </si>
   <si>
     <t xml:space="preserve">34.8982048034668</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1549263000488</t>
+    <t xml:space="preserve">36.1549301147461</t>
   </si>
   <si>
     <t xml:space="preserve">35.671573638916</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5083198547363</t>
+    <t xml:space="preserve">37.5083160400391</t>
   </si>
   <si>
     <t xml:space="preserve">39.1517219543457</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">38.9583778381348</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6350784301758</t>
+    <t xml:space="preserve">39.635082244873</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450622558594</t>
+    <t xml:space="preserve">39.3450660705566</t>
   </si>
   <si>
     <t xml:space="preserve">39.4417381286621</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">38.8617095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3117752075195</t>
+    <t xml:space="preserve">40.3117790222168</t>
   </si>
   <si>
     <t xml:space="preserve">40.1184349060059</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">41.181812286377</t>
   </si>
   <si>
-    <t xml:space="preserve">41.665168762207</t>
+    <t xml:space="preserve">41.6651649475098</t>
   </si>
   <si>
     <t xml:space="preserve">41.8585090637207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4385375976562</t>
+    <t xml:space="preserve">42.438533782959</t>
   </si>
   <si>
     <t xml:space="preserve">42.5352058410645</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">43.888599395752</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0185585021973</t>
+    <t xml:space="preserve">43.0185623168945</t>
   </si>
   <si>
     <t xml:space="preserve">42.8252182006836</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">45.5320053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1120338439941</t>
+    <t xml:space="preserve">46.1120300292969</t>
   </si>
   <si>
     <t xml:space="preserve">45.9186897277832</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">46.0153579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">46.402042388916</t>
+    <t xml:space="preserve">46.4020462036133</t>
   </si>
   <si>
     <t xml:space="preserve">47.0787391662598</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">46.595386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">45.822021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1453247070312</t>
+    <t xml:space="preserve">45.8220176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.145320892334</t>
   </si>
   <si>
     <t xml:space="preserve">43.3085708618164</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7919235229492</t>
+    <t xml:space="preserve">43.7919273376465</t>
   </si>
   <si>
     <t xml:space="preserve">43.5019149780273</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">40.7951316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9884757995605</t>
+    <t xml:space="preserve">40.9884719848633</t>
   </si>
   <si>
     <t xml:space="preserve">41.3751564025879</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">42.3418617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4718284606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4084434509277</t>
+    <t xml:space="preserve">41.4718246459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.408447265625</t>
   </si>
   <si>
     <t xml:space="preserve">41.0851440429688</t>
@@ -1760,22 +1760,22 @@
     <t xml:space="preserve">39.0550537109375</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6984596252441</t>
+    <t xml:space="preserve">40.6984558105469</t>
   </si>
   <si>
     <t xml:space="preserve">39.2483901977539</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5051193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8918037414551</t>
+    <t xml:space="preserve">40.5051231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8917999267578</t>
   </si>
   <si>
     <t xml:space="preserve">38.475025177002</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9916725158691</t>
+    <t xml:space="preserve">37.9916687011719</t>
   </si>
   <si>
     <t xml:space="preserve">37.8950042724609</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">34.1248359680176</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1882171630859</t>
+    <t xml:space="preserve">35.1882209777832</t>
   </si>
   <si>
     <t xml:space="preserve">34.221508026123</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">36.7349510192871</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3482627868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6382789611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8348236083984</t>
+    <t xml:space="preserve">36.3482666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6382827758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8348197937012</t>
   </si>
   <si>
     <t xml:space="preserve">33.9314918518066</t>
@@ -1853,25 +1853,25 @@
     <t xml:space="preserve">33.0131225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3998031616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6414794921875</t>
+    <t xml:space="preserve">33.3997993469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6414756774902</t>
   </si>
   <si>
     <t xml:space="preserve">35.0432090759277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9615821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4298934936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.593147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9497375488281</t>
+    <t xml:space="preserve">35.9615859985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4298973083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5931434631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9497413635254</t>
   </si>
   <si>
     <t xml:space="preserve">31.7563972473145</t>
@@ -18944,7 +18944,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18996,7 +18996,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19048,7 +19048,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19074,7 +19074,7 @@
         <v>12.75</v>
       </c>
       <c r="G615" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19100,7 +19100,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G616" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19152,7 +19152,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19178,7 +19178,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G619" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19204,7 +19204,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19230,7 +19230,7 @@
         <v>12.75</v>
       </c>
       <c r="G621" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19256,7 +19256,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19282,7 +19282,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G623" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19308,7 +19308,7 @@
         <v>13</v>
       </c>
       <c r="G624" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19334,7 +19334,7 @@
         <v>13</v>
       </c>
       <c r="G625" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19360,7 +19360,7 @@
         <v>12.75</v>
       </c>
       <c r="G626" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19386,7 +19386,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G627" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19412,7 +19412,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G628" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19438,7 +19438,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G629" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19464,7 +19464,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19490,7 +19490,7 @@
         <v>12.75</v>
       </c>
       <c r="G631" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19516,7 +19516,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G632" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19542,7 +19542,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19568,7 +19568,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G634" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19594,7 +19594,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19620,7 +19620,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G636" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19646,7 +19646,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G637" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19672,7 +19672,7 @@
         <v>12.25</v>
       </c>
       <c r="G638" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19698,7 +19698,7 @@
         <v>12.25</v>
       </c>
       <c r="G639" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19724,7 +19724,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G640" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19750,7 +19750,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19776,7 +19776,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G642" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19802,7 +19802,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19828,7 +19828,7 @@
         <v>12.5</v>
       </c>
       <c r="G644" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19854,7 +19854,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G645" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19880,7 +19880,7 @@
         <v>12.5</v>
       </c>
       <c r="G646" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19906,7 +19906,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19932,7 +19932,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G648" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19958,7 +19958,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G649" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19984,7 +19984,7 @@
         <v>12.5</v>
       </c>
       <c r="G650" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20010,7 +20010,7 @@
         <v>12.5</v>
       </c>
       <c r="G651" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20036,7 +20036,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20062,7 +20062,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G653" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20088,7 +20088,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G654" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20114,7 +20114,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20140,7 +20140,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20166,7 +20166,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G657" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20192,7 +20192,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20218,7 +20218,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20244,7 +20244,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G660" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20270,7 +20270,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20296,7 +20296,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G662" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20322,7 +20322,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G663" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20348,7 +20348,7 @@
         <v>12.75</v>
       </c>
       <c r="G664" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20374,7 +20374,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G665" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20400,7 +20400,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G666" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20426,7 +20426,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G667" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20452,7 +20452,7 @@
         <v>12.25</v>
       </c>
       <c r="G668" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20478,7 +20478,7 @@
         <v>12.25</v>
       </c>
       <c r="G669" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20504,7 +20504,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20530,7 +20530,7 @@
         <v>12.5</v>
       </c>
       <c r="G671" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20556,7 +20556,7 @@
         <v>12.5</v>
       </c>
       <c r="G672" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20582,7 +20582,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20608,7 +20608,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20634,7 +20634,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G675" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20660,7 +20660,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G676" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20686,7 +20686,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20712,7 +20712,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G678" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20738,7 +20738,7 @@
         <v>12.25</v>
       </c>
       <c r="G679" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20764,7 +20764,7 @@
         <v>12.25</v>
       </c>
       <c r="G680" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20790,7 +20790,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G681" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20816,7 +20816,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G682" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20842,7 +20842,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G683" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20868,7 +20868,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20894,7 +20894,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20920,7 +20920,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20946,7 +20946,7 @@
         <v>12.5</v>
       </c>
       <c r="G687" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20972,7 +20972,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G688" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20998,7 +20998,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21024,7 +21024,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G690" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21050,7 +21050,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21076,7 +21076,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21102,7 +21102,7 @@
         <v>12.75</v>
       </c>
       <c r="G693" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21128,7 +21128,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G694" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21154,7 +21154,7 @@
         <v>13.25</v>
       </c>
       <c r="G695" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21180,7 +21180,7 @@
         <v>13</v>
       </c>
       <c r="G696" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21206,7 +21206,7 @@
         <v>13</v>
       </c>
       <c r="G697" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21232,7 +21232,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21258,7 +21258,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G699" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21284,7 +21284,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21310,7 +21310,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21336,7 +21336,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G702" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21362,7 +21362,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G703" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21388,7 +21388,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G704" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21414,7 +21414,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G705" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21440,7 +21440,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21466,7 +21466,7 @@
         <v>13.25</v>
       </c>
       <c r="G707" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21492,7 +21492,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G708" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21518,7 +21518,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21544,7 +21544,7 @@
         <v>13</v>
       </c>
       <c r="G710" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21570,7 +21570,7 @@
         <v>13</v>
       </c>
       <c r="G711" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21596,7 +21596,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G712" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21622,7 +21622,7 @@
         <v>13</v>
       </c>
       <c r="G713" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21648,7 +21648,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21674,7 +21674,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G715" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21700,7 +21700,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G716" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21726,7 +21726,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G717" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21752,7 +21752,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G718" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21778,7 +21778,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G719" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21804,7 +21804,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G720" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21830,7 +21830,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G721" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21856,7 +21856,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G722" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21882,7 +21882,7 @@
         <v>12.5</v>
       </c>
       <c r="G723" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21908,7 +21908,7 @@
         <v>13</v>
       </c>
       <c r="G724" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21934,7 +21934,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G725" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21960,7 +21960,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G726" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21986,7 +21986,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G727" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22012,7 +22012,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22038,7 +22038,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G729" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22064,7 +22064,7 @@
         <v>12.5</v>
       </c>
       <c r="G730" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22090,7 +22090,7 @@
         <v>12.25</v>
       </c>
       <c r="G731" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22116,7 +22116,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G732" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22142,7 +22142,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22168,7 +22168,7 @@
         <v>12</v>
       </c>
       <c r="G734" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22194,7 +22194,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22220,7 +22220,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G736" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22246,7 +22246,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22272,7 +22272,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22298,7 +22298,7 @@
         <v>11.5</v>
       </c>
       <c r="G739" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22324,7 +22324,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22350,7 +22350,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G741" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22376,7 +22376,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22402,7 +22402,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22428,7 +22428,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G744" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22454,7 +22454,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22480,7 +22480,7 @@
         <v>11.5</v>
       </c>
       <c r="G746" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22506,7 +22506,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22532,7 +22532,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G748" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22558,7 +22558,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G749" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22584,7 +22584,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G750" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22610,7 +22610,7 @@
         <v>10.25</v>
       </c>
       <c r="G751" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22636,7 +22636,7 @@
         <v>10.25</v>
       </c>
       <c r="G752" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22662,7 +22662,7 @@
         <v>10.1499996185303</v>
       </c>
       <c r="G753" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22688,7 +22688,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G754" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22714,7 +22714,7 @@
         <v>10.5</v>
       </c>
       <c r="G755" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22740,7 +22740,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22766,7 +22766,7 @@
         <v>10.5</v>
       </c>
       <c r="G757" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22792,7 +22792,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G758" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22818,7 +22818,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22844,7 +22844,7 @@
         <v>10.75</v>
       </c>
       <c r="G760" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22870,7 +22870,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G761" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22896,7 +22896,7 @@
         <v>11.5</v>
       </c>
       <c r="G762" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22922,7 +22922,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22948,7 +22948,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22974,7 +22974,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G765" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23000,7 +23000,7 @@
         <v>11.5</v>
       </c>
       <c r="G766" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23026,7 +23026,7 @@
         <v>11.5</v>
       </c>
       <c r="G767" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23052,7 +23052,7 @@
         <v>11.75</v>
       </c>
       <c r="G768" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23078,7 +23078,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G769" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23104,7 +23104,7 @@
         <v>12</v>
       </c>
       <c r="G770" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23130,7 +23130,7 @@
         <v>11.75</v>
       </c>
       <c r="G771" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23156,7 +23156,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23182,7 +23182,7 @@
         <v>11.5</v>
       </c>
       <c r="G773" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23208,7 +23208,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23234,7 +23234,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G775" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23260,7 +23260,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23286,7 +23286,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G777" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23312,7 +23312,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G778" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23338,7 +23338,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G779" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23364,7 +23364,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G780" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23390,7 +23390,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G781" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23416,7 +23416,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G782" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23442,7 +23442,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G783" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23468,7 +23468,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23494,7 +23494,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G785" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23520,7 +23520,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23546,7 +23546,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G787" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23572,7 +23572,7 @@
         <v>11.5</v>
       </c>
       <c r="G788" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23598,7 +23598,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G789" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23624,7 +23624,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G790" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23650,7 +23650,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23676,7 +23676,7 @@
         <v>11.5</v>
       </c>
       <c r="G792" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23702,7 +23702,7 @@
         <v>11.25</v>
       </c>
       <c r="G793" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23728,7 +23728,7 @@
         <v>11.25</v>
       </c>
       <c r="G794" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23754,7 +23754,7 @@
         <v>11.5</v>
       </c>
       <c r="G795" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23780,7 +23780,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G796" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23806,7 +23806,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G797" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23832,7 +23832,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23858,7 +23858,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G799" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23884,7 +23884,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G800" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23910,7 +23910,7 @@
         <v>11</v>
       </c>
       <c r="G801" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23936,7 +23936,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G802" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23962,7 +23962,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23988,7 +23988,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G804" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24014,7 +24014,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24040,7 +24040,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G806" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24066,7 +24066,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24092,7 +24092,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G808" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24118,7 +24118,7 @@
         <v>11</v>
       </c>
       <c r="G809" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24144,7 +24144,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G810" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24170,7 +24170,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G811" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24196,7 +24196,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G812" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24222,7 +24222,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G813" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24248,7 +24248,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24274,7 +24274,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G815" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24300,7 +24300,7 @@
         <v>10.75</v>
       </c>
       <c r="G816" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24326,7 +24326,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G817" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24352,7 +24352,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G818" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24378,7 +24378,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24404,7 +24404,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G820" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24430,7 +24430,7 @@
         <v>11.25</v>
       </c>
       <c r="G821" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24456,7 +24456,7 @@
         <v>11.25</v>
       </c>
       <c r="G822" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24482,7 +24482,7 @@
         <v>11.25</v>
       </c>
       <c r="G823" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24508,7 +24508,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G824" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24534,7 +24534,7 @@
         <v>11.5</v>
       </c>
       <c r="G825" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24560,7 +24560,7 @@
         <v>11.5</v>
       </c>
       <c r="G826" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24586,7 +24586,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G827" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24612,7 +24612,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G828" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24638,7 +24638,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24664,7 +24664,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24690,7 +24690,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G831" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24716,7 +24716,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24742,7 +24742,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G833" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24768,7 +24768,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24794,7 +24794,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G835" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24820,7 +24820,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G836" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24846,7 +24846,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24872,7 +24872,7 @@
         <v>11.5</v>
       </c>
       <c r="G838" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24898,7 +24898,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24924,7 +24924,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24950,7 +24950,7 @@
         <v>11.5</v>
       </c>
       <c r="G841" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24976,7 +24976,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25002,7 +25002,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G843" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25028,7 +25028,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G844" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25054,7 +25054,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G845" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25080,7 +25080,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G846" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25106,7 +25106,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G847" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25132,7 +25132,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25158,7 +25158,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G849" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25184,7 +25184,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25210,7 +25210,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25236,7 +25236,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25262,7 +25262,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G853" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25288,7 +25288,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G854" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25314,7 +25314,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25340,7 +25340,7 @@
         <v>11.5</v>
       </c>
       <c r="G856" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25366,7 +25366,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G857" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25392,7 +25392,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25418,7 +25418,7 @@
         <v>11.5</v>
       </c>
       <c r="G859" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25444,7 +25444,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G860" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25470,7 +25470,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G861" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25496,7 +25496,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G862" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25522,7 +25522,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G863" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25548,7 +25548,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G864" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25574,7 +25574,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25600,7 +25600,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G866" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25626,7 +25626,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25652,7 +25652,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25678,7 +25678,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G869" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25704,7 +25704,7 @@
         <v>12</v>
       </c>
       <c r="G870" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25730,7 +25730,7 @@
         <v>12</v>
       </c>
       <c r="G871" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25756,7 +25756,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G872" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25782,7 +25782,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G873" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25808,7 +25808,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25834,7 +25834,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G875" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25860,7 +25860,7 @@
         <v>12</v>
       </c>
       <c r="G876" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25886,7 +25886,7 @@
         <v>12</v>
       </c>
       <c r="G877" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25912,7 +25912,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G878" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25938,7 +25938,7 @@
         <v>12</v>
       </c>
       <c r="G879" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25964,7 +25964,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G880" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25990,7 +25990,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G881" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26016,7 +26016,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26042,7 +26042,7 @@
         <v>12</v>
       </c>
       <c r="G883" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26068,7 +26068,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G884" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26094,7 +26094,7 @@
         <v>12.25</v>
       </c>
       <c r="G885" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26120,7 +26120,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G886" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26146,7 +26146,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26172,7 +26172,7 @@
         <v>12.25</v>
       </c>
       <c r="G888" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26198,7 +26198,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26224,7 +26224,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G890" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26250,7 +26250,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26354,7 +26354,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26510,7 +26510,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G901" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26614,7 +26614,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26640,7 +26640,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G906" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26744,7 +26744,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26822,7 +26822,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G913" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26952,7 +26952,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G918" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26978,7 +26978,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27056,7 +27056,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27082,7 +27082,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G923" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27264,7 +27264,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27810,7 +27810,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G951" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27862,7 +27862,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27940,7 +27940,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27966,7 +27966,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G957" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27992,7 +27992,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G958" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28018,7 +28018,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G959" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28044,7 +28044,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28096,7 +28096,7 @@
         <v>11.5</v>
       </c>
       <c r="G962" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28122,7 +28122,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28148,7 +28148,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G964" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28174,7 +28174,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G965" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28200,7 +28200,7 @@
         <v>12.25</v>
       </c>
       <c r="G966" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28226,7 +28226,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28252,7 +28252,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28304,7 +28304,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G970" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28356,7 +28356,7 @@
         <v>12.25</v>
       </c>
       <c r="G972" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28382,7 +28382,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28408,7 +28408,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28434,7 +28434,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28512,7 +28512,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28564,7 +28564,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G980" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28642,7 +28642,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G983" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28694,7 +28694,7 @@
         <v>12.25</v>
       </c>
       <c r="G985" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28720,7 +28720,7 @@
         <v>12.25</v>
       </c>
       <c r="G986" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28746,7 +28746,7 @@
         <v>12.25</v>
       </c>
       <c r="G987" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28772,7 +28772,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G988" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28798,7 +28798,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G989" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28824,7 +28824,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28850,7 +28850,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G991" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28902,7 +28902,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G993" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28928,7 +28928,7 @@
         <v>12</v>
       </c>
       <c r="G994" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28954,7 +28954,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G995" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28980,7 +28980,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G996" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29006,7 +29006,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G997" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29032,7 +29032,7 @@
         <v>12.25</v>
       </c>
       <c r="G998" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29110,7 +29110,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29136,7 +29136,7 @@
         <v>12</v>
       </c>
       <c r="G1002" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29188,7 +29188,7 @@
         <v>12.25</v>
       </c>
       <c r="G1004" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29214,7 +29214,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1005" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29240,7 +29240,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1006" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29266,7 +29266,7 @@
         <v>12.25</v>
       </c>
       <c r="G1007" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29318,7 +29318,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1009" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29370,7 +29370,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1011" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29552,7 +29552,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30774,7 +30774,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1065" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30800,7 +30800,7 @@
         <v>12</v>
       </c>
       <c r="G1066" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30826,7 +30826,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1067" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30852,7 +30852,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1068" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30930,7 +30930,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30956,7 +30956,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1072" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31034,7 +31034,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1075" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31060,7 +31060,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1076" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31086,7 +31086,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31112,7 +31112,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1078" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31138,7 +31138,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31216,7 +31216,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1082" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31268,7 +31268,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1084" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31346,7 +31346,7 @@
         <v>12</v>
       </c>
       <c r="G1087" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31372,7 +31372,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1088" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31398,7 +31398,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1089" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31424,7 +31424,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1090" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31450,7 +31450,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31476,7 +31476,7 @@
         <v>12</v>
       </c>
       <c r="G1092" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31554,7 +31554,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -60760,7 +60760,7 @@
     </row>
     <row r="2219">
       <c r="A2219" s="1" t="n">
-        <v>45553.6493055556</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B2219" t="n">
         <v>5495</v>
@@ -60781,6 +60781,32 @@
         <v>897</v>
       </c>
       <c r="H2219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="1" t="n">
+        <v>45554.6493634259</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>22.2000007629395</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>21.7000007629395</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>21.7000007629395</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>904</v>
+      </c>
+      <c r="H2220" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IWB.MI.xlsx
+++ b/data/IWB.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991516113281</t>
+    <t xml:space="preserve">8.20991706848145</t>
   </si>
   <si>
     <t xml:space="preserve">IWB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15975379943848</t>
+    <t xml:space="preserve">8.15975475311279</t>
   </si>
   <si>
     <t xml:space="preserve">8.19319534301758</t>
@@ -53,130 +53,130 @@
     <t xml:space="preserve">8.10123062133789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10959053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06778812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05106925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94238328933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85877990722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6497688293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79189586639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69157218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63304805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59960699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63722896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62886714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6079683303833</t>
+    <t xml:space="preserve">8.10958957672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06778717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94238376617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85878038406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64976930618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7918963432312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69157123565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63304853439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59960556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63722848892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62886810302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60796785354614</t>
   </si>
   <si>
     <t xml:space="preserve">7.58288526535034</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71665287017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77517557144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81697702407837</t>
+    <t xml:space="preserve">7.71665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77517461776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.816978931427</t>
   </si>
   <si>
     <t xml:space="preserve">7.48255968093872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75845384597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6664891242981</t>
+    <t xml:space="preserve">7.75845432281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66648960113525</t>
   </si>
   <si>
     <t xml:space="preserve">7.62468767166138</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31535243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44075918197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52436399459839</t>
+    <t xml:space="preserve">7.31535196304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44075870513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52436208724976</t>
   </si>
   <si>
     <t xml:space="preserve">7.59124565124512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76263332366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76681327819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98418474197388</t>
+    <t xml:space="preserve">7.76263523101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7668137550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98418426513672</t>
   </si>
   <si>
     <t xml:space="preserve">8.02598857879639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84623765945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93402147293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2600793838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35622310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2767972946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89221906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18483448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99672508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97582530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13467216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12631130218506</t>
+    <t xml:space="preserve">7.84623908996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93402290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26007747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35622406005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27679824829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89222002029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18483543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99672555923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97582387924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13466930389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12631225585938</t>
   </si>
   <si>
     <t xml:space="preserve">8.15139293670654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23499584197998</t>
+    <t xml:space="preserve">8.23499870300293</t>
   </si>
   <si>
     <t xml:space="preserve">8.33532238006592</t>
@@ -185,22 +185,22 @@
     <t xml:space="preserve">8.07614994049072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01762580871582</t>
+    <t xml:space="preserve">8.01762676239014</t>
   </si>
   <si>
     <t xml:space="preserve">7.9214825630188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90894222259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73337364196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80861663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95910358428955</t>
+    <t xml:space="preserve">7.90894079208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73337268829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80861616134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95910406112671</t>
   </si>
   <si>
     <t xml:space="preserve">7.89640045166016</t>
@@ -209,46 +209,46 @@
     <t xml:space="preserve">7.70829200744629</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65394830703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67067050933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68739080429077</t>
+    <t xml:space="preserve">7.6539478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67067003250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68738889694214</t>
   </si>
   <si>
     <t xml:space="preserve">7.85041904449463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57870674133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55780458450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57452440261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80443620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81279802322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43239879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21920824050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23174810409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27355003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33207416534424</t>
+    <t xml:space="preserve">7.57870483398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55780506134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57452583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80443668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8127965927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43239831924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21920728683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23174858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27355051040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3320746421814</t>
   </si>
   <si>
     <t xml:space="preserve">7.1899471282959</t>
@@ -257,22 +257,22 @@
     <t xml:space="preserve">7.19412612915039</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830656051636</t>
+    <t xml:space="preserve">7.19830703735352</t>
   </si>
   <si>
     <t xml:space="preserve">7.18576669692993</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06454133987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05618000030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13978481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97257518768311</t>
+    <t xml:space="preserve">7.06454086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05618047714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13978385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97257661819458</t>
   </si>
   <si>
     <t xml:space="preserve">7.14814424514771</t>
@@ -281,46 +281,46 @@
     <t xml:space="preserve">7.21502828598022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35715436935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39895677566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67485046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59542608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51182174682617</t>
+    <t xml:space="preserve">7.35715484619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39895725250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67484998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59542655944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51182222366333</t>
   </si>
   <si>
     <t xml:space="preserve">7.60378742218018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56616592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42403745651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51600170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52018404006958</t>
+    <t xml:space="preserve">7.56616401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42403984069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51600217819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52018308639526</t>
   </si>
   <si>
     <t xml:space="preserve">7.54108333587646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47420072555542</t>
+    <t xml:space="preserve">7.47419929504395</t>
   </si>
   <si>
     <t xml:space="preserve">7.4532995223999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57034492492676</t>
+    <t xml:space="preserve">7.57034540176392</t>
   </si>
   <si>
     <t xml:space="preserve">8.1054105758667</t>
@@ -329,37 +329,37 @@
     <t xml:space="preserve">8.1973762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35204219818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29351902008057</t>
+    <t xml:space="preserve">8.35204315185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29351997375488</t>
   </si>
   <si>
     <t xml:space="preserve">8.14303302764893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99254560470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09287071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44400691986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5944938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54433250427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56105327606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6530179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97071266174316</t>
+    <t xml:space="preserve">7.99254512786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09286975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44400882720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59449481964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54433155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5610523223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65301895141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97071170806885</t>
   </si>
   <si>
     <t xml:space="preserve">8.94563102722168</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">8.73662090301514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86202812194824</t>
+    <t xml:space="preserve">8.86202907562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.92055034637451</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">9.00415515899658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97907257080078</t>
+    <t xml:space="preserve">8.9790735244751</t>
   </si>
   <si>
     <t xml:space="preserve">9.04722499847412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07278156280518</t>
+    <t xml:space="preserve">9.07278347015381</t>
   </si>
   <si>
     <t xml:space="preserve">9.01314926147461</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">9.03018856048584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15797328948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23464488983154</t>
+    <t xml:space="preserve">9.15797233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23464393615723</t>
   </si>
   <si>
     <t xml:space="preserve">9.28575897216797</t>
@@ -416,97 +416,97 @@
     <t xml:space="preserve">9.26871967315674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25168132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32835292816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45614051818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42206478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36242961883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354560852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54984951019287</t>
+    <t xml:space="preserve">9.25168228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3283519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45613956451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42206382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36242866516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354465484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54984760284424</t>
   </si>
   <si>
     <t xml:space="preserve">9.61800193786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54133033752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56688594818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39650630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55836868286133</t>
+    <t xml:space="preserve">9.5413293838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56688499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39650535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55836772918701</t>
   </si>
   <si>
     <t xml:space="preserve">9.59244441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5839262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60948276519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49021625518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37946891784668</t>
+    <t xml:space="preserve">9.58392524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60948181152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57540512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49021530151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37946796417236</t>
   </si>
   <si>
     <t xml:space="preserve">9.33687114715576</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20908641815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20056915283203</t>
+    <t xml:space="preserve">9.20908737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20056819915771</t>
   </si>
   <si>
     <t xml:space="preserve">9.2772388458252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31983470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30279636383057</t>
+    <t xml:space="preserve">9.31983375549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30279731750488</t>
   </si>
   <si>
     <t xml:space="preserve">9.53281021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62652015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71171092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78838157653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83097648620605</t>
+    <t xml:space="preserve">9.62652206420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71170997619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7883825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83097839355469</t>
   </si>
   <si>
     <t xml:space="preserve">9.75430583953857</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0950689315796</t>
+    <t xml:space="preserve">10.0950679779053</t>
   </si>
   <si>
     <t xml:space="preserve">10.0524730682373</t>
@@ -521,43 +521,43 @@
     <t xml:space="preserve">10.5891723632812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6062116622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6488065719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5721349716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6232490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5636148452759</t>
+    <t xml:space="preserve">10.6062107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6488056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5721340179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6232481002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5636157989502</t>
   </si>
   <si>
     <t xml:space="preserve">10.4017524719238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3676776885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2228536605835</t>
+    <t xml:space="preserve">10.3676767349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2228546142578</t>
   </si>
   <si>
     <t xml:space="preserve">10.2910060882568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3761968612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2484102249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.231372833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2398920059204</t>
+    <t xml:space="preserve">10.3761949539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2484092712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2313737869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2398910522461</t>
   </si>
   <si>
     <t xml:space="preserve">10.4187908172607</t>
@@ -566,34 +566,34 @@
     <t xml:space="preserve">10.4784250259399</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4613847732544</t>
+    <t xml:space="preserve">10.461386680603</t>
   </si>
   <si>
     <t xml:space="preserve">10.3421201705933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3165626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3080453872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350640296936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.733998298645</t>
+    <t xml:space="preserve">10.3165616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3080434799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3506383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7339963912964</t>
   </si>
   <si>
     <t xml:space="preserve">10.8191862106323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9469718933105</t>
+    <t xml:space="preserve">10.9469738006592</t>
   </si>
   <si>
     <t xml:space="preserve">11.0151243209839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.066237449646</t>
+    <t xml:space="preserve">11.0662393569946</t>
   </si>
   <si>
     <t xml:space="preserve">11.0321626663208</t>
@@ -605,37 +605,37 @@
     <t xml:space="preserve">10.9895668029785</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0406808853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8277044296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9214143753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8021488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617811203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8447437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9043769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8958587646484</t>
+    <t xml:space="preserve">11.0406827926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8277053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9214153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8021478652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8447427749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9043779373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8958578109741</t>
   </si>
   <si>
     <t xml:space="preserve">10.8532619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8703022003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7680730819702</t>
+    <t xml:space="preserve">10.8703031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7680721282959</t>
   </si>
   <si>
     <t xml:space="preserve">10.7425146102905</t>
@@ -644,16 +644,16 @@
     <t xml:space="preserve">10.6999206542969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6658449172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.793628692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6914024353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7595539093018</t>
+    <t xml:space="preserve">10.6658458709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7936296463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6914005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7595529556274</t>
   </si>
   <si>
     <t xml:space="preserve">10.9128971099854</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">10.7169580459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0747575759888</t>
+    <t xml:space="preserve">11.0747585296631</t>
   </si>
   <si>
     <t xml:space="preserve">11.1599493026733</t>
@@ -674,37 +674,37 @@
     <t xml:space="preserve">11.202543258667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2451372146606</t>
+    <t xml:space="preserve">11.245138168335</t>
   </si>
   <si>
     <t xml:space="preserve">11.2877330780029</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1173534393311</t>
+    <t xml:space="preserve">11.1173524856567</t>
   </si>
   <si>
     <t xml:space="preserve">11.3729248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3303298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5433053970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7562818527222</t>
+    <t xml:space="preserve">11.3303289413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5433073043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7562828063965</t>
   </si>
   <si>
     <t xml:space="preserve">11.9692573547363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2248296737671</t>
+    <t xml:space="preserve">12.2248306274414</t>
   </si>
   <si>
     <t xml:space="preserve">11.585901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5007095336914</t>
+    <t xml:space="preserve">11.5007104873657</t>
   </si>
   <si>
     <t xml:space="preserve">11.6710910797119</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">11.8414716720581</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7988767623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7136869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8840665817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0156259536743</t>
+    <t xml:space="preserve">11.7988777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8840675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.015625</t>
   </si>
   <si>
     <t xml:space="preserve">12.0594778060913</t>
@@ -731,40 +731,37 @@
     <t xml:space="preserve">12.1033315658569</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9279203414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5332460403442</t>
+    <t xml:space="preserve">11.9279184341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332441329956</t>
   </si>
   <si>
     <t xml:space="preserve">11.6648044586182</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7525091171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7086572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7963609695435</t>
+    <t xml:space="preserve">11.7525081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7086563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7963619232178</t>
   </si>
   <si>
     <t xml:space="preserve">11.4016885757446</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8840675354004</t>
+    <t xml:space="preserve">11.5770978927612</t>
   </si>
   <si>
     <t xml:space="preserve">11.9717712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3578338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824235916138</t>
+    <t xml:space="preserve">11.3578357696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824245452881</t>
   </si>
   <si>
     <t xml:space="preserve">11.8498458862305</t>
@@ -773,16 +770,19 @@
     <t xml:space="preserve">11.8046178817749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.759388923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6689319610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4427881240845</t>
+    <t xml:space="preserve">11.7141590118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5332450866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7593879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6689300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4427890777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.5784749984741</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">11.6237030029297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4880180358887</t>
+    <t xml:space="preserve">11.4880170822144</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618761062622</t>
@@ -800,49 +800,49 @@
     <t xml:space="preserve">11.0809621810913</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3523330688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2166471481323</t>
+    <t xml:space="preserve">11.352334022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2166481018066</t>
   </si>
   <si>
     <t xml:space="preserve">11.1714191436768</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3071041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3975629806519</t>
+    <t xml:space="preserve">11.3071050643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3975610733032</t>
   </si>
   <si>
     <t xml:space="preserve">11.1261911392212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9403018951416</t>
+    <t xml:space="preserve">11.9403009414673</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.895073890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0759878158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1664428710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1212167739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.945276260376</t>
+    <t xml:space="preserve">11.8950729370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0759868621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1664438247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1212148666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9452772140503</t>
   </si>
   <si>
     <t xml:space="preserve">10.809591293335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8548192977905</t>
+    <t xml:space="preserve">10.8548212051392</t>
   </si>
   <si>
     <t xml:space="preserve">10.7643623352051</t>
@@ -854,22 +854,22 @@
     <t xml:space="preserve">10.4929933547974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4025363922119</t>
+    <t xml:space="preserve">10.4025354385376</t>
   </si>
   <si>
     <t xml:space="preserve">10.0407085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2668514251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3120775222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99547958374023</t>
+    <t xml:space="preserve">10.0859365463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2668504714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3120784759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99548149108887</t>
   </si>
   <si>
     <t xml:space="preserve">9.45273971557617</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">9.27182483673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18136882781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49796772003174</t>
+    <t xml:space="preserve">9.18136787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49796867370605</t>
   </si>
   <si>
     <t xml:space="preserve">9.58842468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67888164520264</t>
+    <t xml:space="preserve">9.678879737854</t>
   </si>
   <si>
     <t xml:space="preserve">9.76933765411377</t>
@@ -899,25 +899,25 @@
     <t xml:space="preserve">9.7241096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7191343307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1311645507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6286773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4477643966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3573083877563</t>
+    <t xml:space="preserve">10.7191352844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1311655044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6286783218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4477663040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.357307434082</t>
   </si>
   <si>
     <t xml:space="preserve">10.221622467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1763954162598</t>
+    <t xml:space="preserve">10.1763935089111</t>
   </si>
   <si>
     <t xml:space="preserve">9.90502262115479</t>
@@ -926,37 +926,37 @@
     <t xml:space="preserve">9.95025253295898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81456661224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85979461669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63365364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382204055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.774055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6803665161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6335248947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8208980560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8677425384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5866794586182</t>
+    <t xml:space="preserve">9.81456565856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8597936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63365268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382194519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7740545272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6803684234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.63352394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8208999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145851135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8677434921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5866804122925</t>
   </si>
   <si>
     <t xml:space="preserve">10.7272109985352</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">10.9614305496216</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1488056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2893371582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2424917221069</t>
+    <t xml:space="preserve">11.1488046646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2893362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2424936294556</t>
   </si>
   <si>
     <t xml:space="preserve">11.055118560791</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">11.1956481933594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.617241859436</t>
+    <t xml:space="preserve">11.6172428131104</t>
   </si>
   <si>
     <t xml:space="preserve">11.476710319519</t>
@@ -995,9 +995,6 @@
     <t xml:space="preserve">11.6640863418579</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8046188354492</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.757773399353</t>
   </si>
   <si>
@@ -1007,19 +1004,19 @@
     <t xml:space="preserve">11.8514595031738</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7109298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.89830493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9451484680176</t>
+    <t xml:space="preserve">11.7109308242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8983039855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9451475143433</t>
   </si>
   <si>
     <t xml:space="preserve">11.5703992843628</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1793670654297</t>
+    <t xml:space="preserve">12.1793661117554</t>
   </si>
   <si>
     <t xml:space="preserve">12.2730550765991</t>
@@ -1028,7 +1025,7 @@
     <t xml:space="preserve">12.2262115478516</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3198986053467</t>
+    <t xml:space="preserve">12.319896697998</t>
   </si>
   <si>
     <t xml:space="preserve">12.3667411804199</t>
@@ -1043,10 +1040,10 @@
     <t xml:space="preserve">12.1325216293335</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0082750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5235538482666</t>
+    <t xml:space="preserve">11.0082740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5235557556152</t>
   </si>
   <si>
     <t xml:space="preserve">11.3361797332764</t>
@@ -1055,31 +1052,31 @@
     <t xml:space="preserve">12.5541162490845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6478033065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6009607315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6946477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7883338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7414922714233</t>
+    <t xml:space="preserve">12.6478042602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.600959777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6946468353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7883348464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.741491317749</t>
   </si>
   <si>
     <t xml:space="preserve">12.9288673400879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8351802825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9757099151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.882022857666</t>
+    <t xml:space="preserve">12.8351793289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9757108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8820219039917</t>
   </si>
   <si>
     <t xml:space="preserve">13.2567720413208</t>
@@ -1091,10 +1088,10 @@
     <t xml:space="preserve">13.1630849838257</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1019611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0713996887207</t>
+    <t xml:space="preserve">11.1019620895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0713987350464</t>
   </si>
   <si>
     <t xml:space="preserve">10.5398368835449</t>
@@ -1103,16 +1100,16 @@
     <t xml:space="preserve">13.0693969726562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.460428237915</t>
+    <t xml:space="preserve">12.4604291915894</t>
   </si>
   <si>
     <t xml:space="preserve">13.7720537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3341770172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215520858765</t>
+    <t xml:space="preserve">14.3341789245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215530395508</t>
   </si>
   <si>
     <t xml:space="preserve">14.6620836257935</t>
@@ -1124,19 +1121,19 @@
     <t xml:space="preserve">14.8963022232056</t>
   </si>
   <si>
-    <t xml:space="preserve">14.849458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.568395614624</t>
+    <t xml:space="preserve">14.8494596481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5683965682983</t>
   </si>
   <si>
     <t xml:space="preserve">14.6152400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4278650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9431457519531</t>
+    <t xml:space="preserve">14.427864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">14.4747095108032</t>
@@ -1148,10 +1145,10 @@
     <t xml:space="preserve">14.0531148910522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1936464309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2404909133911</t>
+    <t xml:space="preserve">14.1936473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2404899597168</t>
   </si>
   <si>
     <t xml:space="preserve">14.3347978591919</t>
@@ -1169,16 +1166,16 @@
     <t xml:space="preserve">14.1461820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9104127883911</t>
+    <t xml:space="preserve">13.9104118347168</t>
   </si>
   <si>
     <t xml:space="preserve">13.7689514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6746416091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5803337097168</t>
+    <t xml:space="preserve">13.6746425628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5803346633911</t>
   </si>
   <si>
     <t xml:space="preserve">13.2974109649658</t>
@@ -1202,10 +1199,10 @@
     <t xml:space="preserve">13.5331811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3445644378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4388723373413</t>
+    <t xml:space="preserve">13.3445653915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4388742446899</t>
   </si>
   <si>
     <t xml:space="preserve">14.7120304107666</t>
@@ -1214,28 +1211,28 @@
     <t xml:space="preserve">14.5234136581421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8534917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9949531555176</t>
+    <t xml:space="preserve">14.8534908294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9949522018433</t>
   </si>
   <si>
     <t xml:space="preserve">15.0892610549927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.042106628418</t>
+    <t xml:space="preserve">15.0421085357666</t>
   </si>
   <si>
     <t xml:space="preserve">15.1835689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1364145278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2778778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3721837997437</t>
+    <t xml:space="preserve">15.1364135742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2778768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.372184753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.5608005523682</t>
@@ -1247,22 +1244,22 @@
     <t xml:space="preserve">15.7022619247437</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908777236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9754180908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.692497253418</t>
+    <t xml:space="preserve">16.032341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908767700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9754199981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6924953460693</t>
   </si>
   <si>
     <t xml:space="preserve">17.6355743408203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0697288513184</t>
+    <t xml:space="preserve">17.0697269439697</t>
   </si>
   <si>
     <t xml:space="preserve">17.7770366668701</t>
@@ -1271,73 +1268,73 @@
     <t xml:space="preserve">17.5884189605713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5786533355713</t>
+    <t xml:space="preserve">18.5786514282227</t>
   </si>
   <si>
     <t xml:space="preserve">18.8615760803223</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7672672271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1542682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2485771179199</t>
+    <t xml:space="preserve">18.7672691345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1542663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2485752105713</t>
   </si>
   <si>
     <t xml:space="preserve">18.2957286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8241882324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3998050689697</t>
+    <t xml:space="preserve">17.8241863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3998031616211</t>
   </si>
   <si>
     <t xml:space="preserve">17.4941101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1640357971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4469585418701</t>
+    <t xml:space="preserve">17.1640338897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4469604492188</t>
   </si>
   <si>
     <t xml:space="preserve">17.7298793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5412654876709</t>
+    <t xml:space="preserve">17.5412673950195</t>
   </si>
   <si>
     <t xml:space="preserve">16.5981884002686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7396488189697</t>
+    <t xml:space="preserve">16.7396469116211</t>
   </si>
   <si>
     <t xml:space="preserve">17.2583427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1168785095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9282646179199</t>
+    <t xml:space="preserve">17.1168823242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9282665252686</t>
   </si>
   <si>
     <t xml:space="preserve">17.3526496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3054962158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095726013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8339576721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152637481689</t>
+    <t xml:space="preserve">17.3054981231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8339557647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152618408203</t>
   </si>
   <si>
     <t xml:space="preserve">17.0225734710693</t>
@@ -1346,25 +1343,25 @@
     <t xml:space="preserve">17.9184970855713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3900375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4843444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6729583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4274234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.238805770874</t>
+    <t xml:space="preserve">18.3900356292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4843425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6729602813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4274253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2388076782227</t>
   </si>
   <si>
     <t xml:space="preserve">19.616039276123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2761936187744</t>
+    <t xml:space="preserve">20.276195526123</t>
   </si>
   <si>
     <t xml:space="preserve">20.9363498687744</t>
@@ -1373,25 +1370,25 @@
     <t xml:space="preserve">21.5021953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4078884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2192726135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3135814666748</t>
+    <t xml:space="preserve">21.4078903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2192707061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3135833740234</t>
   </si>
   <si>
     <t xml:space="preserve">21.0306568145752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5965042114258</t>
+    <t xml:space="preserve">21.5965061187744</t>
   </si>
   <si>
     <t xml:space="preserve">21.6908130645752</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4826622009277</t>
+    <t xml:space="preserve">23.4826641082764</t>
   </si>
   <si>
     <t xml:space="preserve">22.9168148040771</t>
@@ -1400,10 +1397,13 @@
     <t xml:space="preserve">22.5332717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1497268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7250442504883</t>
+    <t xml:space="preserve">22.9168128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1497249603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7250423431396</t>
   </si>
   <si>
     <t xml:space="preserve">23.3962459564209</t>
@@ -1421,31 +1421,31 @@
     <t xml:space="preserve">23.0127010345459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6291561126709</t>
+    <t xml:space="preserve">22.6291580200195</t>
   </si>
   <si>
     <t xml:space="preserve">24.3551082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.971565246582</t>
+    <t xml:space="preserve">23.9715633392334</t>
   </si>
   <si>
     <t xml:space="preserve">23.7797908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2044734954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6839065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0674495697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2180824279785</t>
+    <t xml:space="preserve">23.204475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6839046478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0674514770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633358001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2180843353271</t>
   </si>
   <si>
     <t xml:space="preserve">25.4098567962646</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">27.9029026031494</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5741024017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7111282348633</t>
+    <t xml:space="preserve">28.574104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7111263275146</t>
   </si>
   <si>
     <t xml:space="preserve">27.9987888336182</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">26.7522659301758</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2864475250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.491828918457</t>
+    <t xml:space="preserve">28.2864437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4918270111084</t>
   </si>
   <si>
     <t xml:space="preserve">29.7247409820557</t>
@@ -1493,37 +1493,37 @@
     <t xml:space="preserve">29.4370803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5329647064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6779727935791</t>
+    <t xml:space="preserve">29.5329666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6779747009277</t>
   </si>
   <si>
     <t xml:space="preserve">29.7746429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">29.38796043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2912883758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1946201324463</t>
+    <t xml:space="preserve">29.3879623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2912902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1946182250977</t>
   </si>
   <si>
     <t xml:space="preserve">29.0012760162354</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4513416290283</t>
+    <t xml:space="preserve">30.4513397216797</t>
   </si>
   <si>
     <t xml:space="preserve">31.3213806152344</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1280384063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7413539886475</t>
+    <t xml:space="preserve">31.1280364990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7413520812988</t>
   </si>
   <si>
     <t xml:space="preserve">30.1613292694092</t>
@@ -1535,37 +1535,37 @@
     <t xml:space="preserve">30.0646572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3546714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2247085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5147171020508</t>
+    <t xml:space="preserve">30.3546676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2247066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5147190093994</t>
   </si>
   <si>
     <t xml:space="preserve">31.6113929748535</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4180488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8047332763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5780982971191</t>
+    <t xml:space="preserve">31.4180507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8047370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5781021118164</t>
   </si>
   <si>
     <t xml:space="preserve">32.2880897521973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4814262390137</t>
+    <t xml:space="preserve">32.4814300537109</t>
   </si>
   <si>
     <t xml:space="preserve">32.0947456359863</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9014053344727</t>
+    <t xml:space="preserve">31.901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6446838378906</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">34.4148483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8982048034668</t>
+    <t xml:space="preserve">34.8982009887695</t>
   </si>
   <si>
     <t xml:space="preserve">36.1549263000488</t>
@@ -1586,25 +1586,25 @@
     <t xml:space="preserve">35.671573638916</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5083198547363</t>
+    <t xml:space="preserve">37.5083160400391</t>
   </si>
   <si>
     <t xml:space="preserve">39.1517219543457</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9551811218262</t>
+    <t xml:space="preserve">41.9551849365234</t>
   </si>
   <si>
     <t xml:space="preserve">38.9583778381348</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6350784301758</t>
+    <t xml:space="preserve">39.635082244873</t>
   </si>
   <si>
     <t xml:space="preserve">39.9250907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3450622558594</t>
+    <t xml:space="preserve">39.3450698852539</t>
   </si>
   <si>
     <t xml:space="preserve">39.4417381286621</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">40.3117752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1184349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1850128173828</t>
+    <t xml:space="preserve">40.1184310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1850166320801</t>
   </si>
   <si>
     <t xml:space="preserve">37.6049919128418</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">39.731746673584</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8284225463867</t>
+    <t xml:space="preserve">39.8284187316895</t>
   </si>
   <si>
     <t xml:space="preserve">40.2151031494141</t>
@@ -1649,19 +1649,19 @@
     <t xml:space="preserve">41.181812286377</t>
   </si>
   <si>
-    <t xml:space="preserve">41.665168762207</t>
+    <t xml:space="preserve">41.6651649475098</t>
   </si>
   <si>
     <t xml:space="preserve">41.8585090637207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4385375976562</t>
+    <t xml:space="preserve">42.438533782959</t>
   </si>
   <si>
     <t xml:space="preserve">42.5352058410645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.888599395752</t>
+    <t xml:space="preserve">43.8886032104492</t>
   </si>
   <si>
     <t xml:space="preserve">43.0185585021973</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">44.2752799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5320053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1120338439941</t>
+    <t xml:space="preserve">45.5320014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1120300292969</t>
   </si>
   <si>
     <t xml:space="preserve">45.9186897277832</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">46.402042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0787391662598</t>
+    <t xml:space="preserve">47.078742980957</t>
   </si>
   <si>
     <t xml:space="preserve">46.8853988647461</t>
@@ -1700,34 +1700,34 @@
     <t xml:space="preserve">46.595386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">45.822021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1453247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3085708618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7919235229492</t>
+    <t xml:space="preserve">45.8220176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.145320892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3085746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7919273376465</t>
   </si>
   <si>
     <t xml:space="preserve">43.5019149780273</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1152305603027</t>
+    <t xml:space="preserve">43.115234375</t>
   </si>
   <si>
     <t xml:space="preserve">42.0518531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2784881591797</t>
+    <t xml:space="preserve">41.2784843444824</t>
   </si>
   <si>
     <t xml:space="preserve">40.7951316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9884757995605</t>
+    <t xml:space="preserve">40.9884719848633</t>
   </si>
   <si>
     <t xml:space="preserve">41.3751564025879</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">42.9218902587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5684967041016</t>
+    <t xml:space="preserve">41.5684928894043</t>
   </si>
   <si>
     <t xml:space="preserve">41.7618408203125</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">42.3418617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4718284606934</t>
+    <t xml:space="preserve">41.4718246459961</t>
   </si>
   <si>
     <t xml:space="preserve">40.4084434509277</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">39.0550537109375</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6984596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2483901977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5051193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8918037414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.475025177002</t>
+    <t xml:space="preserve">40.6984558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2483940124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5051231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8917999267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4750289916992</t>
   </si>
   <si>
     <t xml:space="preserve">37.9916725158691</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">37.8950042724609</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0249633789062</t>
+    <t xml:space="preserve">37.0249671936035</t>
   </si>
   <si>
     <t xml:space="preserve">37.70166015625</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">35.7682418823242</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2848892211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7048645019531</t>
+    <t xml:space="preserve">35.2848854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7048606872559</t>
   </si>
   <si>
     <t xml:space="preserve">34.1248359680176</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">35.1882171630859</t>
   </si>
   <si>
-    <t xml:space="preserve">34.221508026123</t>
+    <t xml:space="preserve">34.2215118408203</t>
   </si>
   <si>
     <t xml:space="preserve">33.4481391906738</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">33.5448112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8681106567383</t>
+    <t xml:space="preserve">32.8681144714355</t>
   </si>
   <si>
     <t xml:space="preserve">33.1581268310547</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">35.4782295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7349510192871</t>
+    <t xml:space="preserve">36.7349548339844</t>
   </si>
   <si>
     <t xml:space="preserve">36.3482627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6382789611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8348236083984</t>
+    <t xml:space="preserve">36.6382827758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8348197937012</t>
   </si>
   <si>
     <t xml:space="preserve">33.9314918518066</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">32.9647827148438</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7714424133301</t>
+    <t xml:space="preserve">32.7714462280273</t>
   </si>
   <si>
     <t xml:space="preserve">33.0131225585938</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">35.0432090759277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9615821838379</t>
+    <t xml:space="preserve">35.9615859985352</t>
   </si>
   <si>
     <t xml:space="preserve">35.4298934936523</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">33.593147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9497375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7563972473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1129913330078</t>
+    <t xml:space="preserve">31.9497394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7563953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1129932403564</t>
   </si>
   <si>
     <t xml:space="preserve">29.6776580810547</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">29.3866996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2897148132324</t>
+    <t xml:space="preserve">29.2897167205811</t>
   </si>
   <si>
     <t xml:space="preserve">29.9686145782471</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">30.8899803161621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5203876495361</t>
+    <t xml:space="preserve">31.5203895568848</t>
   </si>
   <si>
     <t xml:space="preserve">30.9384727478027</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">30.4535446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1927280426025</t>
+    <t xml:space="preserve">29.1927299499512</t>
   </si>
   <si>
     <t xml:space="preserve">28.9987564086914</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">27.3984909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8349266052246</t>
+    <t xml:space="preserve">27.8349285125732</t>
   </si>
   <si>
     <t xml:space="preserve">27.4469833374023</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">27.5439682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0105476379395</t>
+    <t xml:space="preserve">27.0105495452881</t>
   </si>
   <si>
     <t xml:space="preserve">26.8165760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4286346435547</t>
+    <t xml:space="preserve">26.4286327362061</t>
   </si>
   <si>
     <t xml:space="preserve">25.8467178344727</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">25.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0708332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8283672332764</t>
+    <t xml:space="preserve">25.0708312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.828369140625</t>
   </si>
   <si>
     <t xml:space="preserve">26.1861686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9437026977539</t>
+    <t xml:space="preserve">25.9437046051025</t>
   </si>
   <si>
     <t xml:space="preserve">25.4102821350098</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">25.0223388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3132972717285</t>
+    <t xml:space="preserve">25.3132953643799</t>
   </si>
   <si>
     <t xml:space="preserve">26.0406894683838</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">26.1376762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0590400695801</t>
+    <t xml:space="preserve">27.0590419769287</t>
   </si>
   <si>
     <t xml:space="preserve">26.2831554412842</t>
@@ -2090,22 +2090,22 @@
     <t xml:space="preserve">22.258243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8218059539795</t>
+    <t xml:space="preserve">21.8218078613281</t>
   </si>
   <si>
     <t xml:space="preserve">21.6763286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9004421234131</t>
+    <t xml:space="preserve">20.9004402160645</t>
   </si>
   <si>
     <t xml:space="preserve">21.0944137573242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7549629211426</t>
+    <t xml:space="preserve">21.1429042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7549610137939</t>
   </si>
   <si>
     <t xml:space="preserve">20.4640064239502</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">20.5124988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8519496917725</t>
+    <t xml:space="preserve">20.8519477844238</t>
   </si>
   <si>
     <t xml:space="preserve">20.9974269866943</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">21.5308494567871</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0642700195312</t>
+    <t xml:space="preserve">22.0642719268799</t>
   </si>
   <si>
     <t xml:space="preserve">22.5976943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0826225280762</t>
+    <t xml:space="preserve">23.0826206207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.4705657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4220733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3735809326172</t>
+    <t xml:space="preserve">23.4220714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3735790252686</t>
   </si>
   <si>
     <t xml:space="preserve">24.7798748016357</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">26.3316478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3801422119141</t>
+    <t xml:space="preserve">26.3801403045654</t>
   </si>
   <si>
     <t xml:space="preserve">25.9921951293945</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">26.5256195068359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7195892333984</t>
+    <t xml:space="preserve">26.7195911407471</t>
   </si>
   <si>
     <t xml:space="preserve">26.4771251678467</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">26.6710987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9502639770508</t>
+    <t xml:space="preserve">28.9502658843994</t>
   </si>
   <si>
     <t xml:space="preserve">28.4653358459473</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">28.8532791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">29.338207244873</t>
+    <t xml:space="preserve">29.3382091522217</t>
   </si>
   <si>
     <t xml:space="preserve">29.4836845397949</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">29.5806713104248</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4351940155029</t>
+    <t xml:space="preserve">29.4351921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.707799911499</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">26.5741119384766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0039863586426</t>
+    <t xml:space="preserve">24.0039882659912</t>
   </si>
   <si>
     <t xml:space="preserve">23.2281017303467</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">23.1796073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1311168670654</t>
+    <t xml:space="preserve">23.1311149597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.7615222930908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0524787902832</t>
+    <t xml:space="preserve">24.0524806976318</t>
   </si>
   <si>
     <t xml:space="preserve">24.2949447631836</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">21.4338645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1914005279541</t>
+    <t xml:space="preserve">21.1913986206055</t>
   </si>
   <si>
     <t xml:space="preserve">21.4823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127624511719</t>
+    <t xml:space="preserve">22.1127643585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.7916660308838</t>
@@ -2276,27 +2276,24 @@
     <t xml:space="preserve">22.6461868286133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2097492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3067378997803</t>
+    <t xml:space="preserve">22.2097511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3067359924316</t>
   </si>
   <si>
     <t xml:space="preserve">22.888650894165</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1612567901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8702983856201</t>
+    <t xml:space="preserve">22.1612586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8703002929688</t>
   </si>
   <si>
     <t xml:space="preserve">21.624870300293</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3067359924316</t>
-  </si>
-  <si>
     <t xml:space="preserve">22.4041442871094</t>
   </si>
   <si>
@@ -2754,6 +2751,9 @@
   </si>
   <si>
     <t xml:space="preserve">22.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5</t>
   </si>
 </sst>
 </file>
@@ -18947,7 +18947,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18999,7 +18999,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19051,7 +19051,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19077,7 +19077,7 @@
         <v>12.75</v>
       </c>
       <c r="G615" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19103,7 +19103,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G616" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19155,7 +19155,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19181,7 +19181,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G619" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G620" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19233,7 +19233,7 @@
         <v>12.75</v>
       </c>
       <c r="G621" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19259,7 +19259,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19285,7 +19285,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G623" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19363,7 +19363,7 @@
         <v>12.75</v>
       </c>
       <c r="G626" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19415,7 +19415,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G628" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19493,7 +19493,7 @@
         <v>12.75</v>
       </c>
       <c r="G631" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20143,7 +20143,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20169,7 +20169,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G657" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20351,7 +20351,7 @@
         <v>12.75</v>
       </c>
       <c r="G664" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21105,7 +21105,7 @@
         <v>12.75</v>
       </c>
       <c r="G693" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21261,7 +21261,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G699" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21287,7 +21287,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G708" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21521,7 +21521,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21599,7 +21599,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G712" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G715" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -26253,7 +26253,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26279,7 +26279,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G892" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26305,7 +26305,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G893" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26331,7 +26331,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26357,7 +26357,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26383,7 +26383,7 @@
         <v>12.5</v>
       </c>
       <c r="G896" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26409,7 +26409,7 @@
         <v>12.5</v>
       </c>
       <c r="G897" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26435,7 +26435,7 @@
         <v>12.5</v>
       </c>
       <c r="G898" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26461,7 +26461,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G899" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26487,7 +26487,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26513,7 +26513,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G901" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26539,7 +26539,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26565,7 +26565,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26591,7 +26591,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G904" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26617,7 +26617,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26643,7 +26643,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G906" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26669,7 +26669,7 @@
         <v>12.75</v>
       </c>
       <c r="G907" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26695,7 +26695,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G908" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26721,7 +26721,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G909" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26747,7 +26747,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G910" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26773,7 +26773,7 @@
         <v>12.5</v>
       </c>
       <c r="G911" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26799,7 +26799,7 @@
         <v>12.5</v>
       </c>
       <c r="G912" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26851,7 +26851,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G914" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26877,7 +26877,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G915" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26903,7 +26903,7 @@
         <v>12.5</v>
       </c>
       <c r="G916" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26929,7 +26929,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G917" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26981,7 +26981,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27007,7 +27007,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27033,7 +27033,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G921" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27111,7 +27111,7 @@
         <v>12.5</v>
       </c>
       <c r="G924" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27137,7 +27137,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27163,7 +27163,7 @@
         <v>12.5</v>
       </c>
       <c r="G926" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27189,7 +27189,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G927" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27215,7 +27215,7 @@
         <v>12.5</v>
       </c>
       <c r="G928" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27241,7 +27241,7 @@
         <v>12.5</v>
       </c>
       <c r="G929" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27267,7 +27267,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G930" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27293,7 +27293,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G931" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27319,7 +27319,7 @@
         <v>13</v>
       </c>
       <c r="G932" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27345,7 +27345,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27371,7 +27371,7 @@
         <v>13</v>
       </c>
       <c r="G934" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27397,7 +27397,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27423,7 +27423,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G936" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27449,7 +27449,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27475,7 +27475,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27501,7 +27501,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G939" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27527,7 +27527,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G940" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27553,7 +27553,7 @@
         <v>13.25</v>
       </c>
       <c r="G941" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27579,7 +27579,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G942" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27605,7 +27605,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27631,7 +27631,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G944" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27657,7 +27657,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G945" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27683,7 +27683,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G946" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27709,7 +27709,7 @@
         <v>12.75</v>
       </c>
       <c r="G947" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27735,7 +27735,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G948" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27761,7 +27761,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G949" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27787,7 +27787,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G950" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27813,7 +27813,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G951" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27839,7 +27839,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27865,7 +27865,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27891,7 +27891,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G954" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27917,7 +27917,7 @@
         <v>12.5</v>
       </c>
       <c r="G955" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28073,7 +28073,7 @@
         <v>11.75</v>
       </c>
       <c r="G961" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28281,7 +28281,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G969" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28333,7 +28333,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G971" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28463,7 +28463,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G976" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28489,7 +28489,7 @@
         <v>12.5</v>
       </c>
       <c r="G977" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28541,7 +28541,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G979" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28593,7 +28593,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28619,7 +28619,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28671,7 +28671,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G984" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28879,7 +28879,7 @@
         <v>11.75</v>
       </c>
       <c r="G992" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29061,7 +29061,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29087,7 +29087,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1000" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29165,7 +29165,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1003" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29295,7 +29295,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29347,7 +29347,7 @@
         <v>12.5</v>
       </c>
       <c r="G1010" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29399,7 +29399,7 @@
         <v>12.5</v>
       </c>
       <c r="G1012" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29425,7 +29425,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G1013" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29451,7 +29451,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G1014" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29477,7 +29477,7 @@
         <v>12.75</v>
       </c>
       <c r="G1015" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29503,7 +29503,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1016" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29529,7 +29529,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29555,7 +29555,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29581,7 +29581,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1019" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29607,7 +29607,7 @@
         <v>13.25</v>
       </c>
       <c r="G1020" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29633,7 +29633,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1021" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29659,7 +29659,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1022" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29685,7 +29685,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1023" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29711,7 +29711,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1024" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29737,7 +29737,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G1025" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29763,7 +29763,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29789,7 +29789,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1027" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29815,7 +29815,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29841,7 +29841,7 @@
         <v>13.5</v>
       </c>
       <c r="G1029" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29867,7 +29867,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G1030" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29893,7 +29893,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1031" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29919,7 +29919,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29945,7 +29945,7 @@
         <v>13.5</v>
       </c>
       <c r="G1033" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29971,7 +29971,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1034" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29997,7 +29997,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1035" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30023,7 +30023,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30049,7 +30049,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1037" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30075,7 +30075,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1038" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30101,7 +30101,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30127,7 +30127,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30153,7 +30153,7 @@
         <v>13.5</v>
       </c>
       <c r="G1041" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30179,7 +30179,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1042" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30205,7 +30205,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1043" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30231,7 +30231,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1044" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30257,7 +30257,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1045" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30283,7 +30283,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G1046" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30335,7 +30335,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30361,7 +30361,7 @@
         <v>13.75</v>
       </c>
       <c r="G1049" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30387,7 +30387,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1050" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30413,7 +30413,7 @@
         <v>13.75</v>
       </c>
       <c r="G1051" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30439,7 +30439,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30465,7 +30465,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30491,7 +30491,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1054" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30517,7 +30517,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1055" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30543,7 +30543,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1056" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30569,7 +30569,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1057" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30595,7 +30595,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1058" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30621,7 +30621,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30647,7 +30647,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30673,7 +30673,7 @@
         <v>14.0500001907349</v>
       </c>
       <c r="G1061" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30699,7 +30699,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1062" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30725,7 +30725,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30751,7 +30751,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1064" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30881,7 +30881,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1069" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30907,7 +30907,7 @@
         <v>10.75</v>
       </c>
       <c r="G1070" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30985,7 +30985,7 @@
         <v>11.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31011,7 +31011,7 @@
         <v>11.25</v>
       </c>
       <c r="G1074" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31167,7 +31167,7 @@
         <v>11.75</v>
       </c>
       <c r="G1080" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31193,7 +31193,7 @@
         <v>11.75</v>
       </c>
       <c r="G1081" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31245,7 +31245,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1083" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31297,7 +31297,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1085" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31323,7 +31323,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31505,7 +31505,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1093" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31531,7 +31531,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31583,7 +31583,7 @@
         <v>12.5</v>
       </c>
       <c r="G1096" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31609,7 +31609,7 @@
         <v>13.5</v>
       </c>
       <c r="G1097" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31635,7 +31635,7 @@
         <v>13.75</v>
       </c>
       <c r="G1098" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31661,7 +31661,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31687,7 +31687,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31713,7 +31713,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31739,7 +31739,7 @@
         <v>13.5</v>
       </c>
       <c r="G1102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31765,7 +31765,7 @@
         <v>13.5</v>
       </c>
       <c r="G1103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31791,7 +31791,7 @@
         <v>13.25</v>
       </c>
       <c r="G1104" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31817,7 +31817,7 @@
         <v>13.5</v>
       </c>
       <c r="G1105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31843,7 +31843,7 @@
         <v>13.5</v>
       </c>
       <c r="G1106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31869,7 +31869,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31895,7 +31895,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31921,7 +31921,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1109" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31947,7 +31947,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31973,7 +31973,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31999,7 +31999,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32025,7 +32025,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32051,7 +32051,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32077,7 +32077,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1115" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32103,7 +32103,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32129,7 +32129,7 @@
         <v>15.5</v>
       </c>
       <c r="G1117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32155,7 +32155,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32181,7 +32181,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32207,7 +32207,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32233,7 +32233,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32259,7 +32259,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32285,7 +32285,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32311,7 +32311,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32337,7 +32337,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32363,7 +32363,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32389,7 +32389,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32415,7 +32415,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32441,7 +32441,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32467,7 +32467,7 @@
         <v>15</v>
       </c>
       <c r="G1130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32493,7 +32493,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32519,7 +32519,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32545,7 +32545,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32571,7 +32571,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32597,7 +32597,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32623,7 +32623,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32649,7 +32649,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1137" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32675,7 +32675,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32701,7 +32701,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1139" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32727,7 +32727,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1140" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32753,7 +32753,7 @@
         <v>15</v>
       </c>
       <c r="G1141" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32779,7 +32779,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32805,7 +32805,7 @@
         <v>14.75</v>
       </c>
       <c r="G1143" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32831,7 +32831,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32857,7 +32857,7 @@
         <v>14.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32883,7 +32883,7 @@
         <v>14.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32909,7 +32909,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32935,7 +32935,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1148" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32961,7 +32961,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1149" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32987,7 +32987,7 @@
         <v>14</v>
       </c>
       <c r="G1150" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33013,7 +33013,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33039,7 +33039,7 @@
         <v>14.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33065,7 +33065,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33091,7 +33091,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1154" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33117,7 +33117,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33143,7 +33143,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33169,7 +33169,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33195,7 +33195,7 @@
         <v>15</v>
       </c>
       <c r="G1158" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33221,7 +33221,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33247,7 +33247,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1160" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33273,7 +33273,7 @@
         <v>14.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33299,7 +33299,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1162" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33325,7 +33325,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1163" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33351,7 +33351,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1164" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33377,7 +33377,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33403,7 +33403,7 @@
         <v>14.25</v>
       </c>
       <c r="G1166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33429,7 +33429,7 @@
         <v>14.5</v>
       </c>
       <c r="G1167" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33455,7 +33455,7 @@
         <v>14.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33481,7 +33481,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1169" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33507,7 +33507,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1170" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33533,7 +33533,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33559,7 +33559,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1172" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33585,7 +33585,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33611,7 +33611,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33637,7 +33637,7 @@
         <v>15.75</v>
       </c>
       <c r="G1175" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33663,7 +33663,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33689,7 +33689,7 @@
         <v>16</v>
       </c>
       <c r="G1177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33715,7 +33715,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33741,7 +33741,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1179" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33767,7 +33767,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33793,7 +33793,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1181" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33819,7 +33819,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33845,7 +33845,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33871,7 +33871,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33897,7 +33897,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33923,7 +33923,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33949,7 +33949,7 @@
         <v>16.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33975,7 +33975,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1188" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34001,7 +34001,7 @@
         <v>16.5</v>
       </c>
       <c r="G1189" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34027,7 +34027,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1190" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34053,7 +34053,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34079,7 +34079,7 @@
         <v>17</v>
       </c>
       <c r="G1192" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34105,7 +34105,7 @@
         <v>17</v>
       </c>
       <c r="G1193" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34131,7 +34131,7 @@
         <v>17</v>
       </c>
       <c r="G1194" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34157,7 +34157,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34183,7 +34183,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1196" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34209,7 +34209,7 @@
         <v>18</v>
       </c>
       <c r="G1197" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34235,7 +34235,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1198" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34261,7 +34261,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34287,7 +34287,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1200" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34313,7 +34313,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34339,7 +34339,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1202" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34365,7 +34365,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34391,7 +34391,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1204" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34417,7 +34417,7 @@
         <v>20</v>
       </c>
       <c r="G1205" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34443,7 +34443,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1206" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34469,7 +34469,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1207" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34495,7 +34495,7 @@
         <v>19.25</v>
       </c>
       <c r="G1208" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34521,7 +34521,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34547,7 +34547,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1210" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34573,7 +34573,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G1211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34599,7 +34599,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1212" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34625,7 +34625,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1213" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34651,7 +34651,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1214" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34677,7 +34677,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1215" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34703,7 +34703,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1216" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34729,7 +34729,7 @@
         <v>18.5</v>
       </c>
       <c r="G1217" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34755,7 +34755,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1218" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34781,7 +34781,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1219" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34807,7 +34807,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34833,7 +34833,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34859,7 +34859,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1222" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34885,7 +34885,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34911,7 +34911,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1224" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34937,7 +34937,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1225" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34963,7 +34963,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34989,7 +34989,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35015,7 +35015,7 @@
         <v>17.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35041,7 +35041,7 @@
         <v>18</v>
       </c>
       <c r="G1229" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35067,7 +35067,7 @@
         <v>18.5</v>
       </c>
       <c r="G1230" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35093,7 +35093,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G1231" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35119,7 +35119,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35145,7 +35145,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35171,7 +35171,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1234" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35197,7 +35197,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1235" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35223,7 +35223,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35249,7 +35249,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35275,7 +35275,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1238" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35301,7 +35301,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35327,7 +35327,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1240" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35353,7 +35353,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35379,7 +35379,7 @@
         <v>18.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35405,7 +35405,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1243" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35431,7 +35431,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G1244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35457,7 +35457,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35483,7 +35483,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35509,7 +35509,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35535,7 +35535,7 @@
         <v>17.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35561,7 +35561,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1249" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35587,7 +35587,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1250" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35613,7 +35613,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1251" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35639,7 +35639,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35665,7 +35665,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1253" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35691,7 +35691,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35717,7 +35717,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35743,7 +35743,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1256" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35769,7 +35769,7 @@
         <v>18</v>
       </c>
       <c r="G1257" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35795,7 +35795,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G1258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35821,7 +35821,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G1259" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35847,7 +35847,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1260" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35873,7 +35873,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1261" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35899,7 +35899,7 @@
         <v>19</v>
       </c>
       <c r="G1262" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35925,7 +35925,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35951,7 +35951,7 @@
         <v>19.5</v>
       </c>
       <c r="G1264" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35977,7 +35977,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1265" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36003,7 +36003,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1266" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36029,7 +36029,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36055,7 +36055,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1268" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36081,7 +36081,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1269" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36107,7 +36107,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1270" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36133,7 +36133,7 @@
         <v>21.5</v>
       </c>
       <c r="G1271" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36159,7 +36159,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36185,7 +36185,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36211,7 +36211,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1274" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36237,7 +36237,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1275" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36263,7 +36263,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1276" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36289,7 +36289,7 @@
         <v>22.5</v>
       </c>
       <c r="G1277" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36315,7 +36315,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36341,7 +36341,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36367,7 +36367,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1280" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36393,7 +36393,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36419,7 +36419,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1282" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36445,7 +36445,7 @@
         <v>23</v>
       </c>
       <c r="G1283" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36471,7 +36471,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36497,7 +36497,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1285" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36523,7 +36523,7 @@
         <v>23.5</v>
       </c>
       <c r="G1286" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36549,7 +36549,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36601,7 +36601,7 @@
         <v>23.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -51655,7 +51655,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51681,7 +51681,7 @@
         <v>23</v>
       </c>
       <c r="G1869" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51707,7 +51707,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1870" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51733,7 +51733,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1871" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51759,7 +51759,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1872" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51785,7 +51785,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1873" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51811,7 +51811,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1874" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51837,7 +51837,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51863,7 +51863,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1876" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51889,7 +51889,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51915,7 +51915,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51941,7 +51941,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1879" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51967,7 +51967,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1880" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51993,7 +51993,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1881" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52019,7 +52019,7 @@
         <v>23</v>
       </c>
       <c r="G1882" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52045,7 +52045,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1883" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52071,7 +52071,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1884" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52097,7 +52097,7 @@
         <v>22.75</v>
       </c>
       <c r="G1885" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52123,7 +52123,7 @@
         <v>23</v>
       </c>
       <c r="G1886" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52149,7 +52149,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1887" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52175,7 +52175,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52201,7 +52201,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1889" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52227,7 +52227,7 @@
         <v>22.5</v>
       </c>
       <c r="G1890" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52253,7 +52253,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52279,7 +52279,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52357,7 +52357,7 @@
         <v>22</v>
       </c>
       <c r="G1895" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52383,7 +52383,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1896" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52409,7 +52409,7 @@
         <v>22</v>
       </c>
       <c r="G1897" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52435,7 +52435,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1898" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52461,7 +52461,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52513,7 +52513,7 @@
         <v>21.75</v>
       </c>
       <c r="G1901" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52539,7 +52539,7 @@
         <v>21.75</v>
       </c>
       <c r="G1902" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52565,7 +52565,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1903" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52591,7 +52591,7 @@
         <v>21.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52617,7 +52617,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1905" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52643,7 +52643,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52669,7 +52669,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1907" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52695,7 +52695,7 @@
         <v>21.25</v>
       </c>
       <c r="G1908" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52721,7 +52721,7 @@
         <v>21.25</v>
       </c>
       <c r="G1909" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52747,7 +52747,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1910" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52773,7 +52773,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52799,7 +52799,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52825,7 +52825,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1913" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52851,7 +52851,7 @@
         <v>20.75</v>
       </c>
       <c r="G1914" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52877,7 +52877,7 @@
         <v>21</v>
       </c>
       <c r="G1915" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52903,7 +52903,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1916" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52929,7 +52929,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1917" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52955,7 +52955,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1918" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52981,7 +52981,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1919" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53007,7 +53007,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1920" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53033,7 +53033,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1921" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53059,7 +53059,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53085,7 +53085,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53111,7 +53111,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1924" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53137,7 +53137,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53163,7 +53163,7 @@
         <v>21.5</v>
       </c>
       <c r="G1926" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53189,7 +53189,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53215,7 +53215,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53241,7 +53241,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53267,7 +53267,7 @@
         <v>21.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53293,7 +53293,7 @@
         <v>20.75</v>
       </c>
       <c r="G1931" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53319,7 +53319,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1932" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53345,7 +53345,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1933" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53371,7 +53371,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1934" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53397,7 +53397,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1935" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53423,7 +53423,7 @@
         <v>20</v>
       </c>
       <c r="G1936" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53449,7 +53449,7 @@
         <v>20.25</v>
       </c>
       <c r="G1937" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53475,7 +53475,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1938" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53501,7 +53501,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53527,7 +53527,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1940" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53553,7 +53553,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53579,7 +53579,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53605,7 +53605,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1943" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53631,7 +53631,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53657,7 +53657,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1945" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53683,7 +53683,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G1946" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53709,7 +53709,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53735,7 +53735,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53761,7 +53761,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53787,7 +53787,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1950" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53813,7 +53813,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1951" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53839,7 +53839,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1952" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53865,7 +53865,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1953" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53891,7 +53891,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G1954" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53917,7 +53917,7 @@
         <v>19</v>
       </c>
       <c r="G1955" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53943,7 +53943,7 @@
         <v>19</v>
       </c>
       <c r="G1956" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53969,7 +53969,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53995,7 +53995,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1958" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54021,7 +54021,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1959" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54047,7 +54047,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1960" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54073,7 +54073,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54099,7 +54099,7 @@
         <v>18</v>
       </c>
       <c r="G1962" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54125,7 +54125,7 @@
         <v>18.5</v>
       </c>
       <c r="G1963" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54151,7 +54151,7 @@
         <v>19</v>
       </c>
       <c r="G1964" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54177,7 +54177,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1965" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54203,7 +54203,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54229,7 +54229,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1967" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54255,7 +54255,7 @@
         <v>19</v>
       </c>
       <c r="G1968" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54281,7 +54281,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1969" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54307,7 +54307,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G1970" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54333,7 +54333,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1971" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54359,7 +54359,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1972" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54385,7 +54385,7 @@
         <v>19</v>
       </c>
       <c r="G1973" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54411,7 +54411,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1974" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54437,7 +54437,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1975" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54463,7 +54463,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54489,7 +54489,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1977" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54515,7 +54515,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1978" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54541,7 +54541,7 @@
         <v>18.5</v>
       </c>
       <c r="G1979" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54567,7 +54567,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1980" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54593,7 +54593,7 @@
         <v>18</v>
       </c>
       <c r="G1981" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54619,7 +54619,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1982" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54645,7 +54645,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1983" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54671,7 +54671,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1984" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54697,7 +54697,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1985" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54723,7 +54723,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1986" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54749,7 +54749,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1987" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54775,7 +54775,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54801,7 +54801,7 @@
         <v>18.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54827,7 +54827,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54853,7 +54853,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G1991" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54879,7 +54879,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1992" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54905,7 +54905,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54931,7 +54931,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1994" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54957,7 +54957,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1995" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54983,7 +54983,7 @@
         <v>17.5</v>
       </c>
       <c r="G1996" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55009,7 +55009,7 @@
         <v>18</v>
       </c>
       <c r="G1997" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55035,7 +55035,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1998" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55061,7 +55061,7 @@
         <v>18</v>
       </c>
       <c r="G1999" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55087,7 +55087,7 @@
         <v>18</v>
       </c>
       <c r="G2000" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55113,7 +55113,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2001" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55139,7 +55139,7 @@
         <v>18</v>
       </c>
       <c r="G2002" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55165,7 +55165,7 @@
         <v>18</v>
       </c>
       <c r="G2003" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55191,7 +55191,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G2004" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55217,7 +55217,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2005" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55243,7 +55243,7 @@
         <v>17.5</v>
       </c>
       <c r="G2006" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55269,7 +55269,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G2007" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55295,7 +55295,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G2008" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55321,7 +55321,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2009" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55347,7 +55347,7 @@
         <v>17.5</v>
       </c>
       <c r="G2010" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55373,7 +55373,7 @@
         <v>17.5</v>
       </c>
       <c r="G2011" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55399,7 +55399,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2012" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55425,7 +55425,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2013" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55451,7 +55451,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G2014" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55477,7 +55477,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55503,7 +55503,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55529,7 +55529,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2017" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55555,7 +55555,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G2018" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55581,7 +55581,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G2019" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55607,7 +55607,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G2020" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55633,7 +55633,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G2021" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55659,7 +55659,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2022" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55685,7 +55685,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2023" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55711,7 +55711,7 @@
         <v>17.5</v>
       </c>
       <c r="G2024" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55737,7 +55737,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G2025" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55763,7 +55763,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2026" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55789,7 +55789,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G2027" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55815,7 +55815,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2028" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55841,7 +55841,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G2029" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55867,7 +55867,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2030" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55893,7 +55893,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2031" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55919,7 +55919,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G2032" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55945,7 +55945,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G2033" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55971,7 +55971,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55997,7 +55997,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56023,7 +56023,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G2036" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56049,7 +56049,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G2037" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56075,7 +56075,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2038" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56101,7 +56101,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2039" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56127,7 +56127,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2040" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56153,7 +56153,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56179,7 +56179,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G2042" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56205,7 +56205,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2043" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56231,7 +56231,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G2044" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56257,7 +56257,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2045" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56283,7 +56283,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2046" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56309,7 +56309,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G2047" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56335,7 +56335,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G2048" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56361,7 +56361,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G2049" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56387,7 +56387,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G2050" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56413,7 +56413,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2051" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56439,7 +56439,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G2052" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56465,7 +56465,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G2053" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56491,7 +56491,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2054" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56517,7 +56517,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G2055" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56543,7 +56543,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56569,7 +56569,7 @@
         <v>18</v>
       </c>
       <c r="G2057" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56595,7 +56595,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56621,7 +56621,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G2059" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56647,7 +56647,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2060" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56673,7 +56673,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G2061" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56699,7 +56699,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G2062" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56725,7 +56725,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G2063" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56751,7 +56751,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2064" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56777,7 +56777,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G2065" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56803,7 +56803,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G2066" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56829,7 +56829,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G2067" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56855,7 +56855,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2068" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56881,7 +56881,7 @@
         <v>17.5</v>
       </c>
       <c r="G2069" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56907,7 +56907,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G2070" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56933,7 +56933,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2071" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56959,7 +56959,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G2072" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56985,7 +56985,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57011,7 +57011,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57037,7 +57037,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2075" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57063,7 +57063,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57089,7 +57089,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57115,7 +57115,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G2078" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57141,7 +57141,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G2079" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57167,7 +57167,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2080" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57193,7 +57193,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G2081" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57219,7 +57219,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G2082" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57245,7 +57245,7 @@
         <v>17.5</v>
       </c>
       <c r="G2083" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57271,7 +57271,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G2084" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57297,7 +57297,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G2085" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57323,7 +57323,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57349,7 +57349,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57375,7 +57375,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57401,7 +57401,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2089" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57427,7 +57427,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G2090" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57453,7 +57453,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G2091" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57479,7 +57479,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G2092" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57505,7 +57505,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G2093" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57531,7 +57531,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G2094" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57557,7 +57557,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2095" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57583,7 +57583,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57609,7 +57609,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57635,7 +57635,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G2098" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57661,7 +57661,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G2099" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57687,7 +57687,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2100" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57713,7 +57713,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2101" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57739,7 +57739,7 @@
         <v>19</v>
       </c>
       <c r="G2102" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57765,7 +57765,7 @@
         <v>19</v>
       </c>
       <c r="G2103" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57791,7 +57791,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57817,7 +57817,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G2105" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57843,7 +57843,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2106" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57869,7 +57869,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57895,7 +57895,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G2108" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57921,7 +57921,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G2109" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57947,7 +57947,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G2110" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57973,7 +57973,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57999,7 +57999,7 @@
         <v>18.75</v>
       </c>
       <c r="G2112" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58025,7 +58025,7 @@
         <v>19</v>
       </c>
       <c r="G2113" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58051,7 +58051,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G2114" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58077,7 +58077,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58103,7 +58103,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58129,7 +58129,7 @@
         <v>19</v>
       </c>
       <c r="G2117" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58155,7 +58155,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2118" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58181,7 +58181,7 @@
         <v>19.5</v>
       </c>
       <c r="G2119" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58207,7 +58207,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2120" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58233,7 +58233,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G2121" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58259,7 +58259,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G2122" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58285,7 +58285,7 @@
         <v>19.25</v>
       </c>
       <c r="G2123" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58311,7 +58311,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2124" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58337,7 +58337,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58363,7 +58363,7 @@
         <v>19.5</v>
       </c>
       <c r="G2126" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58389,7 +58389,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G2127" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58415,7 +58415,7 @@
         <v>20</v>
       </c>
       <c r="G2128" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58441,7 +58441,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2129" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58467,7 +58467,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G2130" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58493,7 +58493,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G2131" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58519,7 +58519,7 @@
         <v>21</v>
       </c>
       <c r="G2132" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58545,7 +58545,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2133" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58571,7 +58571,7 @@
         <v>22</v>
       </c>
       <c r="G2134" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58597,7 +58597,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58623,7 +58623,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58649,7 +58649,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2137" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58675,7 +58675,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2138" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58701,7 +58701,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G2139" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58727,7 +58727,7 @@
         <v>21.5</v>
       </c>
       <c r="G2140" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58753,7 +58753,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58779,7 +58779,7 @@
         <v>21.5</v>
       </c>
       <c r="G2142" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58805,7 +58805,7 @@
         <v>22</v>
       </c>
       <c r="G2143" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58831,7 +58831,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58857,7 +58857,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58883,7 +58883,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2146" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58909,7 +58909,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58935,7 +58935,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2148" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58961,7 +58961,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58987,7 +58987,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2150" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59013,7 +59013,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59039,7 +59039,7 @@
         <v>21</v>
       </c>
       <c r="G2152" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59065,7 +59065,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G2153" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59091,7 +59091,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G2154" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59117,7 +59117,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G2155" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59143,7 +59143,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59169,7 +59169,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59195,7 +59195,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2158" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59221,7 +59221,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G2159" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59247,7 +59247,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2160" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59273,7 +59273,7 @@
         <v>21.5</v>
       </c>
       <c r="G2161" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59299,7 +59299,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2162" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59325,7 +59325,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59351,7 +59351,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2164" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59377,7 +59377,7 @@
         <v>21.5</v>
       </c>
       <c r="G2165" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59403,7 +59403,7 @@
         <v>22</v>
       </c>
       <c r="G2166" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59429,7 +59429,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2167" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59455,7 +59455,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2168" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -59481,7 +59481,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G2169" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -59507,7 +59507,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G2170" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -59533,7 +59533,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2171" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -59559,7 +59559,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -59585,7 +59585,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2173" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59611,7 +59611,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2174" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59637,7 +59637,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2175" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -59663,7 +59663,7 @@
         <v>22</v>
       </c>
       <c r="G2176" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -59689,7 +59689,7 @@
         <v>22</v>
       </c>
       <c r="G2177" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -59715,7 +59715,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G2178" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -59741,7 +59741,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G2179" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -59767,7 +59767,7 @@
         <v>22</v>
       </c>
       <c r="G2180" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -59793,7 +59793,7 @@
         <